--- a/Gantt_Chart_v1.014.xlsx
+++ b/Gantt_Chart_v1.014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39EBAA-7139-4F58-85DF-FC33129414E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC4096-451B-4237-A292-0044D9285671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="483">
   <si>
     <t>4팀 Gantt Chart 양식</t>
   </si>
@@ -1857,35 +1857,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정하경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최시온</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-11-30</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -1926,6 +1897,22 @@
   </si>
   <si>
     <t>2020-11-27</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>정하경</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>정하경</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>최시온</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-30</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -2780,7 +2767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3462,60 +3449,47 @@
     <xf numFmtId="0" fontId="33" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3536,64 +3510,83 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3601,23 +3594,29 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3864,14 +3863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3900,23 +3899,23 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="A2" s="269"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="255" t="s">
+      <c r="L2" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="257"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="275"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="6"/>
@@ -3928,12 +3927,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
+      <c r="A3" s="269"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3954,67 +3953,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="270" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="270" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="241" t="s">
+      <c r="L4" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="241" t="s">
+      <c r="M4" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="241" t="s">
+      <c r="N4" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="241" t="s">
+      <c r="Q4" s="270" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="239" t="s">
+      <c r="S4" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="241" t="s">
+      <c r="T4" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="239" t="s">
+      <c r="U4" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="241" t="s">
+      <c r="V4" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="241" t="s">
+      <c r="W4" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="239" t="s">
+      <c r="X4" s="266" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="240"/>
+      <c r="A5" s="267"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>23</v>
@@ -4029,30 +4028,30 @@
         <v>26</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="240"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="240"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="240"/>
-      <c r="T5" s="240"/>
-      <c r="U5" s="240"/>
-      <c r="V5" s="240"/>
-      <c r="W5" s="240"/>
-      <c r="X5" s="240"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="267"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="271" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="251"/>
@@ -4097,19 +4096,19 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="253" t="s">
+      <c r="D7" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="254" t="s">
+      <c r="E7" s="272" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="243"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -4137,8 +4136,8 @@
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
       <c r="F8" s="27" t="s">
         <v>36</v>
       </c>
@@ -4183,8 +4182,8 @@
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
       <c r="F9" s="28" t="s">
         <v>39</v>
       </c>
@@ -4231,8 +4230,8 @@
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
       <c r="F10" s="28" t="s">
         <v>41</v>
       </c>
@@ -4277,8 +4276,8 @@
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="247"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="246"/>
       <c r="F11" s="28" t="s">
         <v>43</v>
       </c>
@@ -4325,17 +4324,17 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="254" t="s">
+      <c r="D12" s="245"/>
+      <c r="E12" s="272" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="243"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -4363,8 +4362,8 @@
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
       <c r="F13" s="28" t="s">
         <v>46</v>
       </c>
@@ -4411,8 +4410,8 @@
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="245"/>
       <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
@@ -4457,8 +4456,8 @@
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="28" t="s">
         <v>52</v>
       </c>
@@ -4503,8 +4502,8 @@
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
       <c r="F16" s="28" t="s">
         <v>54</v>
       </c>
@@ -4549,8 +4548,8 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
       <c r="F17" s="28" t="s">
         <v>55</v>
       </c>
@@ -4595,8 +4594,8 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="246"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
       <c r="F18" s="28" t="s">
         <v>56</v>
       </c>
@@ -4641,8 +4640,8 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="28" t="s">
         <v>59</v>
       </c>
@@ -4687,8 +4686,8 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
       <c r="F20" s="28" t="s">
         <v>60</v>
       </c>
@@ -4733,8 +4732,8 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="246"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="245"/>
       <c r="F21" s="28" t="s">
         <v>61</v>
       </c>
@@ -4779,8 +4778,8 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="246"/>
+      <c r="D22" s="245"/>
+      <c r="E22" s="245"/>
       <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
@@ -4825,8 +4824,8 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="247"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="246"/>
       <c r="F23" s="28" t="s">
         <v>65</v>
       </c>
@@ -4873,17 +4872,17 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="254" t="s">
+      <c r="D24" s="245"/>
+      <c r="E24" s="272" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="243"/>
-      <c r="J24" s="244"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="243"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4909,8 +4908,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="246"/>
+      <c r="D25" s="245"/>
+      <c r="E25" s="245"/>
       <c r="F25" s="28" t="s">
         <v>67</v>
       </c>
@@ -4955,8 +4954,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="246"/>
+      <c r="D26" s="245"/>
+      <c r="E26" s="245"/>
       <c r="F26" s="28" t="s">
         <v>69</v>
       </c>
@@ -5001,8 +5000,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="246"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
       <c r="F27" s="28" t="s">
         <v>70</v>
       </c>
@@ -5047,8 +5046,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="246"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="245"/>
       <c r="F28" s="28" t="s">
         <v>71</v>
       </c>
@@ -5093,8 +5092,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="247"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="246"/>
       <c r="F29" s="28" t="s">
         <v>72</v>
       </c>
@@ -5141,17 +5140,17 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="253" t="s">
+      <c r="D30" s="245"/>
+      <c r="E30" s="244" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="244"/>
+      <c r="H30" s="264"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="243"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
@@ -5179,8 +5178,8 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="28" t="s">
         <v>75</v>
       </c>
@@ -5213,8 +5212,8 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="246"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="28" t="s">
         <v>76</v>
       </c>
@@ -5253,8 +5252,8 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="246"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="28" t="s">
         <v>78</v>
       </c>
@@ -5293,8 +5292,8 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="246"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="28" t="s">
         <v>79</v>
       </c>
@@ -5333,8 +5332,8 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="246"/>
-      <c r="E35" s="246"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="28" t="s">
         <v>80</v>
       </c>
@@ -5373,8 +5372,8 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="246"/>
-      <c r="E36" s="246"/>
+      <c r="D36" s="245"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="28" t="s">
         <v>81</v>
       </c>
@@ -5413,8 +5412,8 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="247"/>
-      <c r="E37" s="247"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="28" t="s">
         <v>82</v>
       </c>
@@ -5453,19 +5452,19 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="245" t="s">
+      <c r="D38" s="253" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="245" t="s">
+      <c r="E38" s="253" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="243"/>
-      <c r="J38" s="244"/>
+      <c r="H38" s="241"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="243"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -5493,8 +5492,8 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="246"/>
+      <c r="D39" s="245"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="28" t="s">
         <v>85</v>
       </c>
@@ -5539,8 +5538,8 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="28" t="s">
         <v>86</v>
       </c>
@@ -5585,8 +5584,8 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="246"/>
-      <c r="E41" s="246"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="28" t="s">
         <v>87</v>
       </c>
@@ -5631,8 +5630,8 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="247"/>
-      <c r="E42" s="247"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="246"/>
       <c r="F42" s="28" t="s">
         <v>88</v>
       </c>
@@ -5677,10 +5676,10 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="259" t="s">
+      <c r="D43" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="260" t="s">
+      <c r="E43" s="255" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="28" t="s">
@@ -5724,8 +5723,8 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="246"/>
       <c r="F44" s="28" t="s">
         <v>92</v>
       </c>
@@ -5764,8 +5763,8 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="260" t="s">
+      <c r="D45" s="245"/>
+      <c r="E45" s="255" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="28" t="s">
@@ -5806,8 +5805,8 @@
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="28" t="s">
         <v>95</v>
       </c>
@@ -5846,8 +5845,8 @@
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="247"/>
-      <c r="E47" s="247"/>
+      <c r="D47" s="246"/>
+      <c r="E47" s="246"/>
       <c r="F47" s="28" t="s">
         <v>96</v>
       </c>
@@ -5886,10 +5885,10 @@
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="245" t="s">
+      <c r="D48" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="245" t="s">
+      <c r="E48" s="253" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="28" t="s">
@@ -5936,8 +5935,8 @@
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="247"/>
-      <c r="E49" s="247"/>
+      <c r="D49" s="246"/>
+      <c r="E49" s="246"/>
       <c r="F49" s="28" t="s">
         <v>100</v>
       </c>
@@ -5982,19 +5981,19 @@
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="245" t="s">
+      <c r="D50" s="253" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="245" t="s">
+      <c r="E50" s="253" t="s">
         <v>102</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="23"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="243"/>
-      <c r="J50" s="244"/>
+      <c r="H50" s="241"/>
+      <c r="I50" s="242"/>
+      <c r="J50" s="243"/>
       <c r="K50" s="22"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -6022,8 +6021,8 @@
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="246"/>
-      <c r="E51" s="246"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="28" t="s">
         <v>103</v>
       </c>
@@ -6068,8 +6067,8 @@
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="247"/>
+      <c r="D52" s="246"/>
+      <c r="E52" s="246"/>
       <c r="F52" s="28" t="s">
         <v>105</v>
       </c>
@@ -6158,19 +6157,19 @@
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="245" t="s">
+      <c r="D54" s="253" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="245" t="s">
+      <c r="E54" s="253" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="23"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="244"/>
+      <c r="H54" s="241"/>
+      <c r="I54" s="242"/>
+      <c r="J54" s="243"/>
       <c r="K54" s="42"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -6198,8 +6197,8 @@
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="246"/>
-      <c r="E55" s="246"/>
+      <c r="D55" s="245"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="28" t="s">
         <v>110</v>
       </c>
@@ -6244,8 +6243,8 @@
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="246"/>
-      <c r="E56" s="246"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="28" t="s">
         <v>111</v>
       </c>
@@ -6278,8 +6277,8 @@
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="246"/>
-      <c r="E57" s="246"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="28" t="s">
         <v>112</v>
       </c>
@@ -6318,8 +6317,8 @@
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
+      <c r="D58" s="245"/>
+      <c r="E58" s="245"/>
       <c r="F58" s="28" t="s">
         <v>113</v>
       </c>
@@ -6358,8 +6357,8 @@
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="246"/>
-      <c r="E59" s="246"/>
+      <c r="D59" s="245"/>
+      <c r="E59" s="245"/>
       <c r="F59" s="28" t="s">
         <v>114</v>
       </c>
@@ -6398,8 +6397,8 @@
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="246"/>
-      <c r="E60" s="246"/>
+      <c r="D60" s="245"/>
+      <c r="E60" s="245"/>
       <c r="F60" s="28" t="s">
         <v>115</v>
       </c>
@@ -6438,8 +6437,8 @@
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="246"/>
-      <c r="E61" s="246"/>
+      <c r="D61" s="245"/>
+      <c r="E61" s="245"/>
       <c r="F61" s="28" t="s">
         <v>116</v>
       </c>
@@ -6478,8 +6477,8 @@
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
+      <c r="D62" s="245"/>
+      <c r="E62" s="245"/>
       <c r="F62" s="28" t="s">
         <v>117</v>
       </c>
@@ -6512,8 +6511,8 @@
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
+      <c r="D63" s="245"/>
+      <c r="E63" s="245"/>
       <c r="F63" s="28" t="s">
         <v>118</v>
       </c>
@@ -6552,8 +6551,8 @@
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="246"/>
-      <c r="E64" s="246"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
       <c r="F64" s="28" t="s">
         <v>119</v>
       </c>
@@ -6592,8 +6591,8 @@
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="246"/>
-      <c r="E65" s="246"/>
+      <c r="D65" s="245"/>
+      <c r="E65" s="245"/>
       <c r="F65" s="28" t="s">
         <v>120</v>
       </c>
@@ -6632,8 +6631,8 @@
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="246"/>
-      <c r="E66" s="246"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
       <c r="F66" s="28" t="s">
         <v>121</v>
       </c>
@@ -6672,8 +6671,8 @@
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="247"/>
+      <c r="D67" s="245"/>
+      <c r="E67" s="246"/>
       <c r="F67" s="28" t="s">
         <v>122</v>
       </c>
@@ -6712,17 +6711,17 @@
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="246"/>
-      <c r="E68" s="245" t="s">
+      <c r="D68" s="245"/>
+      <c r="E68" s="253" t="s">
         <v>123</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="242"/>
-      <c r="I68" s="243"/>
-      <c r="J68" s="244"/>
+      <c r="H68" s="241"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="243"/>
       <c r="K68" s="42"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -6750,8 +6749,8 @@
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="246"/>
-      <c r="E69" s="246"/>
+      <c r="D69" s="245"/>
+      <c r="E69" s="245"/>
       <c r="F69" s="28" t="s">
         <v>124</v>
       </c>
@@ -6796,8 +6795,8 @@
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="247"/>
-      <c r="E70" s="247"/>
+      <c r="D70" s="246"/>
+      <c r="E70" s="246"/>
       <c r="F70" s="28" t="s">
         <v>125</v>
       </c>
@@ -6842,19 +6841,19 @@
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="245" t="s">
+      <c r="D71" s="253" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="245" t="s">
+      <c r="E71" s="253" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G71" s="23"/>
-      <c r="H71" s="242"/>
-      <c r="I71" s="243"/>
-      <c r="J71" s="244"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="243"/>
       <c r="K71" s="42"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -6882,8 +6881,8 @@
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="246"/>
-      <c r="E72" s="246"/>
+      <c r="D72" s="245"/>
+      <c r="E72" s="245"/>
       <c r="F72" s="28" t="s">
         <v>110</v>
       </c>
@@ -6928,8 +6927,8 @@
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="246"/>
-      <c r="E73" s="246"/>
+      <c r="D73" s="245"/>
+      <c r="E73" s="245"/>
       <c r="F73" s="28" t="s">
         <v>130</v>
       </c>
@@ -6968,8 +6967,8 @@
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="246"/>
-      <c r="E74" s="246"/>
+      <c r="D74" s="245"/>
+      <c r="E74" s="245"/>
       <c r="F74" s="28" t="s">
         <v>131</v>
       </c>
@@ -7008,7 +7007,7 @@
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="267"/>
+      <c r="D75" s="262"/>
       <c r="E75" s="45"/>
       <c r="F75" s="28" t="s">
         <v>132</v>
@@ -7054,8 +7053,8 @@
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="246"/>
-      <c r="E76" s="260" t="s">
+      <c r="D76" s="245"/>
+      <c r="E76" s="255" t="s">
         <v>133</v>
       </c>
       <c r="F76" s="28" t="s">
@@ -7099,8 +7098,8 @@
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="246"/>
+      <c r="D77" s="245"/>
+      <c r="E77" s="245"/>
       <c r="F77" s="28" t="s">
         <v>135</v>
       </c>
@@ -7139,8 +7138,8 @@
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="247"/>
-      <c r="E78" s="247"/>
+      <c r="D78" s="246"/>
+      <c r="E78" s="246"/>
       <c r="F78" s="28" t="s">
         <v>136</v>
       </c>
@@ -7268,20 +7267,20 @@
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="261" t="s">
+      <c r="D81" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="262"/>
-      <c r="F81" s="262"/>
-      <c r="G81" s="262"/>
-      <c r="H81" s="262"/>
-      <c r="I81" s="262"/>
-      <c r="J81" s="262"/>
-      <c r="K81" s="262"/>
-      <c r="L81" s="262"/>
-      <c r="M81" s="262"/>
-      <c r="N81" s="262"/>
-      <c r="O81" s="263"/>
+      <c r="E81" s="257"/>
+      <c r="F81" s="257"/>
+      <c r="G81" s="257"/>
+      <c r="H81" s="257"/>
+      <c r="I81" s="257"/>
+      <c r="J81" s="257"/>
+      <c r="K81" s="257"/>
+      <c r="L81" s="257"/>
+      <c r="M81" s="257"/>
+      <c r="N81" s="257"/>
+      <c r="O81" s="258"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
       <c r="R81" s="16"/>
@@ -7342,19 +7341,19 @@
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="267" t="s">
+      <c r="D83" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="268" t="s">
+      <c r="E83" s="263" t="s">
         <v>66</v>
       </c>
       <c r="F83" s="63" t="s">
         <v>34</v>
       </c>
       <c r="G83" s="64"/>
-      <c r="H83" s="264"/>
-      <c r="I83" s="265"/>
-      <c r="J83" s="266"/>
+      <c r="H83" s="259"/>
+      <c r="I83" s="260"/>
+      <c r="J83" s="261"/>
       <c r="K83" s="65"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
@@ -7382,8 +7381,8 @@
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="246"/>
-      <c r="E84" s="246"/>
+      <c r="D84" s="245"/>
+      <c r="E84" s="245"/>
       <c r="F84" s="28" t="s">
         <v>143</v>
       </c>
@@ -7428,8 +7427,8 @@
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
+      <c r="D85" s="245"/>
+      <c r="E85" s="245"/>
       <c r="F85" s="28" t="s">
         <v>130</v>
       </c>
@@ -7468,8 +7467,8 @@
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-      <c r="D86" s="246"/>
-      <c r="E86" s="247"/>
+      <c r="D86" s="245"/>
+      <c r="E86" s="246"/>
       <c r="F86" s="28" t="s">
         <v>131</v>
       </c>
@@ -7508,17 +7507,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="246"/>
-      <c r="E87" s="253" t="s">
+      <c r="D87" s="245"/>
+      <c r="E87" s="244" t="s">
         <v>144</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G87" s="22"/>
-      <c r="H87" s="258"/>
-      <c r="I87" s="243"/>
-      <c r="J87" s="244"/>
+      <c r="H87" s="264"/>
+      <c r="I87" s="242"/>
+      <c r="J87" s="243"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
@@ -7546,8 +7545,8 @@
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="246"/>
-      <c r="E88" s="246"/>
+      <c r="D88" s="245"/>
+      <c r="E88" s="245"/>
       <c r="F88" s="67" t="s">
         <v>145</v>
       </c>
@@ -7574,8 +7573,8 @@
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="246"/>
-      <c r="E89" s="246"/>
+      <c r="D89" s="245"/>
+      <c r="E89" s="245"/>
       <c r="F89" s="28" t="s">
         <v>79</v>
       </c>
@@ -7614,8 +7613,8 @@
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="246"/>
-      <c r="E90" s="246"/>
+      <c r="D90" s="245"/>
+      <c r="E90" s="245"/>
       <c r="F90" s="28" t="s">
         <v>80</v>
       </c>
@@ -7654,8 +7653,8 @@
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="246"/>
-      <c r="E91" s="247"/>
+      <c r="D91" s="245"/>
+      <c r="E91" s="246"/>
       <c r="F91" s="28" t="s">
         <v>81</v>
       </c>
@@ -7694,7 +7693,7 @@
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="246"/>
+      <c r="D92" s="245"/>
       <c r="E92" s="74" t="s">
         <v>89</v>
       </c>
@@ -7736,7 +7735,7 @@
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="246"/>
+      <c r="D93" s="245"/>
       <c r="E93" s="74" t="s">
         <v>147</v>
       </c>
@@ -7778,17 +7777,17 @@
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="246"/>
-      <c r="E94" s="245" t="s">
+      <c r="D94" s="245"/>
+      <c r="E94" s="253" t="s">
         <v>102</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="242"/>
-      <c r="I94" s="243"/>
-      <c r="J94" s="244"/>
+      <c r="H94" s="241"/>
+      <c r="I94" s="242"/>
+      <c r="J94" s="243"/>
       <c r="K94" s="22"/>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7816,8 +7815,8 @@
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="246"/>
-      <c r="E95" s="246"/>
+      <c r="D95" s="245"/>
+      <c r="E95" s="245"/>
       <c r="F95" s="49" t="s">
         <v>150</v>
       </c>
@@ -7856,8 +7855,8 @@
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
-      <c r="D96" s="246"/>
-      <c r="E96" s="246"/>
+      <c r="D96" s="245"/>
+      <c r="E96" s="245"/>
       <c r="F96" s="28" t="s">
         <v>151</v>
       </c>
@@ -7896,8 +7895,8 @@
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
-      <c r="D97" s="246"/>
-      <c r="E97" s="246"/>
+      <c r="D97" s="245"/>
+      <c r="E97" s="245"/>
       <c r="F97" s="28" t="s">
         <v>152</v>
       </c>
@@ -7936,8 +7935,8 @@
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
-      <c r="D98" s="246"/>
-      <c r="E98" s="247"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="246"/>
       <c r="F98" s="28" t="s">
         <v>153</v>
       </c>
@@ -7976,8 +7975,8 @@
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
-      <c r="D99" s="246"/>
-      <c r="E99" s="245" t="s">
+      <c r="D99" s="245"/>
+      <c r="E99" s="253" t="s">
         <v>154</v>
       </c>
       <c r="F99" s="21" t="s">
@@ -8014,8 +8013,8 @@
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
-      <c r="D100" s="246"/>
-      <c r="E100" s="246"/>
+      <c r="D100" s="245"/>
+      <c r="E100" s="245"/>
       <c r="F100" s="49" t="s">
         <v>110</v>
       </c>
@@ -8048,8 +8047,8 @@
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
-      <c r="D101" s="246"/>
-      <c r="E101" s="246"/>
+      <c r="D101" s="245"/>
+      <c r="E101" s="245"/>
       <c r="F101" s="49" t="s">
         <v>155</v>
       </c>
@@ -8082,8 +8081,8 @@
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
-      <c r="D102" s="246"/>
-      <c r="E102" s="246"/>
+      <c r="D102" s="245"/>
+      <c r="E102" s="245"/>
       <c r="F102" s="28" t="s">
         <v>156</v>
       </c>
@@ -8128,8 +8127,8 @@
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
-      <c r="D103" s="246"/>
-      <c r="E103" s="246"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="245"/>
       <c r="F103" s="28" t="s">
         <v>157</v>
       </c>
@@ -8168,8 +8167,8 @@
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
-      <c r="D104" s="246"/>
-      <c r="E104" s="246"/>
+      <c r="D104" s="245"/>
+      <c r="E104" s="245"/>
       <c r="F104" s="28" t="s">
         <v>158</v>
       </c>
@@ -8208,8 +8207,8 @@
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="246"/>
-      <c r="E105" s="246"/>
+      <c r="D105" s="245"/>
+      <c r="E105" s="245"/>
       <c r="F105" s="28" t="s">
         <v>159</v>
       </c>
@@ -8248,8 +8247,8 @@
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="246"/>
-      <c r="E106" s="246"/>
+      <c r="D106" s="245"/>
+      <c r="E106" s="245"/>
       <c r="F106" s="28" t="s">
         <v>115</v>
       </c>
@@ -8288,8 +8287,8 @@
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
+      <c r="D107" s="245"/>
+      <c r="E107" s="245"/>
       <c r="F107" s="28" t="s">
         <v>116</v>
       </c>
@@ -8328,8 +8327,8 @@
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="246"/>
-      <c r="E108" s="246"/>
+      <c r="D108" s="245"/>
+      <c r="E108" s="245"/>
       <c r="F108" s="28" t="s">
         <v>114</v>
       </c>
@@ -8368,8 +8367,8 @@
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="246"/>
-      <c r="E109" s="246"/>
+      <c r="D109" s="245"/>
+      <c r="E109" s="245"/>
       <c r="F109" s="28" t="s">
         <v>160</v>
       </c>
@@ -8408,17 +8407,17 @@
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="246"/>
-      <c r="E110" s="245" t="s">
+      <c r="D110" s="245"/>
+      <c r="E110" s="253" t="s">
         <v>126</v>
       </c>
       <c r="F110" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G110" s="23"/>
-      <c r="H110" s="242"/>
-      <c r="I110" s="243"/>
-      <c r="J110" s="244"/>
+      <c r="H110" s="241"/>
+      <c r="I110" s="242"/>
+      <c r="J110" s="243"/>
       <c r="K110" s="42"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -8446,8 +8445,8 @@
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
-      <c r="D111" s="246"/>
-      <c r="E111" s="246"/>
+      <c r="D111" s="245"/>
+      <c r="E111" s="245"/>
       <c r="F111" s="28" t="s">
         <v>110</v>
       </c>
@@ -8480,8 +8479,8 @@
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="246"/>
-      <c r="E112" s="246"/>
+      <c r="D112" s="245"/>
+      <c r="E112" s="245"/>
       <c r="F112" s="28" t="s">
         <v>130</v>
       </c>
@@ -8520,8 +8519,8 @@
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
-      <c r="D113" s="247"/>
-      <c r="E113" s="246"/>
+      <c r="D113" s="246"/>
+      <c r="E113" s="245"/>
       <c r="F113" s="28" t="s">
         <v>131</v>
       </c>
@@ -8560,19 +8559,19 @@
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="245" t="s">
+      <c r="D114" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="E114" s="245" t="s">
+      <c r="E114" s="253" t="s">
         <v>161</v>
       </c>
       <c r="F114" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G114" s="23"/>
-      <c r="H114" s="242"/>
-      <c r="I114" s="243"/>
-      <c r="J114" s="244"/>
+      <c r="H114" s="241"/>
+      <c r="I114" s="242"/>
+      <c r="J114" s="243"/>
       <c r="K114" s="42"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
@@ -8600,8 +8599,8 @@
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
-      <c r="D115" s="246"/>
-      <c r="E115" s="246"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="245"/>
       <c r="F115" s="28" t="s">
         <v>162</v>
       </c>
@@ -8646,8 +8645,8 @@
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="246"/>
-      <c r="E116" s="247"/>
+      <c r="D116" s="245"/>
+      <c r="E116" s="246"/>
       <c r="F116" s="28" t="s">
         <v>164</v>
       </c>
@@ -8692,17 +8691,17 @@
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
-      <c r="D117" s="246"/>
-      <c r="E117" s="273" t="s">
+      <c r="D117" s="245"/>
+      <c r="E117" s="254" t="s">
         <v>165</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>166</v>
       </c>
       <c r="G117" s="19"/>
-      <c r="H117" s="242"/>
-      <c r="I117" s="243"/>
-      <c r="J117" s="244"/>
+      <c r="H117" s="241"/>
+      <c r="I117" s="242"/>
+      <c r="J117" s="243"/>
       <c r="K117" s="42"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
@@ -8730,8 +8729,8 @@
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
-      <c r="D118" s="246"/>
-      <c r="E118" s="246"/>
+      <c r="D118" s="245"/>
+      <c r="E118" s="245"/>
       <c r="F118" s="28" t="s">
         <v>167</v>
       </c>
@@ -8776,8 +8775,8 @@
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="246"/>
-      <c r="E119" s="247"/>
+      <c r="D119" s="245"/>
+      <c r="E119" s="246"/>
       <c r="F119" s="28" t="s">
         <v>168</v>
       </c>
@@ -8822,17 +8821,17 @@
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
-      <c r="D120" s="246"/>
-      <c r="E120" s="273" t="s">
+      <c r="D120" s="245"/>
+      <c r="E120" s="254" t="s">
         <v>169</v>
       </c>
       <c r="F120" s="78" t="s">
         <v>34</v>
       </c>
       <c r="G120" s="79"/>
-      <c r="H120" s="242"/>
-      <c r="I120" s="243"/>
-      <c r="J120" s="244"/>
+      <c r="H120" s="241"/>
+      <c r="I120" s="242"/>
+      <c r="J120" s="243"/>
       <c r="K120" s="80"/>
       <c r="L120" s="81"/>
       <c r="M120" s="81"/>
@@ -8860,8 +8859,8 @@
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
-      <c r="D121" s="246"/>
-      <c r="E121" s="246"/>
+      <c r="D121" s="245"/>
+      <c r="E121" s="245"/>
       <c r="F121" s="49" t="s">
         <v>170</v>
       </c>
@@ -8906,8 +8905,8 @@
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
-      <c r="D122" s="246"/>
-      <c r="E122" s="246"/>
+      <c r="D122" s="245"/>
+      <c r="E122" s="245"/>
       <c r="F122" s="49" t="s">
         <v>171</v>
       </c>
@@ -8952,8 +8951,8 @@
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
-      <c r="D123" s="246"/>
-      <c r="E123" s="246"/>
+      <c r="D123" s="245"/>
+      <c r="E123" s="245"/>
       <c r="F123" s="49" t="s">
         <v>172</v>
       </c>
@@ -8998,8 +8997,8 @@
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
-      <c r="D124" s="246"/>
-      <c r="E124" s="246"/>
+      <c r="D124" s="245"/>
+      <c r="E124" s="245"/>
       <c r="F124" s="49" t="s">
         <v>173</v>
       </c>
@@ -9044,8 +9043,8 @@
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
-      <c r="D125" s="246"/>
-      <c r="E125" s="246"/>
+      <c r="D125" s="245"/>
+      <c r="E125" s="245"/>
       <c r="F125" s="49" t="s">
         <v>174</v>
       </c>
@@ -9090,8 +9089,8 @@
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
-      <c r="D126" s="246"/>
-      <c r="E126" s="246"/>
+      <c r="D126" s="245"/>
+      <c r="E126" s="245"/>
       <c r="F126" s="49" t="s">
         <v>175</v>
       </c>
@@ -9136,8 +9135,8 @@
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="246"/>
-      <c r="E127" s="246"/>
+      <c r="D127" s="245"/>
+      <c r="E127" s="245"/>
       <c r="F127" s="49" t="s">
         <v>176</v>
       </c>
@@ -9182,8 +9181,8 @@
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="247"/>
+      <c r="D128" s="245"/>
+      <c r="E128" s="246"/>
       <c r="F128" s="49" t="s">
         <v>177</v>
       </c>
@@ -9228,20 +9227,20 @@
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
-      <c r="D129" s="269" t="s">
+      <c r="D129" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="E129" s="270"/>
-      <c r="F129" s="270"/>
-      <c r="G129" s="270"/>
-      <c r="H129" s="270"/>
-      <c r="I129" s="270"/>
-      <c r="J129" s="270"/>
-      <c r="K129" s="270"/>
-      <c r="L129" s="270"/>
-      <c r="M129" s="270"/>
-      <c r="N129" s="270"/>
-      <c r="O129" s="271"/>
+      <c r="E129" s="248"/>
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="248"/>
+      <c r="I129" s="248"/>
+      <c r="J129" s="248"/>
+      <c r="K129" s="248"/>
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248"/>
+      <c r="O129" s="249"/>
       <c r="P129" s="82"/>
       <c r="Q129" s="82"/>
       <c r="R129" s="16"/>
@@ -9262,7 +9261,7 @@
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
-      <c r="D130" s="272"/>
+      <c r="D130" s="250"/>
       <c r="E130" s="251"/>
       <c r="F130" s="251"/>
       <c r="G130" s="251"/>
@@ -16940,45 +16939,20 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D129:O130"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E120:E128"/>
-    <mergeCell ref="D54:D70"/>
-    <mergeCell ref="E54:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="D81:O81"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D83:D113"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="E99:E109"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="X4:X5"/>
@@ -16995,20 +16969,45 @@
     <mergeCell ref="E24:E29"/>
     <mergeCell ref="E30:E37"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D81:O81"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D83:D113"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E99:E109"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="D54:D70"/>
+    <mergeCell ref="E54:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D129:O130"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E120:E128"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17023,9 +17022,9 @@
   </sheetPr>
   <dimension ref="A1:X397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17048,14 +17047,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
       <c r="G1" s="1"/>
       <c r="H1" s="86" t="s">
         <v>179</v>
@@ -17090,12 +17089,12 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="249"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="A2" s="269"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="1"/>
       <c r="H2" s="86" t="s">
         <v>464</v>
@@ -17107,12 +17106,12 @@
         <v>466</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="255" t="s">
+      <c r="L2" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="257"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="275"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="6"/>
@@ -17124,12 +17123,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="249"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
+      <c r="A3" s="269"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="1"/>
       <c r="H3" s="90" t="s">
         <v>182</v>
@@ -17156,67 +17155,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="270" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="270" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="241" t="s">
+      <c r="L4" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="241" t="s">
+      <c r="M4" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="241" t="s">
+      <c r="N4" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="241" t="s">
+      <c r="Q4" s="270" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="239" t="s">
+      <c r="S4" s="266" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="241" t="s">
+      <c r="T4" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="239" t="s">
+      <c r="U4" s="266" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="241" t="s">
+      <c r="V4" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="241" t="s">
+      <c r="W4" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="239" t="s">
+      <c r="X4" s="266" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="285"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92" t="s">
         <v>23</v>
@@ -17231,23 +17230,23 @@
         <v>26</v>
       </c>
       <c r="G5" s="92"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="285"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="293"/>
+      <c r="O5" s="293"/>
+      <c r="P5" s="293"/>
+      <c r="Q5" s="293"/>
       <c r="R5" s="94"/>
-      <c r="S5" s="285"/>
-      <c r="T5" s="285"/>
-      <c r="U5" s="285"/>
-      <c r="V5" s="285"/>
-      <c r="W5" s="285"/>
-      <c r="X5" s="285"/>
+      <c r="S5" s="293"/>
+      <c r="T5" s="293"/>
+      <c r="U5" s="293"/>
+      <c r="V5" s="293"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="293"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="16"/>
@@ -17278,7 +17277,7 @@
     <row r="7" spans="1:24" ht="16.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="202"/>
-      <c r="C7" s="286"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="97" t="s">
         <v>187</v>
       </c>
@@ -17322,7 +17321,7 @@
     <row r="8" spans="1:24" s="204" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="206"/>
       <c r="B8" s="202"/>
-      <c r="C8" s="286"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="97" t="s">
         <v>458</v>
       </c>
@@ -17360,8 +17359,8 @@
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="275" t="s">
+      <c r="C9" s="269"/>
+      <c r="D9" s="289" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="97" t="s">
@@ -17394,9 +17393,9 @@
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="286" t="s">
+      <c r="C10" s="269"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="294" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="99" t="s">
@@ -17426,9 +17425,9 @@
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="249"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="269"/>
       <c r="F11" s="99" t="s">
         <v>192</v>
       </c>
@@ -17456,9 +17455,9 @@
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12" s="104"/>
       <c r="B12" s="104"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="274" t="s">
+      <c r="C12" s="269"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="286" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="99" t="s">
@@ -17488,9 +17487,9 @@
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="104"/>
       <c r="B13" s="104"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="247"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="246"/>
       <c r="F13" s="99" t="s">
         <v>192</v>
       </c>
@@ -17518,9 +17517,9 @@
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14" s="104"/>
       <c r="B14" s="104"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="274" t="s">
+      <c r="C14" s="269"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="286" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="99" t="s">
@@ -17550,9 +17549,9 @@
     <row r="15" spans="1:24" ht="16.5" customHeight="1">
       <c r="A15" s="104"/>
       <c r="B15" s="104"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="108" t="s">
         <v>195</v>
       </c>
@@ -17580,9 +17579,9 @@
     <row r="16" spans="1:24" ht="16.5" customHeight="1">
       <c r="A16" s="104"/>
       <c r="B16" s="104"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
       <c r="F16" s="97" t="s">
         <v>196</v>
       </c>
@@ -17610,9 +17609,9 @@
     <row r="17" spans="1:24" ht="16.5" customHeight="1">
       <c r="A17" s="104"/>
       <c r="B17" s="104"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
       <c r="F17" s="109" t="s">
         <v>197</v>
       </c>
@@ -17640,9 +17639,9 @@
     <row r="18" spans="1:24" ht="16.5" customHeight="1">
       <c r="A18" s="104"/>
       <c r="B18" s="104"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="246"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
       <c r="F18" s="108" t="s">
         <v>198</v>
       </c>
@@ -17670,9 +17669,9 @@
     <row r="19" spans="1:24" ht="16.5" customHeight="1">
       <c r="A19" s="104"/>
       <c r="B19" s="104"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="97" t="s">
         <v>199</v>
       </c>
@@ -17700,9 +17699,9 @@
     <row r="20" spans="1:24" ht="16.5" customHeight="1">
       <c r="A20" s="104"/>
       <c r="B20" s="104"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
       <c r="F20" s="109" t="s">
         <v>200</v>
       </c>
@@ -17730,9 +17729,9 @@
     <row r="21" spans="1:24" ht="16.5" customHeight="1">
       <c r="A21" s="104"/>
       <c r="B21" s="104"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="246"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="245"/>
       <c r="F21" s="99" t="s">
         <v>201</v>
       </c>
@@ -17760,9 +17759,9 @@
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="247"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="212" t="s">
         <v>452</v>
       </c>
@@ -17790,11 +17789,11 @@
     <row r="23" spans="1:24" ht="16.5" customHeight="1">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="274" t="s">
+      <c r="C23" s="269"/>
+      <c r="D23" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="289" t="s">
+      <c r="E23" s="287" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="110" t="s">
@@ -17824,9 +17823,9 @@
     <row r="24" spans="1:24" ht="16.5" customHeight="1">
       <c r="A24" s="83"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="246"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
       <c r="F24" s="110" t="s">
         <v>204</v>
       </c>
@@ -17854,9 +17853,9 @@
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="246"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="245"/>
+      <c r="E25" s="245"/>
       <c r="F25" s="110" t="s">
         <v>205</v>
       </c>
@@ -17884,9 +17883,9 @@
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="246"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="245"/>
+      <c r="E26" s="245"/>
       <c r="F26" s="110" t="s">
         <v>206</v>
       </c>
@@ -17914,9 +17913,9 @@
     <row r="27" spans="1:24" ht="16.5" customHeight="1">
       <c r="A27" s="83"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="247"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="246"/>
       <c r="F27" s="110" t="s">
         <v>207</v>
       </c>
@@ -17944,9 +17943,9 @@
     <row r="28" spans="1:24" ht="16.5" customHeight="1">
       <c r="A28" s="83"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="274" t="s">
+      <c r="C28" s="269"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="286" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="110" t="s">
@@ -17976,9 +17975,9 @@
     <row r="29" spans="1:24" ht="16.5" customHeight="1">
       <c r="A29" s="83"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="246"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="110" t="s">
         <v>210</v>
       </c>
@@ -18006,9 +18005,9 @@
     <row r="30" spans="1:24" ht="16.5" customHeight="1">
       <c r="A30" s="83"/>
       <c r="B30" s="83"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="246"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="110" t="s">
         <v>211</v>
       </c>
@@ -18036,9 +18035,9 @@
     <row r="31" spans="1:24" ht="16.5" customHeight="1">
       <c r="A31" s="83"/>
       <c r="B31" s="83"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="110" t="s">
         <v>212</v>
       </c>
@@ -18066,9 +18065,9 @@
     <row r="32" spans="1:24" ht="16.5" customHeight="1">
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="247"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="246"/>
       <c r="F32" s="110" t="s">
         <v>213</v>
       </c>
@@ -18096,9 +18095,9 @@
     <row r="33" spans="1:24" ht="16.5" customHeight="1">
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="289" t="s">
+      <c r="C33" s="269"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="287" t="s">
         <v>214</v>
       </c>
       <c r="F33" s="110" t="s">
@@ -18128,9 +18127,9 @@
     <row r="34" spans="1:24" ht="16.5" customHeight="1">
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="246"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="110" t="s">
         <v>204</v>
       </c>
@@ -18158,9 +18157,9 @@
     <row r="35" spans="1:24" ht="16.5" customHeight="1">
       <c r="A35" s="83"/>
       <c r="B35" s="83"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="246"/>
-      <c r="E35" s="246"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="110" t="s">
         <v>205</v>
       </c>
@@ -18188,9 +18187,9 @@
     <row r="36" spans="1:24" ht="16.5" customHeight="1">
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
-      <c r="C36" s="249"/>
-      <c r="D36" s="246"/>
-      <c r="E36" s="246"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="245"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="110" t="s">
         <v>206</v>
       </c>
@@ -18218,9 +18217,9 @@
     <row r="37" spans="1:24" ht="16.5" customHeight="1">
       <c r="A37" s="83"/>
       <c r="B37" s="83"/>
-      <c r="C37" s="249"/>
-      <c r="D37" s="246"/>
-      <c r="E37" s="247"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="245"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="110" t="s">
         <v>207</v>
       </c>
@@ -18248,9 +18247,9 @@
     <row r="38" spans="1:24" ht="16.5" customHeight="1">
       <c r="A38" s="83"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="249"/>
-      <c r="D38" s="246"/>
-      <c r="E38" s="274" t="s">
+      <c r="C38" s="269"/>
+      <c r="D38" s="245"/>
+      <c r="E38" s="286" t="s">
         <v>215</v>
       </c>
       <c r="F38" s="110" t="s">
@@ -18280,9 +18279,9 @@
     <row r="39" spans="1:24" ht="16.5" customHeight="1">
       <c r="A39" s="83"/>
       <c r="B39" s="83"/>
-      <c r="C39" s="249"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="246"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="245"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="110" t="s">
         <v>210</v>
       </c>
@@ -18310,9 +18309,9 @@
     <row r="40" spans="1:24" ht="16.5" customHeight="1">
       <c r="A40" s="83"/>
       <c r="B40" s="83"/>
-      <c r="C40" s="249"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
+      <c r="C40" s="269"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="110" t="s">
         <v>211</v>
       </c>
@@ -18340,9 +18339,9 @@
     <row r="41" spans="1:24" ht="16.5" customHeight="1">
       <c r="A41" s="83"/>
       <c r="B41" s="83"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="246"/>
-      <c r="E41" s="246"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="110" t="s">
         <v>212</v>
       </c>
@@ -18370,9 +18369,9 @@
     <row r="42" spans="1:24" ht="16.5" customHeight="1">
       <c r="A42" s="83"/>
       <c r="B42" s="83"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="246"/>
-      <c r="E42" s="247"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="245"/>
+      <c r="E42" s="246"/>
       <c r="F42" s="110" t="s">
         <v>213</v>
       </c>
@@ -18400,9 +18399,9 @@
     <row r="43" spans="1:24" ht="16.5" customHeight="1">
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="249"/>
-      <c r="D43" s="246"/>
-      <c r="E43" s="289" t="s">
+      <c r="C43" s="269"/>
+      <c r="D43" s="245"/>
+      <c r="E43" s="287" t="s">
         <v>216</v>
       </c>
       <c r="F43" s="110" t="s">
@@ -18432,9 +18431,9 @@
     <row r="44" spans="1:24" ht="16.5" customHeight="1">
       <c r="A44" s="104"/>
       <c r="B44" s="104"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
+      <c r="C44" s="269"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="110" t="s">
         <v>204</v>
       </c>
@@ -18462,9 +18461,9 @@
     <row r="45" spans="1:24" ht="16.5" customHeight="1">
       <c r="A45" s="104"/>
       <c r="B45" s="104"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="245"/>
+      <c r="E45" s="245"/>
       <c r="F45" s="110" t="s">
         <v>205</v>
       </c>
@@ -18492,9 +18491,9 @@
     <row r="46" spans="1:24" ht="16.5" customHeight="1">
       <c r="A46" s="104"/>
       <c r="B46" s="104"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="110" t="s">
         <v>206</v>
       </c>
@@ -18522,9 +18521,9 @@
     <row r="47" spans="1:24" ht="16.5" customHeight="1">
       <c r="A47" s="104"/>
       <c r="B47" s="104"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="246"/>
-      <c r="E47" s="247"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="246"/>
       <c r="F47" s="110" t="s">
         <v>207</v>
       </c>
@@ -18552,9 +18551,9 @@
     <row r="48" spans="1:24" ht="16.5" customHeight="1">
       <c r="A48" s="104"/>
       <c r="B48" s="104"/>
-      <c r="C48" s="249"/>
-      <c r="D48" s="246"/>
-      <c r="E48" s="274" t="s">
+      <c r="C48" s="269"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="286" t="s">
         <v>217</v>
       </c>
       <c r="F48" s="110" t="s">
@@ -18584,9 +18583,9 @@
     <row r="49" spans="1:24" ht="16.5" customHeight="1">
       <c r="A49" s="104"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="249"/>
-      <c r="D49" s="246"/>
-      <c r="E49" s="246"/>
+      <c r="C49" s="269"/>
+      <c r="D49" s="245"/>
+      <c r="E49" s="245"/>
       <c r="F49" s="110" t="s">
         <v>210</v>
       </c>
@@ -18614,9 +18613,9 @@
     <row r="50" spans="1:24" ht="16.5" customHeight="1">
       <c r="A50" s="104"/>
       <c r="B50" s="104"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="245"/>
+      <c r="E50" s="245"/>
       <c r="F50" s="110" t="s">
         <v>211</v>
       </c>
@@ -18644,9 +18643,9 @@
     <row r="51" spans="1:24" ht="16.5" customHeight="1">
       <c r="A51" s="104"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="246"/>
-      <c r="E51" s="246"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="110" t="s">
         <v>212</v>
       </c>
@@ -18674,9 +18673,9 @@
     <row r="52" spans="1:24" ht="16.5" customHeight="1">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="247"/>
+      <c r="C52" s="269"/>
+      <c r="D52" s="246"/>
+      <c r="E52" s="246"/>
       <c r="F52" s="99" t="s">
         <v>213</v>
       </c>
@@ -18704,8 +18703,8 @@
     <row r="53" spans="1:24" ht="16.5" customHeight="1">
       <c r="A53" s="83"/>
       <c r="B53" s="83"/>
-      <c r="C53" s="275"/>
-      <c r="D53" s="245" t="s">
+      <c r="C53" s="289"/>
+      <c r="D53" s="253" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="67" t="s">
@@ -18736,8 +18735,8 @@
     <row r="54" spans="1:24" ht="16.5" customHeight="1">
       <c r="A54" s="83"/>
       <c r="B54" s="83"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="247"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="246"/>
       <c r="E54" s="99" t="s">
         <v>219</v>
       </c>
@@ -18766,11 +18765,11 @@
     <row r="55" spans="1:24" ht="16.5" customHeight="1">
       <c r="A55" s="104"/>
       <c r="B55" s="104"/>
-      <c r="C55" s="275" t="s">
+      <c r="C55" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="274"/>
-      <c r="E55" s="289" t="s">
+      <c r="D55" s="286"/>
+      <c r="E55" s="287" t="s">
         <v>221</v>
       </c>
       <c r="F55" s="220" t="s">
@@ -18800,9 +18799,9 @@
     <row r="56" spans="1:24" ht="16.5" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="83"/>
-      <c r="C56" s="246"/>
-      <c r="D56" s="246"/>
-      <c r="E56" s="281"/>
+      <c r="C56" s="245"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="288"/>
       <c r="F56" s="214" t="s">
         <v>223</v>
       </c>
@@ -18840,9 +18839,9 @@
     <row r="57" spans="1:24" ht="24">
       <c r="A57" s="83"/>
       <c r="B57" s="83"/>
-      <c r="C57" s="246"/>
-      <c r="D57" s="246"/>
-      <c r="E57" s="281"/>
+      <c r="C57" s="245"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="288"/>
       <c r="F57" s="216" t="s">
         <v>224</v>
       </c>
@@ -18880,9 +18879,9 @@
     <row r="58" spans="1:24" ht="24">
       <c r="A58" s="83"/>
       <c r="B58" s="83"/>
-      <c r="C58" s="246"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="281"/>
+      <c r="C58" s="245"/>
+      <c r="D58" s="245"/>
+      <c r="E58" s="288"/>
       <c r="F58" s="216" t="s">
         <v>225</v>
       </c>
@@ -18920,27 +18919,27 @@
     <row r="59" spans="1:24" s="200" customFormat="1" ht="24">
       <c r="A59" s="191"/>
       <c r="B59" s="191"/>
-      <c r="C59" s="246"/>
+      <c r="C59" s="245"/>
       <c r="D59" s="199"/>
-      <c r="E59" s="281"/>
-      <c r="F59" s="236" t="s">
+      <c r="E59" s="288"/>
+      <c r="F59" s="235" t="s">
         <v>451</v>
       </c>
-      <c r="G59" s="237"/>
+      <c r="G59" s="236"/>
       <c r="H59" s="210" t="s">
         <v>57</v>
       </c>
       <c r="I59" s="210"/>
-      <c r="J59" s="237"/>
-      <c r="K59" s="237"/>
+      <c r="J59" s="236"/>
+      <c r="K59" s="236"/>
       <c r="L59" s="211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M59" s="211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N59" s="211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O59" s="211"/>
       <c r="P59" s="85"/>
@@ -18956,9 +18955,9 @@
     <row r="60" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A60" s="191"/>
       <c r="B60" s="191"/>
-      <c r="C60" s="246"/>
+      <c r="C60" s="245"/>
       <c r="D60" s="222"/>
-      <c r="E60" s="281"/>
+      <c r="E60" s="288"/>
       <c r="F60" s="216" t="s">
         <v>468</v>
       </c>
@@ -18996,9 +18995,9 @@
     <row r="61" spans="1:24" s="200" customFormat="1" ht="24">
       <c r="A61" s="191"/>
       <c r="B61" s="191"/>
-      <c r="C61" s="246"/>
+      <c r="C61" s="245"/>
       <c r="D61" s="199"/>
-      <c r="E61" s="291"/>
+      <c r="E61" s="290"/>
       <c r="F61" s="213" t="s">
         <v>453</v>
       </c>
@@ -19036,9 +19035,9 @@
     <row r="62" spans="1:24" ht="16.5" customHeight="1">
       <c r="A62" s="83"/>
       <c r="B62" s="83"/>
-      <c r="C62" s="246"/>
-      <c r="D62" s="274"/>
-      <c r="E62" s="274" t="s">
+      <c r="C62" s="245"/>
+      <c r="D62" s="286"/>
+      <c r="E62" s="286" t="s">
         <v>226</v>
       </c>
       <c r="F62" s="217" t="s">
@@ -19078,9 +19077,9 @@
     <row r="63" spans="1:24" ht="12.75">
       <c r="A63" s="83"/>
       <c r="B63" s="83"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
+      <c r="C63" s="245"/>
+      <c r="D63" s="245"/>
+      <c r="E63" s="245"/>
       <c r="F63" s="217" t="s">
         <v>228</v>
       </c>
@@ -19118,9 +19117,9 @@
     <row r="64" spans="1:24" ht="24">
       <c r="A64" s="83"/>
       <c r="B64" s="83"/>
-      <c r="C64" s="246"/>
-      <c r="D64" s="246"/>
-      <c r="E64" s="246"/>
+      <c r="C64" s="245"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
       <c r="F64" s="217" t="s">
         <v>229</v>
       </c>
@@ -19158,9 +19157,9 @@
     <row r="65" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A65" s="191"/>
       <c r="B65" s="191"/>
-      <c r="C65" s="246"/>
-      <c r="D65" s="246"/>
-      <c r="E65" s="246"/>
+      <c r="C65" s="245"/>
+      <c r="D65" s="245"/>
+      <c r="E65" s="245"/>
       <c r="F65" s="217" t="s">
         <v>467</v>
       </c>
@@ -19198,9 +19197,9 @@
     <row r="66" spans="1:24" ht="24">
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
-      <c r="C66" s="246"/>
-      <c r="D66" s="246"/>
-      <c r="E66" s="246"/>
+      <c r="C66" s="245"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
       <c r="F66" s="112" t="s">
         <v>230</v>
       </c>
@@ -19228,9 +19227,9 @@
     <row r="67" spans="1:24" ht="24">
       <c r="A67" s="83"/>
       <c r="B67" s="83"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="274"/>
-      <c r="E67" s="274" t="s">
+      <c r="C67" s="245"/>
+      <c r="D67" s="286"/>
+      <c r="E67" s="286" t="s">
         <v>231</v>
       </c>
       <c r="F67" s="112" t="s">
@@ -19260,9 +19259,9 @@
     <row r="68" spans="1:24" ht="12.75">
       <c r="A68" s="83"/>
       <c r="B68" s="83"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="246"/>
-      <c r="E68" s="246"/>
+      <c r="C68" s="245"/>
+      <c r="D68" s="245"/>
+      <c r="E68" s="245"/>
       <c r="F68" s="112" t="s">
         <v>233</v>
       </c>
@@ -19290,9 +19289,9 @@
     <row r="69" spans="1:24" ht="24">
       <c r="A69" s="83"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="246"/>
-      <c r="D69" s="274"/>
-      <c r="E69" s="274" t="s">
+      <c r="C69" s="245"/>
+      <c r="D69" s="286"/>
+      <c r="E69" s="286" t="s">
         <v>234</v>
       </c>
       <c r="F69" s="112" t="s">
@@ -19322,9 +19321,9 @@
     <row r="70" spans="1:24" ht="16.5" customHeight="1">
       <c r="A70" s="83"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="247"/>
-      <c r="D70" s="246"/>
-      <c r="E70" s="246"/>
+      <c r="C70" s="246"/>
+      <c r="D70" s="245"/>
+      <c r="E70" s="245"/>
       <c r="F70" s="112" t="s">
         <v>236</v>
       </c>
@@ -19378,7 +19377,7 @@
     <row r="72" spans="1:24" ht="16.5" customHeight="1">
       <c r="A72" s="120"/>
       <c r="B72" s="120"/>
-      <c r="C72" s="290" t="s">
+      <c r="C72" s="292" t="s">
         <v>237</v>
       </c>
       <c r="D72" s="251"/>
@@ -19406,13 +19405,13 @@
     <row r="73" spans="1:24" ht="16.5" customHeight="1">
       <c r="A73" s="127"/>
       <c r="B73" s="127"/>
-      <c r="C73" s="274" t="s">
+      <c r="C73" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="274" t="s">
+      <c r="D73" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="282" t="s">
+      <c r="E73" s="291" t="s">
         <v>239</v>
       </c>
       <c r="F73" s="128" t="s">
@@ -19452,9 +19451,9 @@
     <row r="74" spans="1:24" ht="16.5" customHeight="1">
       <c r="A74" s="127"/>
       <c r="B74" s="127"/>
-      <c r="C74" s="246"/>
-      <c r="D74" s="246"/>
-      <c r="E74" s="246"/>
+      <c r="C74" s="245"/>
+      <c r="D74" s="245"/>
+      <c r="E74" s="245"/>
       <c r="F74" s="128" t="s">
         <v>241</v>
       </c>
@@ -19492,9 +19491,9 @@
     <row r="75" spans="1:24" ht="16.5" customHeight="1">
       <c r="A75" s="127"/>
       <c r="B75" s="127"/>
-      <c r="C75" s="246"/>
-      <c r="D75" s="246"/>
-      <c r="E75" s="247"/>
+      <c r="C75" s="245"/>
+      <c r="D75" s="245"/>
+      <c r="E75" s="246"/>
       <c r="F75" s="128" t="s">
         <v>242</v>
       </c>
@@ -19532,9 +19531,9 @@
     <row r="76" spans="1:24" ht="16.5" customHeight="1">
       <c r="A76" s="127"/>
       <c r="B76" s="127"/>
-      <c r="C76" s="246"/>
-      <c r="D76" s="246"/>
-      <c r="E76" s="275" t="s">
+      <c r="C76" s="245"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F76" s="109" t="s">
@@ -19564,9 +19563,9 @@
     <row r="77" spans="1:24" ht="12.75">
       <c r="A77" s="127"/>
       <c r="B77" s="127"/>
-      <c r="C77" s="246"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="247"/>
+      <c r="C77" s="245"/>
+      <c r="D77" s="245"/>
+      <c r="E77" s="246"/>
       <c r="F77" s="109" t="s">
         <v>245</v>
       </c>
@@ -19594,31 +19593,31 @@
     <row r="78" spans="1:24" ht="12.75">
       <c r="A78" s="104"/>
       <c r="B78" s="104"/>
-      <c r="C78" s="246"/>
-      <c r="D78" s="246"/>
+      <c r="C78" s="245"/>
+      <c r="D78" s="245"/>
       <c r="E78" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="99" t="s">
+      <c r="F78" s="226" t="s">
         <v>246</v>
       </c>
-      <c r="G78" s="103"/>
-      <c r="H78" s="235" t="s">
-        <v>471</v>
-      </c>
-      <c r="I78" s="101"/>
-      <c r="J78" s="132"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="102" t="s">
+      <c r="G78" s="226"/>
+      <c r="H78" s="302" t="s">
+        <v>479</v>
+      </c>
+      <c r="I78" s="219"/>
+      <c r="J78" s="303"/>
+      <c r="K78" s="226"/>
+      <c r="L78" s="239" t="s">
         <v>470</v>
       </c>
-      <c r="M78" s="102" t="s">
+      <c r="M78" s="239" t="s">
         <v>470</v>
       </c>
-      <c r="N78" s="102" t="s">
+      <c r="N78" s="239" t="s">
         <v>470</v>
       </c>
-      <c r="O78" s="102" t="s">
+      <c r="O78" s="239" t="s">
         <v>470</v>
       </c>
       <c r="P78" s="105"/>
@@ -19634,29 +19633,29 @@
     <row r="79" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A79" s="192"/>
       <c r="B79" s="192"/>
-      <c r="C79" s="246"/>
-      <c r="D79" s="246"/>
+      <c r="C79" s="245"/>
+      <c r="D79" s="245"/>
       <c r="E79" s="103"/>
-      <c r="F79" s="103" t="s">
-        <v>473</v>
-      </c>
-      <c r="G79" s="103"/>
-      <c r="H79" s="235" t="s">
+      <c r="F79" s="237" t="s">
+        <v>472</v>
+      </c>
+      <c r="G79" s="237"/>
+      <c r="H79" s="306" t="s">
+        <v>479</v>
+      </c>
+      <c r="I79" s="231"/>
+      <c r="J79" s="307"/>
+      <c r="K79" s="237"/>
+      <c r="L79" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="I79" s="101"/>
-      <c r="J79" s="238"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="102" t="s">
-        <v>472</v>
-      </c>
-      <c r="M79" s="102" t="s">
-        <v>472</v>
-      </c>
-      <c r="N79" s="102" t="s">
-        <v>472</v>
-      </c>
-      <c r="O79" s="102"/>
+      <c r="M79" s="238" t="s">
+        <v>471</v>
+      </c>
+      <c r="N79" s="238" t="s">
+        <v>471</v>
+      </c>
+      <c r="O79" s="238"/>
       <c r="P79" s="105"/>
       <c r="Q79" s="105"/>
       <c r="R79" s="106"/>
@@ -19670,8 +19669,8 @@
     <row r="80" spans="1:24" ht="16.5" customHeight="1">
       <c r="A80" s="104"/>
       <c r="B80" s="104"/>
-      <c r="C80" s="246"/>
-      <c r="D80" s="246"/>
+      <c r="C80" s="245"/>
+      <c r="D80" s="245"/>
       <c r="E80" s="99" t="s">
         <v>247</v>
       </c>
@@ -19702,14 +19701,14 @@
     <row r="81" spans="1:24" ht="16.5" customHeight="1">
       <c r="A81" s="104"/>
       <c r="B81" s="104"/>
-      <c r="C81" s="246"/>
-      <c r="D81" s="274" t="s">
+      <c r="C81" s="245"/>
+      <c r="D81" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="287" t="s">
+      <c r="E81" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="244"/>
+      <c r="F81" s="243"/>
       <c r="G81" s="103"/>
       <c r="H81" s="100" t="s">
         <v>37</v>
@@ -19734,8 +19733,8 @@
     <row r="82" spans="1:24" ht="16.5" customHeight="1">
       <c r="A82" s="104"/>
       <c r="B82" s="104"/>
-      <c r="C82" s="246"/>
-      <c r="D82" s="246"/>
+      <c r="C82" s="245"/>
+      <c r="D82" s="245"/>
       <c r="E82" s="99" t="s">
         <v>247</v>
       </c>
@@ -19747,21 +19746,21 @@
         <v>37</v>
       </c>
       <c r="I82" s="233" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J82" s="226"/>
       <c r="K82" s="226"/>
-      <c r="L82" s="302" t="s">
+      <c r="L82" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="M82" s="239" t="s">
         <v>478</v>
       </c>
-      <c r="M82" s="302" t="s">
-        <v>479</v>
-      </c>
-      <c r="N82" s="302" t="s">
+      <c r="N82" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="O82" s="239" t="s">
         <v>478</v>
-      </c>
-      <c r="O82" s="302" t="s">
-        <v>479</v>
       </c>
       <c r="P82" s="105"/>
       <c r="Q82" s="105"/>
@@ -19776,9 +19775,9 @@
     <row r="83" spans="1:24" ht="16.5" customHeight="1">
       <c r="A83" s="104"/>
       <c r="B83" s="104"/>
-      <c r="C83" s="246"/>
-      <c r="D83" s="246"/>
-      <c r="E83" s="274" t="s">
+      <c r="C83" s="245"/>
+      <c r="D83" s="245"/>
+      <c r="E83" s="286" t="s">
         <v>251</v>
       </c>
       <c r="F83" s="226" t="s">
@@ -19789,21 +19788,21 @@
         <v>37</v>
       </c>
       <c r="I83" s="233" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J83" s="226"/>
       <c r="K83" s="226"/>
-      <c r="L83" s="302" t="s">
+      <c r="L83" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="M83" s="239" t="s">
         <v>478</v>
       </c>
-      <c r="M83" s="302" t="s">
-        <v>479</v>
-      </c>
-      <c r="N83" s="302" t="s">
+      <c r="N83" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="O83" s="239" t="s">
         <v>478</v>
-      </c>
-      <c r="O83" s="302" t="s">
-        <v>479</v>
       </c>
       <c r="P83" s="105"/>
       <c r="Q83" s="105"/>
@@ -19818,9 +19817,9 @@
     <row r="84" spans="1:24" ht="16.5" customHeight="1">
       <c r="A84" s="104"/>
       <c r="B84" s="104"/>
-      <c r="C84" s="246"/>
-      <c r="D84" s="246"/>
-      <c r="E84" s="246"/>
+      <c r="C84" s="245"/>
+      <c r="D84" s="245"/>
+      <c r="E84" s="245"/>
       <c r="F84" s="226" t="s">
         <v>253</v>
       </c>
@@ -19829,21 +19828,21 @@
         <v>37</v>
       </c>
       <c r="I84" s="219" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J84" s="226"/>
       <c r="K84" s="226"/>
-      <c r="L84" s="302" t="s">
+      <c r="L84" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="M84" s="239" t="s">
         <v>478</v>
       </c>
-      <c r="M84" s="302" t="s">
-        <v>479</v>
-      </c>
-      <c r="N84" s="302" t="s">
+      <c r="N84" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="O84" s="239" t="s">
         <v>478</v>
-      </c>
-      <c r="O84" s="302" t="s">
-        <v>479</v>
       </c>
       <c r="P84" s="105"/>
       <c r="Q84" s="105"/>
@@ -19858,25 +19857,25 @@
     <row r="85" spans="1:24" ht="12.75">
       <c r="A85" s="104"/>
       <c r="B85" s="104"/>
-      <c r="C85" s="246"/>
-      <c r="D85" s="247"/>
-      <c r="E85" s="247"/>
-      <c r="F85" s="300" t="s">
+      <c r="C85" s="245"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="237" t="s">
         <v>254</v>
       </c>
-      <c r="G85" s="300"/>
+      <c r="G85" s="237"/>
       <c r="H85" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="I85" s="303" t="s">
-        <v>477</v>
-      </c>
-      <c r="J85" s="300"/>
-      <c r="K85" s="300"/>
-      <c r="L85" s="301"/>
-      <c r="M85" s="301"/>
-      <c r="N85" s="301"/>
-      <c r="O85" s="301"/>
+      <c r="I85" s="240" t="s">
+        <v>476</v>
+      </c>
+      <c r="J85" s="237"/>
+      <c r="K85" s="237"/>
+      <c r="L85" s="238"/>
+      <c r="M85" s="238"/>
+      <c r="N85" s="238"/>
+      <c r="O85" s="238"/>
       <c r="P85" s="105"/>
       <c r="Q85" s="105"/>
       <c r="R85" s="106"/>
@@ -19890,8 +19889,8 @@
     <row r="86" spans="1:24" ht="16.5" customHeight="1">
       <c r="A86" s="104"/>
       <c r="B86" s="104"/>
-      <c r="C86" s="246"/>
-      <c r="D86" s="274" t="s">
+      <c r="C86" s="245"/>
+      <c r="D86" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="99" t="s">
@@ -19924,8 +19923,8 @@
     <row r="87" spans="1:24" ht="16.5" customHeight="1">
       <c r="A87" s="104"/>
       <c r="B87" s="104"/>
-      <c r="C87" s="246"/>
-      <c r="D87" s="246"/>
+      <c r="C87" s="245"/>
+      <c r="D87" s="245"/>
       <c r="E87" s="99" t="s">
         <v>258</v>
       </c>
@@ -19956,8 +19955,8 @@
     <row r="88" spans="1:24" ht="16.5" customHeight="1">
       <c r="A88" s="104"/>
       <c r="B88" s="104"/>
-      <c r="C88" s="246"/>
-      <c r="D88" s="246"/>
+      <c r="C88" s="245"/>
+      <c r="D88" s="245"/>
       <c r="E88" s="99" t="s">
         <v>259</v>
       </c>
@@ -19988,9 +19987,9 @@
     <row r="89" spans="1:24" ht="16.5" customHeight="1">
       <c r="A89" s="104"/>
       <c r="B89" s="104"/>
-      <c r="C89" s="246"/>
-      <c r="D89" s="246"/>
-      <c r="E89" s="274" t="s">
+      <c r="C89" s="245"/>
+      <c r="D89" s="245"/>
+      <c r="E89" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F89" s="99" t="s">
@@ -20020,9 +20019,9 @@
     <row r="90" spans="1:24" ht="16.5" customHeight="1">
       <c r="A90" s="104"/>
       <c r="B90" s="104"/>
-      <c r="C90" s="246"/>
-      <c r="D90" s="247"/>
-      <c r="E90" s="247"/>
+      <c r="C90" s="245"/>
+      <c r="D90" s="246"/>
+      <c r="E90" s="246"/>
       <c r="F90" s="99" t="s">
         <v>257</v>
       </c>
@@ -20050,8 +20049,8 @@
     <row r="91" spans="1:24" ht="16.5" customHeight="1">
       <c r="A91" s="104"/>
       <c r="B91" s="104"/>
-      <c r="C91" s="246"/>
-      <c r="D91" s="274" t="s">
+      <c r="C91" s="245"/>
+      <c r="D91" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E91" s="99" t="s">
@@ -20084,8 +20083,8 @@
     <row r="92" spans="1:24" ht="16.5" customHeight="1">
       <c r="A92" s="104"/>
       <c r="B92" s="104"/>
-      <c r="C92" s="246"/>
-      <c r="D92" s="246"/>
+      <c r="C92" s="245"/>
+      <c r="D92" s="245"/>
       <c r="E92" s="99" t="s">
         <v>264</v>
       </c>
@@ -20116,9 +20115,9 @@
     <row r="93" spans="1:24" ht="16.5" customHeight="1">
       <c r="A93" s="104"/>
       <c r="B93" s="104"/>
-      <c r="C93" s="246"/>
-      <c r="D93" s="246"/>
-      <c r="E93" s="289" t="s">
+      <c r="C93" s="245"/>
+      <c r="D93" s="245"/>
+      <c r="E93" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F93" s="99" t="s">
@@ -20148,9 +20147,9 @@
     <row r="94" spans="1:24" ht="16.5" customHeight="1">
       <c r="A94" s="104"/>
       <c r="B94" s="104"/>
-      <c r="C94" s="246"/>
-      <c r="D94" s="246"/>
-      <c r="E94" s="247"/>
+      <c r="C94" s="245"/>
+      <c r="D94" s="245"/>
+      <c r="E94" s="246"/>
       <c r="F94" s="99" t="s">
         <v>267</v>
       </c>
@@ -20178,9 +20177,9 @@
     <row r="95" spans="1:24" ht="16.5" customHeight="1">
       <c r="A95" s="104"/>
       <c r="B95" s="104"/>
-      <c r="C95" s="246"/>
-      <c r="D95" s="246"/>
-      <c r="E95" s="274" t="s">
+      <c r="C95" s="245"/>
+      <c r="D95" s="245"/>
+      <c r="E95" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F95" s="99" t="s">
@@ -20210,9 +20209,9 @@
     <row r="96" spans="1:24" ht="16.5" customHeight="1">
       <c r="A96" s="104"/>
       <c r="B96" s="104"/>
-      <c r="C96" s="246"/>
-      <c r="D96" s="246"/>
-      <c r="E96" s="247"/>
+      <c r="C96" s="245"/>
+      <c r="D96" s="245"/>
+      <c r="E96" s="246"/>
       <c r="F96" s="99" t="s">
         <v>267</v>
       </c>
@@ -20240,9 +20239,9 @@
     <row r="97" spans="1:24" ht="16.5" customHeight="1">
       <c r="A97" s="104"/>
       <c r="B97" s="104"/>
-      <c r="C97" s="246"/>
-      <c r="D97" s="246"/>
-      <c r="E97" s="274" t="s">
+      <c r="C97" s="245"/>
+      <c r="D97" s="245"/>
+      <c r="E97" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F97" s="99" t="s">
@@ -20272,9 +20271,9 @@
     <row r="98" spans="1:24" ht="16.5" customHeight="1">
       <c r="A98" s="104"/>
       <c r="B98" s="104"/>
-      <c r="C98" s="246"/>
-      <c r="D98" s="247"/>
-      <c r="E98" s="247"/>
+      <c r="C98" s="245"/>
+      <c r="D98" s="246"/>
+      <c r="E98" s="246"/>
       <c r="F98" s="99" t="s">
         <v>271</v>
       </c>
@@ -20302,8 +20301,8 @@
     <row r="99" spans="1:24" ht="16.5" customHeight="1">
       <c r="A99" s="136"/>
       <c r="B99" s="136"/>
-      <c r="C99" s="246"/>
-      <c r="D99" s="281" t="s">
+      <c r="C99" s="245"/>
+      <c r="D99" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E99" s="137" t="s">
@@ -20336,8 +20335,8 @@
     <row r="100" spans="1:24" ht="16.5" customHeight="1">
       <c r="A100" s="136"/>
       <c r="B100" s="136"/>
-      <c r="C100" s="246"/>
-      <c r="D100" s="246"/>
+      <c r="C100" s="245"/>
+      <c r="D100" s="245"/>
       <c r="E100" s="137" t="s">
         <v>274</v>
       </c>
@@ -20368,8 +20367,8 @@
     <row r="101" spans="1:24" ht="16.5" customHeight="1">
       <c r="A101" s="104"/>
       <c r="B101" s="142"/>
-      <c r="C101" s="246"/>
-      <c r="D101" s="247"/>
+      <c r="C101" s="245"/>
+      <c r="D101" s="246"/>
       <c r="E101" s="137" t="s">
         <v>276</v>
       </c>
@@ -20400,11 +20399,11 @@
     <row r="102" spans="1:24" ht="16.5" customHeight="1">
       <c r="A102" s="104"/>
       <c r="B102" s="142"/>
-      <c r="C102" s="246"/>
-      <c r="D102" s="281" t="s">
+      <c r="C102" s="245"/>
+      <c r="D102" s="288" t="s">
         <v>278</v>
       </c>
-      <c r="E102" s="281"/>
+      <c r="E102" s="288"/>
       <c r="F102" s="137" t="s">
         <v>279</v>
       </c>
@@ -20432,9 +20431,9 @@
     <row r="103" spans="1:24" ht="16.5" customHeight="1">
       <c r="A103" s="104"/>
       <c r="B103" s="142"/>
-      <c r="C103" s="246"/>
-      <c r="D103" s="246"/>
-      <c r="E103" s="246"/>
+      <c r="C103" s="245"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="245"/>
       <c r="F103" s="137" t="s">
         <v>280</v>
       </c>
@@ -20462,9 +20461,9 @@
     <row r="104" spans="1:24" ht="16.5" customHeight="1">
       <c r="A104" s="136"/>
       <c r="B104" s="142"/>
-      <c r="C104" s="247"/>
-      <c r="D104" s="247"/>
-      <c r="E104" s="247"/>
+      <c r="C104" s="246"/>
+      <c r="D104" s="246"/>
+      <c r="E104" s="246"/>
       <c r="F104" s="137" t="s">
         <v>281</v>
       </c>
@@ -20492,12 +20491,12 @@
     <row r="105" spans="1:24" ht="16.5" customHeight="1">
       <c r="A105" s="120"/>
       <c r="B105" s="120"/>
-      <c r="C105" s="276" t="s">
+      <c r="C105" s="283" t="s">
         <v>282</v>
       </c>
-      <c r="D105" s="277"/>
-      <c r="E105" s="277"/>
-      <c r="F105" s="278"/>
+      <c r="D105" s="284"/>
+      <c r="E105" s="284"/>
+      <c r="F105" s="285"/>
       <c r="G105" s="121"/>
       <c r="H105" s="146"/>
       <c r="I105" s="122"/>
@@ -20520,13 +20519,13 @@
     <row r="106" spans="1:24" ht="16.5" customHeight="1">
       <c r="A106" s="127"/>
       <c r="B106" s="127"/>
-      <c r="C106" s="274" t="s">
+      <c r="C106" s="286" t="s">
         <v>283</v>
       </c>
-      <c r="D106" s="274" t="s">
+      <c r="D106" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="282" t="s">
+      <c r="E106" s="291" t="s">
         <v>239</v>
       </c>
       <c r="F106" s="128" t="s">
@@ -20566,9 +20565,9 @@
     <row r="107" spans="1:24" ht="16.5" customHeight="1">
       <c r="A107" s="127"/>
       <c r="B107" s="127"/>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="247"/>
+      <c r="C107" s="245"/>
+      <c r="D107" s="245"/>
+      <c r="E107" s="246"/>
       <c r="F107" s="128" t="s">
         <v>285</v>
       </c>
@@ -20606,9 +20605,9 @@
     <row r="108" spans="1:24" ht="16.5" customHeight="1">
       <c r="A108" s="127"/>
       <c r="B108" s="127"/>
-      <c r="C108" s="246"/>
-      <c r="D108" s="246"/>
-      <c r="E108" s="275" t="s">
+      <c r="C108" s="245"/>
+      <c r="D108" s="245"/>
+      <c r="E108" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F108" s="109" t="s">
@@ -20638,9 +20637,9 @@
     <row r="109" spans="1:24" ht="16.5" customHeight="1">
       <c r="A109" s="127"/>
       <c r="B109" s="127"/>
-      <c r="C109" s="246"/>
-      <c r="D109" s="246"/>
-      <c r="E109" s="247"/>
+      <c r="C109" s="245"/>
+      <c r="D109" s="245"/>
+      <c r="E109" s="246"/>
       <c r="F109" s="109" t="s">
         <v>245</v>
       </c>
@@ -20668,25 +20667,31 @@
     <row r="110" spans="1:24" ht="16.5" customHeight="1">
       <c r="A110" s="104"/>
       <c r="B110" s="104"/>
-      <c r="C110" s="246"/>
-      <c r="D110" s="246"/>
+      <c r="C110" s="245"/>
+      <c r="D110" s="245"/>
       <c r="E110" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="F110" s="99" t="s">
+      <c r="F110" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="G110" s="103"/>
-      <c r="H110" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="I110" s="101"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
-      <c r="L110" s="102"/>
-      <c r="M110" s="102"/>
-      <c r="N110" s="102"/>
-      <c r="O110" s="102"/>
+      <c r="G110" s="237"/>
+      <c r="H110" s="305" t="s">
+        <v>481</v>
+      </c>
+      <c r="I110" s="231"/>
+      <c r="J110" s="237"/>
+      <c r="K110" s="237"/>
+      <c r="L110" s="238" t="s">
+        <v>482</v>
+      </c>
+      <c r="M110" s="238" t="s">
+        <v>482</v>
+      </c>
+      <c r="N110" s="238" t="s">
+        <v>482</v>
+      </c>
+      <c r="O110" s="238"/>
       <c r="P110" s="105"/>
       <c r="Q110" s="105"/>
       <c r="R110" s="106"/>
@@ -20700,8 +20705,8 @@
     <row r="111" spans="1:24" ht="16.5" customHeight="1">
       <c r="A111" s="104"/>
       <c r="B111" s="104"/>
-      <c r="C111" s="246"/>
-      <c r="D111" s="246"/>
+      <c r="C111" s="245"/>
+      <c r="D111" s="245"/>
       <c r="E111" s="99" t="s">
         <v>247</v>
       </c>
@@ -20709,8 +20714,8 @@
         <v>248</v>
       </c>
       <c r="G111" s="103"/>
-      <c r="H111" s="100" t="s">
-        <v>47</v>
+      <c r="H111" s="304" t="s">
+        <v>480</v>
       </c>
       <c r="I111" s="101"/>
       <c r="J111" s="103"/>
@@ -20732,14 +20737,14 @@
     <row r="112" spans="1:24" ht="16.5" customHeight="1">
       <c r="A112" s="104"/>
       <c r="B112" s="104"/>
-      <c r="C112" s="246"/>
-      <c r="D112" s="274" t="s">
+      <c r="C112" s="245"/>
+      <c r="D112" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E112" s="287" t="s">
+      <c r="E112" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F112" s="244"/>
+      <c r="F112" s="243"/>
       <c r="G112" s="103"/>
       <c r="H112" s="100" t="s">
         <v>37</v>
@@ -20764,31 +20769,31 @@
     <row r="113" spans="1:24" ht="16.5" customHeight="1">
       <c r="A113" s="104"/>
       <c r="B113" s="104"/>
-      <c r="C113" s="246"/>
-      <c r="D113" s="246"/>
+      <c r="C113" s="245"/>
+      <c r="D113" s="245"/>
       <c r="E113" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="F113" s="300" t="s">
+      <c r="F113" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="G113" s="300"/>
+      <c r="G113" s="237"/>
       <c r="H113" s="231" t="s">
         <v>37</v>
       </c>
       <c r="I113" s="231"/>
-      <c r="J113" s="300"/>
-      <c r="K113" s="300"/>
-      <c r="L113" s="301" t="s">
+      <c r="J113" s="237"/>
+      <c r="K113" s="237"/>
+      <c r="L113" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="M113" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="M113" s="301" t="s">
-        <v>476</v>
-      </c>
-      <c r="N113" s="301" t="s">
-        <v>475</v>
-      </c>
-      <c r="O113" s="301"/>
+      <c r="N113" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="O113" s="238"/>
       <c r="P113" s="105"/>
       <c r="Q113" s="105"/>
       <c r="R113" s="106"/>
@@ -20802,31 +20807,31 @@
     <row r="114" spans="1:24" ht="16.5" customHeight="1">
       <c r="A114" s="104"/>
       <c r="B114" s="104"/>
-      <c r="C114" s="246"/>
-      <c r="D114" s="246"/>
-      <c r="E114" s="274" t="s">
+      <c r="C114" s="245"/>
+      <c r="D114" s="245"/>
+      <c r="E114" s="286" t="s">
         <v>251</v>
       </c>
-      <c r="F114" s="300" t="s">
+      <c r="F114" s="237" t="s">
         <v>252</v>
       </c>
-      <c r="G114" s="300"/>
+      <c r="G114" s="237"/>
       <c r="H114" s="231" t="s">
         <v>37</v>
       </c>
       <c r="I114" s="231"/>
-      <c r="J114" s="300"/>
-      <c r="K114" s="300"/>
-      <c r="L114" s="301" t="s">
+      <c r="J114" s="237"/>
+      <c r="K114" s="237"/>
+      <c r="L114" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="M114" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="M114" s="301" t="s">
-        <v>476</v>
-      </c>
-      <c r="N114" s="301" t="s">
-        <v>475</v>
-      </c>
-      <c r="O114" s="301"/>
+      <c r="N114" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="O114" s="238"/>
       <c r="P114" s="105"/>
       <c r="Q114" s="105"/>
       <c r="R114" s="106"/>
@@ -20840,29 +20845,29 @@
     <row r="115" spans="1:24" ht="16.5" customHeight="1">
       <c r="A115" s="104"/>
       <c r="B115" s="104"/>
-      <c r="C115" s="246"/>
-      <c r="D115" s="246"/>
-      <c r="E115" s="246"/>
-      <c r="F115" s="300" t="s">
+      <c r="C115" s="245"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="245"/>
+      <c r="F115" s="237" t="s">
         <v>253</v>
       </c>
-      <c r="G115" s="300"/>
+      <c r="G115" s="237"/>
       <c r="H115" s="231" t="s">
         <v>37</v>
       </c>
       <c r="I115" s="231"/>
-      <c r="J115" s="300"/>
-      <c r="K115" s="300"/>
-      <c r="L115" s="301" t="s">
+      <c r="J115" s="237"/>
+      <c r="K115" s="237"/>
+      <c r="L115" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="M115" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="M115" s="301" t="s">
-        <v>476</v>
-      </c>
-      <c r="N115" s="301" t="s">
-        <v>475</v>
-      </c>
-      <c r="O115" s="301"/>
+      <c r="N115" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="O115" s="238"/>
       <c r="P115" s="105"/>
       <c r="Q115" s="105"/>
       <c r="R115" s="106"/>
@@ -20876,29 +20881,29 @@
     <row r="116" spans="1:24" ht="16.5" customHeight="1">
       <c r="A116" s="104"/>
       <c r="B116" s="104"/>
-      <c r="C116" s="246"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="247"/>
-      <c r="F116" s="300" t="s">
+      <c r="C116" s="245"/>
+      <c r="D116" s="246"/>
+      <c r="E116" s="246"/>
+      <c r="F116" s="237" t="s">
         <v>254</v>
       </c>
-      <c r="G116" s="300"/>
+      <c r="G116" s="237"/>
       <c r="H116" s="231" t="s">
         <v>37</v>
       </c>
       <c r="I116" s="231"/>
-      <c r="J116" s="300"/>
-      <c r="K116" s="300"/>
-      <c r="L116" s="301" t="s">
+      <c r="J116" s="237"/>
+      <c r="K116" s="237"/>
+      <c r="L116" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="M116" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="M116" s="301" t="s">
-        <v>476</v>
-      </c>
-      <c r="N116" s="301" t="s">
-        <v>475</v>
-      </c>
-      <c r="O116" s="301"/>
+      <c r="N116" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="O116" s="238"/>
       <c r="P116" s="105"/>
       <c r="Q116" s="105"/>
       <c r="R116" s="106"/>
@@ -20912,8 +20917,8 @@
     <row r="117" spans="1:24" ht="16.5" customHeight="1">
       <c r="A117" s="104"/>
       <c r="B117" s="104"/>
-      <c r="C117" s="246"/>
-      <c r="D117" s="274" t="s">
+      <c r="C117" s="245"/>
+      <c r="D117" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E117" s="99" t="s">
@@ -20946,8 +20951,8 @@
     <row r="118" spans="1:24" ht="16.5" customHeight="1">
       <c r="A118" s="104"/>
       <c r="B118" s="104"/>
-      <c r="C118" s="246"/>
-      <c r="D118" s="246"/>
+      <c r="C118" s="245"/>
+      <c r="D118" s="245"/>
       <c r="E118" s="99" t="s">
         <v>287</v>
       </c>
@@ -20978,9 +20983,9 @@
     <row r="119" spans="1:24" ht="16.5" customHeight="1">
       <c r="A119" s="104"/>
       <c r="B119" s="104"/>
-      <c r="C119" s="246"/>
-      <c r="D119" s="246"/>
-      <c r="E119" s="274" t="s">
+      <c r="C119" s="245"/>
+      <c r="D119" s="245"/>
+      <c r="E119" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F119" s="99" t="s">
@@ -21010,9 +21015,9 @@
     <row r="120" spans="1:24" ht="16.5" customHeight="1">
       <c r="A120" s="104"/>
       <c r="B120" s="104"/>
-      <c r="C120" s="246"/>
-      <c r="D120" s="247"/>
-      <c r="E120" s="247"/>
+      <c r="C120" s="245"/>
+      <c r="D120" s="246"/>
+      <c r="E120" s="246"/>
       <c r="F120" s="99" t="s">
         <v>257</v>
       </c>
@@ -21040,8 +21045,8 @@
     <row r="121" spans="1:24" ht="16.5" customHeight="1">
       <c r="A121" s="104"/>
       <c r="B121" s="104"/>
-      <c r="C121" s="246"/>
-      <c r="D121" s="274" t="s">
+      <c r="C121" s="245"/>
+      <c r="D121" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E121" s="99" t="s">
@@ -21074,8 +21079,8 @@
     <row r="122" spans="1:24" ht="16.5" customHeight="1">
       <c r="A122" s="104"/>
       <c r="B122" s="104"/>
-      <c r="C122" s="246"/>
-      <c r="D122" s="246"/>
+      <c r="C122" s="245"/>
+      <c r="D122" s="245"/>
       <c r="E122" s="99" t="s">
         <v>264</v>
       </c>
@@ -21112,9 +21117,9 @@
     <row r="123" spans="1:24" ht="16.5" customHeight="1">
       <c r="A123" s="104"/>
       <c r="B123" s="104"/>
-      <c r="C123" s="246"/>
-      <c r="D123" s="246"/>
-      <c r="E123" s="289" t="s">
+      <c r="C123" s="245"/>
+      <c r="D123" s="245"/>
+      <c r="E123" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F123" s="99" t="s">
@@ -21144,9 +21149,9 @@
     <row r="124" spans="1:24" ht="16.5" customHeight="1">
       <c r="A124" s="104"/>
       <c r="B124" s="104"/>
-      <c r="C124" s="246"/>
-      <c r="D124" s="246"/>
-      <c r="E124" s="247"/>
+      <c r="C124" s="245"/>
+      <c r="D124" s="245"/>
+      <c r="E124" s="246"/>
       <c r="F124" s="99" t="s">
         <v>267</v>
       </c>
@@ -21174,9 +21179,9 @@
     <row r="125" spans="1:24" ht="16.5" customHeight="1">
       <c r="A125" s="104"/>
       <c r="B125" s="104"/>
-      <c r="C125" s="246"/>
-      <c r="D125" s="246"/>
-      <c r="E125" s="274" t="s">
+      <c r="C125" s="245"/>
+      <c r="D125" s="245"/>
+      <c r="E125" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F125" s="99" t="s">
@@ -21212,9 +21217,9 @@
     <row r="126" spans="1:24" ht="16.5" customHeight="1">
       <c r="A126" s="104"/>
       <c r="B126" s="104"/>
-      <c r="C126" s="246"/>
-      <c r="D126" s="246"/>
-      <c r="E126" s="247"/>
+      <c r="C126" s="245"/>
+      <c r="D126" s="245"/>
+      <c r="E126" s="246"/>
       <c r="F126" s="99" t="s">
         <v>267</v>
       </c>
@@ -21248,9 +21253,9 @@
     <row r="127" spans="1:24" ht="16.5" customHeight="1">
       <c r="A127" s="104"/>
       <c r="B127" s="104"/>
-      <c r="C127" s="246"/>
-      <c r="D127" s="246"/>
-      <c r="E127" s="274" t="s">
+      <c r="C127" s="245"/>
+      <c r="D127" s="245"/>
+      <c r="E127" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F127" s="99" t="s">
@@ -21286,9 +21291,9 @@
     <row r="128" spans="1:24" ht="16.5" customHeight="1">
       <c r="A128" s="104"/>
       <c r="B128" s="104"/>
-      <c r="C128" s="246"/>
-      <c r="D128" s="247"/>
-      <c r="E128" s="247"/>
+      <c r="C128" s="245"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
       <c r="F128" s="99" t="s">
         <v>271</v>
       </c>
@@ -21322,8 +21327,8 @@
     <row r="129" spans="1:24" ht="16.5" customHeight="1">
       <c r="A129" s="151"/>
       <c r="B129" s="151"/>
-      <c r="C129" s="246"/>
-      <c r="D129" s="281" t="s">
+      <c r="C129" s="245"/>
+      <c r="D129" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E129" s="137" t="s">
@@ -21356,8 +21361,8 @@
     <row r="130" spans="1:24" ht="16.5" customHeight="1">
       <c r="A130" s="151"/>
       <c r="B130" s="151"/>
-      <c r="C130" s="246"/>
-      <c r="D130" s="246"/>
+      <c r="C130" s="245"/>
+      <c r="D130" s="245"/>
       <c r="E130" s="137" t="s">
         <v>274</v>
       </c>
@@ -21388,8 +21393,8 @@
     <row r="131" spans="1:24" ht="16.5" customHeight="1">
       <c r="A131" s="151"/>
       <c r="B131" s="151"/>
-      <c r="C131" s="246"/>
-      <c r="D131" s="247"/>
+      <c r="C131" s="245"/>
+      <c r="D131" s="246"/>
       <c r="E131" s="132" t="s">
         <v>276</v>
       </c>
@@ -21420,11 +21425,11 @@
     <row r="132" spans="1:24" ht="16.5" customHeight="1">
       <c r="A132" s="104"/>
       <c r="B132" s="142"/>
-      <c r="C132" s="246"/>
-      <c r="D132" s="281" t="s">
+      <c r="C132" s="245"/>
+      <c r="D132" s="288" t="s">
         <v>278</v>
       </c>
-      <c r="E132" s="281"/>
+      <c r="E132" s="288"/>
       <c r="F132" s="137" t="s">
         <v>279</v>
       </c>
@@ -21452,9 +21457,9 @@
     <row r="133" spans="1:24" ht="16.5" customHeight="1">
       <c r="A133" s="104"/>
       <c r="B133" s="142"/>
-      <c r="C133" s="246"/>
-      <c r="D133" s="246"/>
-      <c r="E133" s="246"/>
+      <c r="C133" s="245"/>
+      <c r="D133" s="245"/>
+      <c r="E133" s="245"/>
       <c r="F133" s="137" t="s">
         <v>280</v>
       </c>
@@ -21482,9 +21487,9 @@
     <row r="134" spans="1:24" ht="16.5" customHeight="1">
       <c r="A134" s="136"/>
       <c r="B134" s="142"/>
-      <c r="C134" s="246"/>
-      <c r="D134" s="247"/>
-      <c r="E134" s="247"/>
+      <c r="C134" s="245"/>
+      <c r="D134" s="246"/>
+      <c r="E134" s="246"/>
       <c r="F134" s="137" t="s">
         <v>281</v>
       </c>
@@ -21512,21 +21517,21 @@
     <row r="135" spans="1:24" ht="16.5" customHeight="1">
       <c r="A135" s="154"/>
       <c r="B135" s="142"/>
-      <c r="C135" s="283" t="s">
-        <v>474</v>
-      </c>
-      <c r="D135" s="270"/>
-      <c r="E135" s="270"/>
-      <c r="F135" s="270"/>
-      <c r="G135" s="270"/>
-      <c r="H135" s="270"/>
-      <c r="I135" s="270"/>
-      <c r="J135" s="270"/>
-      <c r="K135" s="270"/>
-      <c r="L135" s="270"/>
-      <c r="M135" s="270"/>
-      <c r="N135" s="270"/>
-      <c r="O135" s="271"/>
+      <c r="C135" s="296" t="s">
+        <v>473</v>
+      </c>
+      <c r="D135" s="248"/>
+      <c r="E135" s="248"/>
+      <c r="F135" s="248"/>
+      <c r="G135" s="248"/>
+      <c r="H135" s="248"/>
+      <c r="I135" s="248"/>
+      <c r="J135" s="248"/>
+      <c r="K135" s="248"/>
+      <c r="L135" s="248"/>
+      <c r="M135" s="248"/>
+      <c r="N135" s="248"/>
+      <c r="O135" s="249"/>
       <c r="P135" s="106"/>
       <c r="Q135" s="106"/>
       <c r="R135" s="141"/>
@@ -21540,7 +21545,7 @@
     <row r="136" spans="1:24" ht="16.5" customHeight="1">
       <c r="A136" s="155"/>
       <c r="B136" s="142"/>
-      <c r="C136" s="272"/>
+      <c r="C136" s="250"/>
       <c r="D136" s="251"/>
       <c r="E136" s="251"/>
       <c r="F136" s="251"/>
@@ -21566,7 +21571,7 @@
     <row r="137" spans="1:24" ht="16.5" customHeight="1">
       <c r="A137" s="151"/>
       <c r="B137" s="151"/>
-      <c r="C137" s="290" t="s">
+      <c r="C137" s="292" t="s">
         <v>288</v>
       </c>
       <c r="D137" s="251"/>
@@ -21594,13 +21599,13 @@
     <row r="138" spans="1:24" ht="16.5" customHeight="1">
       <c r="A138" s="127"/>
       <c r="B138" s="127"/>
-      <c r="C138" s="274" t="s">
+      <c r="C138" s="286" t="s">
         <v>289</v>
       </c>
-      <c r="D138" s="274" t="s">
+      <c r="D138" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E138" s="275" t="s">
+      <c r="E138" s="289" t="s">
         <v>239</v>
       </c>
       <c r="F138" s="128" t="s">
@@ -21630,9 +21635,9 @@
     <row r="139" spans="1:24" ht="16.5" customHeight="1">
       <c r="A139" s="127"/>
       <c r="B139" s="127"/>
-      <c r="C139" s="246"/>
-      <c r="D139" s="246"/>
-      <c r="E139" s="247"/>
+      <c r="C139" s="245"/>
+      <c r="D139" s="245"/>
+      <c r="E139" s="246"/>
       <c r="F139" s="109" t="s">
         <v>291</v>
       </c>
@@ -21658,9 +21663,9 @@
     <row r="140" spans="1:24" ht="16.5" customHeight="1">
       <c r="A140" s="127"/>
       <c r="B140" s="127"/>
-      <c r="C140" s="246"/>
-      <c r="D140" s="246"/>
-      <c r="E140" s="275" t="s">
+      <c r="C140" s="245"/>
+      <c r="D140" s="245"/>
+      <c r="E140" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F140" s="109" t="s">
@@ -21688,9 +21693,9 @@
     <row r="141" spans="1:24" ht="16.5" customHeight="1">
       <c r="A141" s="127"/>
       <c r="B141" s="127"/>
-      <c r="C141" s="246"/>
-      <c r="D141" s="246"/>
-      <c r="E141" s="247"/>
+      <c r="C141" s="245"/>
+      <c r="D141" s="245"/>
+      <c r="E141" s="246"/>
       <c r="F141" s="109" t="s">
         <v>245</v>
       </c>
@@ -21716,8 +21721,8 @@
     <row r="142" spans="1:24" ht="16.5" customHeight="1">
       <c r="A142" s="104"/>
       <c r="B142" s="104"/>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
+      <c r="C142" s="245"/>
+      <c r="D142" s="245"/>
       <c r="E142" s="99" t="s">
         <v>126</v>
       </c>
@@ -21752,8 +21757,8 @@
     <row r="143" spans="1:24" ht="16.5" customHeight="1">
       <c r="A143" s="104"/>
       <c r="B143" s="104"/>
-      <c r="C143" s="246"/>
-      <c r="D143" s="246"/>
+      <c r="C143" s="245"/>
+      <c r="D143" s="245"/>
       <c r="E143" s="99" t="s">
         <v>247</v>
       </c>
@@ -21788,14 +21793,14 @@
     <row r="144" spans="1:24" ht="16.5" customHeight="1">
       <c r="A144" s="104"/>
       <c r="B144" s="104"/>
-      <c r="C144" s="246"/>
-      <c r="D144" s="274" t="s">
+      <c r="C144" s="245"/>
+      <c r="D144" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E144" s="287" t="s">
+      <c r="E144" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F144" s="244"/>
+      <c r="F144" s="243"/>
       <c r="G144" s="103"/>
       <c r="H144" s="101"/>
       <c r="I144" s="101"/>
@@ -21824,8 +21829,8 @@
     <row r="145" spans="1:24" ht="16.5" customHeight="1">
       <c r="A145" s="104"/>
       <c r="B145" s="104"/>
-      <c r="C145" s="246"/>
-      <c r="D145" s="246"/>
+      <c r="C145" s="245"/>
+      <c r="D145" s="245"/>
       <c r="E145" s="99" t="s">
         <v>247</v>
       </c>
@@ -21860,9 +21865,9 @@
     <row r="146" spans="1:24" ht="16.5" customHeight="1">
       <c r="A146" s="104"/>
       <c r="B146" s="104"/>
-      <c r="C146" s="246"/>
-      <c r="D146" s="246"/>
-      <c r="E146" s="274" t="s">
+      <c r="C146" s="245"/>
+      <c r="D146" s="245"/>
+      <c r="E146" s="286" t="s">
         <v>251</v>
       </c>
       <c r="F146" s="99" t="s">
@@ -21896,9 +21901,9 @@
     <row r="147" spans="1:24" ht="16.5" customHeight="1">
       <c r="A147" s="104"/>
       <c r="B147" s="104"/>
-      <c r="C147" s="246"/>
-      <c r="D147" s="246"/>
-      <c r="E147" s="246"/>
+      <c r="C147" s="245"/>
+      <c r="D147" s="245"/>
+      <c r="E147" s="245"/>
       <c r="F147" s="99" t="s">
         <v>253</v>
       </c>
@@ -21930,9 +21935,9 @@
     <row r="148" spans="1:24" ht="16.5" customHeight="1">
       <c r="A148" s="104"/>
       <c r="B148" s="104"/>
-      <c r="C148" s="246"/>
-      <c r="D148" s="247"/>
-      <c r="E148" s="247"/>
+      <c r="C148" s="245"/>
+      <c r="D148" s="246"/>
+      <c r="E148" s="246"/>
       <c r="F148" s="99" t="s">
         <v>254</v>
       </c>
@@ -21964,8 +21969,8 @@
     <row r="149" spans="1:24" ht="16.5" customHeight="1">
       <c r="A149" s="104"/>
       <c r="B149" s="104"/>
-      <c r="C149" s="246"/>
-      <c r="D149" s="274" t="s">
+      <c r="C149" s="245"/>
+      <c r="D149" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E149" s="99" t="s">
@@ -22002,8 +22007,8 @@
     <row r="150" spans="1:24" ht="16.5" customHeight="1">
       <c r="A150" s="104"/>
       <c r="B150" s="104"/>
-      <c r="C150" s="246"/>
-      <c r="D150" s="246"/>
+      <c r="C150" s="245"/>
+      <c r="D150" s="245"/>
       <c r="E150" s="99" t="s">
         <v>293</v>
       </c>
@@ -22038,9 +22043,9 @@
     <row r="151" spans="1:24" ht="16.5" customHeight="1">
       <c r="A151" s="104"/>
       <c r="B151" s="104"/>
-      <c r="C151" s="246"/>
-      <c r="D151" s="246"/>
-      <c r="E151" s="274" t="s">
+      <c r="C151" s="245"/>
+      <c r="D151" s="245"/>
+      <c r="E151" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F151" s="99" t="s">
@@ -22074,9 +22079,9 @@
     <row r="152" spans="1:24" ht="16.5" customHeight="1">
       <c r="A152" s="104"/>
       <c r="B152" s="104"/>
-      <c r="C152" s="246"/>
-      <c r="D152" s="247"/>
-      <c r="E152" s="247"/>
+      <c r="C152" s="245"/>
+      <c r="D152" s="246"/>
+      <c r="E152" s="246"/>
       <c r="F152" s="99" t="s">
         <v>257</v>
       </c>
@@ -22108,8 +22113,8 @@
     <row r="153" spans="1:24" ht="16.5" customHeight="1">
       <c r="A153" s="104"/>
       <c r="B153" s="104"/>
-      <c r="C153" s="246"/>
-      <c r="D153" s="274" t="s">
+      <c r="C153" s="245"/>
+      <c r="D153" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E153" s="99" t="s">
@@ -22146,8 +22151,8 @@
     <row r="154" spans="1:24" ht="16.5" customHeight="1">
       <c r="A154" s="104"/>
       <c r="B154" s="104"/>
-      <c r="C154" s="246"/>
-      <c r="D154" s="246"/>
+      <c r="C154" s="245"/>
+      <c r="D154" s="245"/>
       <c r="E154" s="99" t="s">
         <v>264</v>
       </c>
@@ -22182,9 +22187,9 @@
     <row r="155" spans="1:24" ht="16.5" customHeight="1">
       <c r="A155" s="104"/>
       <c r="B155" s="104"/>
-      <c r="C155" s="246"/>
-      <c r="D155" s="246"/>
-      <c r="E155" s="289" t="s">
+      <c r="C155" s="245"/>
+      <c r="D155" s="245"/>
+      <c r="E155" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F155" s="99" t="s">
@@ -22212,9 +22217,9 @@
     <row r="156" spans="1:24" ht="16.5" customHeight="1">
       <c r="A156" s="104"/>
       <c r="B156" s="104"/>
-      <c r="C156" s="246"/>
-      <c r="D156" s="246"/>
-      <c r="E156" s="247"/>
+      <c r="C156" s="245"/>
+      <c r="D156" s="245"/>
+      <c r="E156" s="246"/>
       <c r="F156" s="99" t="s">
         <v>267</v>
       </c>
@@ -22240,9 +22245,9 @@
     <row r="157" spans="1:24" ht="16.5" customHeight="1">
       <c r="A157" s="104"/>
       <c r="B157" s="104"/>
-      <c r="C157" s="246"/>
-      <c r="D157" s="246"/>
-      <c r="E157" s="274" t="s">
+      <c r="C157" s="245"/>
+      <c r="D157" s="245"/>
+      <c r="E157" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F157" s="99" t="s">
@@ -22276,9 +22281,9 @@
     <row r="158" spans="1:24" ht="16.5" customHeight="1">
       <c r="A158" s="104"/>
       <c r="B158" s="104"/>
-      <c r="C158" s="246"/>
-      <c r="D158" s="246"/>
-      <c r="E158" s="247"/>
+      <c r="C158" s="245"/>
+      <c r="D158" s="245"/>
+      <c r="E158" s="246"/>
       <c r="F158" s="99" t="s">
         <v>267</v>
       </c>
@@ -22310,9 +22315,9 @@
     <row r="159" spans="1:24" ht="16.5" customHeight="1">
       <c r="A159" s="104"/>
       <c r="B159" s="104"/>
-      <c r="C159" s="246"/>
-      <c r="D159" s="246"/>
-      <c r="E159" s="274" t="s">
+      <c r="C159" s="245"/>
+      <c r="D159" s="245"/>
+      <c r="E159" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F159" s="99" t="s">
@@ -22346,9 +22351,9 @@
     <row r="160" spans="1:24" ht="16.5" customHeight="1">
       <c r="A160" s="104"/>
       <c r="B160" s="104"/>
-      <c r="C160" s="246"/>
-      <c r="D160" s="247"/>
-      <c r="E160" s="247"/>
+      <c r="C160" s="245"/>
+      <c r="D160" s="246"/>
+      <c r="E160" s="246"/>
       <c r="F160" s="99" t="s">
         <v>271</v>
       </c>
@@ -22380,8 +22385,8 @@
     <row r="161" spans="1:24" ht="16.5" customHeight="1">
       <c r="A161" s="151"/>
       <c r="B161" s="151"/>
-      <c r="C161" s="246"/>
-      <c r="D161" s="281" t="s">
+      <c r="C161" s="245"/>
+      <c r="D161" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E161" s="137" t="s">
@@ -22412,8 +22417,8 @@
     <row r="162" spans="1:24" ht="16.5" customHeight="1">
       <c r="A162" s="151"/>
       <c r="B162" s="151"/>
-      <c r="C162" s="246"/>
-      <c r="D162" s="246"/>
+      <c r="C162" s="245"/>
+      <c r="D162" s="245"/>
       <c r="E162" s="137" t="s">
         <v>274</v>
       </c>
@@ -22442,8 +22447,8 @@
     <row r="163" spans="1:24" ht="16.5" customHeight="1">
       <c r="A163" s="151"/>
       <c r="B163" s="151"/>
-      <c r="C163" s="246"/>
-      <c r="D163" s="247"/>
+      <c r="C163" s="245"/>
+      <c r="D163" s="246"/>
       <c r="E163" s="158" t="s">
         <v>276</v>
       </c>
@@ -22472,11 +22477,11 @@
     <row r="164" spans="1:24" ht="16.5" customHeight="1">
       <c r="A164" s="159"/>
       <c r="B164" s="160"/>
-      <c r="C164" s="246"/>
-      <c r="D164" s="279" t="s">
+      <c r="C164" s="245"/>
+      <c r="D164" s="295" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="284"/>
+      <c r="E164" s="279"/>
       <c r="F164" s="161" t="s">
         <v>279</v>
       </c>
@@ -22502,7 +22507,7 @@
     <row r="165" spans="1:24" ht="16.5" customHeight="1">
       <c r="A165" s="168"/>
       <c r="B165" s="160"/>
-      <c r="C165" s="246"/>
+      <c r="C165" s="245"/>
       <c r="D165" s="280"/>
       <c r="E165" s="280"/>
       <c r="F165" s="169" t="s">
@@ -22530,9 +22535,9 @@
     <row r="166" spans="1:24" ht="16.5" customHeight="1">
       <c r="A166" s="174"/>
       <c r="B166" s="175"/>
-      <c r="C166" s="246"/>
+      <c r="C166" s="245"/>
       <c r="D166" s="252"/>
-      <c r="E166" s="288"/>
+      <c r="E166" s="281"/>
       <c r="F166" s="137" t="s">
         <v>281</v>
       </c>
@@ -22558,12 +22563,12 @@
     <row r="167" spans="1:24" ht="16.5" customHeight="1">
       <c r="A167" s="120"/>
       <c r="B167" s="120"/>
-      <c r="C167" s="276" t="s">
+      <c r="C167" s="283" t="s">
         <v>294</v>
       </c>
-      <c r="D167" s="277"/>
-      <c r="E167" s="277"/>
-      <c r="F167" s="278"/>
+      <c r="D167" s="284"/>
+      <c r="E167" s="284"/>
+      <c r="F167" s="285"/>
       <c r="G167" s="121"/>
       <c r="H167" s="122"/>
       <c r="I167" s="122"/>
@@ -22587,10 +22592,10 @@
       <c r="A168" s="127"/>
       <c r="B168" s="127"/>
       <c r="C168" s="116"/>
-      <c r="D168" s="274" t="s">
+      <c r="D168" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="275" t="s">
+      <c r="E168" s="289" t="s">
         <v>239</v>
       </c>
       <c r="F168" s="109" t="s">
@@ -22618,11 +22623,11 @@
     <row r="169" spans="1:24" ht="16.5" customHeight="1">
       <c r="A169" s="127"/>
       <c r="B169" s="127"/>
-      <c r="C169" s="274" t="s">
+      <c r="C169" s="286" t="s">
         <v>296</v>
       </c>
-      <c r="D169" s="246"/>
-      <c r="E169" s="247"/>
+      <c r="D169" s="245"/>
+      <c r="E169" s="246"/>
       <c r="F169" s="109" t="s">
         <v>297</v>
       </c>
@@ -22648,9 +22653,9 @@
     <row r="170" spans="1:24" ht="16.5" customHeight="1">
       <c r="A170" s="127"/>
       <c r="B170" s="127"/>
-      <c r="C170" s="246"/>
-      <c r="D170" s="246"/>
-      <c r="E170" s="275" t="s">
+      <c r="C170" s="245"/>
+      <c r="D170" s="245"/>
+      <c r="E170" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F170" s="109" t="s">
@@ -22678,9 +22683,9 @@
     <row r="171" spans="1:24" ht="16.5" customHeight="1">
       <c r="A171" s="127"/>
       <c r="B171" s="127"/>
-      <c r="C171" s="246"/>
-      <c r="D171" s="246"/>
-      <c r="E171" s="247"/>
+      <c r="C171" s="245"/>
+      <c r="D171" s="245"/>
+      <c r="E171" s="246"/>
       <c r="F171" s="109" t="s">
         <v>245</v>
       </c>
@@ -22706,8 +22711,8 @@
     <row r="172" spans="1:24" ht="16.5" customHeight="1">
       <c r="A172" s="104"/>
       <c r="B172" s="104"/>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
+      <c r="C172" s="245"/>
+      <c r="D172" s="245"/>
       <c r="E172" s="99" t="s">
         <v>126</v>
       </c>
@@ -22742,8 +22747,8 @@
     <row r="173" spans="1:24" ht="16.5" customHeight="1">
       <c r="A173" s="104"/>
       <c r="B173" s="104"/>
-      <c r="C173" s="246"/>
-      <c r="D173" s="246"/>
+      <c r="C173" s="245"/>
+      <c r="D173" s="245"/>
       <c r="E173" s="99" t="s">
         <v>247</v>
       </c>
@@ -22778,14 +22783,14 @@
     <row r="174" spans="1:24" ht="16.5" customHeight="1">
       <c r="A174" s="104"/>
       <c r="B174" s="104"/>
-      <c r="C174" s="246"/>
-      <c r="D174" s="274" t="s">
+      <c r="C174" s="245"/>
+      <c r="D174" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E174" s="287" t="s">
+      <c r="E174" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="244"/>
+      <c r="F174" s="243"/>
       <c r="G174" s="103"/>
       <c r="H174" s="101"/>
       <c r="I174" s="101"/>
@@ -22814,8 +22819,8 @@
     <row r="175" spans="1:24" ht="16.5" customHeight="1">
       <c r="A175" s="104"/>
       <c r="B175" s="104"/>
-      <c r="C175" s="246"/>
-      <c r="D175" s="246"/>
+      <c r="C175" s="245"/>
+      <c r="D175" s="245"/>
       <c r="E175" s="99" t="s">
         <v>247</v>
       </c>
@@ -22850,9 +22855,9 @@
     <row r="176" spans="1:24" ht="16.5" customHeight="1">
       <c r="A176" s="104"/>
       <c r="B176" s="104"/>
-      <c r="C176" s="246"/>
-      <c r="D176" s="246"/>
-      <c r="E176" s="274" t="s">
+      <c r="C176" s="245"/>
+      <c r="D176" s="245"/>
+      <c r="E176" s="286" t="s">
         <v>251</v>
       </c>
       <c r="F176" s="99" t="s">
@@ -22886,9 +22891,9 @@
     <row r="177" spans="1:24" ht="16.5" customHeight="1">
       <c r="A177" s="104"/>
       <c r="B177" s="104"/>
-      <c r="C177" s="246"/>
-      <c r="D177" s="246"/>
-      <c r="E177" s="246"/>
+      <c r="C177" s="245"/>
+      <c r="D177" s="245"/>
+      <c r="E177" s="245"/>
       <c r="F177" s="99" t="s">
         <v>253</v>
       </c>
@@ -22920,9 +22925,9 @@
     <row r="178" spans="1:24" ht="16.5" customHeight="1">
       <c r="A178" s="104"/>
       <c r="B178" s="104"/>
-      <c r="C178" s="246"/>
-      <c r="D178" s="247"/>
-      <c r="E178" s="247"/>
+      <c r="C178" s="245"/>
+      <c r="D178" s="246"/>
+      <c r="E178" s="246"/>
       <c r="F178" s="99" t="s">
         <v>254</v>
       </c>
@@ -22954,8 +22959,8 @@
     <row r="179" spans="1:24" ht="16.5" customHeight="1">
       <c r="A179" s="104"/>
       <c r="B179" s="104"/>
-      <c r="C179" s="246"/>
-      <c r="D179" s="274" t="s">
+      <c r="C179" s="245"/>
+      <c r="D179" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E179" s="99" t="s">
@@ -22992,8 +22997,8 @@
     <row r="180" spans="1:24" ht="16.5" customHeight="1">
       <c r="A180" s="104"/>
       <c r="B180" s="104"/>
-      <c r="C180" s="246"/>
-      <c r="D180" s="246"/>
+      <c r="C180" s="245"/>
+      <c r="D180" s="245"/>
       <c r="E180" s="99" t="s">
         <v>299</v>
       </c>
@@ -23028,9 +23033,9 @@
     <row r="181" spans="1:24" ht="16.5" customHeight="1">
       <c r="A181" s="104"/>
       <c r="B181" s="104"/>
-      <c r="C181" s="246"/>
-      <c r="D181" s="246"/>
-      <c r="E181" s="274" t="s">
+      <c r="C181" s="245"/>
+      <c r="D181" s="245"/>
+      <c r="E181" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F181" s="99" t="s">
@@ -23064,9 +23069,9 @@
     <row r="182" spans="1:24" ht="16.5" customHeight="1">
       <c r="A182" s="104"/>
       <c r="B182" s="104"/>
-      <c r="C182" s="246"/>
-      <c r="D182" s="247"/>
-      <c r="E182" s="247"/>
+      <c r="C182" s="245"/>
+      <c r="D182" s="246"/>
+      <c r="E182" s="246"/>
       <c r="F182" s="99" t="s">
         <v>257</v>
       </c>
@@ -23098,8 +23103,8 @@
     <row r="183" spans="1:24" ht="16.5" customHeight="1">
       <c r="A183" s="104"/>
       <c r="B183" s="104"/>
-      <c r="C183" s="246"/>
-      <c r="D183" s="274" t="s">
+      <c r="C183" s="245"/>
+      <c r="D183" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E183" s="99" t="s">
@@ -23136,8 +23141,8 @@
     <row r="184" spans="1:24" ht="16.5" customHeight="1">
       <c r="A184" s="104"/>
       <c r="B184" s="104"/>
-      <c r="C184" s="246"/>
-      <c r="D184" s="246"/>
+      <c r="C184" s="245"/>
+      <c r="D184" s="245"/>
       <c r="E184" s="99" t="s">
         <v>264</v>
       </c>
@@ -23172,9 +23177,9 @@
     <row r="185" spans="1:24" ht="16.5" customHeight="1">
       <c r="A185" s="104"/>
       <c r="B185" s="104"/>
-      <c r="C185" s="246"/>
-      <c r="D185" s="246"/>
-      <c r="E185" s="289" t="s">
+      <c r="C185" s="245"/>
+      <c r="D185" s="245"/>
+      <c r="E185" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F185" s="99" t="s">
@@ -23202,9 +23207,9 @@
     <row r="186" spans="1:24" ht="16.5" customHeight="1">
       <c r="A186" s="104"/>
       <c r="B186" s="104"/>
-      <c r="C186" s="246"/>
-      <c r="D186" s="246"/>
-      <c r="E186" s="247"/>
+      <c r="C186" s="245"/>
+      <c r="D186" s="245"/>
+      <c r="E186" s="246"/>
       <c r="F186" s="99" t="s">
         <v>267</v>
       </c>
@@ -23230,9 +23235,9 @@
     <row r="187" spans="1:24" ht="16.5" customHeight="1">
       <c r="A187" s="104"/>
       <c r="B187" s="104"/>
-      <c r="C187" s="246"/>
-      <c r="D187" s="246"/>
-      <c r="E187" s="274" t="s">
+      <c r="C187" s="245"/>
+      <c r="D187" s="245"/>
+      <c r="E187" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F187" s="99" t="s">
@@ -23266,9 +23271,9 @@
     <row r="188" spans="1:24" ht="16.5" customHeight="1">
       <c r="A188" s="104"/>
       <c r="B188" s="104"/>
-      <c r="C188" s="246"/>
-      <c r="D188" s="246"/>
-      <c r="E188" s="247"/>
+      <c r="C188" s="245"/>
+      <c r="D188" s="245"/>
+      <c r="E188" s="246"/>
       <c r="F188" s="99" t="s">
         <v>267</v>
       </c>
@@ -23300,9 +23305,9 @@
     <row r="189" spans="1:24" ht="16.5" customHeight="1">
       <c r="A189" s="104"/>
       <c r="B189" s="104"/>
-      <c r="C189" s="246"/>
-      <c r="D189" s="246"/>
-      <c r="E189" s="274" t="s">
+      <c r="C189" s="245"/>
+      <c r="D189" s="245"/>
+      <c r="E189" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F189" s="99" t="s">
@@ -23336,9 +23341,9 @@
     <row r="190" spans="1:24" ht="16.5" customHeight="1">
       <c r="A190" s="104"/>
       <c r="B190" s="104"/>
-      <c r="C190" s="246"/>
-      <c r="D190" s="247"/>
-      <c r="E190" s="247"/>
+      <c r="C190" s="245"/>
+      <c r="D190" s="246"/>
+      <c r="E190" s="246"/>
       <c r="F190" s="99" t="s">
         <v>271</v>
       </c>
@@ -23370,8 +23375,8 @@
     <row r="191" spans="1:24" ht="16.5" customHeight="1">
       <c r="A191" s="151"/>
       <c r="B191" s="151"/>
-      <c r="C191" s="246"/>
-      <c r="D191" s="281" t="s">
+      <c r="C191" s="245"/>
+      <c r="D191" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E191" s="137" t="s">
@@ -23402,8 +23407,8 @@
     <row r="192" spans="1:24" ht="16.5" customHeight="1">
       <c r="A192" s="151"/>
       <c r="B192" s="151"/>
-      <c r="C192" s="246"/>
-      <c r="D192" s="246"/>
+      <c r="C192" s="245"/>
+      <c r="D192" s="245"/>
       <c r="E192" s="137" t="s">
         <v>274</v>
       </c>
@@ -23432,8 +23437,8 @@
     <row r="193" spans="1:24" ht="16.5" customHeight="1">
       <c r="A193" s="151"/>
       <c r="B193" s="151"/>
-      <c r="C193" s="246"/>
-      <c r="D193" s="247"/>
+      <c r="C193" s="245"/>
+      <c r="D193" s="246"/>
       <c r="E193" s="158" t="s">
         <v>276</v>
       </c>
@@ -23462,11 +23467,11 @@
     <row r="194" spans="1:24" ht="16.5" customHeight="1">
       <c r="A194" s="159"/>
       <c r="B194" s="160"/>
-      <c r="C194" s="246"/>
-      <c r="D194" s="284" t="s">
+      <c r="C194" s="245"/>
+      <c r="D194" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="E194" s="284"/>
+      <c r="E194" s="279"/>
       <c r="F194" s="161" t="s">
         <v>279</v>
       </c>
@@ -23492,7 +23497,7 @@
     <row r="195" spans="1:24" ht="16.5" customHeight="1">
       <c r="A195" s="168"/>
       <c r="B195" s="160"/>
-      <c r="C195" s="246"/>
+      <c r="C195" s="245"/>
       <c r="D195" s="280"/>
       <c r="E195" s="280"/>
       <c r="F195" s="169" t="s">
@@ -23520,9 +23525,9 @@
     <row r="196" spans="1:24" ht="16.5" customHeight="1">
       <c r="A196" s="174"/>
       <c r="B196" s="175"/>
-      <c r="C196" s="247"/>
+      <c r="C196" s="246"/>
       <c r="D196" s="252"/>
-      <c r="E196" s="288"/>
+      <c r="E196" s="281"/>
       <c r="F196" s="137" t="s">
         <v>281</v>
       </c>
@@ -23548,12 +23553,12 @@
     <row r="197" spans="1:24" ht="16.5" customHeight="1">
       <c r="A197" s="120"/>
       <c r="B197" s="120"/>
-      <c r="C197" s="276" t="s">
+      <c r="C197" s="283" t="s">
         <v>300</v>
       </c>
-      <c r="D197" s="277"/>
-      <c r="E197" s="277"/>
-      <c r="F197" s="278"/>
+      <c r="D197" s="284"/>
+      <c r="E197" s="284"/>
+      <c r="F197" s="285"/>
       <c r="G197" s="121"/>
       <c r="H197" s="122"/>
       <c r="I197" s="122"/>
@@ -23576,13 +23581,13 @@
     <row r="198" spans="1:24" ht="16.5" customHeight="1">
       <c r="A198" s="127"/>
       <c r="B198" s="127"/>
-      <c r="C198" s="274" t="s">
+      <c r="C198" s="286" t="s">
         <v>301</v>
       </c>
-      <c r="D198" s="274" t="s">
+      <c r="D198" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E198" s="275" t="s">
+      <c r="E198" s="289" t="s">
         <v>239</v>
       </c>
       <c r="F198" s="109" t="s">
@@ -23610,9 +23615,9 @@
     <row r="199" spans="1:24" ht="16.5" customHeight="1">
       <c r="A199" s="127"/>
       <c r="B199" s="127"/>
-      <c r="C199" s="246"/>
-      <c r="D199" s="246"/>
-      <c r="E199" s="246"/>
+      <c r="C199" s="245"/>
+      <c r="D199" s="245"/>
+      <c r="E199" s="245"/>
       <c r="F199" s="109" t="s">
         <v>303</v>
       </c>
@@ -23638,9 +23643,9 @@
     <row r="200" spans="1:24" ht="16.5" customHeight="1">
       <c r="A200" s="127"/>
       <c r="B200" s="127"/>
-      <c r="C200" s="246"/>
-      <c r="D200" s="246"/>
-      <c r="E200" s="247"/>
+      <c r="C200" s="245"/>
+      <c r="D200" s="245"/>
+      <c r="E200" s="246"/>
       <c r="F200" s="109" t="s">
         <v>304</v>
       </c>
@@ -23666,9 +23671,9 @@
     <row r="201" spans="1:24" ht="16.5" customHeight="1">
       <c r="A201" s="127"/>
       <c r="B201" s="127"/>
-      <c r="C201" s="246"/>
-      <c r="D201" s="246"/>
-      <c r="E201" s="275" t="s">
+      <c r="C201" s="245"/>
+      <c r="D201" s="245"/>
+      <c r="E201" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F201" s="109" t="s">
@@ -23696,9 +23701,9 @@
     <row r="202" spans="1:24" ht="16.5" customHeight="1">
       <c r="A202" s="127"/>
       <c r="B202" s="127"/>
-      <c r="C202" s="246"/>
-      <c r="D202" s="246"/>
-      <c r="E202" s="247"/>
+      <c r="C202" s="245"/>
+      <c r="D202" s="245"/>
+      <c r="E202" s="246"/>
       <c r="F202" s="109" t="s">
         <v>245</v>
       </c>
@@ -23724,8 +23729,8 @@
     <row r="203" spans="1:24" ht="16.5" customHeight="1">
       <c r="A203" s="104"/>
       <c r="B203" s="104"/>
-      <c r="C203" s="246"/>
-      <c r="D203" s="246"/>
+      <c r="C203" s="245"/>
+      <c r="D203" s="245"/>
       <c r="E203" s="99" t="s">
         <v>126</v>
       </c>
@@ -23760,8 +23765,8 @@
     <row r="204" spans="1:24" ht="16.5" customHeight="1">
       <c r="A204" s="104"/>
       <c r="B204" s="104"/>
-      <c r="C204" s="246"/>
-      <c r="D204" s="246"/>
+      <c r="C204" s="245"/>
+      <c r="D204" s="245"/>
       <c r="E204" s="99" t="s">
         <v>247</v>
       </c>
@@ -23796,14 +23801,14 @@
     <row r="205" spans="1:24" ht="16.5" customHeight="1">
       <c r="A205" s="104"/>
       <c r="B205" s="104"/>
-      <c r="C205" s="246"/>
-      <c r="D205" s="274" t="s">
+      <c r="C205" s="245"/>
+      <c r="D205" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E205" s="287" t="s">
+      <c r="E205" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F205" s="244"/>
+      <c r="F205" s="243"/>
       <c r="G205" s="103"/>
       <c r="H205" s="101"/>
       <c r="I205" s="101"/>
@@ -23832,8 +23837,8 @@
     <row r="206" spans="1:24" ht="16.5" customHeight="1">
       <c r="A206" s="104"/>
       <c r="B206" s="104"/>
-      <c r="C206" s="246"/>
-      <c r="D206" s="246"/>
+      <c r="C206" s="245"/>
+      <c r="D206" s="245"/>
       <c r="E206" s="99" t="s">
         <v>247</v>
       </c>
@@ -23868,9 +23873,9 @@
     <row r="207" spans="1:24" ht="16.5" customHeight="1">
       <c r="A207" s="104"/>
       <c r="B207" s="104"/>
-      <c r="C207" s="246"/>
-      <c r="D207" s="246"/>
-      <c r="E207" s="274" t="s">
+      <c r="C207" s="245"/>
+      <c r="D207" s="245"/>
+      <c r="E207" s="286" t="s">
         <v>251</v>
       </c>
       <c r="F207" s="99" t="s">
@@ -23904,9 +23909,9 @@
     <row r="208" spans="1:24" ht="16.5" customHeight="1">
       <c r="A208" s="104"/>
       <c r="B208" s="104"/>
-      <c r="C208" s="246"/>
-      <c r="D208" s="246"/>
-      <c r="E208" s="246"/>
+      <c r="C208" s="245"/>
+      <c r="D208" s="245"/>
+      <c r="E208" s="245"/>
       <c r="F208" s="99" t="s">
         <v>253</v>
       </c>
@@ -23938,9 +23943,9 @@
     <row r="209" spans="1:24" ht="16.5" customHeight="1">
       <c r="A209" s="104"/>
       <c r="B209" s="104"/>
-      <c r="C209" s="246"/>
-      <c r="D209" s="247"/>
-      <c r="E209" s="247"/>
+      <c r="C209" s="245"/>
+      <c r="D209" s="246"/>
+      <c r="E209" s="246"/>
       <c r="F209" s="99" t="s">
         <v>254</v>
       </c>
@@ -23972,8 +23977,8 @@
     <row r="210" spans="1:24" ht="16.5" customHeight="1">
       <c r="A210" s="104"/>
       <c r="B210" s="104"/>
-      <c r="C210" s="246"/>
-      <c r="D210" s="274" t="s">
+      <c r="C210" s="245"/>
+      <c r="D210" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E210" s="99" t="s">
@@ -24010,8 +24015,8 @@
     <row r="211" spans="1:24" ht="16.5" customHeight="1">
       <c r="A211" s="104"/>
       <c r="B211" s="104"/>
-      <c r="C211" s="246"/>
-      <c r="D211" s="246"/>
+      <c r="C211" s="245"/>
+      <c r="D211" s="245"/>
       <c r="E211" s="99" t="s">
         <v>306</v>
       </c>
@@ -24046,8 +24051,8 @@
     <row r="212" spans="1:24" ht="16.5" customHeight="1">
       <c r="A212" s="104"/>
       <c r="B212" s="104"/>
-      <c r="C212" s="246"/>
-      <c r="D212" s="246"/>
+      <c r="C212" s="245"/>
+      <c r="D212" s="245"/>
       <c r="E212" s="99" t="s">
         <v>307</v>
       </c>
@@ -24082,9 +24087,9 @@
     <row r="213" spans="1:24" ht="16.5" customHeight="1">
       <c r="A213" s="104"/>
       <c r="B213" s="104"/>
-      <c r="C213" s="246"/>
-      <c r="D213" s="246"/>
-      <c r="E213" s="274" t="s">
+      <c r="C213" s="245"/>
+      <c r="D213" s="245"/>
+      <c r="E213" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F213" s="99" t="s">
@@ -24118,9 +24123,9 @@
     <row r="214" spans="1:24" ht="16.5" customHeight="1">
       <c r="A214" s="104"/>
       <c r="B214" s="104"/>
-      <c r="C214" s="246"/>
-      <c r="D214" s="247"/>
-      <c r="E214" s="247"/>
+      <c r="C214" s="245"/>
+      <c r="D214" s="246"/>
+      <c r="E214" s="246"/>
       <c r="F214" s="99" t="s">
         <v>257</v>
       </c>
@@ -24152,8 +24157,8 @@
     <row r="215" spans="1:24" ht="16.5" customHeight="1">
       <c r="A215" s="104"/>
       <c r="B215" s="104"/>
-      <c r="C215" s="246"/>
-      <c r="D215" s="274" t="s">
+      <c r="C215" s="245"/>
+      <c r="D215" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E215" s="99" t="s">
@@ -24190,8 +24195,8 @@
     <row r="216" spans="1:24" ht="16.5" customHeight="1">
       <c r="A216" s="104"/>
       <c r="B216" s="104"/>
-      <c r="C216" s="246"/>
-      <c r="D216" s="246"/>
+      <c r="C216" s="245"/>
+      <c r="D216" s="245"/>
       <c r="E216" s="99" t="s">
         <v>264</v>
       </c>
@@ -24226,9 +24231,9 @@
     <row r="217" spans="1:24" ht="16.5" customHeight="1">
       <c r="A217" s="104"/>
       <c r="B217" s="104"/>
-      <c r="C217" s="246"/>
-      <c r="D217" s="246"/>
-      <c r="E217" s="289" t="s">
+      <c r="C217" s="245"/>
+      <c r="D217" s="245"/>
+      <c r="E217" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F217" s="99" t="s">
@@ -24256,9 +24261,9 @@
     <row r="218" spans="1:24" ht="16.5" customHeight="1">
       <c r="A218" s="104"/>
       <c r="B218" s="104"/>
-      <c r="C218" s="246"/>
-      <c r="D218" s="246"/>
-      <c r="E218" s="247"/>
+      <c r="C218" s="245"/>
+      <c r="D218" s="245"/>
+      <c r="E218" s="246"/>
       <c r="F218" s="99" t="s">
         <v>267</v>
       </c>
@@ -24284,9 +24289,9 @@
     <row r="219" spans="1:24" ht="16.5" customHeight="1">
       <c r="A219" s="104"/>
       <c r="B219" s="104"/>
-      <c r="C219" s="246"/>
-      <c r="D219" s="246"/>
-      <c r="E219" s="274" t="s">
+      <c r="C219" s="245"/>
+      <c r="D219" s="245"/>
+      <c r="E219" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F219" s="99" t="s">
@@ -24320,9 +24325,9 @@
     <row r="220" spans="1:24" ht="16.5" customHeight="1">
       <c r="A220" s="104"/>
       <c r="B220" s="104"/>
-      <c r="C220" s="246"/>
-      <c r="D220" s="246"/>
-      <c r="E220" s="247"/>
+      <c r="C220" s="245"/>
+      <c r="D220" s="245"/>
+      <c r="E220" s="246"/>
       <c r="F220" s="99" t="s">
         <v>267</v>
       </c>
@@ -24354,9 +24359,9 @@
     <row r="221" spans="1:24" ht="16.5" customHeight="1">
       <c r="A221" s="104"/>
       <c r="B221" s="104"/>
-      <c r="C221" s="246"/>
-      <c r="D221" s="246"/>
-      <c r="E221" s="274" t="s">
+      <c r="C221" s="245"/>
+      <c r="D221" s="245"/>
+      <c r="E221" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F221" s="99" t="s">
@@ -24390,9 +24395,9 @@
     <row r="222" spans="1:24" ht="16.5" customHeight="1">
       <c r="A222" s="104"/>
       <c r="B222" s="104"/>
-      <c r="C222" s="246"/>
-      <c r="D222" s="247"/>
-      <c r="E222" s="247"/>
+      <c r="C222" s="245"/>
+      <c r="D222" s="246"/>
+      <c r="E222" s="246"/>
       <c r="F222" s="99" t="s">
         <v>271</v>
       </c>
@@ -24424,8 +24429,8 @@
     <row r="223" spans="1:24" ht="16.5" customHeight="1">
       <c r="A223" s="151"/>
       <c r="B223" s="151"/>
-      <c r="C223" s="246"/>
-      <c r="D223" s="281" t="s">
+      <c r="C223" s="245"/>
+      <c r="D223" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E223" s="137" t="s">
@@ -24456,8 +24461,8 @@
     <row r="224" spans="1:24" ht="16.5" customHeight="1">
       <c r="A224" s="151"/>
       <c r="B224" s="151"/>
-      <c r="C224" s="246"/>
-      <c r="D224" s="246"/>
+      <c r="C224" s="245"/>
+      <c r="D224" s="245"/>
       <c r="E224" s="137" t="s">
         <v>274</v>
       </c>
@@ -24486,8 +24491,8 @@
     <row r="225" spans="1:24" ht="16.5" customHeight="1">
       <c r="A225" s="151"/>
       <c r="B225" s="151"/>
-      <c r="C225" s="246"/>
-      <c r="D225" s="247"/>
+      <c r="C225" s="245"/>
+      <c r="D225" s="246"/>
       <c r="E225" s="158" t="s">
         <v>276</v>
       </c>
@@ -24516,11 +24521,11 @@
     <row r="226" spans="1:24" ht="16.5" customHeight="1">
       <c r="A226" s="159"/>
       <c r="B226" s="160"/>
-      <c r="C226" s="246"/>
-      <c r="D226" s="284" t="s">
+      <c r="C226" s="245"/>
+      <c r="D226" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="E226" s="284"/>
+      <c r="E226" s="279"/>
       <c r="F226" s="161" t="s">
         <v>279</v>
       </c>
@@ -24546,7 +24551,7 @@
     <row r="227" spans="1:24" ht="16.5" customHeight="1">
       <c r="A227" s="168"/>
       <c r="B227" s="160"/>
-      <c r="C227" s="246"/>
+      <c r="C227" s="245"/>
       <c r="D227" s="280"/>
       <c r="E227" s="280"/>
       <c r="F227" s="169" t="s">
@@ -24574,9 +24579,9 @@
     <row r="228" spans="1:24" ht="16.5" customHeight="1">
       <c r="A228" s="174"/>
       <c r="B228" s="175"/>
-      <c r="C228" s="247"/>
+      <c r="C228" s="246"/>
       <c r="D228" s="252"/>
-      <c r="E228" s="288"/>
+      <c r="E228" s="281"/>
       <c r="F228" s="137" t="s">
         <v>281</v>
       </c>
@@ -24602,12 +24607,12 @@
     <row r="229" spans="1:24" ht="16.5" customHeight="1">
       <c r="A229" s="120"/>
       <c r="B229" s="120"/>
-      <c r="C229" s="276" t="s">
+      <c r="C229" s="283" t="s">
         <v>308</v>
       </c>
-      <c r="D229" s="277"/>
-      <c r="E229" s="277"/>
-      <c r="F229" s="278"/>
+      <c r="D229" s="284"/>
+      <c r="E229" s="284"/>
+      <c r="F229" s="285"/>
       <c r="G229" s="121"/>
       <c r="H229" s="122"/>
       <c r="I229" s="184"/>
@@ -24630,13 +24635,13 @@
     <row r="230" spans="1:24" ht="16.5" customHeight="1">
       <c r="A230" s="127"/>
       <c r="B230" s="127"/>
-      <c r="C230" s="274" t="s">
+      <c r="C230" s="286" t="s">
         <v>309</v>
       </c>
-      <c r="D230" s="274" t="s">
+      <c r="D230" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="E230" s="275" t="s">
+      <c r="E230" s="289" t="s">
         <v>239</v>
       </c>
       <c r="F230" s="109" t="s">
@@ -24664,9 +24669,9 @@
     <row r="231" spans="1:24" ht="16.5" customHeight="1">
       <c r="A231" s="127"/>
       <c r="B231" s="127"/>
-      <c r="C231" s="246"/>
-      <c r="D231" s="246"/>
-      <c r="E231" s="246"/>
+      <c r="C231" s="245"/>
+      <c r="D231" s="245"/>
+      <c r="E231" s="245"/>
       <c r="F231" s="109" t="s">
         <v>311</v>
       </c>
@@ -24692,9 +24697,9 @@
     <row r="232" spans="1:24" ht="16.5" customHeight="1">
       <c r="A232" s="127"/>
       <c r="B232" s="127"/>
-      <c r="C232" s="246"/>
-      <c r="D232" s="246"/>
-      <c r="E232" s="247"/>
+      <c r="C232" s="245"/>
+      <c r="D232" s="245"/>
+      <c r="E232" s="246"/>
       <c r="F232" s="109" t="s">
         <v>312</v>
       </c>
@@ -24720,9 +24725,9 @@
     <row r="233" spans="1:24" ht="16.5" customHeight="1">
       <c r="A233" s="127"/>
       <c r="B233" s="127"/>
-      <c r="C233" s="246"/>
-      <c r="D233" s="246"/>
-      <c r="E233" s="275" t="s">
+      <c r="C233" s="245"/>
+      <c r="D233" s="245"/>
+      <c r="E233" s="289" t="s">
         <v>243</v>
       </c>
       <c r="F233" s="109" t="s">
@@ -24750,9 +24755,9 @@
     <row r="234" spans="1:24" ht="16.5" customHeight="1">
       <c r="A234" s="127"/>
       <c r="B234" s="127"/>
-      <c r="C234" s="246"/>
-      <c r="D234" s="246"/>
-      <c r="E234" s="247"/>
+      <c r="C234" s="245"/>
+      <c r="D234" s="245"/>
+      <c r="E234" s="246"/>
       <c r="F234" s="109" t="s">
         <v>245</v>
       </c>
@@ -24778,8 +24783,8 @@
     <row r="235" spans="1:24" ht="16.5" customHeight="1">
       <c r="A235" s="104"/>
       <c r="B235" s="104"/>
-      <c r="C235" s="246"/>
-      <c r="D235" s="246"/>
+      <c r="C235" s="245"/>
+      <c r="D235" s="245"/>
       <c r="E235" s="99" t="s">
         <v>126</v>
       </c>
@@ -24814,8 +24819,8 @@
     <row r="236" spans="1:24" ht="16.5" customHeight="1">
       <c r="A236" s="104"/>
       <c r="B236" s="104"/>
-      <c r="C236" s="246"/>
-      <c r="D236" s="246"/>
+      <c r="C236" s="245"/>
+      <c r="D236" s="245"/>
       <c r="E236" s="99" t="s">
         <v>247</v>
       </c>
@@ -24850,14 +24855,14 @@
     <row r="237" spans="1:24" ht="16.5" customHeight="1">
       <c r="A237" s="104"/>
       <c r="B237" s="104"/>
-      <c r="C237" s="246"/>
-      <c r="D237" s="274" t="s">
+      <c r="C237" s="245"/>
+      <c r="D237" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="E237" s="287" t="s">
+      <c r="E237" s="282" t="s">
         <v>249</v>
       </c>
-      <c r="F237" s="244"/>
+      <c r="F237" s="243"/>
       <c r="G237" s="103"/>
       <c r="H237" s="101"/>
       <c r="I237" s="100"/>
@@ -24886,8 +24891,8 @@
     <row r="238" spans="1:24" ht="16.5" customHeight="1">
       <c r="A238" s="104"/>
       <c r="B238" s="104"/>
-      <c r="C238" s="246"/>
-      <c r="D238" s="246"/>
+      <c r="C238" s="245"/>
+      <c r="D238" s="245"/>
       <c r="E238" s="99" t="s">
         <v>247</v>
       </c>
@@ -24922,9 +24927,9 @@
     <row r="239" spans="1:24" ht="16.5" customHeight="1">
       <c r="A239" s="104"/>
       <c r="B239" s="104"/>
-      <c r="C239" s="246"/>
-      <c r="D239" s="246"/>
-      <c r="E239" s="274" t="s">
+      <c r="C239" s="245"/>
+      <c r="D239" s="245"/>
+      <c r="E239" s="286" t="s">
         <v>251</v>
       </c>
       <c r="F239" s="99" t="s">
@@ -24952,9 +24957,9 @@
     <row r="240" spans="1:24" ht="16.5" customHeight="1">
       <c r="A240" s="104"/>
       <c r="B240" s="104"/>
-      <c r="C240" s="246"/>
-      <c r="D240" s="246"/>
-      <c r="E240" s="246"/>
+      <c r="C240" s="245"/>
+      <c r="D240" s="245"/>
+      <c r="E240" s="245"/>
       <c r="F240" s="99" t="s">
         <v>253</v>
       </c>
@@ -24980,9 +24985,9 @@
     <row r="241" spans="1:24" ht="16.5" customHeight="1">
       <c r="A241" s="104"/>
       <c r="B241" s="104"/>
-      <c r="C241" s="246"/>
-      <c r="D241" s="247"/>
-      <c r="E241" s="247"/>
+      <c r="C241" s="245"/>
+      <c r="D241" s="246"/>
+      <c r="E241" s="246"/>
       <c r="F241" s="99" t="s">
         <v>254</v>
       </c>
@@ -25014,8 +25019,8 @@
     <row r="242" spans="1:24" ht="16.5" customHeight="1">
       <c r="A242" s="104"/>
       <c r="B242" s="104"/>
-      <c r="C242" s="246"/>
-      <c r="D242" s="274" t="s">
+      <c r="C242" s="245"/>
+      <c r="D242" s="286" t="s">
         <v>255</v>
       </c>
       <c r="E242" s="99" t="s">
@@ -25052,8 +25057,8 @@
     <row r="243" spans="1:24" ht="16.5" customHeight="1">
       <c r="A243" s="104"/>
       <c r="B243" s="104"/>
-      <c r="C243" s="246"/>
-      <c r="D243" s="246"/>
+      <c r="C243" s="245"/>
+      <c r="D243" s="245"/>
       <c r="E243" s="99" t="s">
         <v>314</v>
       </c>
@@ -25088,8 +25093,8 @@
     <row r="244" spans="1:24" ht="16.5" customHeight="1">
       <c r="A244" s="104"/>
       <c r="B244" s="104"/>
-      <c r="C244" s="246"/>
-      <c r="D244" s="246"/>
+      <c r="C244" s="245"/>
+      <c r="D244" s="245"/>
       <c r="E244" s="99" t="s">
         <v>315</v>
       </c>
@@ -25124,9 +25129,9 @@
     <row r="245" spans="1:24" ht="16.5" customHeight="1">
       <c r="A245" s="104"/>
       <c r="B245" s="104"/>
-      <c r="C245" s="246"/>
-      <c r="D245" s="246"/>
-      <c r="E245" s="274" t="s">
+      <c r="C245" s="245"/>
+      <c r="D245" s="245"/>
+      <c r="E245" s="286" t="s">
         <v>260</v>
       </c>
       <c r="F245" s="99" t="s">
@@ -25160,9 +25165,9 @@
     <row r="246" spans="1:24" ht="16.5" customHeight="1">
       <c r="A246" s="104"/>
       <c r="B246" s="104"/>
-      <c r="C246" s="246"/>
-      <c r="D246" s="247"/>
-      <c r="E246" s="247"/>
+      <c r="C246" s="245"/>
+      <c r="D246" s="246"/>
+      <c r="E246" s="246"/>
       <c r="F246" s="99" t="s">
         <v>257</v>
       </c>
@@ -25194,8 +25199,8 @@
     <row r="247" spans="1:24" ht="16.5" customHeight="1">
       <c r="A247" s="104"/>
       <c r="B247" s="104"/>
-      <c r="C247" s="246"/>
-      <c r="D247" s="274" t="s">
+      <c r="C247" s="245"/>
+      <c r="D247" s="286" t="s">
         <v>262</v>
       </c>
       <c r="E247" s="99" t="s">
@@ -25232,8 +25237,8 @@
     <row r="248" spans="1:24" ht="16.5" customHeight="1">
       <c r="A248" s="104"/>
       <c r="B248" s="104"/>
-      <c r="C248" s="246"/>
-      <c r="D248" s="246"/>
+      <c r="C248" s="245"/>
+      <c r="D248" s="245"/>
       <c r="E248" s="99" t="s">
         <v>264</v>
       </c>
@@ -25268,9 +25273,9 @@
     <row r="249" spans="1:24" ht="16.5" customHeight="1">
       <c r="A249" s="104"/>
       <c r="B249" s="104"/>
-      <c r="C249" s="246"/>
-      <c r="D249" s="246"/>
-      <c r="E249" s="289" t="s">
+      <c r="C249" s="245"/>
+      <c r="D249" s="245"/>
+      <c r="E249" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F249" s="99" t="s">
@@ -25298,9 +25303,9 @@
     <row r="250" spans="1:24" ht="16.5" customHeight="1">
       <c r="A250" s="104"/>
       <c r="B250" s="104"/>
-      <c r="C250" s="246"/>
-      <c r="D250" s="246"/>
-      <c r="E250" s="247"/>
+      <c r="C250" s="245"/>
+      <c r="D250" s="245"/>
+      <c r="E250" s="246"/>
       <c r="F250" s="99" t="s">
         <v>267</v>
       </c>
@@ -25326,9 +25331,9 @@
     <row r="251" spans="1:24" ht="16.5" customHeight="1">
       <c r="A251" s="104"/>
       <c r="B251" s="104"/>
-      <c r="C251" s="246"/>
-      <c r="D251" s="246"/>
-      <c r="E251" s="274" t="s">
+      <c r="C251" s="245"/>
+      <c r="D251" s="245"/>
+      <c r="E251" s="286" t="s">
         <v>268</v>
       </c>
       <c r="F251" s="99" t="s">
@@ -25362,9 +25367,9 @@
     <row r="252" spans="1:24" ht="16.5" customHeight="1">
       <c r="A252" s="104"/>
       <c r="B252" s="104"/>
-      <c r="C252" s="246"/>
-      <c r="D252" s="246"/>
-      <c r="E252" s="247"/>
+      <c r="C252" s="245"/>
+      <c r="D252" s="245"/>
+      <c r="E252" s="246"/>
       <c r="F252" s="99" t="s">
         <v>267</v>
       </c>
@@ -25396,9 +25401,9 @@
     <row r="253" spans="1:24" ht="16.5" customHeight="1">
       <c r="A253" s="104"/>
       <c r="B253" s="104"/>
-      <c r="C253" s="246"/>
-      <c r="D253" s="246"/>
-      <c r="E253" s="274" t="s">
+      <c r="C253" s="245"/>
+      <c r="D253" s="245"/>
+      <c r="E253" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F253" s="99" t="s">
@@ -25432,9 +25437,9 @@
     <row r="254" spans="1:24" ht="16.5" customHeight="1">
       <c r="A254" s="104"/>
       <c r="B254" s="104"/>
-      <c r="C254" s="246"/>
-      <c r="D254" s="247"/>
-      <c r="E254" s="247"/>
+      <c r="C254" s="245"/>
+      <c r="D254" s="246"/>
+      <c r="E254" s="246"/>
       <c r="F254" s="99" t="s">
         <v>271</v>
       </c>
@@ -25466,8 +25471,8 @@
     <row r="255" spans="1:24" ht="16.5" customHeight="1">
       <c r="A255" s="104"/>
       <c r="B255" s="104"/>
-      <c r="C255" s="246"/>
-      <c r="D255" s="281" t="s">
+      <c r="C255" s="245"/>
+      <c r="D255" s="288" t="s">
         <v>272</v>
       </c>
       <c r="E255" s="137" t="s">
@@ -25504,8 +25509,8 @@
     <row r="256" spans="1:24" ht="16.5" customHeight="1">
       <c r="A256" s="104"/>
       <c r="B256" s="104"/>
-      <c r="C256" s="246"/>
-      <c r="D256" s="246"/>
+      <c r="C256" s="245"/>
+      <c r="D256" s="245"/>
       <c r="E256" s="137" t="s">
         <v>274</v>
       </c>
@@ -25540,8 +25545,8 @@
     <row r="257" spans="1:24" ht="16.5" customHeight="1">
       <c r="A257" s="152"/>
       <c r="B257" s="152"/>
-      <c r="C257" s="246"/>
-      <c r="D257" s="247"/>
+      <c r="C257" s="245"/>
+      <c r="D257" s="246"/>
       <c r="E257" s="158" t="s">
         <v>276</v>
       </c>
@@ -25576,11 +25581,11 @@
     <row r="258" spans="1:24" ht="16.5" customHeight="1">
       <c r="A258" s="159"/>
       <c r="B258" s="160"/>
-      <c r="C258" s="246"/>
-      <c r="D258" s="284" t="s">
+      <c r="C258" s="245"/>
+      <c r="D258" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="E258" s="284"/>
+      <c r="E258" s="279"/>
       <c r="F258" s="161" t="s">
         <v>279</v>
       </c>
@@ -25606,7 +25611,7 @@
     <row r="259" spans="1:24" ht="16.5" customHeight="1">
       <c r="A259" s="168"/>
       <c r="B259" s="160"/>
-      <c r="C259" s="246"/>
+      <c r="C259" s="245"/>
       <c r="D259" s="280"/>
       <c r="E259" s="280"/>
       <c r="F259" s="169" t="s">
@@ -25634,9 +25639,9 @@
     <row r="260" spans="1:24" ht="16.5" customHeight="1">
       <c r="A260" s="174"/>
       <c r="B260" s="175"/>
-      <c r="C260" s="246"/>
+      <c r="C260" s="245"/>
       <c r="D260" s="252"/>
-      <c r="E260" s="288"/>
+      <c r="E260" s="281"/>
       <c r="F260" s="137" t="s">
         <v>281</v>
       </c>
@@ -25662,12 +25667,12 @@
     <row r="261" spans="1:24" ht="16.5" customHeight="1">
       <c r="A261" s="120"/>
       <c r="B261" s="120"/>
-      <c r="C261" s="292" t="s">
+      <c r="C261" s="276" t="s">
         <v>316</v>
       </c>
-      <c r="D261" s="293"/>
-      <c r="E261" s="293"/>
-      <c r="F261" s="294"/>
+      <c r="D261" s="277"/>
+      <c r="E261" s="277"/>
+      <c r="F261" s="278"/>
       <c r="G261" s="121"/>
       <c r="H261" s="122"/>
       <c r="I261" s="122"/>
@@ -25696,7 +25701,7 @@
     <row r="262" spans="1:24" ht="16.5" customHeight="1">
       <c r="A262" s="104"/>
       <c r="B262" s="104"/>
-      <c r="C262" s="272"/>
+      <c r="C262" s="250"/>
       <c r="D262" s="251"/>
       <c r="E262" s="251"/>
       <c r="F262" s="252"/>
@@ -30047,6 +30052,128 @@
     </row>
   </sheetData>
   <mergeCells count="146">
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="C230:C260"/>
+    <mergeCell ref="D9:D22"/>
+    <mergeCell ref="D174:D178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="C167:F167"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="C169:C196"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="C135:O136"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="C138:C166"/>
+    <mergeCell ref="D223:D225"/>
+    <mergeCell ref="D194:D196"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="D226:D228"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="D198:D204"/>
+    <mergeCell ref="C198:C228"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="D230:D236"/>
+    <mergeCell ref="C106:C134"/>
+    <mergeCell ref="C7:C52"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="D23:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D237:D241"/>
+    <mergeCell ref="D121:D128"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:C104"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="D183:D190"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="D153:D160"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="C55:C70"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D98"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D80"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:F81"/>
     <mergeCell ref="C261:F262"/>
     <mergeCell ref="E258:E260"/>
     <mergeCell ref="E237:F237"/>
@@ -30071,128 +30198,6 @@
     <mergeCell ref="E251:E252"/>
     <mergeCell ref="D255:D257"/>
     <mergeCell ref="D258:D260"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="C55:C70"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D91:D98"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D80"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="D153:D160"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D237:D241"/>
-    <mergeCell ref="D121:D128"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:C104"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="D183:D190"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="D226:D228"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="D198:D204"/>
-    <mergeCell ref="C198:C228"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="D230:D236"/>
-    <mergeCell ref="C106:C134"/>
-    <mergeCell ref="C7:C52"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="D23:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="C230:C260"/>
-    <mergeCell ref="D9:D22"/>
-    <mergeCell ref="D174:D178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="C167:F167"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="C169:C196"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="C135:O136"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="C138:C166"/>
-    <mergeCell ref="D223:D225"/>
-    <mergeCell ref="D194:D196"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30239,10 +30244,10 @@
       <c r="D3" s="193"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="295" t="s">
+      <c r="B4" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="297" t="s">
+      <c r="C4" s="299" t="s">
         <v>320</v>
       </c>
       <c r="D4" s="193" t="s">
@@ -30250,15 +30255,15 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
       <c r="D5" s="193" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="249"/>
-      <c r="C6" s="297" t="s">
+      <c r="B6" s="269"/>
+      <c r="C6" s="299" t="s">
         <v>323</v>
       </c>
       <c r="D6" s="193" t="s">
@@ -30266,15 +30271,15 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="269"/>
       <c r="D7" s="193" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="249"/>
-      <c r="C8" s="297" t="s">
+      <c r="B8" s="269"/>
+      <c r="C8" s="299" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="193" t="s">
@@ -30282,29 +30287,29 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="269"/>
       <c r="D9" s="193" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
       <c r="D10" s="193" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
       <c r="D11" s="193" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="249"/>
-      <c r="C12" s="297" t="s">
+      <c r="B12" s="269"/>
+      <c r="C12" s="299" t="s">
         <v>331</v>
       </c>
       <c r="D12" s="193" t="s">
@@ -30312,43 +30317,43 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
       <c r="D13" s="193" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="249"/>
-      <c r="C14" s="249"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="269"/>
       <c r="D14" s="193" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="249"/>
-      <c r="C15" s="249"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
       <c r="D15" s="193" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="249"/>
-      <c r="C16" s="249"/>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
       <c r="D16" s="193" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="249"/>
-      <c r="C17" s="249"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
       <c r="D17" s="193" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="249"/>
-      <c r="C18" s="297" t="s">
+      <c r="B18" s="269"/>
+      <c r="C18" s="299" t="s">
         <v>338</v>
       </c>
       <c r="D18" s="193" t="s">
@@ -30356,15 +30361,15 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
+      <c r="B19" s="269"/>
+      <c r="C19" s="269"/>
       <c r="D19" s="193" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="249"/>
-      <c r="C20" s="297" t="s">
+      <c r="B20" s="269"/>
+      <c r="C20" s="299" t="s">
         <v>341</v>
       </c>
       <c r="D20" s="193" t="s">
@@ -30372,15 +30377,15 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="249"/>
-      <c r="C21" s="249"/>
+      <c r="B21" s="269"/>
+      <c r="C21" s="269"/>
       <c r="D21" s="193" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="249"/>
-      <c r="C22" s="297" t="s">
+      <c r="B22" s="269"/>
+      <c r="C22" s="299" t="s">
         <v>344</v>
       </c>
       <c r="D22" s="193" t="s">
@@ -30388,15 +30393,15 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
+      <c r="B23" s="269"/>
+      <c r="C23" s="269"/>
       <c r="D23" s="193" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="249"/>
-      <c r="C24" s="297" t="s">
+      <c r="B24" s="269"/>
+      <c r="C24" s="299" t="s">
         <v>347</v>
       </c>
       <c r="D24" s="193" t="s">
@@ -30404,36 +30409,36 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
+      <c r="B25" s="269"/>
+      <c r="C25" s="269"/>
       <c r="D25" s="193" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="249"/>
-      <c r="C26" s="249"/>
+      <c r="B26" s="269"/>
+      <c r="C26" s="269"/>
       <c r="D26" s="193" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="249"/>
-      <c r="C27" s="249"/>
+      <c r="B27" s="269"/>
+      <c r="C27" s="269"/>
       <c r="D27" s="193" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="249"/>
-      <c r="C28" s="249"/>
+      <c r="B28" s="269"/>
+      <c r="C28" s="269"/>
       <c r="D28" s="193" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="296"/>
-      <c r="C29" s="249"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="269"/>
       <c r="D29" s="193" t="s">
         <v>353</v>
       </c>
@@ -30478,15 +30483,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="239" t="s">
+      <c r="C1" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -30510,7 +30515,7 @@
       <c r="Z1" s="194"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="296"/>
+      <c r="A2" s="298"/>
       <c r="B2" s="195"/>
       <c r="C2" s="195" t="s">
         <v>24</v>
@@ -30546,10 +30551,10 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="297" t="s">
+      <c r="C3" s="299" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="297" t="s">
+      <c r="D3" s="299" t="s">
         <v>355</v>
       </c>
       <c r="E3" s="196" t="s">
@@ -30580,8 +30585,8 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
       <c r="E4" s="193" t="s">
         <v>357</v>
       </c>
@@ -30610,8 +30615,8 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="193" t="s">
         <v>358</v>
       </c>
@@ -30640,8 +30645,8 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="193" t="s">
         <v>359</v>
       </c>
@@ -30670,8 +30675,8 @@
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="298" t="s">
+      <c r="C7" s="269"/>
+      <c r="D7" s="301" t="s">
         <v>360</v>
       </c>
       <c r="E7" s="196" t="s">
@@ -30702,8 +30707,8 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="196" t="s">
         <v>362</v>
       </c>
@@ -30732,8 +30737,8 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
       <c r="E9" s="193" t="s">
         <v>363</v>
       </c>
@@ -30762,8 +30767,8 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="297" t="s">
+      <c r="C10" s="269"/>
+      <c r="D10" s="299" t="s">
         <v>359</v>
       </c>
       <c r="E10" s="193" t="s">
@@ -30794,8 +30799,8 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
       <c r="E11" s="193" t="s">
         <v>364</v>
       </c>
@@ -30824,8 +30829,8 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
       <c r="E12" s="193" t="s">
         <v>365</v>
       </c>
@@ -30854,8 +30859,8 @@
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
       <c r="E13" s="193" t="s">
         <v>366</v>
       </c>
@@ -30884,8 +30889,8 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
       <c r="E14" s="193" t="s">
         <v>367</v>
       </c>
@@ -30914,8 +30919,8 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="193" t="s">
         <v>368</v>
       </c>
@@ -30944,8 +30949,8 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
       <c r="E16" s="193" t="s">
         <v>369</v>
       </c>
@@ -30974,8 +30979,8 @@
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
       <c r="E17" s="193" t="s">
         <v>370</v>
       </c>
@@ -31004,8 +31009,8 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
       <c r="E18" s="193" t="s">
         <v>371</v>
       </c>
@@ -31034,8 +31039,8 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="269"/>
       <c r="E19" s="193" t="s">
         <v>372</v>
       </c>
@@ -31064,8 +31069,8 @@
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269"/>
       <c r="E20" s="193" t="s">
         <v>373</v>
       </c>
@@ -31094,8 +31099,8 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="269"/>
       <c r="E21" s="193" t="s">
         <v>374</v>
       </c>
@@ -31124,8 +31129,8 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="297" t="s">
+      <c r="C22" s="269"/>
+      <c r="D22" s="299" t="s">
         <v>375</v>
       </c>
       <c r="E22" s="193" t="s">
@@ -31156,8 +31161,8 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
       <c r="E23" s="193" t="s">
         <v>377</v>
       </c>
@@ -31186,8 +31191,8 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="269"/>
       <c r="E24" s="193" t="s">
         <v>378</v>
       </c>
@@ -31216,8 +31221,8 @@
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="269"/>
       <c r="E25" s="193" t="s">
         <v>379</v>
       </c>
@@ -31246,8 +31251,8 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="269"/>
       <c r="E26" s="193" t="s">
         <v>380</v>
       </c>
@@ -31276,8 +31281,8 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
       <c r="E27" s="193" t="s">
         <v>381</v>
       </c>
@@ -31306,8 +31311,8 @@
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="269"/>
       <c r="E28" s="193" t="s">
         <v>382</v>
       </c>
@@ -31336,8 +31341,8 @@
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="269"/>
       <c r="E29" s="196" t="s">
         <v>383</v>
       </c>
@@ -31366,8 +31371,8 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
       <c r="E30" s="196" t="s">
         <v>384</v>
       </c>
@@ -31396,8 +31401,8 @@
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
       <c r="E31" s="193" t="s">
         <v>385</v>
       </c>
@@ -31426,8 +31431,8 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="297" t="s">
+      <c r="C32" s="269"/>
+      <c r="D32" s="299" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="193" t="s">
@@ -31458,8 +31463,8 @@
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="249"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
       <c r="E33" s="193" t="s">
         <v>387</v>
       </c>
@@ -31488,8 +31493,8 @@
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="249"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="269"/>
       <c r="E34" s="193" t="s">
         <v>388</v>
       </c>
@@ -31518,8 +31523,8 @@
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
       <c r="E35" s="193" t="s">
         <v>389</v>
       </c>
@@ -31548,8 +31553,8 @@
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="249"/>
-      <c r="D36" s="249"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="269"/>
       <c r="E36" s="193" t="s">
         <v>390</v>
       </c>
@@ -31578,8 +31583,8 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="249"/>
-      <c r="D37" s="249"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
       <c r="E37" s="193" t="s">
         <v>391</v>
       </c>
@@ -31608,8 +31613,8 @@
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="249"/>
-      <c r="D38" s="297" t="s">
+      <c r="C38" s="269"/>
+      <c r="D38" s="299" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="193" t="s">
@@ -31640,8 +31645,8 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="249"/>
-      <c r="D39" s="249"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="193" t="s">
         <v>387</v>
       </c>
@@ -31670,8 +31675,8 @@
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="249"/>
-      <c r="D40" s="249"/>
+      <c r="C40" s="269"/>
+      <c r="D40" s="269"/>
       <c r="E40" s="193" t="s">
         <v>388</v>
       </c>
@@ -31700,8 +31705,8 @@
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="249"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="269"/>
       <c r="E41" s="193" t="s">
         <v>389</v>
       </c>
@@ -31730,8 +31735,8 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="249"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
       <c r="E42" s="193" t="s">
         <v>390</v>
       </c>
@@ -31760,8 +31765,8 @@
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="249"/>
-      <c r="D43" s="249"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269"/>
       <c r="E43" s="193" t="s">
         <v>391</v>
       </c>
@@ -31790,8 +31795,8 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="297" t="s">
+      <c r="C44" s="269"/>
+      <c r="D44" s="299" t="s">
         <v>193</v>
       </c>
       <c r="E44" s="193" t="s">
@@ -31822,8 +31827,8 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="193" t="s">
         <v>394</v>
       </c>
@@ -31852,8 +31857,8 @@
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="269"/>
       <c r="E46" s="193"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -31880,8 +31885,8 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269"/>
       <c r="E47" s="193"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -31908,8 +31913,8 @@
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="197"/>
       <c r="B48" s="197"/>
-      <c r="C48" s="296"/>
-      <c r="D48" s="296"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
       <c r="E48" s="198" t="s">
         <v>395</v>
       </c>
@@ -31938,10 +31943,10 @@
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="297" t="s">
+      <c r="C49" s="299" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="297" t="s">
+      <c r="D49" s="299" t="s">
         <v>396</v>
       </c>
       <c r="E49" s="193" t="s">
@@ -31972,8 +31977,8 @@
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="269"/>
       <c r="E50" s="196" t="s">
         <v>398</v>
       </c>
@@ -32002,8 +32007,8 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="249"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="269"/>
       <c r="E51" s="193" t="s">
         <v>399</v>
       </c>
@@ -32032,8 +32037,8 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
+      <c r="C52" s="269"/>
+      <c r="D52" s="269"/>
       <c r="E52" s="193" t="s">
         <v>164</v>
       </c>
@@ -32062,8 +32067,8 @@
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="297" t="s">
+      <c r="C53" s="269"/>
+      <c r="D53" s="299" t="s">
         <v>400</v>
       </c>
       <c r="E53" s="193" t="s">
@@ -32094,8 +32099,8 @@
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="269"/>
       <c r="E54" s="193" t="s">
         <v>172</v>
       </c>
@@ -32124,8 +32129,8 @@
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
       <c r="E55" s="196" t="s">
         <v>173</v>
       </c>
@@ -32154,8 +32159,8 @@
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
+      <c r="C56" s="269"/>
+      <c r="D56" s="269"/>
       <c r="E56" s="196" t="s">
         <v>174</v>
       </c>
@@ -32184,8 +32189,8 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
       <c r="E57" s="196" t="s">
         <v>175</v>
       </c>
@@ -32214,8 +32219,8 @@
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="249"/>
+      <c r="C58" s="269"/>
+      <c r="D58" s="269"/>
       <c r="E58" s="193" t="s">
         <v>176</v>
       </c>
@@ -32244,8 +32249,8 @@
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
+      <c r="C59" s="269"/>
+      <c r="D59" s="269"/>
       <c r="E59" s="193" t="s">
         <v>177</v>
       </c>
@@ -32274,8 +32279,8 @@
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="249"/>
-      <c r="D60" s="297" t="s">
+      <c r="C60" s="269"/>
+      <c r="D60" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="193" t="s">
@@ -32306,8 +32311,8 @@
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="249"/>
-      <c r="D61" s="249"/>
+      <c r="C61" s="269"/>
+      <c r="D61" s="269"/>
       <c r="E61" s="193" t="s">
         <v>168</v>
       </c>
@@ -32336,8 +32341,8 @@
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="249"/>
-      <c r="D62" s="297" t="s">
+      <c r="C62" s="269"/>
+      <c r="D62" s="299" t="s">
         <v>401</v>
       </c>
       <c r="E62" s="193" t="s">
@@ -32368,8 +32373,8 @@
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="249"/>
-      <c r="D63" s="249"/>
+      <c r="C63" s="269"/>
+      <c r="D63" s="269"/>
       <c r="E63" s="196" t="s">
         <v>398</v>
       </c>
@@ -32398,8 +32403,8 @@
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="249"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="269"/>
       <c r="E64" s="193" t="s">
         <v>399</v>
       </c>
@@ -32428,8 +32433,8 @@
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="249"/>
-      <c r="D65" s="249"/>
+      <c r="C65" s="269"/>
+      <c r="D65" s="269"/>
       <c r="E65" s="193" t="s">
         <v>164</v>
       </c>
@@ -32458,8 +32463,8 @@
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="249"/>
-      <c r="D66" s="297" t="s">
+      <c r="C66" s="269"/>
+      <c r="D66" s="299" t="s">
         <v>402</v>
       </c>
       <c r="E66" s="193" t="s">
@@ -32490,8 +32495,8 @@
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="249"/>
+      <c r="C67" s="269"/>
+      <c r="D67" s="269"/>
       <c r="E67" s="193" t="s">
         <v>172</v>
       </c>
@@ -32520,8 +32525,8 @@
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="249"/>
-      <c r="D68" s="249"/>
+      <c r="C68" s="269"/>
+      <c r="D68" s="269"/>
       <c r="E68" s="196" t="s">
         <v>173</v>
       </c>
@@ -32550,8 +32555,8 @@
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
+      <c r="C69" s="269"/>
+      <c r="D69" s="269"/>
       <c r="E69" s="196" t="s">
         <v>174</v>
       </c>
@@ -32580,8 +32585,8 @@
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
+      <c r="C70" s="269"/>
+      <c r="D70" s="269"/>
       <c r="E70" s="196" t="s">
         <v>175</v>
       </c>
@@ -32610,8 +32615,8 @@
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="249"/>
+      <c r="C71" s="269"/>
+      <c r="D71" s="269"/>
       <c r="E71" s="193" t="s">
         <v>176</v>
       </c>
@@ -32640,8 +32645,8 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
+      <c r="C72" s="269"/>
+      <c r="D72" s="269"/>
       <c r="E72" s="193" t="s">
         <v>177</v>
       </c>
@@ -32670,8 +32675,8 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="249"/>
-      <c r="D73" s="297" t="s">
+      <c r="C73" s="269"/>
+      <c r="D73" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E73" s="193" t="s">
@@ -32702,8 +32707,8 @@
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="249"/>
-      <c r="D74" s="249"/>
+      <c r="C74" s="269"/>
+      <c r="D74" s="269"/>
       <c r="E74" s="193" t="s">
         <v>168</v>
       </c>
@@ -32732,8 +32737,8 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="297" t="s">
+      <c r="C75" s="269"/>
+      <c r="D75" s="299" t="s">
         <v>403</v>
       </c>
       <c r="E75" s="193" t="s">
@@ -32764,8 +32769,8 @@
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="249"/>
-      <c r="D76" s="249"/>
+      <c r="C76" s="269"/>
+      <c r="D76" s="269"/>
       <c r="E76" s="196" t="s">
         <v>398</v>
       </c>
@@ -32794,8 +32799,8 @@
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="249"/>
-      <c r="D77" s="249"/>
+      <c r="C77" s="269"/>
+      <c r="D77" s="269"/>
       <c r="E77" s="193" t="s">
         <v>399</v>
       </c>
@@ -32824,8 +32829,8 @@
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="249"/>
-      <c r="D78" s="249"/>
+      <c r="C78" s="269"/>
+      <c r="D78" s="269"/>
       <c r="E78" s="193" t="s">
         <v>164</v>
       </c>
@@ -32854,8 +32859,8 @@
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="297" t="s">
+      <c r="C79" s="269"/>
+      <c r="D79" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E79" s="193" t="s">
@@ -32886,8 +32891,8 @@
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
+      <c r="C80" s="269"/>
+      <c r="D80" s="269"/>
       <c r="E80" s="193" t="s">
         <v>172</v>
       </c>
@@ -32916,8 +32921,8 @@
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
-      <c r="C81" s="249"/>
-      <c r="D81" s="249"/>
+      <c r="C81" s="269"/>
+      <c r="D81" s="269"/>
       <c r="E81" s="196" t="s">
         <v>173</v>
       </c>
@@ -32946,8 +32951,8 @@
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="249"/>
-      <c r="D82" s="249"/>
+      <c r="C82" s="269"/>
+      <c r="D82" s="269"/>
       <c r="E82" s="196" t="s">
         <v>174</v>
       </c>
@@ -32976,8 +32981,8 @@
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
-      <c r="C83" s="249"/>
-      <c r="D83" s="249"/>
+      <c r="C83" s="269"/>
+      <c r="D83" s="269"/>
       <c r="E83" s="196" t="s">
         <v>175</v>
       </c>
@@ -33006,8 +33011,8 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="249"/>
-      <c r="D84" s="249"/>
+      <c r="C84" s="269"/>
+      <c r="D84" s="269"/>
       <c r="E84" s="193" t="s">
         <v>176</v>
       </c>
@@ -33036,8 +33041,8 @@
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
+      <c r="C85" s="269"/>
+      <c r="D85" s="269"/>
       <c r="E85" s="193" t="s">
         <v>177</v>
       </c>
@@ -33066,8 +33071,8 @@
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="297" t="s">
+      <c r="C86" s="269"/>
+      <c r="D86" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E86" s="193" t="s">
@@ -33098,8 +33103,8 @@
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="249"/>
+      <c r="C87" s="269"/>
+      <c r="D87" s="269"/>
       <c r="E87" s="193" t="s">
         <v>168</v>
       </c>
@@ -33128,8 +33133,8 @@
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
-      <c r="C88" s="249"/>
-      <c r="D88" s="297" t="s">
+      <c r="C88" s="269"/>
+      <c r="D88" s="299" t="s">
         <v>405</v>
       </c>
       <c r="E88" s="193" t="s">
@@ -33160,8 +33165,8 @@
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
-      <c r="C89" s="249"/>
-      <c r="D89" s="249"/>
+      <c r="C89" s="269"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="196" t="s">
         <v>398</v>
       </c>
@@ -33190,8 +33195,8 @@
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="249"/>
-      <c r="D90" s="249"/>
+      <c r="C90" s="269"/>
+      <c r="D90" s="269"/>
       <c r="E90" s="193" t="s">
         <v>399</v>
       </c>
@@ -33220,8 +33225,8 @@
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
-      <c r="C91" s="249"/>
-      <c r="D91" s="249"/>
+      <c r="C91" s="269"/>
+      <c r="D91" s="269"/>
       <c r="E91" s="193" t="s">
         <v>164</v>
       </c>
@@ -33250,8 +33255,8 @@
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
-      <c r="C92" s="249"/>
-      <c r="D92" s="297" t="s">
+      <c r="C92" s="269"/>
+      <c r="D92" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E92" s="193" t="s">
@@ -33282,8 +33287,8 @@
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
-      <c r="C93" s="249"/>
-      <c r="D93" s="249"/>
+      <c r="C93" s="269"/>
+      <c r="D93" s="269"/>
       <c r="E93" s="193" t="s">
         <v>172</v>
       </c>
@@ -33312,8 +33317,8 @@
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
-      <c r="C94" s="249"/>
-      <c r="D94" s="249"/>
+      <c r="C94" s="269"/>
+      <c r="D94" s="269"/>
       <c r="E94" s="196" t="s">
         <v>173</v>
       </c>
@@ -33342,8 +33347,8 @@
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
-      <c r="C95" s="249"/>
-      <c r="D95" s="249"/>
+      <c r="C95" s="269"/>
+      <c r="D95" s="269"/>
       <c r="E95" s="196" t="s">
         <v>174</v>
       </c>
@@ -33372,8 +33377,8 @@
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="249"/>
-      <c r="D96" s="249"/>
+      <c r="C96" s="269"/>
+      <c r="D96" s="269"/>
       <c r="E96" s="196" t="s">
         <v>175</v>
       </c>
@@ -33402,8 +33407,8 @@
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
-      <c r="C97" s="249"/>
-      <c r="D97" s="249"/>
+      <c r="C97" s="269"/>
+      <c r="D97" s="269"/>
       <c r="E97" s="193" t="s">
         <v>176</v>
       </c>
@@ -33432,8 +33437,8 @@
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
-      <c r="C98" s="249"/>
-      <c r="D98" s="249"/>
+      <c r="C98" s="269"/>
+      <c r="D98" s="269"/>
       <c r="E98" s="193" t="s">
         <v>177</v>
       </c>
@@ -33462,8 +33467,8 @@
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
-      <c r="C99" s="249"/>
-      <c r="D99" s="297" t="s">
+      <c r="C99" s="269"/>
+      <c r="D99" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E99" s="193" t="s">
@@ -33494,8 +33499,8 @@
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
-      <c r="C100" s="249"/>
-      <c r="D100" s="249"/>
+      <c r="C100" s="269"/>
+      <c r="D100" s="269"/>
       <c r="E100" s="193" t="s">
         <v>168</v>
       </c>
@@ -33524,8 +33529,8 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
-      <c r="C101" s="249"/>
-      <c r="D101" s="297" t="s">
+      <c r="C101" s="269"/>
+      <c r="D101" s="299" t="s">
         <v>406</v>
       </c>
       <c r="E101" s="193" t="s">
@@ -33556,8 +33561,8 @@
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
-      <c r="C102" s="249"/>
-      <c r="D102" s="249"/>
+      <c r="C102" s="269"/>
+      <c r="D102" s="269"/>
       <c r="E102" s="196" t="s">
         <v>398</v>
       </c>
@@ -33586,8 +33591,8 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
-      <c r="C103" s="249"/>
-      <c r="D103" s="249"/>
+      <c r="C103" s="269"/>
+      <c r="D103" s="269"/>
       <c r="E103" s="193" t="s">
         <v>399</v>
       </c>
@@ -33616,8 +33621,8 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
-      <c r="C104" s="249"/>
-      <c r="D104" s="249"/>
+      <c r="C104" s="269"/>
+      <c r="D104" s="269"/>
       <c r="E104" s="193" t="s">
         <v>164</v>
       </c>
@@ -33646,8 +33651,8 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
-      <c r="C105" s="249"/>
-      <c r="D105" s="297" t="s">
+      <c r="C105" s="269"/>
+      <c r="D105" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E105" s="193" t="s">
@@ -33678,8 +33683,8 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
-      <c r="C106" s="249"/>
-      <c r="D106" s="249"/>
+      <c r="C106" s="269"/>
+      <c r="D106" s="269"/>
       <c r="E106" s="193" t="s">
         <v>172</v>
       </c>
@@ -33708,8 +33713,8 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
-      <c r="C107" s="249"/>
-      <c r="D107" s="249"/>
+      <c r="C107" s="269"/>
+      <c r="D107" s="269"/>
       <c r="E107" s="196" t="s">
         <v>173</v>
       </c>
@@ -33738,8 +33743,8 @@
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
-      <c r="C108" s="249"/>
-      <c r="D108" s="249"/>
+      <c r="C108" s="269"/>
+      <c r="D108" s="269"/>
       <c r="E108" s="196" t="s">
         <v>174</v>
       </c>
@@ -33768,8 +33773,8 @@
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
-      <c r="C109" s="249"/>
-      <c r="D109" s="249"/>
+      <c r="C109" s="269"/>
+      <c r="D109" s="269"/>
       <c r="E109" s="196" t="s">
         <v>175</v>
       </c>
@@ -33798,8 +33803,8 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
-      <c r="C110" s="249"/>
-      <c r="D110" s="249"/>
+      <c r="C110" s="269"/>
+      <c r="D110" s="269"/>
       <c r="E110" s="193" t="s">
         <v>176</v>
       </c>
@@ -33828,8 +33833,8 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
-      <c r="C111" s="249"/>
-      <c r="D111" s="249"/>
+      <c r="C111" s="269"/>
+      <c r="D111" s="269"/>
       <c r="E111" s="193" t="s">
         <v>177</v>
       </c>
@@ -33858,8 +33863,8 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
-      <c r="C112" s="249"/>
-      <c r="D112" s="297" t="s">
+      <c r="C112" s="269"/>
+      <c r="D112" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E112" s="193" t="s">
@@ -33890,8 +33895,8 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
-      <c r="C113" s="249"/>
-      <c r="D113" s="249"/>
+      <c r="C113" s="269"/>
+      <c r="D113" s="269"/>
       <c r="E113" s="193" t="s">
         <v>168</v>
       </c>
@@ -33920,8 +33925,8 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
-      <c r="C114" s="249"/>
-      <c r="D114" s="297" t="s">
+      <c r="C114" s="269"/>
+      <c r="D114" s="299" t="s">
         <v>407</v>
       </c>
       <c r="E114" s="193" t="s">
@@ -33952,8 +33957,8 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="249"/>
+      <c r="C115" s="269"/>
+      <c r="D115" s="269"/>
       <c r="E115" s="196" t="s">
         <v>398</v>
       </c>
@@ -33982,8 +33987,8 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
-      <c r="C116" s="249"/>
-      <c r="D116" s="249"/>
+      <c r="C116" s="269"/>
+      <c r="D116" s="269"/>
       <c r="E116" s="193" t="s">
         <v>399</v>
       </c>
@@ -34012,8 +34017,8 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
-      <c r="C117" s="249"/>
-      <c r="D117" s="249"/>
+      <c r="C117" s="269"/>
+      <c r="D117" s="269"/>
       <c r="E117" s="193" t="s">
         <v>164</v>
       </c>
@@ -34042,8 +34047,8 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="297" t="s">
+      <c r="C118" s="269"/>
+      <c r="D118" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E118" s="193" t="s">
@@ -34074,8 +34079,8 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
-      <c r="C119" s="249"/>
-      <c r="D119" s="249"/>
+      <c r="C119" s="269"/>
+      <c r="D119" s="269"/>
       <c r="E119" s="193" t="s">
         <v>172</v>
       </c>
@@ -34104,8 +34109,8 @@
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
-      <c r="C120" s="249"/>
-      <c r="D120" s="249"/>
+      <c r="C120" s="269"/>
+      <c r="D120" s="269"/>
       <c r="E120" s="196" t="s">
         <v>173</v>
       </c>
@@ -34134,8 +34139,8 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
-      <c r="C121" s="249"/>
-      <c r="D121" s="249"/>
+      <c r="C121" s="269"/>
+      <c r="D121" s="269"/>
       <c r="E121" s="196" t="s">
         <v>174</v>
       </c>
@@ -34164,8 +34169,8 @@
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
-      <c r="C122" s="249"/>
-      <c r="D122" s="249"/>
+      <c r="C122" s="269"/>
+      <c r="D122" s="269"/>
       <c r="E122" s="196" t="s">
         <v>175</v>
       </c>
@@ -34194,8 +34199,8 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
-      <c r="C123" s="249"/>
-      <c r="D123" s="249"/>
+      <c r="C123" s="269"/>
+      <c r="D123" s="269"/>
       <c r="E123" s="193" t="s">
         <v>176</v>
       </c>
@@ -34224,8 +34229,8 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
-      <c r="C124" s="249"/>
-      <c r="D124" s="249"/>
+      <c r="C124" s="269"/>
+      <c r="D124" s="269"/>
       <c r="E124" s="193" t="s">
         <v>177</v>
       </c>
@@ -34254,8 +34259,8 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
-      <c r="C125" s="249"/>
-      <c r="D125" s="297" t="s">
+      <c r="C125" s="269"/>
+      <c r="D125" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E125" s="193" t="s">
@@ -34286,8 +34291,8 @@
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
-      <c r="C126" s="249"/>
-      <c r="D126" s="249"/>
+      <c r="C126" s="269"/>
+      <c r="D126" s="269"/>
       <c r="E126" s="193" t="s">
         <v>168</v>
       </c>
@@ -34316,8 +34321,8 @@
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
-      <c r="C127" s="249"/>
-      <c r="D127" s="297" t="s">
+      <c r="C127" s="269"/>
+      <c r="D127" s="299" t="s">
         <v>393</v>
       </c>
       <c r="E127" s="193" t="s">
@@ -34348,8 +34353,8 @@
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
-      <c r="C128" s="249"/>
-      <c r="D128" s="249"/>
+      <c r="C128" s="269"/>
+      <c r="D128" s="269"/>
       <c r="E128" s="193" t="s">
         <v>399</v>
       </c>
@@ -34378,8 +34383,8 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
-      <c r="C129" s="249"/>
-      <c r="D129" s="249"/>
+      <c r="C129" s="269"/>
+      <c r="D129" s="269"/>
       <c r="E129" s="193" t="s">
         <v>164</v>
       </c>
@@ -34408,8 +34413,8 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
-      <c r="C130" s="249"/>
-      <c r="D130" s="297" t="s">
+      <c r="C130" s="269"/>
+      <c r="D130" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E130" s="193" t="s">
@@ -34440,8 +34445,8 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
-      <c r="C131" s="249"/>
-      <c r="D131" s="249"/>
+      <c r="C131" s="269"/>
+      <c r="D131" s="269"/>
       <c r="E131" s="193" t="s">
         <v>172</v>
       </c>
@@ -34470,8 +34475,8 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
-      <c r="C132" s="249"/>
-      <c r="D132" s="249"/>
+      <c r="C132" s="269"/>
+      <c r="D132" s="269"/>
       <c r="E132" s="196" t="s">
         <v>173</v>
       </c>
@@ -34500,8 +34505,8 @@
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
-      <c r="C133" s="249"/>
-      <c r="D133" s="249"/>
+      <c r="C133" s="269"/>
+      <c r="D133" s="269"/>
       <c r="E133" s="196" t="s">
         <v>174</v>
       </c>
@@ -34530,8 +34535,8 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
-      <c r="C134" s="249"/>
-      <c r="D134" s="249"/>
+      <c r="C134" s="269"/>
+      <c r="D134" s="269"/>
       <c r="E134" s="196" t="s">
         <v>175</v>
       </c>
@@ -34560,8 +34565,8 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
-      <c r="C135" s="249"/>
-      <c r="D135" s="249"/>
+      <c r="C135" s="269"/>
+      <c r="D135" s="269"/>
       <c r="E135" s="193" t="s">
         <v>176</v>
       </c>
@@ -34590,8 +34595,8 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
-      <c r="C136" s="249"/>
-      <c r="D136" s="249"/>
+      <c r="C136" s="269"/>
+      <c r="D136" s="269"/>
       <c r="E136" s="193" t="s">
         <v>177</v>
       </c>
@@ -34620,8 +34625,8 @@
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
-      <c r="C137" s="249"/>
-      <c r="D137" s="297" t="s">
+      <c r="C137" s="269"/>
+      <c r="D137" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E137" s="193" t="s">
@@ -34652,8 +34657,8 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
-      <c r="C138" s="249"/>
-      <c r="D138" s="249"/>
+      <c r="C138" s="269"/>
+      <c r="D138" s="269"/>
       <c r="E138" s="193" t="s">
         <v>168</v>
       </c>
@@ -34682,8 +34687,8 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
-      <c r="C139" s="249"/>
-      <c r="D139" s="297" t="s">
+      <c r="C139" s="269"/>
+      <c r="D139" s="299" t="s">
         <v>394</v>
       </c>
       <c r="E139" s="193" t="s">
@@ -34714,8 +34719,8 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
-      <c r="C140" s="249"/>
-      <c r="D140" s="249"/>
+      <c r="C140" s="269"/>
+      <c r="D140" s="269"/>
       <c r="E140" s="193" t="s">
         <v>399</v>
       </c>
@@ -34744,8 +34749,8 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
-      <c r="C141" s="249"/>
-      <c r="D141" s="249"/>
+      <c r="C141" s="269"/>
+      <c r="D141" s="269"/>
       <c r="E141" s="193" t="s">
         <v>164</v>
       </c>
@@ -34774,8 +34779,8 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
-      <c r="C142" s="249"/>
-      <c r="D142" s="297" t="s">
+      <c r="C142" s="269"/>
+      <c r="D142" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E142" s="193" t="s">
@@ -34806,8 +34811,8 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
-      <c r="C143" s="249"/>
-      <c r="D143" s="249"/>
+      <c r="C143" s="269"/>
+      <c r="D143" s="269"/>
       <c r="E143" s="193" t="s">
         <v>172</v>
       </c>
@@ -34836,8 +34841,8 @@
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
-      <c r="C144" s="249"/>
-      <c r="D144" s="249"/>
+      <c r="C144" s="269"/>
+      <c r="D144" s="269"/>
       <c r="E144" s="196" t="s">
         <v>173</v>
       </c>
@@ -34866,8 +34871,8 @@
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
-      <c r="C145" s="249"/>
-      <c r="D145" s="249"/>
+      <c r="C145" s="269"/>
+      <c r="D145" s="269"/>
       <c r="E145" s="196" t="s">
         <v>174</v>
       </c>
@@ -34896,8 +34901,8 @@
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
-      <c r="C146" s="249"/>
-      <c r="D146" s="249"/>
+      <c r="C146" s="269"/>
+      <c r="D146" s="269"/>
       <c r="E146" s="196" t="s">
         <v>175</v>
       </c>
@@ -34926,8 +34931,8 @@
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
-      <c r="C147" s="249"/>
-      <c r="D147" s="249"/>
+      <c r="C147" s="269"/>
+      <c r="D147" s="269"/>
       <c r="E147" s="193" t="s">
         <v>176</v>
       </c>
@@ -34956,8 +34961,8 @@
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
-      <c r="C148" s="249"/>
-      <c r="D148" s="249"/>
+      <c r="C148" s="269"/>
+      <c r="D148" s="269"/>
       <c r="E148" s="193" t="s">
         <v>177</v>
       </c>
@@ -34986,8 +34991,8 @@
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
-      <c r="C149" s="249"/>
-      <c r="D149" s="297" t="s">
+      <c r="C149" s="269"/>
+      <c r="D149" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E149" s="193" t="s">
@@ -35018,8 +35023,8 @@
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
-      <c r="C150" s="249"/>
-      <c r="D150" s="249"/>
+      <c r="C150" s="269"/>
+      <c r="D150" s="269"/>
       <c r="E150" s="193" t="s">
         <v>168</v>
       </c>
@@ -35048,8 +35053,8 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
-      <c r="C151" s="249"/>
-      <c r="D151" s="297"/>
+      <c r="C151" s="269"/>
+      <c r="D151" s="299"/>
       <c r="E151" s="193" t="s">
         <v>397</v>
       </c>
@@ -35078,8 +35083,8 @@
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
-      <c r="C152" s="249"/>
-      <c r="D152" s="249"/>
+      <c r="C152" s="269"/>
+      <c r="D152" s="269"/>
       <c r="E152" s="193" t="s">
         <v>399</v>
       </c>
@@ -35108,8 +35113,8 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
-      <c r="C153" s="249"/>
-      <c r="D153" s="249"/>
+      <c r="C153" s="269"/>
+      <c r="D153" s="269"/>
       <c r="E153" s="193" t="s">
         <v>164</v>
       </c>
@@ -35138,8 +35143,8 @@
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
-      <c r="C154" s="249"/>
-      <c r="D154" s="297" t="s">
+      <c r="C154" s="269"/>
+      <c r="D154" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E154" s="193" t="s">
@@ -35170,8 +35175,8 @@
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
-      <c r="C155" s="249"/>
-      <c r="D155" s="249"/>
+      <c r="C155" s="269"/>
+      <c r="D155" s="269"/>
       <c r="E155" s="193" t="s">
         <v>172</v>
       </c>
@@ -35200,8 +35205,8 @@
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
-      <c r="C156" s="249"/>
-      <c r="D156" s="249"/>
+      <c r="C156" s="269"/>
+      <c r="D156" s="269"/>
       <c r="E156" s="196" t="s">
         <v>173</v>
       </c>
@@ -35230,8 +35235,8 @@
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
-      <c r="C157" s="249"/>
-      <c r="D157" s="249"/>
+      <c r="C157" s="269"/>
+      <c r="D157" s="269"/>
       <c r="E157" s="196" t="s">
         <v>174</v>
       </c>
@@ -35260,8 +35265,8 @@
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
-      <c r="C158" s="249"/>
-      <c r="D158" s="249"/>
+      <c r="C158" s="269"/>
+      <c r="D158" s="269"/>
       <c r="E158" s="196" t="s">
         <v>175</v>
       </c>
@@ -35290,8 +35295,8 @@
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
-      <c r="C159" s="249"/>
-      <c r="D159" s="249"/>
+      <c r="C159" s="269"/>
+      <c r="D159" s="269"/>
       <c r="E159" s="193" t="s">
         <v>176</v>
       </c>
@@ -35320,8 +35325,8 @@
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
-      <c r="C160" s="249"/>
-      <c r="D160" s="249"/>
+      <c r="C160" s="269"/>
+      <c r="D160" s="269"/>
       <c r="E160" s="193" t="s">
         <v>177</v>
       </c>
@@ -35350,8 +35355,8 @@
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
-      <c r="C161" s="249"/>
-      <c r="D161" s="297" t="s">
+      <c r="C161" s="269"/>
+      <c r="D161" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E161" s="193" t="s">
@@ -35382,8 +35387,8 @@
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
-      <c r="C162" s="249"/>
-      <c r="D162" s="249"/>
+      <c r="C162" s="269"/>
+      <c r="D162" s="269"/>
       <c r="E162" s="193" t="s">
         <v>168</v>
       </c>
@@ -35412,8 +35417,8 @@
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
-      <c r="C163" s="249"/>
-      <c r="D163" s="297"/>
+      <c r="C163" s="269"/>
+      <c r="D163" s="299"/>
       <c r="E163" s="193" t="s">
         <v>397</v>
       </c>
@@ -35442,8 +35447,8 @@
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
-      <c r="C164" s="249"/>
-      <c r="D164" s="249"/>
+      <c r="C164" s="269"/>
+      <c r="D164" s="269"/>
       <c r="E164" s="193" t="s">
         <v>399</v>
       </c>
@@ -35472,8 +35477,8 @@
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
-      <c r="C165" s="249"/>
-      <c r="D165" s="249"/>
+      <c r="C165" s="269"/>
+      <c r="D165" s="269"/>
       <c r="E165" s="193" t="s">
         <v>164</v>
       </c>
@@ -35502,8 +35507,8 @@
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
-      <c r="C166" s="249"/>
-      <c r="D166" s="297" t="s">
+      <c r="C166" s="269"/>
+      <c r="D166" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E166" s="193" t="s">
@@ -35534,8 +35539,8 @@
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
-      <c r="C167" s="249"/>
-      <c r="D167" s="249"/>
+      <c r="C167" s="269"/>
+      <c r="D167" s="269"/>
       <c r="E167" s="193" t="s">
         <v>172</v>
       </c>
@@ -35564,8 +35569,8 @@
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
-      <c r="C168" s="249"/>
-      <c r="D168" s="249"/>
+      <c r="C168" s="269"/>
+      <c r="D168" s="269"/>
       <c r="E168" s="196" t="s">
         <v>173</v>
       </c>
@@ -35594,8 +35599,8 @@
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
-      <c r="C169" s="249"/>
-      <c r="D169" s="249"/>
+      <c r="C169" s="269"/>
+      <c r="D169" s="269"/>
       <c r="E169" s="196" t="s">
         <v>174</v>
       </c>
@@ -35624,8 +35629,8 @@
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
-      <c r="C170" s="249"/>
-      <c r="D170" s="249"/>
+      <c r="C170" s="269"/>
+      <c r="D170" s="269"/>
       <c r="E170" s="196" t="s">
         <v>175</v>
       </c>
@@ -35654,8 +35659,8 @@
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
-      <c r="C171" s="249"/>
-      <c r="D171" s="249"/>
+      <c r="C171" s="269"/>
+      <c r="D171" s="269"/>
       <c r="E171" s="193" t="s">
         <v>176</v>
       </c>
@@ -35684,8 +35689,8 @@
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
-      <c r="C172" s="249"/>
-      <c r="D172" s="249"/>
+      <c r="C172" s="269"/>
+      <c r="D172" s="269"/>
       <c r="E172" s="193" t="s">
         <v>177</v>
       </c>
@@ -35714,8 +35719,8 @@
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
-      <c r="C173" s="249"/>
-      <c r="D173" s="297" t="s">
+      <c r="C173" s="269"/>
+      <c r="D173" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="193" t="s">
@@ -35746,8 +35751,8 @@
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
-      <c r="C174" s="249"/>
-      <c r="D174" s="249"/>
+      <c r="C174" s="269"/>
+      <c r="D174" s="269"/>
       <c r="E174" s="193" t="s">
         <v>168</v>
       </c>
@@ -35776,8 +35781,8 @@
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
-      <c r="C175" s="249"/>
-      <c r="D175" s="297"/>
+      <c r="C175" s="269"/>
+      <c r="D175" s="299"/>
       <c r="E175" s="193" t="s">
         <v>397</v>
       </c>
@@ -35806,8 +35811,8 @@
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
-      <c r="C176" s="249"/>
-      <c r="D176" s="249"/>
+      <c r="C176" s="269"/>
+      <c r="D176" s="269"/>
       <c r="E176" s="193" t="s">
         <v>399</v>
       </c>
@@ -35836,8 +35841,8 @@
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
-      <c r="C177" s="249"/>
-      <c r="D177" s="249"/>
+      <c r="C177" s="269"/>
+      <c r="D177" s="269"/>
       <c r="E177" s="193" t="s">
         <v>164</v>
       </c>
@@ -35866,8 +35871,8 @@
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
-      <c r="C178" s="249"/>
-      <c r="D178" s="297" t="s">
+      <c r="C178" s="269"/>
+      <c r="D178" s="299" t="s">
         <v>404</v>
       </c>
       <c r="E178" s="193" t="s">
@@ -35898,8 +35903,8 @@
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
-      <c r="C179" s="249"/>
-      <c r="D179" s="249"/>
+      <c r="C179" s="269"/>
+      <c r="D179" s="269"/>
       <c r="E179" s="193" t="s">
         <v>172</v>
       </c>
@@ -35928,8 +35933,8 @@
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
-      <c r="C180" s="249"/>
-      <c r="D180" s="249"/>
+      <c r="C180" s="269"/>
+      <c r="D180" s="269"/>
       <c r="E180" s="196" t="s">
         <v>173</v>
       </c>
@@ -35958,8 +35963,8 @@
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
-      <c r="C181" s="249"/>
-      <c r="D181" s="249"/>
+      <c r="C181" s="269"/>
+      <c r="D181" s="269"/>
       <c r="E181" s="196" t="s">
         <v>174</v>
       </c>
@@ -35988,8 +35993,8 @@
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
-      <c r="C182" s="249"/>
-      <c r="D182" s="249"/>
+      <c r="C182" s="269"/>
+      <c r="D182" s="269"/>
       <c r="E182" s="196" t="s">
         <v>175</v>
       </c>
@@ -36018,8 +36023,8 @@
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
-      <c r="C183" s="249"/>
-      <c r="D183" s="249"/>
+      <c r="C183" s="269"/>
+      <c r="D183" s="269"/>
       <c r="E183" s="193" t="s">
         <v>176</v>
       </c>
@@ -36048,8 +36053,8 @@
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
-      <c r="C184" s="249"/>
-      <c r="D184" s="249"/>
+      <c r="C184" s="269"/>
+      <c r="D184" s="269"/>
       <c r="E184" s="193" t="s">
         <v>177</v>
       </c>
@@ -36078,8 +36083,8 @@
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
-      <c r="C185" s="249"/>
-      <c r="D185" s="297" t="s">
+      <c r="C185" s="269"/>
+      <c r="D185" s="299" t="s">
         <v>165</v>
       </c>
       <c r="E185" s="193" t="s">
@@ -36110,8 +36115,8 @@
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="197"/>
       <c r="B186" s="197"/>
-      <c r="C186" s="296"/>
-      <c r="D186" s="296"/>
+      <c r="C186" s="298"/>
+      <c r="D186" s="298"/>
       <c r="E186" s="198" t="s">
         <v>168</v>
       </c>
@@ -36140,10 +36145,10 @@
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
-      <c r="C187" s="299" t="s">
+      <c r="C187" s="300" t="s">
         <v>408</v>
       </c>
-      <c r="D187" s="297" t="s">
+      <c r="D187" s="299" t="s">
         <v>93</v>
       </c>
       <c r="E187" s="193" t="s">
@@ -36174,8 +36179,8 @@
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="249"/>
+      <c r="C188" s="269"/>
+      <c r="D188" s="269"/>
       <c r="E188" s="193" t="s">
         <v>86</v>
       </c>
@@ -36204,8 +36209,8 @@
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
-      <c r="C189" s="249"/>
-      <c r="D189" s="249"/>
+      <c r="C189" s="269"/>
+      <c r="D189" s="269"/>
       <c r="E189" s="193" t="s">
         <v>87</v>
       </c>
@@ -36234,8 +36239,8 @@
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
-      <c r="C190" s="249"/>
-      <c r="D190" s="249"/>
+      <c r="C190" s="269"/>
+      <c r="D190" s="269"/>
       <c r="E190" s="193" t="s">
         <v>88</v>
       </c>
@@ -36264,8 +36269,8 @@
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
-      <c r="C191" s="249"/>
-      <c r="D191" s="297" t="s">
+      <c r="C191" s="269"/>
+      <c r="D191" s="299" t="s">
         <v>409</v>
       </c>
       <c r="E191" s="193" t="s">
@@ -36296,8 +36301,8 @@
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
-      <c r="C192" s="249"/>
-      <c r="D192" s="249"/>
+      <c r="C192" s="269"/>
+      <c r="D192" s="269"/>
       <c r="E192" s="193" t="s">
         <v>411</v>
       </c>
@@ -36326,8 +36331,8 @@
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
-      <c r="C193" s="249"/>
-      <c r="D193" s="249"/>
+      <c r="C193" s="269"/>
+      <c r="D193" s="269"/>
       <c r="E193" s="193" t="s">
         <v>412</v>
       </c>
@@ -36356,8 +36361,8 @@
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
-      <c r="C194" s="249"/>
-      <c r="D194" s="297" t="s">
+      <c r="C194" s="269"/>
+      <c r="D194" s="299" t="s">
         <v>320</v>
       </c>
       <c r="E194" s="193" t="s">
@@ -36388,8 +36393,8 @@
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
-      <c r="C195" s="249"/>
-      <c r="D195" s="249"/>
+      <c r="C195" s="269"/>
+      <c r="D195" s="269"/>
       <c r="E195" s="193" t="s">
         <v>322</v>
       </c>
@@ -36418,8 +36423,8 @@
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
-      <c r="C196" s="249"/>
-      <c r="D196" s="297" t="s">
+      <c r="C196" s="269"/>
+      <c r="D196" s="299" t="s">
         <v>126</v>
       </c>
       <c r="E196" s="193" t="s">
@@ -36450,8 +36455,8 @@
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
-      <c r="C197" s="249"/>
-      <c r="D197" s="249"/>
+      <c r="C197" s="269"/>
+      <c r="D197" s="269"/>
       <c r="E197" s="193" t="s">
         <v>414</v>
       </c>
@@ -36480,8 +36485,8 @@
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
-      <c r="C198" s="249"/>
-      <c r="D198" s="249"/>
+      <c r="C198" s="269"/>
+      <c r="D198" s="269"/>
       <c r="E198" s="193" t="s">
         <v>415</v>
       </c>
@@ -36510,8 +36515,8 @@
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
-      <c r="C199" s="249"/>
-      <c r="D199" s="297" t="s">
+      <c r="C199" s="269"/>
+      <c r="D199" s="299" t="s">
         <v>323</v>
       </c>
       <c r="E199" s="193" t="s">
@@ -36542,8 +36547,8 @@
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
-      <c r="C200" s="249"/>
-      <c r="D200" s="249"/>
+      <c r="C200" s="269"/>
+      <c r="D200" s="269"/>
       <c r="E200" s="193" t="s">
         <v>325</v>
       </c>
@@ -36572,8 +36577,8 @@
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
-      <c r="C201" s="249"/>
-      <c r="D201" s="297" t="s">
+      <c r="C201" s="269"/>
+      <c r="D201" s="299" t="s">
         <v>326</v>
       </c>
       <c r="E201" s="193" t="s">
@@ -36604,8 +36609,8 @@
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
-      <c r="C202" s="249"/>
-      <c r="D202" s="249"/>
+      <c r="C202" s="269"/>
+      <c r="D202" s="269"/>
       <c r="E202" s="193" t="s">
         <v>328</v>
       </c>
@@ -36634,8 +36639,8 @@
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
-      <c r="C203" s="249"/>
-      <c r="D203" s="249"/>
+      <c r="C203" s="269"/>
+      <c r="D203" s="269"/>
       <c r="E203" s="193" t="s">
         <v>329</v>
       </c>
@@ -36664,8 +36669,8 @@
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
-      <c r="C204" s="249"/>
-      <c r="D204" s="249"/>
+      <c r="C204" s="269"/>
+      <c r="D204" s="269"/>
       <c r="E204" s="193" t="s">
         <v>330</v>
       </c>
@@ -36694,8 +36699,8 @@
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
-      <c r="C205" s="249"/>
-      <c r="D205" s="297" t="s">
+      <c r="C205" s="269"/>
+      <c r="D205" s="299" t="s">
         <v>331</v>
       </c>
       <c r="E205" s="193" t="s">
@@ -36726,8 +36731,8 @@
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
-      <c r="C206" s="249"/>
-      <c r="D206" s="249"/>
+      <c r="C206" s="269"/>
+      <c r="D206" s="269"/>
       <c r="E206" s="193" t="s">
         <v>333</v>
       </c>
@@ -36756,8 +36761,8 @@
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
-      <c r="C207" s="249"/>
-      <c r="D207" s="249"/>
+      <c r="C207" s="269"/>
+      <c r="D207" s="269"/>
       <c r="E207" s="193" t="s">
         <v>334</v>
       </c>
@@ -36786,8 +36791,8 @@
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
-      <c r="C208" s="249"/>
-      <c r="D208" s="249"/>
+      <c r="C208" s="269"/>
+      <c r="D208" s="269"/>
       <c r="E208" s="193" t="s">
         <v>335</v>
       </c>
@@ -36816,8 +36821,8 @@
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
-      <c r="C209" s="249"/>
-      <c r="D209" s="249"/>
+      <c r="C209" s="269"/>
+      <c r="D209" s="269"/>
       <c r="E209" s="193" t="s">
         <v>336</v>
       </c>
@@ -36846,8 +36851,8 @@
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
-      <c r="C210" s="249"/>
-      <c r="D210" s="249"/>
+      <c r="C210" s="269"/>
+      <c r="D210" s="269"/>
       <c r="E210" s="193" t="s">
         <v>337</v>
       </c>
@@ -36876,8 +36881,8 @@
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
-      <c r="C211" s="249"/>
-      <c r="D211" s="297" t="s">
+      <c r="C211" s="269"/>
+      <c r="D211" s="299" t="s">
         <v>101</v>
       </c>
       <c r="E211" s="193" t="s">
@@ -36908,8 +36913,8 @@
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
-      <c r="C212" s="249"/>
-      <c r="D212" s="249"/>
+      <c r="C212" s="269"/>
+      <c r="D212" s="269"/>
       <c r="E212" s="193" t="s">
         <v>417</v>
       </c>
@@ -36938,8 +36943,8 @@
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
-      <c r="C213" s="249"/>
-      <c r="D213" s="249"/>
+      <c r="C213" s="269"/>
+      <c r="D213" s="269"/>
       <c r="E213" s="193" t="s">
         <v>418</v>
       </c>
@@ -36968,8 +36973,8 @@
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
-      <c r="C214" s="249"/>
-      <c r="D214" s="297" t="s">
+      <c r="C214" s="269"/>
+      <c r="D214" s="299" t="s">
         <v>338</v>
       </c>
       <c r="E214" s="193" t="s">
@@ -37000,8 +37005,8 @@
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
-      <c r="C215" s="249"/>
-      <c r="D215" s="249"/>
+      <c r="C215" s="269"/>
+      <c r="D215" s="269"/>
       <c r="E215" s="193" t="s">
         <v>340</v>
       </c>
@@ -37030,8 +37035,8 @@
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
-      <c r="C216" s="249"/>
-      <c r="D216" s="297" t="s">
+      <c r="C216" s="269"/>
+      <c r="D216" s="299" t="s">
         <v>341</v>
       </c>
       <c r="E216" s="193" t="s">
@@ -37062,8 +37067,8 @@
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
-      <c r="C217" s="249"/>
-      <c r="D217" s="249"/>
+      <c r="C217" s="269"/>
+      <c r="D217" s="269"/>
       <c r="E217" s="193" t="s">
         <v>343</v>
       </c>
@@ -37092,8 +37097,8 @@
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
-      <c r="C218" s="249"/>
-      <c r="D218" s="297" t="s">
+      <c r="C218" s="269"/>
+      <c r="D218" s="299" t="s">
         <v>344</v>
       </c>
       <c r="E218" s="193" t="s">
@@ -37124,8 +37129,8 @@
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
-      <c r="C219" s="249"/>
-      <c r="D219" s="249"/>
+      <c r="C219" s="269"/>
+      <c r="D219" s="269"/>
       <c r="E219" s="193" t="s">
         <v>346</v>
       </c>
@@ -37154,8 +37159,8 @@
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
-      <c r="C220" s="249"/>
-      <c r="D220" s="297" t="s">
+      <c r="C220" s="269"/>
+      <c r="D220" s="299" t="s">
         <v>347</v>
       </c>
       <c r="E220" s="193" t="s">
@@ -37186,8 +37191,8 @@
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
-      <c r="C221" s="249"/>
-      <c r="D221" s="249"/>
+      <c r="C221" s="269"/>
+      <c r="D221" s="269"/>
       <c r="E221" s="193" t="s">
         <v>349</v>
       </c>
@@ -37216,8 +37221,8 @@
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
-      <c r="C222" s="249"/>
-      <c r="D222" s="249"/>
+      <c r="C222" s="269"/>
+      <c r="D222" s="269"/>
       <c r="E222" s="193" t="s">
         <v>350</v>
       </c>
@@ -37246,8 +37251,8 @@
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
-      <c r="C223" s="249"/>
-      <c r="D223" s="249"/>
+      <c r="C223" s="269"/>
+      <c r="D223" s="269"/>
       <c r="E223" s="193" t="s">
         <v>351</v>
       </c>
@@ -37276,8 +37281,8 @@
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
-      <c r="C224" s="249"/>
-      <c r="D224" s="249"/>
+      <c r="C224" s="269"/>
+      <c r="D224" s="269"/>
       <c r="E224" s="193" t="s">
         <v>352</v>
       </c>
@@ -37306,8 +37311,8 @@
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
-      <c r="C225" s="249"/>
-      <c r="D225" s="249"/>
+      <c r="C225" s="269"/>
+      <c r="D225" s="269"/>
       <c r="E225" s="193" t="s">
         <v>353</v>
       </c>
@@ -37336,8 +37341,8 @@
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
-      <c r="C226" s="249"/>
-      <c r="D226" s="297" t="s">
+      <c r="C226" s="269"/>
+      <c r="D226" s="299" t="s">
         <v>272</v>
       </c>
       <c r="E226" s="193" t="s">
@@ -37368,8 +37373,8 @@
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="197"/>
       <c r="B227" s="197"/>
-      <c r="C227" s="296"/>
-      <c r="D227" s="296"/>
+      <c r="C227" s="298"/>
+      <c r="D227" s="298"/>
       <c r="E227" s="198" t="s">
         <v>419</v>
       </c>
@@ -37398,10 +37403,10 @@
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
-      <c r="C228" s="299" t="s">
+      <c r="C228" s="300" t="s">
         <v>262</v>
       </c>
-      <c r="D228" s="297" t="s">
+      <c r="D228" s="299" t="s">
         <v>375</v>
       </c>
       <c r="E228" s="193" t="s">
@@ -37432,8 +37437,8 @@
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
-      <c r="C229" s="249"/>
-      <c r="D229" s="249"/>
+      <c r="C229" s="269"/>
+      <c r="D229" s="269"/>
       <c r="E229" s="193" t="s">
         <v>421</v>
       </c>
@@ -37462,8 +37467,8 @@
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
-      <c r="C230" s="249"/>
-      <c r="D230" s="249"/>
+      <c r="C230" s="269"/>
+      <c r="D230" s="269"/>
       <c r="E230" s="193" t="s">
         <v>422</v>
       </c>
@@ -37492,8 +37497,8 @@
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
-      <c r="C231" s="249"/>
-      <c r="D231" s="297" t="s">
+      <c r="C231" s="269"/>
+      <c r="D231" s="299" t="s">
         <v>93</v>
       </c>
       <c r="E231" s="193" t="s">
@@ -37524,8 +37529,8 @@
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
-      <c r="C232" s="249"/>
-      <c r="D232" s="249"/>
+      <c r="C232" s="269"/>
+      <c r="D232" s="269"/>
       <c r="E232" s="193" t="s">
         <v>421</v>
       </c>
@@ -37554,8 +37559,8 @@
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
-      <c r="C233" s="249"/>
-      <c r="D233" s="249"/>
+      <c r="C233" s="269"/>
+      <c r="D233" s="269"/>
       <c r="E233" s="193" t="s">
         <v>422</v>
       </c>
@@ -37584,8 +37589,8 @@
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
-      <c r="C234" s="249"/>
-      <c r="D234" s="249"/>
+      <c r="C234" s="269"/>
+      <c r="D234" s="269"/>
       <c r="E234" s="193" t="s">
         <v>87</v>
       </c>
@@ -37614,8 +37619,8 @@
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
-      <c r="C235" s="249"/>
-      <c r="D235" s="297" t="s">
+      <c r="C235" s="269"/>
+      <c r="D235" s="299" t="s">
         <v>409</v>
       </c>
       <c r="E235" s="193" t="s">
@@ -37646,8 +37651,8 @@
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
-      <c r="C236" s="249"/>
-      <c r="D236" s="249"/>
+      <c r="C236" s="269"/>
+      <c r="D236" s="269"/>
       <c r="E236" s="193" t="s">
         <v>424</v>
       </c>
@@ -37676,8 +37681,8 @@
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
-      <c r="C237" s="249"/>
-      <c r="D237" s="249"/>
+      <c r="C237" s="269"/>
+      <c r="D237" s="269"/>
       <c r="E237" s="193" t="s">
         <v>425</v>
       </c>
@@ -37706,8 +37711,8 @@
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
-      <c r="C238" s="249"/>
-      <c r="D238" s="249"/>
+      <c r="C238" s="269"/>
+      <c r="D238" s="269"/>
       <c r="E238" s="193" t="s">
         <v>426</v>
       </c>
@@ -37736,8 +37741,8 @@
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
-      <c r="C239" s="249"/>
-      <c r="D239" s="249"/>
+      <c r="C239" s="269"/>
+      <c r="D239" s="269"/>
       <c r="E239" s="193" t="s">
         <v>87</v>
       </c>
@@ -37766,8 +37771,8 @@
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
-      <c r="C240" s="249"/>
-      <c r="D240" s="297" t="s">
+      <c r="C240" s="269"/>
+      <c r="D240" s="299" t="s">
         <v>54</v>
       </c>
       <c r="E240" s="193" t="s">
@@ -37798,8 +37803,8 @@
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
-      <c r="C241" s="249"/>
-      <c r="D241" s="249"/>
+      <c r="C241" s="269"/>
+      <c r="D241" s="269"/>
       <c r="E241" s="193" t="s">
         <v>423</v>
       </c>
@@ -37828,8 +37833,8 @@
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
-      <c r="C242" s="249"/>
-      <c r="D242" s="249"/>
+      <c r="C242" s="269"/>
+      <c r="D242" s="269"/>
       <c r="E242" s="193" t="s">
         <v>420</v>
       </c>
@@ -37858,8 +37863,8 @@
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
-      <c r="C243" s="249"/>
-      <c r="D243" s="249"/>
+      <c r="C243" s="269"/>
+      <c r="D243" s="269"/>
       <c r="E243" s="193" t="s">
         <v>101</v>
       </c>
@@ -37888,8 +37893,8 @@
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
-      <c r="C244" s="249"/>
-      <c r="D244" s="249"/>
+      <c r="C244" s="269"/>
+      <c r="D244" s="269"/>
       <c r="E244" s="193" t="s">
         <v>428</v>
       </c>
@@ -37918,8 +37923,8 @@
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
-      <c r="C245" s="249"/>
-      <c r="D245" s="297" t="s">
+      <c r="C245" s="269"/>
+      <c r="D245" s="299" t="s">
         <v>101</v>
       </c>
       <c r="E245" s="193" t="s">
@@ -37950,8 +37955,8 @@
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
-      <c r="C246" s="249"/>
-      <c r="D246" s="249"/>
+      <c r="C246" s="269"/>
+      <c r="D246" s="269"/>
       <c r="E246" s="193" t="s">
         <v>430</v>
       </c>
@@ -37980,8 +37985,8 @@
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
-      <c r="C247" s="249"/>
-      <c r="D247" s="249"/>
+      <c r="C247" s="269"/>
+      <c r="D247" s="269"/>
       <c r="E247" s="193" t="s">
         <v>431</v>
       </c>
@@ -38010,8 +38015,8 @@
     <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
-      <c r="C248" s="249"/>
-      <c r="D248" s="249"/>
+      <c r="C248" s="269"/>
+      <c r="D248" s="269"/>
       <c r="E248" s="193" t="s">
         <v>432</v>
       </c>
@@ -38040,8 +38045,8 @@
     <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
-      <c r="C249" s="249"/>
-      <c r="D249" s="249"/>
+      <c r="C249" s="269"/>
+      <c r="D249" s="269"/>
       <c r="E249" s="193" t="s">
         <v>433</v>
       </c>
@@ -38070,8 +38075,8 @@
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
-      <c r="C250" s="249"/>
-      <c r="D250" s="249"/>
+      <c r="C250" s="269"/>
+      <c r="D250" s="269"/>
       <c r="E250" s="193" t="s">
         <v>434</v>
       </c>
@@ -38100,8 +38105,8 @@
     <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
-      <c r="C251" s="249"/>
-      <c r="D251" s="297" t="s">
+      <c r="C251" s="269"/>
+      <c r="D251" s="299" t="s">
         <v>435</v>
       </c>
       <c r="E251" s="193" t="s">
@@ -38132,8 +38137,8 @@
     <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
-      <c r="C252" s="249"/>
-      <c r="D252" s="249"/>
+      <c r="C252" s="269"/>
+      <c r="D252" s="269"/>
       <c r="E252" s="193" t="s">
         <v>437</v>
       </c>
@@ -38162,8 +38167,8 @@
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
-      <c r="C253" s="249"/>
-      <c r="D253" s="249"/>
+      <c r="C253" s="269"/>
+      <c r="D253" s="269"/>
       <c r="E253" s="193" t="s">
         <v>438</v>
       </c>
@@ -38192,8 +38197,8 @@
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
-      <c r="C254" s="249"/>
-      <c r="D254" s="249"/>
+      <c r="C254" s="269"/>
+      <c r="D254" s="269"/>
       <c r="E254" s="193" t="s">
         <v>439</v>
       </c>
@@ -38222,8 +38227,8 @@
     <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
-      <c r="C255" s="249"/>
-      <c r="D255" s="249"/>
+      <c r="C255" s="269"/>
+      <c r="D255" s="269"/>
       <c r="E255" s="193" t="s">
         <v>440</v>
       </c>
@@ -38252,8 +38257,8 @@
     <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
-      <c r="C256" s="249"/>
-      <c r="D256" s="297" t="s">
+      <c r="C256" s="269"/>
+      <c r="D256" s="299" t="s">
         <v>347</v>
       </c>
       <c r="E256" s="193" t="s">
@@ -38284,8 +38289,8 @@
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
-      <c r="C257" s="249"/>
-      <c r="D257" s="249"/>
+      <c r="C257" s="269"/>
+      <c r="D257" s="269"/>
       <c r="E257" s="193" t="s">
         <v>442</v>
       </c>
@@ -38314,8 +38319,8 @@
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
-      <c r="C258" s="249"/>
-      <c r="D258" s="249"/>
+      <c r="C258" s="269"/>
+      <c r="D258" s="269"/>
       <c r="E258" s="193" t="s">
         <v>443</v>
       </c>
@@ -38344,8 +38349,8 @@
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
-      <c r="C259" s="249"/>
-      <c r="D259" s="249"/>
+      <c r="C259" s="269"/>
+      <c r="D259" s="269"/>
       <c r="E259" s="193" t="s">
         <v>444</v>
       </c>
@@ -38374,8 +38379,8 @@
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
-      <c r="C260" s="249"/>
-      <c r="D260" s="297" t="s">
+      <c r="C260" s="269"/>
+      <c r="D260" s="299" t="s">
         <v>338</v>
       </c>
       <c r="E260" s="193" t="s">
@@ -38406,8 +38411,8 @@
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
-      <c r="C261" s="249"/>
-      <c r="D261" s="249"/>
+      <c r="C261" s="269"/>
+      <c r="D261" s="269"/>
       <c r="E261" s="193" t="s">
         <v>446</v>
       </c>
@@ -38436,8 +38441,8 @@
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
-      <c r="C262" s="249"/>
-      <c r="D262" s="249"/>
+      <c r="C262" s="269"/>
+      <c r="D262" s="269"/>
       <c r="E262" s="193" t="s">
         <v>447</v>
       </c>
@@ -38466,8 +38471,8 @@
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
-      <c r="C263" s="249"/>
-      <c r="D263" s="249"/>
+      <c r="C263" s="269"/>
+      <c r="D263" s="269"/>
       <c r="E263" s="193" t="s">
         <v>448</v>
       </c>
@@ -38496,8 +38501,8 @@
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
-      <c r="C264" s="249"/>
-      <c r="D264" s="297" t="s">
+      <c r="C264" s="269"/>
+      <c r="D264" s="299" t="s">
         <v>320</v>
       </c>
       <c r="E264" s="193" t="s">
@@ -38528,8 +38533,8 @@
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
-      <c r="C265" s="249"/>
-      <c r="D265" s="249"/>
+      <c r="C265" s="269"/>
+      <c r="D265" s="269"/>
       <c r="E265" s="193" t="s">
         <v>450</v>
       </c>
@@ -59137,24 +59142,40 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="D178:D184"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="D260:D263"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="D240:D244"/>
-    <mergeCell ref="D245:D250"/>
-    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:C48"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="C49:C186"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="D130:D136"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D148"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D166:D172"/>
     <mergeCell ref="C187:C227"/>
     <mergeCell ref="C228:C265"/>
     <mergeCell ref="D32:D37"/>
@@ -59171,40 +59192,24 @@
     <mergeCell ref="D199:D200"/>
     <mergeCell ref="D201:D204"/>
     <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="C49:C186"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="D130:D136"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D148"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:C48"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="D240:D244"/>
+    <mergeCell ref="D245:D250"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="D178:D184"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="D260:D263"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Gantt_Chart_v1.014.xlsx
+++ b/Gantt_Chart_v1.014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF22F500-22E8-499A-9869-FC94E1632E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F770B3-B14F-4FA1-8926-E81976DF644E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="491">
   <si>
     <t>4팀 Gantt Chart 양식</t>
   </si>
@@ -1804,18 +1804,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>3일</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>7일</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>12일</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>무기</t>
     </r>
@@ -2674,6 +2662,22 @@
     <t>정하경</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>11일</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3526,7 +3530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4259,32 +4263,48 @@
     <xf numFmtId="0" fontId="34" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4305,66 +4325,52 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4372,16 +4378,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4389,11 +4390,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4640,14 +4641,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4676,23 +4677,23 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="283"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
+      <c r="A2" s="264"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="287" t="s">
+      <c r="L2" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="289"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="272"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="6"/>
@@ -4704,12 +4705,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
+      <c r="A3" s="264"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4730,67 +4731,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="256" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="284" t="s">
+      <c r="I4" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="284" t="s">
+      <c r="J4" s="256" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="284" t="s">
+      <c r="L4" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="284" t="s">
+      <c r="M4" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="284" t="s">
+      <c r="N4" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="284" t="s">
+      <c r="O4" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="284" t="s">
+      <c r="Q4" s="256" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="280" t="s">
+      <c r="S4" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="284" t="s">
+      <c r="T4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="284" t="s">
+      <c r="V4" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="284" t="s">
+      <c r="W4" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="280" t="s">
+      <c r="X4" s="254" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="281"/>
+      <c r="A5" s="255"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>23</v>
@@ -4805,35 +4806,35 @@
         <v>26</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="281"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="255"/>
+      <c r="Q5" s="255"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="281"/>
-      <c r="W5" s="281"/>
-      <c r="X5" s="281"/>
+      <c r="S5" s="255"/>
+      <c r="T5" s="255"/>
+      <c r="U5" s="255"/>
+      <c r="V5" s="255"/>
+      <c r="W5" s="255"/>
+      <c r="X5" s="255"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="267"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4873,19 +4874,19 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="258" t="s">
+      <c r="D7" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="286" t="s">
+      <c r="E7" s="269" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="259"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -4913,8 +4914,8 @@
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
       <c r="F8" s="27" t="s">
         <v>36</v>
       </c>
@@ -4959,8 +4960,8 @@
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
       <c r="F9" s="28" t="s">
         <v>39</v>
       </c>
@@ -5007,8 +5008,8 @@
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
       <c r="F10" s="28" t="s">
         <v>41</v>
       </c>
@@ -5053,8 +5054,8 @@
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
       <c r="F11" s="28" t="s">
         <v>43</v>
       </c>
@@ -5101,17 +5102,17 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="286" t="s">
+      <c r="D12" s="261"/>
+      <c r="E12" s="269" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="259"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -5139,8 +5140,8 @@
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
       <c r="F13" s="28" t="s">
         <v>46</v>
       </c>
@@ -5187,8 +5188,8 @@
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
@@ -5233,8 +5234,8 @@
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
       <c r="F15" s="28" t="s">
         <v>52</v>
       </c>
@@ -5279,8 +5280,8 @@
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
       <c r="F16" s="28" t="s">
         <v>54</v>
       </c>
@@ -5325,8 +5326,8 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
       <c r="F17" s="28" t="s">
         <v>55</v>
       </c>
@@ -5371,8 +5372,8 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
       <c r="F18" s="28" t="s">
         <v>56</v>
       </c>
@@ -5417,8 +5418,8 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
       <c r="F19" s="28" t="s">
         <v>59</v>
       </c>
@@ -5463,8 +5464,8 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
       <c r="F20" s="28" t="s">
         <v>60</v>
       </c>
@@ -5509,8 +5510,8 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
       <c r="F21" s="28" t="s">
         <v>61</v>
       </c>
@@ -5555,8 +5556,8 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
       <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
@@ -5601,8 +5602,8 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="260"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="262"/>
       <c r="F23" s="28" t="s">
         <v>65</v>
       </c>
@@ -5649,17 +5650,17 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="286" t="s">
+      <c r="D24" s="261"/>
+      <c r="E24" s="269" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="259"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -5685,8 +5686,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
       <c r="F25" s="28" t="s">
         <v>67</v>
       </c>
@@ -5731,8 +5732,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
       <c r="F26" s="28" t="s">
         <v>69</v>
       </c>
@@ -5777,8 +5778,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="259"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
       <c r="F27" s="28" t="s">
         <v>70</v>
       </c>
@@ -5823,8 +5824,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="259"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
       <c r="F28" s="28" t="s">
         <v>71</v>
       </c>
@@ -5869,8 +5870,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="260"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="28" t="s">
         <v>72</v>
       </c>
@@ -5917,17 +5918,17 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="258" t="s">
+      <c r="D30" s="261"/>
+      <c r="E30" s="268" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="278"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="257"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="259"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
@@ -5955,8 +5956,8 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="259"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="28" t="s">
         <v>75</v>
       </c>
@@ -5989,8 +5990,8 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="259"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="28" t="s">
         <v>76</v>
       </c>
@@ -6029,8 +6030,8 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="259"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
       <c r="F33" s="28" t="s">
         <v>78</v>
       </c>
@@ -6069,8 +6070,8 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="259"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
       <c r="F34" s="28" t="s">
         <v>79</v>
       </c>
@@ -6109,8 +6110,8 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
       <c r="F35" s="28" t="s">
         <v>80</v>
       </c>
@@ -6149,8 +6150,8 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
       <c r="F36" s="28" t="s">
         <v>81</v>
       </c>
@@ -6189,8 +6190,8 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="260"/>
-      <c r="E37" s="260"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="262"/>
       <c r="F37" s="28" t="s">
         <v>82</v>
       </c>
@@ -6229,19 +6230,19 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="267" t="s">
+      <c r="D38" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="267" t="s">
+      <c r="E38" s="260" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="256"/>
-      <c r="J38" s="257"/>
+      <c r="H38" s="257"/>
+      <c r="I38" s="258"/>
+      <c r="J38" s="259"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -6269,8 +6270,8 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="259"/>
-      <c r="E39" s="259"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
       <c r="F39" s="28" t="s">
         <v>85</v>
       </c>
@@ -6315,8 +6316,8 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="259"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
       <c r="F40" s="28" t="s">
         <v>86</v>
       </c>
@@ -6361,8 +6362,8 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="259"/>
-      <c r="E41" s="259"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
       <c r="F41" s="28" t="s">
         <v>87</v>
       </c>
@@ -6407,8 +6408,8 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="260"/>
+      <c r="D42" s="262"/>
+      <c r="E42" s="262"/>
       <c r="F42" s="28" t="s">
         <v>88</v>
       </c>
@@ -6453,10 +6454,10 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="279" t="s">
+      <c r="D43" s="274" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="269" t="s">
+      <c r="E43" s="275" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="28" t="s">
@@ -6500,8 +6501,8 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="259"/>
-      <c r="E44" s="260"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="262"/>
       <c r="F44" s="28" t="s">
         <v>92</v>
       </c>
@@ -6540,8 +6541,8 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="259"/>
-      <c r="E45" s="269" t="s">
+      <c r="D45" s="261"/>
+      <c r="E45" s="275" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="28" t="s">
@@ -6582,8 +6583,8 @@
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="259"/>
-      <c r="E46" s="259"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
       <c r="F46" s="28" t="s">
         <v>95</v>
       </c>
@@ -6622,8 +6623,8 @@
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="260"/>
-      <c r="E47" s="260"/>
+      <c r="D47" s="262"/>
+      <c r="E47" s="262"/>
       <c r="F47" s="28" t="s">
         <v>96</v>
       </c>
@@ -6662,10 +6663,10 @@
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="267" t="s">
+      <c r="D48" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="267" t="s">
+      <c r="E48" s="260" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="28" t="s">
@@ -6712,8 +6713,8 @@
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="260"/>
-      <c r="E49" s="260"/>
+      <c r="D49" s="262"/>
+      <c r="E49" s="262"/>
       <c r="F49" s="28" t="s">
         <v>100</v>
       </c>
@@ -6758,19 +6759,19 @@
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="267" t="s">
+      <c r="D50" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="267" t="s">
+      <c r="E50" s="260" t="s">
         <v>102</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="23"/>
-      <c r="H50" s="255"/>
-      <c r="I50" s="256"/>
-      <c r="J50" s="257"/>
+      <c r="H50" s="257"/>
+      <c r="I50" s="258"/>
+      <c r="J50" s="259"/>
       <c r="K50" s="22"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -6798,8 +6799,8 @@
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="259"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="261"/>
       <c r="F51" s="28" t="s">
         <v>103</v>
       </c>
@@ -6844,8 +6845,8 @@
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="260"/>
-      <c r="E52" s="260"/>
+      <c r="D52" s="262"/>
+      <c r="E52" s="262"/>
       <c r="F52" s="28" t="s">
         <v>105</v>
       </c>
@@ -6934,19 +6935,19 @@
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="267" t="s">
+      <c r="D54" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="267" t="s">
+      <c r="E54" s="260" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="23"/>
-      <c r="H54" s="255"/>
-      <c r="I54" s="256"/>
-      <c r="J54" s="257"/>
+      <c r="H54" s="257"/>
+      <c r="I54" s="258"/>
+      <c r="J54" s="259"/>
       <c r="K54" s="42"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -6974,8 +6975,8 @@
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="259"/>
-      <c r="E55" s="259"/>
+      <c r="D55" s="261"/>
+      <c r="E55" s="261"/>
       <c r="F55" s="28" t="s">
         <v>110</v>
       </c>
@@ -7020,8 +7021,8 @@
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="259"/>
-      <c r="E56" s="259"/>
+      <c r="D56" s="261"/>
+      <c r="E56" s="261"/>
       <c r="F56" s="28" t="s">
         <v>111</v>
       </c>
@@ -7054,8 +7055,8 @@
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
+      <c r="D57" s="261"/>
+      <c r="E57" s="261"/>
       <c r="F57" s="28" t="s">
         <v>112</v>
       </c>
@@ -7094,8 +7095,8 @@
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="259"/>
+      <c r="D58" s="261"/>
+      <c r="E58" s="261"/>
       <c r="F58" s="28" t="s">
         <v>113</v>
       </c>
@@ -7134,8 +7135,8 @@
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="259"/>
-      <c r="E59" s="259"/>
+      <c r="D59" s="261"/>
+      <c r="E59" s="261"/>
       <c r="F59" s="28" t="s">
         <v>114</v>
       </c>
@@ -7174,8 +7175,8 @@
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="259"/>
-      <c r="E60" s="259"/>
+      <c r="D60" s="261"/>
+      <c r="E60" s="261"/>
       <c r="F60" s="28" t="s">
         <v>115</v>
       </c>
@@ -7214,8 +7215,8 @@
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="259"/>
-      <c r="E61" s="259"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
       <c r="F61" s="28" t="s">
         <v>116</v>
       </c>
@@ -7254,8 +7255,8 @@
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="259"/>
-      <c r="E62" s="259"/>
+      <c r="D62" s="261"/>
+      <c r="E62" s="261"/>
       <c r="F62" s="28" t="s">
         <v>117</v>
       </c>
@@ -7288,8 +7289,8 @@
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="259"/>
-      <c r="E63" s="259"/>
+      <c r="D63" s="261"/>
+      <c r="E63" s="261"/>
       <c r="F63" s="28" t="s">
         <v>118</v>
       </c>
@@ -7328,8 +7329,8 @@
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="259"/>
-      <c r="E64" s="259"/>
+      <c r="D64" s="261"/>
+      <c r="E64" s="261"/>
       <c r="F64" s="28" t="s">
         <v>119</v>
       </c>
@@ -7368,8 +7369,8 @@
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="259"/>
-      <c r="E65" s="259"/>
+      <c r="D65" s="261"/>
+      <c r="E65" s="261"/>
       <c r="F65" s="28" t="s">
         <v>120</v>
       </c>
@@ -7408,8 +7409,8 @@
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="259"/>
-      <c r="E66" s="259"/>
+      <c r="D66" s="261"/>
+      <c r="E66" s="261"/>
       <c r="F66" s="28" t="s">
         <v>121</v>
       </c>
@@ -7448,8 +7449,8 @@
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="259"/>
-      <c r="E67" s="260"/>
+      <c r="D67" s="261"/>
+      <c r="E67" s="262"/>
       <c r="F67" s="28" t="s">
         <v>122</v>
       </c>
@@ -7488,17 +7489,17 @@
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="259"/>
-      <c r="E68" s="267" t="s">
+      <c r="D68" s="261"/>
+      <c r="E68" s="260" t="s">
         <v>123</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="255"/>
-      <c r="I68" s="256"/>
-      <c r="J68" s="257"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="258"/>
+      <c r="J68" s="259"/>
       <c r="K68" s="42"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -7526,8 +7527,8 @@
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
+      <c r="D69" s="261"/>
+      <c r="E69" s="261"/>
       <c r="F69" s="28" t="s">
         <v>124</v>
       </c>
@@ -7572,8 +7573,8 @@
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="260"/>
-      <c r="E70" s="260"/>
+      <c r="D70" s="262"/>
+      <c r="E70" s="262"/>
       <c r="F70" s="28" t="s">
         <v>125</v>
       </c>
@@ -7618,19 +7619,19 @@
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="267" t="s">
+      <c r="D71" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="267" t="s">
+      <c r="E71" s="260" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G71" s="23"/>
-      <c r="H71" s="255"/>
-      <c r="I71" s="256"/>
-      <c r="J71" s="257"/>
+      <c r="H71" s="257"/>
+      <c r="I71" s="258"/>
+      <c r="J71" s="259"/>
       <c r="K71" s="42"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -7658,8 +7659,8 @@
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="259"/>
-      <c r="E72" s="259"/>
+      <c r="D72" s="261"/>
+      <c r="E72" s="261"/>
       <c r="F72" s="28" t="s">
         <v>110</v>
       </c>
@@ -7704,8 +7705,8 @@
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="259"/>
-      <c r="E73" s="259"/>
+      <c r="D73" s="261"/>
+      <c r="E73" s="261"/>
       <c r="F73" s="28" t="s">
         <v>130</v>
       </c>
@@ -7744,8 +7745,8 @@
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="259"/>
-      <c r="E74" s="259"/>
+      <c r="D74" s="261"/>
+      <c r="E74" s="261"/>
       <c r="F74" s="28" t="s">
         <v>131</v>
       </c>
@@ -7784,7 +7785,7 @@
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="276"/>
+      <c r="D75" s="282"/>
       <c r="E75" s="45"/>
       <c r="F75" s="28" t="s">
         <v>132</v>
@@ -7830,8 +7831,8 @@
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="259"/>
-      <c r="E76" s="269" t="s">
+      <c r="D76" s="261"/>
+      <c r="E76" s="275" t="s">
         <v>133</v>
       </c>
       <c r="F76" s="28" t="s">
@@ -7875,8 +7876,8 @@
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="259"/>
-      <c r="E77" s="259"/>
+      <c r="D77" s="261"/>
+      <c r="E77" s="261"/>
       <c r="F77" s="28" t="s">
         <v>135</v>
       </c>
@@ -7915,8 +7916,8 @@
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="260"/>
-      <c r="E78" s="260"/>
+      <c r="D78" s="262"/>
+      <c r="E78" s="262"/>
       <c r="F78" s="28" t="s">
         <v>136</v>
       </c>
@@ -8044,20 +8045,20 @@
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="270" t="s">
+      <c r="D81" s="276" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="271"/>
-      <c r="F81" s="271"/>
-      <c r="G81" s="271"/>
-      <c r="H81" s="271"/>
-      <c r="I81" s="271"/>
-      <c r="J81" s="271"/>
-      <c r="K81" s="271"/>
-      <c r="L81" s="271"/>
-      <c r="M81" s="271"/>
-      <c r="N81" s="271"/>
-      <c r="O81" s="272"/>
+      <c r="E81" s="277"/>
+      <c r="F81" s="277"/>
+      <c r="G81" s="277"/>
+      <c r="H81" s="277"/>
+      <c r="I81" s="277"/>
+      <c r="J81" s="277"/>
+      <c r="K81" s="277"/>
+      <c r="L81" s="277"/>
+      <c r="M81" s="277"/>
+      <c r="N81" s="277"/>
+      <c r="O81" s="278"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
       <c r="R81" s="16"/>
@@ -8118,19 +8119,19 @@
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="276" t="s">
+      <c r="D83" s="282" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="277" t="s">
+      <c r="E83" s="283" t="s">
         <v>66</v>
       </c>
       <c r="F83" s="63" t="s">
         <v>34</v>
       </c>
       <c r="G83" s="64"/>
-      <c r="H83" s="273"/>
-      <c r="I83" s="274"/>
-      <c r="J83" s="275"/>
+      <c r="H83" s="279"/>
+      <c r="I83" s="280"/>
+      <c r="J83" s="281"/>
       <c r="K83" s="65"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
@@ -8158,8 +8159,8 @@
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="259"/>
-      <c r="E84" s="259"/>
+      <c r="D84" s="261"/>
+      <c r="E84" s="261"/>
       <c r="F84" s="28" t="s">
         <v>143</v>
       </c>
@@ -8204,8 +8205,8 @@
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="259"/>
-      <c r="E85" s="259"/>
+      <c r="D85" s="261"/>
+      <c r="E85" s="261"/>
       <c r="F85" s="28" t="s">
         <v>130</v>
       </c>
@@ -8244,8 +8245,8 @@
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-      <c r="D86" s="259"/>
-      <c r="E86" s="260"/>
+      <c r="D86" s="261"/>
+      <c r="E86" s="262"/>
       <c r="F86" s="28" t="s">
         <v>131</v>
       </c>
@@ -8284,17 +8285,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="259"/>
-      <c r="E87" s="258" t="s">
+      <c r="D87" s="261"/>
+      <c r="E87" s="268" t="s">
         <v>144</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G87" s="22"/>
-      <c r="H87" s="278"/>
-      <c r="I87" s="256"/>
-      <c r="J87" s="257"/>
+      <c r="H87" s="273"/>
+      <c r="I87" s="258"/>
+      <c r="J87" s="259"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
@@ -8322,8 +8323,8 @@
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="259"/>
-      <c r="E88" s="259"/>
+      <c r="D88" s="261"/>
+      <c r="E88" s="261"/>
       <c r="F88" s="67" t="s">
         <v>145</v>
       </c>
@@ -8350,8 +8351,8 @@
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="259"/>
-      <c r="E89" s="259"/>
+      <c r="D89" s="261"/>
+      <c r="E89" s="261"/>
       <c r="F89" s="28" t="s">
         <v>79</v>
       </c>
@@ -8390,8 +8391,8 @@
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="259"/>
-      <c r="E90" s="259"/>
+      <c r="D90" s="261"/>
+      <c r="E90" s="261"/>
       <c r="F90" s="28" t="s">
         <v>80</v>
       </c>
@@ -8430,8 +8431,8 @@
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="259"/>
-      <c r="E91" s="260"/>
+      <c r="D91" s="261"/>
+      <c r="E91" s="262"/>
       <c r="F91" s="28" t="s">
         <v>81</v>
       </c>
@@ -8470,7 +8471,7 @@
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="259"/>
+      <c r="D92" s="261"/>
       <c r="E92" s="74" t="s">
         <v>89</v>
       </c>
@@ -8512,7 +8513,7 @@
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="259"/>
+      <c r="D93" s="261"/>
       <c r="E93" s="74" t="s">
         <v>147</v>
       </c>
@@ -8554,17 +8555,17 @@
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="259"/>
-      <c r="E94" s="267" t="s">
+      <c r="D94" s="261"/>
+      <c r="E94" s="260" t="s">
         <v>102</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="255"/>
-      <c r="I94" s="256"/>
-      <c r="J94" s="257"/>
+      <c r="H94" s="257"/>
+      <c r="I94" s="258"/>
+      <c r="J94" s="259"/>
       <c r="K94" s="22"/>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -8592,8 +8593,8 @@
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="259"/>
-      <c r="E95" s="259"/>
+      <c r="D95" s="261"/>
+      <c r="E95" s="261"/>
       <c r="F95" s="49" t="s">
         <v>150</v>
       </c>
@@ -8632,8 +8633,8 @@
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
-      <c r="D96" s="259"/>
-      <c r="E96" s="259"/>
+      <c r="D96" s="261"/>
+      <c r="E96" s="261"/>
       <c r="F96" s="28" t="s">
         <v>151</v>
       </c>
@@ -8672,8 +8673,8 @@
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
-      <c r="D97" s="259"/>
-      <c r="E97" s="259"/>
+      <c r="D97" s="261"/>
+      <c r="E97" s="261"/>
       <c r="F97" s="28" t="s">
         <v>152</v>
       </c>
@@ -8712,8 +8713,8 @@
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
-      <c r="D98" s="259"/>
-      <c r="E98" s="260"/>
+      <c r="D98" s="261"/>
+      <c r="E98" s="262"/>
       <c r="F98" s="28" t="s">
         <v>153</v>
       </c>
@@ -8752,8 +8753,8 @@
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
-      <c r="D99" s="259"/>
-      <c r="E99" s="267" t="s">
+      <c r="D99" s="261"/>
+      <c r="E99" s="260" t="s">
         <v>154</v>
       </c>
       <c r="F99" s="21" t="s">
@@ -8790,8 +8791,8 @@
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
-      <c r="D100" s="259"/>
-      <c r="E100" s="259"/>
+      <c r="D100" s="261"/>
+      <c r="E100" s="261"/>
       <c r="F100" s="49" t="s">
         <v>110</v>
       </c>
@@ -8824,8 +8825,8 @@
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
-      <c r="D101" s="259"/>
-      <c r="E101" s="259"/>
+      <c r="D101" s="261"/>
+      <c r="E101" s="261"/>
       <c r="F101" s="49" t="s">
         <v>155</v>
       </c>
@@ -8858,8 +8859,8 @@
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
-      <c r="D102" s="259"/>
-      <c r="E102" s="259"/>
+      <c r="D102" s="261"/>
+      <c r="E102" s="261"/>
       <c r="F102" s="28" t="s">
         <v>156</v>
       </c>
@@ -8904,8 +8905,8 @@
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
-      <c r="D103" s="259"/>
-      <c r="E103" s="259"/>
+      <c r="D103" s="261"/>
+      <c r="E103" s="261"/>
       <c r="F103" s="28" t="s">
         <v>157</v>
       </c>
@@ -8944,8 +8945,8 @@
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
-      <c r="D104" s="259"/>
-      <c r="E104" s="259"/>
+      <c r="D104" s="261"/>
+      <c r="E104" s="261"/>
       <c r="F104" s="28" t="s">
         <v>158</v>
       </c>
@@ -8984,8 +8985,8 @@
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="259"/>
-      <c r="E105" s="259"/>
+      <c r="D105" s="261"/>
+      <c r="E105" s="261"/>
       <c r="F105" s="28" t="s">
         <v>159</v>
       </c>
@@ -9024,8 +9025,8 @@
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="259"/>
-      <c r="E106" s="259"/>
+      <c r="D106" s="261"/>
+      <c r="E106" s="261"/>
       <c r="F106" s="28" t="s">
         <v>115</v>
       </c>
@@ -9064,8 +9065,8 @@
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="259"/>
-      <c r="E107" s="259"/>
+      <c r="D107" s="261"/>
+      <c r="E107" s="261"/>
       <c r="F107" s="28" t="s">
         <v>116</v>
       </c>
@@ -9104,8 +9105,8 @@
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="259"/>
-      <c r="E108" s="259"/>
+      <c r="D108" s="261"/>
+      <c r="E108" s="261"/>
       <c r="F108" s="28" t="s">
         <v>114</v>
       </c>
@@ -9144,8 +9145,8 @@
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="259"/>
-      <c r="E109" s="259"/>
+      <c r="D109" s="261"/>
+      <c r="E109" s="261"/>
       <c r="F109" s="28" t="s">
         <v>160</v>
       </c>
@@ -9184,17 +9185,17 @@
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="267" t="s">
+      <c r="D110" s="261"/>
+      <c r="E110" s="260" t="s">
         <v>126</v>
       </c>
       <c r="F110" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G110" s="23"/>
-      <c r="H110" s="255"/>
-      <c r="I110" s="256"/>
-      <c r="J110" s="257"/>
+      <c r="H110" s="257"/>
+      <c r="I110" s="258"/>
+      <c r="J110" s="259"/>
       <c r="K110" s="42"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -9222,8 +9223,8 @@
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
-      <c r="D111" s="259"/>
-      <c r="E111" s="259"/>
+      <c r="D111" s="261"/>
+      <c r="E111" s="261"/>
       <c r="F111" s="28" t="s">
         <v>110</v>
       </c>
@@ -9256,8 +9257,8 @@
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="259"/>
-      <c r="E112" s="259"/>
+      <c r="D112" s="261"/>
+      <c r="E112" s="261"/>
       <c r="F112" s="28" t="s">
         <v>130</v>
       </c>
@@ -9296,8 +9297,8 @@
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
-      <c r="D113" s="260"/>
-      <c r="E113" s="259"/>
+      <c r="D113" s="262"/>
+      <c r="E113" s="261"/>
       <c r="F113" s="28" t="s">
         <v>131</v>
       </c>
@@ -9336,19 +9337,19 @@
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="267" t="s">
+      <c r="D114" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="E114" s="267" t="s">
+      <c r="E114" s="260" t="s">
         <v>161</v>
       </c>
       <c r="F114" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G114" s="23"/>
-      <c r="H114" s="255"/>
-      <c r="I114" s="256"/>
-      <c r="J114" s="257"/>
+      <c r="H114" s="257"/>
+      <c r="I114" s="258"/>
+      <c r="J114" s="259"/>
       <c r="K114" s="42"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
@@ -9376,8 +9377,8 @@
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
-      <c r="D115" s="259"/>
-      <c r="E115" s="259"/>
+      <c r="D115" s="261"/>
+      <c r="E115" s="261"/>
       <c r="F115" s="28" t="s">
         <v>162</v>
       </c>
@@ -9422,8 +9423,8 @@
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="259"/>
-      <c r="E116" s="260"/>
+      <c r="D116" s="261"/>
+      <c r="E116" s="262"/>
       <c r="F116" s="28" t="s">
         <v>164</v>
       </c>
@@ -9468,17 +9469,17 @@
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
-      <c r="D117" s="259"/>
-      <c r="E117" s="268" t="s">
+      <c r="D117" s="261"/>
+      <c r="E117" s="288" t="s">
         <v>165</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>166</v>
       </c>
       <c r="G117" s="19"/>
-      <c r="H117" s="255"/>
-      <c r="I117" s="256"/>
-      <c r="J117" s="257"/>
+      <c r="H117" s="257"/>
+      <c r="I117" s="258"/>
+      <c r="J117" s="259"/>
       <c r="K117" s="42"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
@@ -9506,8 +9507,8 @@
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
-      <c r="D118" s="259"/>
-      <c r="E118" s="259"/>
+      <c r="D118" s="261"/>
+      <c r="E118" s="261"/>
       <c r="F118" s="28" t="s">
         <v>167</v>
       </c>
@@ -9552,8 +9553,8 @@
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="259"/>
-      <c r="E119" s="260"/>
+      <c r="D119" s="261"/>
+      <c r="E119" s="262"/>
       <c r="F119" s="28" t="s">
         <v>168</v>
       </c>
@@ -9598,17 +9599,17 @@
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
-      <c r="D120" s="259"/>
-      <c r="E120" s="268" t="s">
+      <c r="D120" s="261"/>
+      <c r="E120" s="288" t="s">
         <v>169</v>
       </c>
       <c r="F120" s="78" t="s">
         <v>34</v>
       </c>
       <c r="G120" s="79"/>
-      <c r="H120" s="255"/>
-      <c r="I120" s="256"/>
-      <c r="J120" s="257"/>
+      <c r="H120" s="257"/>
+      <c r="I120" s="258"/>
+      <c r="J120" s="259"/>
       <c r="K120" s="80"/>
       <c r="L120" s="81"/>
       <c r="M120" s="81"/>
@@ -9636,8 +9637,8 @@
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
-      <c r="D121" s="259"/>
-      <c r="E121" s="259"/>
+      <c r="D121" s="261"/>
+      <c r="E121" s="261"/>
       <c r="F121" s="49" t="s">
         <v>170</v>
       </c>
@@ -9682,8 +9683,8 @@
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
-      <c r="D122" s="259"/>
-      <c r="E122" s="259"/>
+      <c r="D122" s="261"/>
+      <c r="E122" s="261"/>
       <c r="F122" s="49" t="s">
         <v>171</v>
       </c>
@@ -9728,8 +9729,8 @@
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
-      <c r="D123" s="259"/>
-      <c r="E123" s="259"/>
+      <c r="D123" s="261"/>
+      <c r="E123" s="261"/>
       <c r="F123" s="49" t="s">
         <v>172</v>
       </c>
@@ -9774,8 +9775,8 @@
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
-      <c r="D124" s="259"/>
-      <c r="E124" s="259"/>
+      <c r="D124" s="261"/>
+      <c r="E124" s="261"/>
       <c r="F124" s="49" t="s">
         <v>173</v>
       </c>
@@ -9820,8 +9821,8 @@
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
-      <c r="D125" s="259"/>
-      <c r="E125" s="259"/>
+      <c r="D125" s="261"/>
+      <c r="E125" s="261"/>
       <c r="F125" s="49" t="s">
         <v>174</v>
       </c>
@@ -9866,8 +9867,8 @@
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
-      <c r="D126" s="259"/>
-      <c r="E126" s="259"/>
+      <c r="D126" s="261"/>
+      <c r="E126" s="261"/>
       <c r="F126" s="49" t="s">
         <v>175</v>
       </c>
@@ -9912,8 +9913,8 @@
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="259"/>
-      <c r="E127" s="259"/>
+      <c r="D127" s="261"/>
+      <c r="E127" s="261"/>
       <c r="F127" s="49" t="s">
         <v>176</v>
       </c>
@@ -9958,8 +9959,8 @@
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
-      <c r="D128" s="259"/>
-      <c r="E128" s="260"/>
+      <c r="D128" s="261"/>
+      <c r="E128" s="262"/>
       <c r="F128" s="49" t="s">
         <v>177</v>
       </c>
@@ -10004,20 +10005,20 @@
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
-      <c r="D129" s="261" t="s">
+      <c r="D129" s="284" t="s">
         <v>178</v>
       </c>
-      <c r="E129" s="262"/>
-      <c r="F129" s="262"/>
-      <c r="G129" s="262"/>
-      <c r="H129" s="262"/>
-      <c r="I129" s="262"/>
-      <c r="J129" s="262"/>
-      <c r="K129" s="262"/>
-      <c r="L129" s="262"/>
-      <c r="M129" s="262"/>
-      <c r="N129" s="262"/>
-      <c r="O129" s="263"/>
+      <c r="E129" s="285"/>
+      <c r="F129" s="285"/>
+      <c r="G129" s="285"/>
+      <c r="H129" s="285"/>
+      <c r="I129" s="285"/>
+      <c r="J129" s="285"/>
+      <c r="K129" s="285"/>
+      <c r="L129" s="285"/>
+      <c r="M129" s="285"/>
+      <c r="N129" s="285"/>
+      <c r="O129" s="286"/>
       <c r="P129" s="82"/>
       <c r="Q129" s="82"/>
       <c r="R129" s="16"/>
@@ -10038,18 +10039,18 @@
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
-      <c r="D130" s="264"/>
-      <c r="E130" s="265"/>
-      <c r="F130" s="265"/>
-      <c r="G130" s="265"/>
-      <c r="H130" s="265"/>
-      <c r="I130" s="265"/>
-      <c r="J130" s="265"/>
-      <c r="K130" s="265"/>
-      <c r="L130" s="265"/>
-      <c r="M130" s="265"/>
-      <c r="N130" s="265"/>
-      <c r="O130" s="266"/>
+      <c r="D130" s="287"/>
+      <c r="E130" s="266"/>
+      <c r="F130" s="266"/>
+      <c r="G130" s="266"/>
+      <c r="H130" s="266"/>
+      <c r="I130" s="266"/>
+      <c r="J130" s="266"/>
+      <c r="K130" s="266"/>
+      <c r="L130" s="266"/>
+      <c r="M130" s="266"/>
+      <c r="N130" s="266"/>
+      <c r="O130" s="267"/>
       <c r="P130" s="82"/>
       <c r="Q130" s="82"/>
       <c r="R130" s="16"/>
@@ -17716,20 +17717,45 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D129:O130"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E120:E128"/>
+    <mergeCell ref="D54:D70"/>
+    <mergeCell ref="E54:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="D81:O81"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D83:D113"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E99:E109"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="X4:X5"/>
@@ -17746,45 +17772,20 @@
     <mergeCell ref="E24:E29"/>
     <mergeCell ref="E30:E37"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D81:O81"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D83:D113"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="E99:E109"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="D54:D70"/>
-    <mergeCell ref="E54:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D129:O130"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E120:E128"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17800,8 +17801,8 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17824,14 +17825,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="1"/>
       <c r="H1" s="86" t="s">
         <v>179</v>
@@ -17866,29 +17867,29 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="283"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
+      <c r="A2" s="264"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
       <c r="G2" s="1"/>
       <c r="H2" s="86" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="287" t="s">
+      <c r="L2" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="289"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="272"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="6"/>
@@ -17900,12 +17901,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
+      <c r="A3" s="264"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="1"/>
       <c r="H3" s="90" t="s">
         <v>182</v>
@@ -17932,67 +17933,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="256" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="284" t="s">
+      <c r="I4" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="284" t="s">
+      <c r="J4" s="256" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="284" t="s">
+      <c r="L4" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="284" t="s">
+      <c r="M4" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="284" t="s">
+      <c r="N4" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="284" t="s">
+      <c r="O4" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="284" t="s">
+      <c r="Q4" s="256" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="280" t="s">
+      <c r="S4" s="254" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="284" t="s">
+      <c r="T4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="284" t="s">
+      <c r="V4" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="284" t="s">
+      <c r="W4" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="280" t="s">
+      <c r="X4" s="254" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="307"/>
+      <c r="A5" s="300"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92" t="s">
         <v>23</v>
@@ -18007,23 +18008,23 @@
         <v>26</v>
       </c>
       <c r="G5" s="92"/>
-      <c r="H5" s="307"/>
-      <c r="I5" s="307"/>
-      <c r="J5" s="307"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="300"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="307"/>
-      <c r="M5" s="307"/>
-      <c r="N5" s="307"/>
-      <c r="O5" s="307"/>
-      <c r="P5" s="307"/>
-      <c r="Q5" s="307"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="300"/>
+      <c r="N5" s="300"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="300"/>
+      <c r="Q5" s="300"/>
       <c r="R5" s="94"/>
-      <c r="S5" s="307"/>
-      <c r="T5" s="307"/>
-      <c r="U5" s="307"/>
-      <c r="V5" s="307"/>
-      <c r="W5" s="307"/>
-      <c r="X5" s="307"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="300"/>
+      <c r="U5" s="300"/>
+      <c r="V5" s="300"/>
+      <c r="W5" s="300"/>
+      <c r="X5" s="300"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="16"/>
@@ -18054,7 +18055,7 @@
     <row r="7" spans="1:24" ht="16.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="202"/>
-      <c r="C7" s="308"/>
+      <c r="C7" s="301"/>
       <c r="D7" s="97" t="s">
         <v>187</v>
       </c>
@@ -18098,7 +18099,7 @@
     <row r="8" spans="1:24" s="204" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="206"/>
       <c r="B8" s="202"/>
-      <c r="C8" s="308"/>
+      <c r="C8" s="301"/>
       <c r="D8" s="97" t="s">
         <v>457</v>
       </c>
@@ -18136,8 +18137,8 @@
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="303" t="s">
+      <c r="C9" s="264"/>
+      <c r="D9" s="290" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="97" t="s">
@@ -18170,9 +18171,9 @@
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="308" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="301" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="99" t="s">
@@ -18202,9 +18203,9 @@
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="283"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="264"/>
       <c r="F11" s="99" t="s">
         <v>192</v>
       </c>
@@ -18232,9 +18233,9 @@
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12" s="104"/>
       <c r="B12" s="104"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="300" t="s">
+      <c r="C12" s="264"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="289" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="99" t="s">
@@ -18264,9 +18265,9 @@
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="104"/>
       <c r="B13" s="104"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="260"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="99" t="s">
         <v>192</v>
       </c>
@@ -18294,9 +18295,9 @@
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14" s="104"/>
       <c r="B14" s="104"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="300" t="s">
+      <c r="C14" s="264"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="289" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="99" t="s">
@@ -18326,9 +18327,9 @@
     <row r="15" spans="1:24" ht="16.5" customHeight="1">
       <c r="A15" s="104"/>
       <c r="B15" s="104"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
       <c r="F15" s="108" t="s">
         <v>195</v>
       </c>
@@ -18356,9 +18357,9 @@
     <row r="16" spans="1:24" ht="16.5" customHeight="1">
       <c r="A16" s="104"/>
       <c r="B16" s="104"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
       <c r="F16" s="97" t="s">
         <v>196</v>
       </c>
@@ -18386,9 +18387,9 @@
     <row r="17" spans="1:24" ht="16.5" customHeight="1">
       <c r="A17" s="104"/>
       <c r="B17" s="104"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
       <c r="F17" s="109" t="s">
         <v>197</v>
       </c>
@@ -18416,9 +18417,9 @@
     <row r="18" spans="1:24" ht="16.5" customHeight="1">
       <c r="A18" s="104"/>
       <c r="B18" s="104"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
       <c r="F18" s="108" t="s">
         <v>198</v>
       </c>
@@ -18446,9 +18447,9 @@
     <row r="19" spans="1:24" ht="16.5" customHeight="1">
       <c r="A19" s="104"/>
       <c r="B19" s="104"/>
-      <c r="C19" s="283"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
       <c r="F19" s="97" t="s">
         <v>199</v>
       </c>
@@ -18476,9 +18477,9 @@
     <row r="20" spans="1:24" ht="16.5" customHeight="1">
       <c r="A20" s="104"/>
       <c r="B20" s="104"/>
-      <c r="C20" s="283"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
+      <c r="C20" s="264"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
       <c r="F20" s="109" t="s">
         <v>200</v>
       </c>
@@ -18506,9 +18507,9 @@
     <row r="21" spans="1:24" ht="16.5" customHeight="1">
       <c r="A21" s="104"/>
       <c r="B21" s="104"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
+      <c r="C21" s="264"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
       <c r="F21" s="99" t="s">
         <v>201</v>
       </c>
@@ -18536,9 +18537,9 @@
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
+      <c r="C22" s="264"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="262"/>
       <c r="F22" s="212" t="s">
         <v>451</v>
       </c>
@@ -18566,11 +18567,11 @@
     <row r="23" spans="1:24" ht="16.5" customHeight="1">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="300" t="s">
+      <c r="C23" s="264"/>
+      <c r="D23" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="301" t="s">
+      <c r="E23" s="304" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="110" t="s">
@@ -18600,9 +18601,9 @@
     <row r="24" spans="1:24" ht="16.5" customHeight="1">
       <c r="A24" s="83"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="261"/>
       <c r="F24" s="110" t="s">
         <v>204</v>
       </c>
@@ -18630,9 +18631,9 @@
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
+      <c r="C25" s="264"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
       <c r="F25" s="110" t="s">
         <v>205</v>
       </c>
@@ -18660,9 +18661,9 @@
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
       <c r="F26" s="110" t="s">
         <v>206</v>
       </c>
@@ -18690,9 +18691,9 @@
     <row r="27" spans="1:24" ht="16.5" customHeight="1">
       <c r="A27" s="83"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="260"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="262"/>
       <c r="F27" s="110" t="s">
         <v>207</v>
       </c>
@@ -18720,9 +18721,9 @@
     <row r="28" spans="1:24" ht="16.5" customHeight="1">
       <c r="A28" s="83"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="283"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="300" t="s">
+      <c r="C28" s="264"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="289" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="110" t="s">
@@ -18752,9 +18753,9 @@
     <row r="29" spans="1:24" ht="16.5" customHeight="1">
       <c r="A29" s="83"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="259"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="110" t="s">
         <v>210</v>
       </c>
@@ -18782,9 +18783,9 @@
     <row r="30" spans="1:24" ht="16.5" customHeight="1">
       <c r="A30" s="83"/>
       <c r="B30" s="83"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="259"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="261"/>
       <c r="F30" s="110" t="s">
         <v>211</v>
       </c>
@@ -18812,9 +18813,9 @@
     <row r="31" spans="1:24" ht="16.5" customHeight="1">
       <c r="A31" s="83"/>
       <c r="B31" s="83"/>
-      <c r="C31" s="283"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="259"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="110" t="s">
         <v>212</v>
       </c>
@@ -18842,9 +18843,9 @@
     <row r="32" spans="1:24" ht="16.5" customHeight="1">
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="283"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="260"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="262"/>
       <c r="F32" s="110" t="s">
         <v>213</v>
       </c>
@@ -18872,9 +18873,9 @@
     <row r="33" spans="1:24" ht="16.5" customHeight="1">
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="301" t="s">
+      <c r="C33" s="264"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="304" t="s">
         <v>214</v>
       </c>
       <c r="F33" s="110" t="s">
@@ -18904,9 +18905,9 @@
     <row r="34" spans="1:24" ht="16.5" customHeight="1">
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="259"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
       <c r="F34" s="110" t="s">
         <v>204</v>
       </c>
@@ -18934,9 +18935,9 @@
     <row r="35" spans="1:24" ht="16.5" customHeight="1">
       <c r="A35" s="83"/>
       <c r="B35" s="83"/>
-      <c r="C35" s="283"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
       <c r="F35" s="110" t="s">
         <v>205</v>
       </c>
@@ -18964,9 +18965,9 @@
     <row r="36" spans="1:24" ht="16.5" customHeight="1">
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
-      <c r="C36" s="283"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
       <c r="F36" s="110" t="s">
         <v>206</v>
       </c>
@@ -18994,9 +18995,9 @@
     <row r="37" spans="1:24" ht="16.5" customHeight="1">
       <c r="A37" s="83"/>
       <c r="B37" s="83"/>
-      <c r="C37" s="283"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="262"/>
       <c r="F37" s="110" t="s">
         <v>207</v>
       </c>
@@ -19024,9 +19025,9 @@
     <row r="38" spans="1:24" ht="16.5" customHeight="1">
       <c r="A38" s="83"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="300" t="s">
+      <c r="C38" s="264"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="289" t="s">
         <v>215</v>
       </c>
       <c r="F38" s="110" t="s">
@@ -19056,9 +19057,9 @@
     <row r="39" spans="1:24" ht="16.5" customHeight="1">
       <c r="A39" s="83"/>
       <c r="B39" s="83"/>
-      <c r="C39" s="283"/>
-      <c r="D39" s="259"/>
-      <c r="E39" s="259"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
       <c r="F39" s="110" t="s">
         <v>210</v>
       </c>
@@ -19086,9 +19087,9 @@
     <row r="40" spans="1:24" ht="16.5" customHeight="1">
       <c r="A40" s="83"/>
       <c r="B40" s="83"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="259"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
       <c r="F40" s="110" t="s">
         <v>211</v>
       </c>
@@ -19116,9 +19117,9 @@
     <row r="41" spans="1:24" ht="16.5" customHeight="1">
       <c r="A41" s="83"/>
       <c r="B41" s="83"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="259"/>
-      <c r="E41" s="259"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
       <c r="F41" s="110" t="s">
         <v>212</v>
       </c>
@@ -19146,9 +19147,9 @@
     <row r="42" spans="1:24" ht="16.5" customHeight="1">
       <c r="A42" s="83"/>
       <c r="B42" s="83"/>
-      <c r="C42" s="283"/>
-      <c r="D42" s="259"/>
-      <c r="E42" s="260"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="262"/>
       <c r="F42" s="110" t="s">
         <v>213</v>
       </c>
@@ -19176,9 +19177,9 @@
     <row r="43" spans="1:24" ht="16.5" customHeight="1">
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="283"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="301" t="s">
+      <c r="C43" s="264"/>
+      <c r="D43" s="261"/>
+      <c r="E43" s="304" t="s">
         <v>216</v>
       </c>
       <c r="F43" s="110" t="s">
@@ -19208,9 +19209,9 @@
     <row r="44" spans="1:24" ht="16.5" customHeight="1">
       <c r="A44" s="104"/>
       <c r="B44" s="104"/>
-      <c r="C44" s="283"/>
-      <c r="D44" s="259"/>
-      <c r="E44" s="259"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="261"/>
       <c r="F44" s="110" t="s">
         <v>204</v>
       </c>
@@ -19238,9 +19239,9 @@
     <row r="45" spans="1:24" ht="16.5" customHeight="1">
       <c r="A45" s="104"/>
       <c r="B45" s="104"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="259"/>
-      <c r="E45" s="259"/>
+      <c r="C45" s="264"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
       <c r="F45" s="110" t="s">
         <v>205</v>
       </c>
@@ -19268,9 +19269,9 @@
     <row r="46" spans="1:24" ht="16.5" customHeight="1">
       <c r="A46" s="104"/>
       <c r="B46" s="104"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="259"/>
-      <c r="E46" s="259"/>
+      <c r="C46" s="264"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
       <c r="F46" s="110" t="s">
         <v>206</v>
       </c>
@@ -19298,9 +19299,9 @@
     <row r="47" spans="1:24" ht="16.5" customHeight="1">
       <c r="A47" s="104"/>
       <c r="B47" s="104"/>
-      <c r="C47" s="283"/>
-      <c r="D47" s="259"/>
-      <c r="E47" s="260"/>
+      <c r="C47" s="264"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="262"/>
       <c r="F47" s="110" t="s">
         <v>207</v>
       </c>
@@ -19328,9 +19329,9 @@
     <row r="48" spans="1:24" ht="16.5" customHeight="1">
       <c r="A48" s="104"/>
       <c r="B48" s="104"/>
-      <c r="C48" s="283"/>
-      <c r="D48" s="259"/>
-      <c r="E48" s="300" t="s">
+      <c r="C48" s="264"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="289" t="s">
         <v>217</v>
       </c>
       <c r="F48" s="110" t="s">
@@ -19360,9 +19361,9 @@
     <row r="49" spans="1:24" ht="16.5" customHeight="1">
       <c r="A49" s="104"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="283"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="259"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="261"/>
       <c r="F49" s="110" t="s">
         <v>210</v>
       </c>
@@ -19390,9 +19391,9 @@
     <row r="50" spans="1:24" ht="16.5" customHeight="1">
       <c r="A50" s="104"/>
       <c r="B50" s="104"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
       <c r="F50" s="110" t="s">
         <v>211</v>
       </c>
@@ -19420,9 +19421,9 @@
     <row r="51" spans="1:24" ht="16.5" customHeight="1">
       <c r="A51" s="104"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="259"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="261"/>
       <c r="F51" s="110" t="s">
         <v>212</v>
       </c>
@@ -19450,9 +19451,9 @@
     <row r="52" spans="1:24" ht="16.5" customHeight="1">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="260"/>
-      <c r="E52" s="260"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="262"/>
+      <c r="E52" s="262"/>
       <c r="F52" s="99" t="s">
         <v>213</v>
       </c>
@@ -19480,8 +19481,8 @@
     <row r="53" spans="1:24" ht="16.5" customHeight="1">
       <c r="A53" s="83"/>
       <c r="B53" s="83"/>
-      <c r="C53" s="303"/>
-      <c r="D53" s="267" t="s">
+      <c r="C53" s="290"/>
+      <c r="D53" s="260" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="67" t="s">
@@ -19512,8 +19513,8 @@
     <row r="54" spans="1:24" ht="16.5" customHeight="1">
       <c r="A54" s="83"/>
       <c r="B54" s="83"/>
-      <c r="C54" s="260"/>
-      <c r="D54" s="260"/>
+      <c r="C54" s="262"/>
+      <c r="D54" s="262"/>
       <c r="E54" s="99" t="s">
         <v>219</v>
       </c>
@@ -19542,11 +19543,11 @@
     <row r="55" spans="1:24" ht="16.5" customHeight="1">
       <c r="A55" s="104"/>
       <c r="B55" s="104"/>
-      <c r="C55" s="303" t="s">
+      <c r="C55" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="300"/>
-      <c r="E55" s="301" t="s">
+      <c r="D55" s="289"/>
+      <c r="E55" s="304" t="s">
         <v>221</v>
       </c>
       <c r="F55" s="220" t="s">
@@ -19576,9 +19577,9 @@
     <row r="56" spans="1:24" ht="16.5" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="83"/>
-      <c r="C56" s="259"/>
-      <c r="D56" s="259"/>
-      <c r="E56" s="302"/>
+      <c r="C56" s="261"/>
+      <c r="D56" s="261"/>
+      <c r="E56" s="296"/>
       <c r="F56" s="214" t="s">
         <v>223</v>
       </c>
@@ -19616,9 +19617,9 @@
     <row r="57" spans="1:24" ht="24">
       <c r="A57" s="83"/>
       <c r="B57" s="83"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="302"/>
+      <c r="C57" s="261"/>
+      <c r="D57" s="261"/>
+      <c r="E57" s="296"/>
       <c r="F57" s="216" t="s">
         <v>224</v>
       </c>
@@ -19656,9 +19657,9 @@
     <row r="58" spans="1:24" ht="24">
       <c r="A58" s="83"/>
       <c r="B58" s="83"/>
-      <c r="C58" s="259"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="302"/>
+      <c r="C58" s="261"/>
+      <c r="D58" s="261"/>
+      <c r="E58" s="296"/>
       <c r="F58" s="216" t="s">
         <v>225</v>
       </c>
@@ -19696,9 +19697,9 @@
     <row r="59" spans="1:24" s="200" customFormat="1" ht="24">
       <c r="A59" s="191"/>
       <c r="B59" s="191"/>
-      <c r="C59" s="259"/>
+      <c r="C59" s="261"/>
       <c r="D59" s="199"/>
-      <c r="E59" s="302"/>
+      <c r="E59" s="296"/>
       <c r="F59" s="235" t="s">
         <v>450</v>
       </c>
@@ -19710,13 +19711,13 @@
       <c r="J59" s="236"/>
       <c r="K59" s="236"/>
       <c r="L59" s="211" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M59" s="211" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N59" s="211" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O59" s="211"/>
       <c r="P59" s="85"/>
@@ -19732,32 +19733,32 @@
     <row r="60" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A60" s="191"/>
       <c r="B60" s="191"/>
-      <c r="C60" s="259"/>
+      <c r="C60" s="261"/>
       <c r="D60" s="222"/>
-      <c r="E60" s="302"/>
+      <c r="E60" s="296"/>
       <c r="F60" s="216" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G60" s="214"/>
       <c r="H60" s="203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I60" s="234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J60" s="214"/>
       <c r="K60" s="214"/>
       <c r="L60" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M60" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N60" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O60" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P60" s="85"/>
       <c r="Q60" s="85"/>
@@ -19772,9 +19773,9 @@
     <row r="61" spans="1:24" s="200" customFormat="1" ht="24">
       <c r="A61" s="191"/>
       <c r="B61" s="191"/>
-      <c r="C61" s="259"/>
+      <c r="C61" s="261"/>
       <c r="D61" s="199"/>
-      <c r="E61" s="302"/>
+      <c r="E61" s="296"/>
       <c r="F61" s="213" t="s">
         <v>452</v>
       </c>
@@ -19812,32 +19813,32 @@
     <row r="62" spans="1:24" s="239" customFormat="1" ht="60">
       <c r="A62" s="191"/>
       <c r="B62" s="191"/>
-      <c r="C62" s="259"/>
+      <c r="C62" s="261"/>
       <c r="D62" s="238"/>
       <c r="E62" s="306"/>
       <c r="F62" s="253" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G62" s="214"/>
       <c r="H62" s="234" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I62" s="234" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J62" s="214"/>
       <c r="K62" s="214"/>
       <c r="L62" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M62" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N62" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O62" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85"/>
@@ -19852,9 +19853,9 @@
     <row r="63" spans="1:24" ht="16.5" customHeight="1">
       <c r="A63" s="83"/>
       <c r="B63" s="83"/>
-      <c r="C63" s="259"/>
-      <c r="D63" s="300"/>
-      <c r="E63" s="300" t="s">
+      <c r="C63" s="261"/>
+      <c r="D63" s="289"/>
+      <c r="E63" s="289" t="s">
         <v>226</v>
       </c>
       <c r="F63" s="217" t="s">
@@ -19894,9 +19895,9 @@
     <row r="64" spans="1:24" ht="12.75">
       <c r="A64" s="83"/>
       <c r="B64" s="83"/>
-      <c r="C64" s="259"/>
-      <c r="D64" s="259"/>
-      <c r="E64" s="259"/>
+      <c r="C64" s="261"/>
+      <c r="D64" s="261"/>
+      <c r="E64" s="261"/>
       <c r="F64" s="217" t="s">
         <v>228</v>
       </c>
@@ -19934,9 +19935,9 @@
     <row r="65" spans="1:24" ht="24">
       <c r="A65" s="83"/>
       <c r="B65" s="83"/>
-      <c r="C65" s="259"/>
-      <c r="D65" s="259"/>
-      <c r="E65" s="259"/>
+      <c r="C65" s="261"/>
+      <c r="D65" s="261"/>
+      <c r="E65" s="261"/>
       <c r="F65" s="217" t="s">
         <v>229</v>
       </c>
@@ -19974,32 +19975,32 @@
     <row r="66" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A66" s="191"/>
       <c r="B66" s="191"/>
-      <c r="C66" s="259"/>
-      <c r="D66" s="259"/>
-      <c r="E66" s="259"/>
+      <c r="C66" s="261"/>
+      <c r="D66" s="261"/>
+      <c r="E66" s="261"/>
       <c r="F66" s="217" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G66" s="218"/>
       <c r="H66" s="233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I66" s="234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J66" s="218"/>
       <c r="K66" s="218"/>
       <c r="L66" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M66" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N66" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O66" s="227" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P66" s="85"/>
       <c r="Q66" s="85"/>
@@ -20014,32 +20015,32 @@
     <row r="67" spans="1:24" s="239" customFormat="1" ht="60">
       <c r="A67" s="191"/>
       <c r="B67" s="191"/>
-      <c r="C67" s="259"/>
-      <c r="D67" s="259"/>
-      <c r="E67" s="259"/>
+      <c r="C67" s="261"/>
+      <c r="D67" s="261"/>
+      <c r="E67" s="261"/>
       <c r="F67" s="248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G67" s="218"/>
       <c r="H67" s="233" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I67" s="234" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J67" s="218"/>
       <c r="K67" s="218"/>
       <c r="L67" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M67" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N67" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O67" s="227" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P67" s="85"/>
       <c r="Q67" s="85"/>
@@ -20054,23 +20055,33 @@
     <row r="68" spans="1:24" ht="24">
       <c r="A68" s="83"/>
       <c r="B68" s="83"/>
-      <c r="C68" s="259"/>
-      <c r="D68" s="259"/>
-      <c r="E68" s="259"/>
-      <c r="F68" s="112" t="s">
+      <c r="C68" s="261"/>
+      <c r="D68" s="261"/>
+      <c r="E68" s="261"/>
+      <c r="F68" s="217" t="s">
         <v>230</v>
       </c>
-      <c r="G68" s="113"/>
-      <c r="H68" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="I68" s="101"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
-      <c r="O68" s="114"/>
+      <c r="G68" s="218"/>
+      <c r="H68" s="233" t="s">
+        <v>465</v>
+      </c>
+      <c r="I68" s="234" t="s">
+        <v>465</v>
+      </c>
+      <c r="J68" s="218"/>
+      <c r="K68" s="218"/>
+      <c r="L68" s="227" t="s">
+        <v>459</v>
+      </c>
+      <c r="M68" s="227" t="s">
+        <v>459</v>
+      </c>
+      <c r="N68" s="227" t="s">
+        <v>459</v>
+      </c>
+      <c r="O68" s="227" t="s">
+        <v>459</v>
+      </c>
       <c r="P68" s="85"/>
       <c r="Q68" s="85"/>
       <c r="R68" s="16"/>
@@ -20084,9 +20095,9 @@
     <row r="69" spans="1:24" ht="24">
       <c r="A69" s="83"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="259"/>
-      <c r="D69" s="300"/>
-      <c r="E69" s="300" t="s">
+      <c r="C69" s="261"/>
+      <c r="D69" s="289"/>
+      <c r="E69" s="289" t="s">
         <v>231</v>
       </c>
       <c r="F69" s="112" t="s">
@@ -20116,9 +20127,9 @@
     <row r="70" spans="1:24" ht="12.75">
       <c r="A70" s="83"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="259"/>
-      <c r="D70" s="259"/>
-      <c r="E70" s="259"/>
+      <c r="C70" s="261"/>
+      <c r="D70" s="261"/>
+      <c r="E70" s="261"/>
       <c r="F70" s="112" t="s">
         <v>233</v>
       </c>
@@ -20146,9 +20157,9 @@
     <row r="71" spans="1:24" ht="24">
       <c r="A71" s="83"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="259"/>
-      <c r="D71" s="300"/>
-      <c r="E71" s="300" t="s">
+      <c r="C71" s="261"/>
+      <c r="D71" s="289"/>
+      <c r="E71" s="289" t="s">
         <v>234</v>
       </c>
       <c r="F71" s="112" t="s">
@@ -20178,9 +20189,9 @@
     <row r="72" spans="1:24" ht="16.5" customHeight="1">
       <c r="A72" s="83"/>
       <c r="B72" s="83"/>
-      <c r="C72" s="260"/>
-      <c r="D72" s="259"/>
-      <c r="E72" s="259"/>
+      <c r="C72" s="262"/>
+      <c r="D72" s="261"/>
+      <c r="E72" s="261"/>
       <c r="F72" s="112" t="s">
         <v>236</v>
       </c>
@@ -20237,9 +20248,9 @@
       <c r="C74" s="305" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="265"/>
-      <c r="E74" s="265"/>
-      <c r="F74" s="266"/>
+      <c r="D74" s="266"/>
+      <c r="E74" s="266"/>
+      <c r="F74" s="267"/>
       <c r="G74" s="121"/>
       <c r="H74" s="122"/>
       <c r="I74" s="122"/>
@@ -20262,13 +20273,13 @@
     <row r="75" spans="1:24" ht="16.5" customHeight="1">
       <c r="A75" s="127"/>
       <c r="B75" s="127"/>
-      <c r="C75" s="300" t="s">
+      <c r="C75" s="289" t="s">
         <v>238</v>
       </c>
-      <c r="D75" s="300" t="s">
+      <c r="D75" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="304" t="s">
+      <c r="E75" s="297" t="s">
         <v>239</v>
       </c>
       <c r="F75" s="128" t="s">
@@ -20308,9 +20319,9 @@
     <row r="76" spans="1:24" ht="16.5" customHeight="1">
       <c r="A76" s="127"/>
       <c r="B76" s="127"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
+      <c r="C76" s="261"/>
+      <c r="D76" s="261"/>
+      <c r="E76" s="261"/>
       <c r="F76" s="128" t="s">
         <v>241</v>
       </c>
@@ -20348,9 +20359,9 @@
     <row r="77" spans="1:24" ht="16.5" customHeight="1">
       <c r="A77" s="127"/>
       <c r="B77" s="127"/>
-      <c r="C77" s="259"/>
-      <c r="D77" s="259"/>
-      <c r="E77" s="260"/>
+      <c r="C77" s="261"/>
+      <c r="D77" s="261"/>
+      <c r="E77" s="262"/>
       <c r="F77" s="128" t="s">
         <v>242</v>
       </c>
@@ -20388,9 +20399,9 @@
     <row r="78" spans="1:24" ht="16.5" customHeight="1">
       <c r="A78" s="127"/>
       <c r="B78" s="127"/>
-      <c r="C78" s="259"/>
-      <c r="D78" s="259"/>
-      <c r="E78" s="303" t="s">
+      <c r="C78" s="261"/>
+      <c r="D78" s="261"/>
+      <c r="E78" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F78" s="109" t="s">
@@ -20420,9 +20431,9 @@
     <row r="79" spans="1:24" ht="12.75">
       <c r="A79" s="127"/>
       <c r="B79" s="127"/>
-      <c r="C79" s="259"/>
-      <c r="D79" s="259"/>
-      <c r="E79" s="260"/>
+      <c r="C79" s="261"/>
+      <c r="D79" s="261"/>
+      <c r="E79" s="262"/>
       <c r="F79" s="109" t="s">
         <v>245</v>
       </c>
@@ -20450,8 +20461,8 @@
     <row r="80" spans="1:24" ht="12.75">
       <c r="A80" s="104"/>
       <c r="B80" s="104"/>
-      <c r="C80" s="259"/>
-      <c r="D80" s="259"/>
+      <c r="C80" s="261"/>
+      <c r="D80" s="261"/>
       <c r="E80" s="99" t="s">
         <v>126</v>
       </c>
@@ -20460,24 +20471,24 @@
       </c>
       <c r="G80" s="226"/>
       <c r="H80" s="241" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I80" s="219" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J80" s="242"/>
       <c r="K80" s="226"/>
       <c r="L80" s="237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M80" s="237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N80" s="237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O80" s="237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P80" s="105"/>
       <c r="Q80" s="105"/>
@@ -20492,32 +20503,32 @@
     <row r="81" spans="1:24" s="223" customFormat="1" ht="12.75">
       <c r="A81" s="192"/>
       <c r="B81" s="192"/>
-      <c r="C81" s="259"/>
-      <c r="D81" s="259"/>
+      <c r="C81" s="261"/>
+      <c r="D81" s="261"/>
       <c r="E81" s="103"/>
       <c r="F81" s="226" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G81" s="226"/>
       <c r="H81" s="241" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I81" s="233" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J81" s="246"/>
       <c r="K81" s="226"/>
       <c r="L81" s="237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M81" s="237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N81" s="237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O81" s="237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P81" s="105"/>
       <c r="Q81" s="105"/>
@@ -20532,8 +20543,8 @@
     <row r="82" spans="1:24" ht="16.5" customHeight="1">
       <c r="A82" s="104"/>
       <c r="B82" s="104"/>
-      <c r="C82" s="259"/>
-      <c r="D82" s="259"/>
+      <c r="C82" s="261"/>
+      <c r="D82" s="261"/>
       <c r="E82" s="99" t="s">
         <v>247</v>
       </c>
@@ -20564,14 +20575,14 @@
     <row r="83" spans="1:24" ht="16.5" customHeight="1">
       <c r="A83" s="104"/>
       <c r="B83" s="104"/>
-      <c r="C83" s="259"/>
-      <c r="D83" s="300" t="s">
+      <c r="C83" s="261"/>
+      <c r="D83" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="296" t="s">
+      <c r="E83" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="257"/>
+      <c r="F83" s="259"/>
       <c r="G83" s="103"/>
       <c r="H83" s="100" t="s">
         <v>37</v>
@@ -20596,34 +20607,34 @@
     <row r="84" spans="1:24" ht="16.5" customHeight="1">
       <c r="A84" s="104"/>
       <c r="B84" s="104"/>
-      <c r="C84" s="259"/>
-      <c r="D84" s="259"/>
+      <c r="C84" s="261"/>
+      <c r="D84" s="261"/>
       <c r="E84" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F84" s="252" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G84" s="226"/>
       <c r="H84" s="219" t="s">
         <v>37</v>
       </c>
       <c r="I84" s="233" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J84" s="226"/>
       <c r="K84" s="226"/>
       <c r="L84" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M84" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N84" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O84" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P84" s="105"/>
       <c r="Q84" s="105"/>
@@ -20638,9 +20649,9 @@
     <row r="85" spans="1:24" ht="16.5" customHeight="1">
       <c r="A85" s="104"/>
       <c r="B85" s="104"/>
-      <c r="C85" s="259"/>
-      <c r="D85" s="259"/>
-      <c r="E85" s="300" t="s">
+      <c r="C85" s="261"/>
+      <c r="D85" s="261"/>
+      <c r="E85" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F85" s="226" t="s">
@@ -20651,21 +20662,21 @@
         <v>37</v>
       </c>
       <c r="I85" s="233" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J85" s="226"/>
       <c r="K85" s="226"/>
       <c r="L85" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M85" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N85" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O85" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P85" s="105"/>
       <c r="Q85" s="105"/>
@@ -20680,32 +20691,32 @@
     <row r="86" spans="1:24" ht="16.5" customHeight="1">
       <c r="A86" s="104"/>
       <c r="B86" s="104"/>
-      <c r="C86" s="259"/>
-      <c r="D86" s="259"/>
-      <c r="E86" s="259"/>
+      <c r="C86" s="261"/>
+      <c r="D86" s="261"/>
+      <c r="E86" s="261"/>
       <c r="F86" s="252" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G86" s="226"/>
       <c r="H86" s="219" t="s">
         <v>37</v>
       </c>
       <c r="I86" s="219" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J86" s="226"/>
       <c r="K86" s="226"/>
       <c r="L86" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M86" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N86" s="237" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O86" s="237" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P86" s="105"/>
       <c r="Q86" s="105"/>
@@ -20720,25 +20731,33 @@
     <row r="87" spans="1:24" ht="12.75">
       <c r="A87" s="104"/>
       <c r="B87" s="104"/>
-      <c r="C87" s="259"/>
-      <c r="D87" s="260"/>
-      <c r="E87" s="260"/>
-      <c r="F87" s="249" t="s">
+      <c r="C87" s="261"/>
+      <c r="D87" s="262"/>
+      <c r="E87" s="262"/>
+      <c r="F87" s="226" t="s">
         <v>253</v>
       </c>
-      <c r="G87" s="249"/>
-      <c r="H87" s="250" t="s">
+      <c r="G87" s="226"/>
+      <c r="H87" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="I87" s="254" t="s">
-        <v>475</v>
-      </c>
-      <c r="J87" s="249"/>
-      <c r="K87" s="249"/>
-      <c r="L87" s="251"/>
-      <c r="M87" s="251"/>
-      <c r="N87" s="251"/>
-      <c r="O87" s="251"/>
+      <c r="I87" s="233" t="s">
+        <v>472</v>
+      </c>
+      <c r="J87" s="226"/>
+      <c r="K87" s="226"/>
+      <c r="L87" s="237" t="s">
+        <v>490</v>
+      </c>
+      <c r="M87" s="237" t="s">
+        <v>490</v>
+      </c>
+      <c r="N87" s="237" t="s">
+        <v>490</v>
+      </c>
+      <c r="O87" s="237" t="s">
+        <v>490</v>
+      </c>
       <c r="P87" s="105"/>
       <c r="Q87" s="105"/>
       <c r="R87" s="106"/>
@@ -20752,8 +20771,8 @@
     <row r="88" spans="1:24" ht="16.5" customHeight="1">
       <c r="A88" s="104"/>
       <c r="B88" s="104"/>
-      <c r="C88" s="259"/>
-      <c r="D88" s="300" t="s">
+      <c r="C88" s="261"/>
+      <c r="D88" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E88" s="99" t="s">
@@ -20786,8 +20805,8 @@
     <row r="89" spans="1:24" ht="16.5" customHeight="1">
       <c r="A89" s="104"/>
       <c r="B89" s="104"/>
-      <c r="C89" s="259"/>
-      <c r="D89" s="259"/>
+      <c r="C89" s="261"/>
+      <c r="D89" s="261"/>
       <c r="E89" s="99" t="s">
         <v>257</v>
       </c>
@@ -20818,8 +20837,8 @@
     <row r="90" spans="1:24" ht="16.5" customHeight="1">
       <c r="A90" s="104"/>
       <c r="B90" s="104"/>
-      <c r="C90" s="259"/>
-      <c r="D90" s="259"/>
+      <c r="C90" s="261"/>
+      <c r="D90" s="261"/>
       <c r="E90" s="99" t="s">
         <v>258</v>
       </c>
@@ -20850,9 +20869,9 @@
     <row r="91" spans="1:24" ht="16.5" customHeight="1">
       <c r="A91" s="104"/>
       <c r="B91" s="104"/>
-      <c r="C91" s="259"/>
-      <c r="D91" s="259"/>
-      <c r="E91" s="300" t="s">
+      <c r="C91" s="261"/>
+      <c r="D91" s="261"/>
+      <c r="E91" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F91" s="99" t="s">
@@ -20882,9 +20901,9 @@
     <row r="92" spans="1:24" ht="16.5" customHeight="1">
       <c r="A92" s="104"/>
       <c r="B92" s="104"/>
-      <c r="C92" s="259"/>
-      <c r="D92" s="260"/>
-      <c r="E92" s="260"/>
+      <c r="C92" s="261"/>
+      <c r="D92" s="262"/>
+      <c r="E92" s="262"/>
       <c r="F92" s="99" t="s">
         <v>256</v>
       </c>
@@ -20912,8 +20931,8 @@
     <row r="93" spans="1:24" ht="16.5" customHeight="1">
       <c r="A93" s="104"/>
       <c r="B93" s="104"/>
-      <c r="C93" s="259"/>
-      <c r="D93" s="300" t="s">
+      <c r="C93" s="261"/>
+      <c r="D93" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E93" s="99" t="s">
@@ -20946,8 +20965,8 @@
     <row r="94" spans="1:24" ht="16.5" customHeight="1">
       <c r="A94" s="104"/>
       <c r="B94" s="104"/>
-      <c r="C94" s="259"/>
-      <c r="D94" s="259"/>
+      <c r="C94" s="261"/>
+      <c r="D94" s="261"/>
       <c r="E94" s="99" t="s">
         <v>263</v>
       </c>
@@ -20978,9 +20997,9 @@
     <row r="95" spans="1:24" ht="16.5" customHeight="1">
       <c r="A95" s="104"/>
       <c r="B95" s="104"/>
-      <c r="C95" s="259"/>
-      <c r="D95" s="259"/>
-      <c r="E95" s="301" t="s">
+      <c r="C95" s="261"/>
+      <c r="D95" s="261"/>
+      <c r="E95" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F95" s="99" t="s">
@@ -21010,9 +21029,9 @@
     <row r="96" spans="1:24" ht="16.5" customHeight="1">
       <c r="A96" s="104"/>
       <c r="B96" s="104"/>
-      <c r="C96" s="259"/>
-      <c r="D96" s="259"/>
-      <c r="E96" s="260"/>
+      <c r="C96" s="261"/>
+      <c r="D96" s="261"/>
+      <c r="E96" s="262"/>
       <c r="F96" s="99" t="s">
         <v>266</v>
       </c>
@@ -21040,9 +21059,9 @@
     <row r="97" spans="1:24" ht="16.5" customHeight="1">
       <c r="A97" s="104"/>
       <c r="B97" s="104"/>
-      <c r="C97" s="259"/>
-      <c r="D97" s="259"/>
-      <c r="E97" s="300" t="s">
+      <c r="C97" s="261"/>
+      <c r="D97" s="261"/>
+      <c r="E97" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F97" s="99" t="s">
@@ -21072,9 +21091,9 @@
     <row r="98" spans="1:24" ht="16.5" customHeight="1">
       <c r="A98" s="104"/>
       <c r="B98" s="104"/>
-      <c r="C98" s="259"/>
-      <c r="D98" s="259"/>
-      <c r="E98" s="260"/>
+      <c r="C98" s="261"/>
+      <c r="D98" s="261"/>
+      <c r="E98" s="262"/>
       <c r="F98" s="99" t="s">
         <v>266</v>
       </c>
@@ -21102,9 +21121,9 @@
     <row r="99" spans="1:24" ht="16.5" customHeight="1">
       <c r="A99" s="104"/>
       <c r="B99" s="104"/>
-      <c r="C99" s="259"/>
-      <c r="D99" s="259"/>
-      <c r="E99" s="300" t="s">
+      <c r="C99" s="261"/>
+      <c r="D99" s="261"/>
+      <c r="E99" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F99" s="99" t="s">
@@ -21134,9 +21153,9 @@
     <row r="100" spans="1:24" ht="16.5" customHeight="1">
       <c r="A100" s="104"/>
       <c r="B100" s="104"/>
-      <c r="C100" s="259"/>
-      <c r="D100" s="260"/>
-      <c r="E100" s="260"/>
+      <c r="C100" s="261"/>
+      <c r="D100" s="262"/>
+      <c r="E100" s="262"/>
       <c r="F100" s="99" t="s">
         <v>270</v>
       </c>
@@ -21164,8 +21183,8 @@
     <row r="101" spans="1:24" ht="16.5" customHeight="1">
       <c r="A101" s="136"/>
       <c r="B101" s="136"/>
-      <c r="C101" s="259"/>
-      <c r="D101" s="302" t="s">
+      <c r="C101" s="261"/>
+      <c r="D101" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E101" s="137" t="s">
@@ -21198,8 +21217,8 @@
     <row r="102" spans="1:24" ht="16.5" customHeight="1">
       <c r="A102" s="136"/>
       <c r="B102" s="136"/>
-      <c r="C102" s="259"/>
-      <c r="D102" s="259"/>
+      <c r="C102" s="261"/>
+      <c r="D102" s="261"/>
       <c r="E102" s="137" t="s">
         <v>273</v>
       </c>
@@ -21230,8 +21249,8 @@
     <row r="103" spans="1:24" ht="16.5" customHeight="1">
       <c r="A103" s="104"/>
       <c r="B103" s="142"/>
-      <c r="C103" s="259"/>
-      <c r="D103" s="260"/>
+      <c r="C103" s="261"/>
+      <c r="D103" s="262"/>
       <c r="E103" s="137" t="s">
         <v>275</v>
       </c>
@@ -21262,11 +21281,11 @@
     <row r="104" spans="1:24" ht="16.5" customHeight="1">
       <c r="A104" s="104"/>
       <c r="B104" s="142"/>
-      <c r="C104" s="259"/>
-      <c r="D104" s="302" t="s">
+      <c r="C104" s="261"/>
+      <c r="D104" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="E104" s="302"/>
+      <c r="E104" s="296"/>
       <c r="F104" s="137" t="s">
         <v>278</v>
       </c>
@@ -21294,9 +21313,9 @@
     <row r="105" spans="1:24" ht="16.5" customHeight="1">
       <c r="A105" s="104"/>
       <c r="B105" s="142"/>
-      <c r="C105" s="259"/>
-      <c r="D105" s="259"/>
-      <c r="E105" s="259"/>
+      <c r="C105" s="261"/>
+      <c r="D105" s="261"/>
+      <c r="E105" s="261"/>
       <c r="F105" s="137" t="s">
         <v>279</v>
       </c>
@@ -21324,9 +21343,9 @@
     <row r="106" spans="1:24" ht="16.5" customHeight="1">
       <c r="A106" s="136"/>
       <c r="B106" s="142"/>
-      <c r="C106" s="260"/>
-      <c r="D106" s="260"/>
-      <c r="E106" s="260"/>
+      <c r="C106" s="262"/>
+      <c r="D106" s="262"/>
+      <c r="E106" s="262"/>
       <c r="F106" s="137" t="s">
         <v>280</v>
       </c>
@@ -21354,12 +21373,12 @@
     <row r="107" spans="1:24" ht="16.5" customHeight="1">
       <c r="A107" s="120"/>
       <c r="B107" s="120"/>
-      <c r="C107" s="297" t="s">
+      <c r="C107" s="291" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="298"/>
-      <c r="E107" s="298"/>
-      <c r="F107" s="299"/>
+      <c r="D107" s="292"/>
+      <c r="E107" s="292"/>
+      <c r="F107" s="293"/>
       <c r="G107" s="121"/>
       <c r="H107" s="146"/>
       <c r="I107" s="122"/>
@@ -21382,13 +21401,13 @@
     <row r="108" spans="1:24" ht="16.5" customHeight="1">
       <c r="A108" s="127"/>
       <c r="B108" s="127"/>
-      <c r="C108" s="300" t="s">
+      <c r="C108" s="289" t="s">
         <v>282</v>
       </c>
-      <c r="D108" s="301" t="s">
+      <c r="D108" s="304" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="304" t="s">
+      <c r="E108" s="297" t="s">
         <v>239</v>
       </c>
       <c r="F108" s="128" t="s">
@@ -21428,9 +21447,9 @@
     <row r="109" spans="1:24" ht="16.5" customHeight="1">
       <c r="A109" s="127"/>
       <c r="B109" s="127"/>
-      <c r="C109" s="259"/>
-      <c r="D109" s="302"/>
-      <c r="E109" s="260"/>
+      <c r="C109" s="261"/>
+      <c r="D109" s="296"/>
+      <c r="E109" s="262"/>
       <c r="F109" s="128" t="s">
         <v>284</v>
       </c>
@@ -21468,9 +21487,9 @@
     <row r="110" spans="1:24" ht="16.5" customHeight="1">
       <c r="A110" s="127"/>
       <c r="B110" s="127"/>
-      <c r="C110" s="259"/>
-      <c r="D110" s="302"/>
-      <c r="E110" s="303" t="s">
+      <c r="C110" s="261"/>
+      <c r="D110" s="296"/>
+      <c r="E110" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F110" s="109" t="s">
@@ -21500,9 +21519,9 @@
     <row r="111" spans="1:24" ht="16.5" customHeight="1">
       <c r="A111" s="127"/>
       <c r="B111" s="127"/>
-      <c r="C111" s="259"/>
-      <c r="D111" s="302"/>
-      <c r="E111" s="260"/>
+      <c r="C111" s="261"/>
+      <c r="D111" s="296"/>
+      <c r="E111" s="262"/>
       <c r="F111" s="109" t="s">
         <v>245</v>
       </c>
@@ -21530,8 +21549,8 @@
     <row r="112" spans="1:24" ht="16.5" customHeight="1">
       <c r="A112" s="104"/>
       <c r="B112" s="104"/>
-      <c r="C112" s="259"/>
-      <c r="D112" s="302"/>
+      <c r="C112" s="261"/>
+      <c r="D112" s="296"/>
       <c r="E112" s="99" t="s">
         <v>126</v>
       </c>
@@ -21540,24 +21559,24 @@
       </c>
       <c r="G112" s="226"/>
       <c r="H112" s="247" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I112" s="247" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J112" s="226"/>
       <c r="K112" s="226"/>
       <c r="L112" s="237" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M112" s="237" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N112" s="237" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O112" s="237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P112" s="105"/>
       <c r="Q112" s="105"/>
@@ -21572,8 +21591,8 @@
     <row r="113" spans="1:24" ht="16.5" customHeight="1">
       <c r="A113" s="104"/>
       <c r="B113" s="104"/>
-      <c r="C113" s="259"/>
-      <c r="D113" s="302"/>
+      <c r="C113" s="261"/>
+      <c r="D113" s="296"/>
       <c r="E113" s="99" t="s">
         <v>247</v>
       </c>
@@ -21582,7 +21601,7 @@
       </c>
       <c r="G113" s="103"/>
       <c r="H113" s="243" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I113" s="101"/>
       <c r="J113" s="103"/>
@@ -21604,8 +21623,8 @@
     <row r="114" spans="1:24" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A114" s="192"/>
       <c r="B114" s="192"/>
-      <c r="C114" s="259"/>
-      <c r="D114" s="302"/>
+      <c r="C114" s="261"/>
+      <c r="D114" s="296"/>
       <c r="E114" s="97" t="s">
         <v>109</v>
       </c>
@@ -21614,7 +21633,7 @@
       </c>
       <c r="G114" s="245"/>
       <c r="H114" s="101" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I114" s="101"/>
       <c r="J114" s="103"/>
@@ -21636,9 +21655,9 @@
     <row r="115" spans="1:24" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A115" s="192"/>
       <c r="B115" s="192"/>
-      <c r="C115" s="259"/>
-      <c r="D115" s="302"/>
-      <c r="E115" s="308" t="s">
+      <c r="C115" s="261"/>
+      <c r="D115" s="296"/>
+      <c r="E115" s="301" t="s">
         <v>123</v>
       </c>
       <c r="F115" s="103" t="s">
@@ -21646,7 +21665,7 @@
       </c>
       <c r="G115" s="245"/>
       <c r="H115" s="243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I115" s="101"/>
       <c r="J115" s="103"/>
@@ -21668,15 +21687,15 @@
     <row r="116" spans="1:24" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A116" s="192"/>
       <c r="B116" s="192"/>
-      <c r="C116" s="259"/>
-      <c r="D116" s="302"/>
-      <c r="E116" s="283"/>
+      <c r="C116" s="261"/>
+      <c r="D116" s="296"/>
+      <c r="E116" s="264"/>
       <c r="F116" s="103" t="s">
         <v>192</v>
       </c>
       <c r="G116" s="245"/>
       <c r="H116" s="243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I116" s="101"/>
       <c r="J116" s="103"/>
@@ -21698,9 +21717,9 @@
     <row r="117" spans="1:24" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A117" s="192"/>
       <c r="B117" s="192"/>
-      <c r="C117" s="259"/>
-      <c r="D117" s="302"/>
-      <c r="E117" s="300" t="s">
+      <c r="C117" s="261"/>
+      <c r="D117" s="296"/>
+      <c r="E117" s="289" t="s">
         <v>193</v>
       </c>
       <c r="F117" s="103" t="s">
@@ -21708,7 +21727,7 @@
       </c>
       <c r="G117" s="245"/>
       <c r="H117" s="243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I117" s="101"/>
       <c r="J117" s="103"/>
@@ -21730,15 +21749,15 @@
     <row r="118" spans="1:24" s="244" customFormat="1" ht="16.5" customHeight="1">
       <c r="A118" s="192"/>
       <c r="B118" s="192"/>
-      <c r="C118" s="259"/>
+      <c r="C118" s="261"/>
       <c r="D118" s="306"/>
-      <c r="E118" s="260"/>
+      <c r="E118" s="262"/>
       <c r="F118" s="103" t="s">
         <v>192</v>
       </c>
       <c r="G118" s="103"/>
       <c r="H118" s="243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I118" s="101"/>
       <c r="J118" s="103"/>
@@ -21760,14 +21779,14 @@
     <row r="119" spans="1:24" ht="16.5" customHeight="1">
       <c r="A119" s="104"/>
       <c r="B119" s="104"/>
-      <c r="C119" s="259"/>
-      <c r="D119" s="300" t="s">
+      <c r="C119" s="261"/>
+      <c r="D119" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E119" s="296" t="s">
+      <c r="E119" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F119" s="257"/>
+      <c r="F119" s="259"/>
       <c r="G119" s="103"/>
       <c r="H119" s="100" t="s">
         <v>37</v>
@@ -21792,13 +21811,13 @@
     <row r="120" spans="1:24" ht="16.5" customHeight="1">
       <c r="A120" s="104"/>
       <c r="B120" s="104"/>
-      <c r="C120" s="259"/>
-      <c r="D120" s="259"/>
+      <c r="C120" s="261"/>
+      <c r="D120" s="261"/>
       <c r="E120" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F120" s="252" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G120" s="226"/>
       <c r="H120" s="219" t="s">
@@ -21810,16 +21829,16 @@
       <c r="J120" s="226"/>
       <c r="K120" s="226"/>
       <c r="L120" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M120" s="237" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N120" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O120" s="237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P120" s="105"/>
       <c r="Q120" s="105"/>
@@ -21834,9 +21853,9 @@
     <row r="121" spans="1:24" ht="16.5" customHeight="1">
       <c r="A121" s="104"/>
       <c r="B121" s="104"/>
-      <c r="C121" s="259"/>
-      <c r="D121" s="259"/>
-      <c r="E121" s="300" t="s">
+      <c r="C121" s="261"/>
+      <c r="D121" s="261"/>
+      <c r="E121" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F121" s="226" t="s">
@@ -21852,16 +21871,16 @@
       <c r="J121" s="226"/>
       <c r="K121" s="226"/>
       <c r="L121" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M121" s="237" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N121" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O121" s="237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P121" s="105"/>
       <c r="Q121" s="105"/>
@@ -21876,9 +21895,9 @@
     <row r="122" spans="1:24" ht="16.5" customHeight="1">
       <c r="A122" s="104"/>
       <c r="B122" s="104"/>
-      <c r="C122" s="259"/>
-      <c r="D122" s="259"/>
-      <c r="E122" s="259"/>
+      <c r="C122" s="261"/>
+      <c r="D122" s="261"/>
+      <c r="E122" s="261"/>
       <c r="F122" s="226" t="s">
         <v>252</v>
       </c>
@@ -21892,16 +21911,16 @@
       <c r="J122" s="226"/>
       <c r="K122" s="226"/>
       <c r="L122" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M122" s="237" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N122" s="237" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O122" s="237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P122" s="105"/>
       <c r="Q122" s="105"/>
@@ -21916,9 +21935,9 @@
     <row r="123" spans="1:24" ht="16.5" customHeight="1">
       <c r="A123" s="104"/>
       <c r="B123" s="104"/>
-      <c r="C123" s="259"/>
-      <c r="D123" s="260"/>
-      <c r="E123" s="260"/>
+      <c r="C123" s="261"/>
+      <c r="D123" s="262"/>
+      <c r="E123" s="262"/>
       <c r="F123" s="249" t="s">
         <v>253</v>
       </c>
@@ -21948,8 +21967,8 @@
     <row r="124" spans="1:24" ht="16.5" customHeight="1">
       <c r="A124" s="104"/>
       <c r="B124" s="104"/>
-      <c r="C124" s="259"/>
-      <c r="D124" s="300" t="s">
+      <c r="C124" s="261"/>
+      <c r="D124" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E124" s="99" t="s">
@@ -21982,8 +22001,8 @@
     <row r="125" spans="1:24" ht="16.5" customHeight="1">
       <c r="A125" s="104"/>
       <c r="B125" s="104"/>
-      <c r="C125" s="259"/>
-      <c r="D125" s="259"/>
+      <c r="C125" s="261"/>
+      <c r="D125" s="261"/>
       <c r="E125" s="99" t="s">
         <v>286</v>
       </c>
@@ -22014,9 +22033,9 @@
     <row r="126" spans="1:24" ht="16.5" customHeight="1">
       <c r="A126" s="104"/>
       <c r="B126" s="104"/>
-      <c r="C126" s="259"/>
-      <c r="D126" s="259"/>
-      <c r="E126" s="300" t="s">
+      <c r="C126" s="261"/>
+      <c r="D126" s="261"/>
+      <c r="E126" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F126" s="99" t="s">
@@ -22046,9 +22065,9 @@
     <row r="127" spans="1:24" ht="16.5" customHeight="1">
       <c r="A127" s="104"/>
       <c r="B127" s="104"/>
-      <c r="C127" s="259"/>
-      <c r="D127" s="260"/>
-      <c r="E127" s="260"/>
+      <c r="C127" s="261"/>
+      <c r="D127" s="262"/>
+      <c r="E127" s="262"/>
       <c r="F127" s="99" t="s">
         <v>256</v>
       </c>
@@ -22076,8 +22095,8 @@
     <row r="128" spans="1:24" ht="16.5" customHeight="1">
       <c r="A128" s="104"/>
       <c r="B128" s="104"/>
-      <c r="C128" s="259"/>
-      <c r="D128" s="300" t="s">
+      <c r="C128" s="261"/>
+      <c r="D128" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E128" s="99" t="s">
@@ -22110,8 +22129,8 @@
     <row r="129" spans="1:24" ht="16.5" customHeight="1">
       <c r="A129" s="104"/>
       <c r="B129" s="104"/>
-      <c r="C129" s="259"/>
-      <c r="D129" s="259"/>
+      <c r="C129" s="261"/>
+      <c r="D129" s="261"/>
       <c r="E129" s="99" t="s">
         <v>263</v>
       </c>
@@ -22148,9 +22167,9 @@
     <row r="130" spans="1:24" ht="16.5" customHeight="1">
       <c r="A130" s="104"/>
       <c r="B130" s="104"/>
-      <c r="C130" s="259"/>
-      <c r="D130" s="259"/>
-      <c r="E130" s="301" t="s">
+      <c r="C130" s="261"/>
+      <c r="D130" s="261"/>
+      <c r="E130" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F130" s="99" t="s">
@@ -22180,9 +22199,9 @@
     <row r="131" spans="1:24" ht="16.5" customHeight="1">
       <c r="A131" s="104"/>
       <c r="B131" s="104"/>
-      <c r="C131" s="259"/>
-      <c r="D131" s="259"/>
-      <c r="E131" s="260"/>
+      <c r="C131" s="261"/>
+      <c r="D131" s="261"/>
+      <c r="E131" s="262"/>
       <c r="F131" s="99" t="s">
         <v>266</v>
       </c>
@@ -22210,9 +22229,9 @@
     <row r="132" spans="1:24" ht="16.5" customHeight="1">
       <c r="A132" s="104"/>
       <c r="B132" s="104"/>
-      <c r="C132" s="259"/>
-      <c r="D132" s="259"/>
-      <c r="E132" s="300" t="s">
+      <c r="C132" s="261"/>
+      <c r="D132" s="261"/>
+      <c r="E132" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F132" s="99" t="s">
@@ -22248,9 +22267,9 @@
     <row r="133" spans="1:24" ht="16.5" customHeight="1">
       <c r="A133" s="104"/>
       <c r="B133" s="104"/>
-      <c r="C133" s="259"/>
-      <c r="D133" s="259"/>
-      <c r="E133" s="260"/>
+      <c r="C133" s="261"/>
+      <c r="D133" s="261"/>
+      <c r="E133" s="262"/>
       <c r="F133" s="99" t="s">
         <v>266</v>
       </c>
@@ -22284,9 +22303,9 @@
     <row r="134" spans="1:24" ht="16.5" customHeight="1">
       <c r="A134" s="104"/>
       <c r="B134" s="104"/>
-      <c r="C134" s="259"/>
-      <c r="D134" s="259"/>
-      <c r="E134" s="300" t="s">
+      <c r="C134" s="261"/>
+      <c r="D134" s="261"/>
+      <c r="E134" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F134" s="99" t="s">
@@ -22322,9 +22341,9 @@
     <row r="135" spans="1:24" ht="16.5" customHeight="1">
       <c r="A135" s="104"/>
       <c r="B135" s="104"/>
-      <c r="C135" s="259"/>
-      <c r="D135" s="260"/>
-      <c r="E135" s="260"/>
+      <c r="C135" s="261"/>
+      <c r="D135" s="262"/>
+      <c r="E135" s="262"/>
       <c r="F135" s="99" t="s">
         <v>270</v>
       </c>
@@ -22358,8 +22377,8 @@
     <row r="136" spans="1:24" ht="16.5" customHeight="1">
       <c r="A136" s="151"/>
       <c r="B136" s="151"/>
-      <c r="C136" s="259"/>
-      <c r="D136" s="302" t="s">
+      <c r="C136" s="261"/>
+      <c r="D136" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E136" s="137" t="s">
@@ -22392,8 +22411,8 @@
     <row r="137" spans="1:24" ht="16.5" customHeight="1">
       <c r="A137" s="151"/>
       <c r="B137" s="151"/>
-      <c r="C137" s="259"/>
-      <c r="D137" s="259"/>
+      <c r="C137" s="261"/>
+      <c r="D137" s="261"/>
       <c r="E137" s="137" t="s">
         <v>273</v>
       </c>
@@ -22424,8 +22443,8 @@
     <row r="138" spans="1:24" ht="16.5" customHeight="1">
       <c r="A138" s="151"/>
       <c r="B138" s="151"/>
-      <c r="C138" s="259"/>
-      <c r="D138" s="260"/>
+      <c r="C138" s="261"/>
+      <c r="D138" s="262"/>
       <c r="E138" s="132" t="s">
         <v>275</v>
       </c>
@@ -22456,11 +22475,11 @@
     <row r="139" spans="1:24" ht="16.5" customHeight="1">
       <c r="A139" s="104"/>
       <c r="B139" s="142"/>
-      <c r="C139" s="259"/>
-      <c r="D139" s="302" t="s">
+      <c r="C139" s="261"/>
+      <c r="D139" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="E139" s="302"/>
+      <c r="E139" s="296"/>
       <c r="F139" s="137" t="s">
         <v>278</v>
       </c>
@@ -22488,9 +22507,9 @@
     <row r="140" spans="1:24" ht="16.5" customHeight="1">
       <c r="A140" s="104"/>
       <c r="B140" s="142"/>
-      <c r="C140" s="259"/>
-      <c r="D140" s="259"/>
-      <c r="E140" s="259"/>
+      <c r="C140" s="261"/>
+      <c r="D140" s="261"/>
+      <c r="E140" s="261"/>
       <c r="F140" s="137" t="s">
         <v>279</v>
       </c>
@@ -22518,9 +22537,9 @@
     <row r="141" spans="1:24" ht="16.5" customHeight="1">
       <c r="A141" s="136"/>
       <c r="B141" s="142"/>
-      <c r="C141" s="259"/>
-      <c r="D141" s="260"/>
-      <c r="E141" s="260"/>
+      <c r="C141" s="261"/>
+      <c r="D141" s="262"/>
+      <c r="E141" s="262"/>
       <c r="F141" s="137" t="s">
         <v>280</v>
       </c>
@@ -22548,21 +22567,21 @@
     <row r="142" spans="1:24" ht="16.5" customHeight="1">
       <c r="A142" s="154"/>
       <c r="B142" s="142"/>
-      <c r="C142" s="310" t="s">
-        <v>472</v>
-      </c>
-      <c r="D142" s="262"/>
-      <c r="E142" s="262"/>
-      <c r="F142" s="262"/>
-      <c r="G142" s="262"/>
-      <c r="H142" s="262"/>
-      <c r="I142" s="262"/>
-      <c r="J142" s="262"/>
-      <c r="K142" s="262"/>
-      <c r="L142" s="262"/>
-      <c r="M142" s="262"/>
-      <c r="N142" s="262"/>
-      <c r="O142" s="263"/>
+      <c r="C142" s="298" t="s">
+        <v>469</v>
+      </c>
+      <c r="D142" s="285"/>
+      <c r="E142" s="285"/>
+      <c r="F142" s="285"/>
+      <c r="G142" s="285"/>
+      <c r="H142" s="285"/>
+      <c r="I142" s="285"/>
+      <c r="J142" s="285"/>
+      <c r="K142" s="285"/>
+      <c r="L142" s="285"/>
+      <c r="M142" s="285"/>
+      <c r="N142" s="285"/>
+      <c r="O142" s="286"/>
       <c r="P142" s="106"/>
       <c r="Q142" s="106"/>
       <c r="R142" s="141"/>
@@ -22576,19 +22595,19 @@
     <row r="143" spans="1:24" ht="16.5" customHeight="1">
       <c r="A143" s="155"/>
       <c r="B143" s="142"/>
-      <c r="C143" s="264"/>
-      <c r="D143" s="265"/>
-      <c r="E143" s="265"/>
-      <c r="F143" s="265"/>
-      <c r="G143" s="265"/>
-      <c r="H143" s="265"/>
-      <c r="I143" s="265"/>
-      <c r="J143" s="265"/>
-      <c r="K143" s="265"/>
-      <c r="L143" s="265"/>
-      <c r="M143" s="265"/>
-      <c r="N143" s="265"/>
-      <c r="O143" s="266"/>
+      <c r="C143" s="287"/>
+      <c r="D143" s="266"/>
+      <c r="E143" s="266"/>
+      <c r="F143" s="266"/>
+      <c r="G143" s="266"/>
+      <c r="H143" s="266"/>
+      <c r="I143" s="266"/>
+      <c r="J143" s="266"/>
+      <c r="K143" s="266"/>
+      <c r="L143" s="266"/>
+      <c r="M143" s="266"/>
+      <c r="N143" s="266"/>
+      <c r="O143" s="267"/>
       <c r="P143" s="106"/>
       <c r="Q143" s="106"/>
       <c r="R143" s="141"/>
@@ -22605,9 +22624,9 @@
       <c r="C144" s="305" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="265"/>
-      <c r="E144" s="265"/>
-      <c r="F144" s="266"/>
+      <c r="D144" s="266"/>
+      <c r="E144" s="266"/>
+      <c r="F144" s="267"/>
       <c r="G144" s="132"/>
       <c r="H144" s="134"/>
       <c r="I144" s="134"/>
@@ -22630,13 +22649,13 @@
     <row r="145" spans="1:24" ht="16.5" customHeight="1">
       <c r="A145" s="127"/>
       <c r="B145" s="127"/>
-      <c r="C145" s="300" t="s">
+      <c r="C145" s="289" t="s">
         <v>288</v>
       </c>
-      <c r="D145" s="300" t="s">
+      <c r="D145" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="E145" s="303" t="s">
+      <c r="E145" s="290" t="s">
         <v>239</v>
       </c>
       <c r="F145" s="128" t="s">
@@ -22666,9 +22685,9 @@
     <row r="146" spans="1:24" ht="16.5" customHeight="1">
       <c r="A146" s="127"/>
       <c r="B146" s="127"/>
-      <c r="C146" s="259"/>
-      <c r="D146" s="259"/>
-      <c r="E146" s="260"/>
+      <c r="C146" s="261"/>
+      <c r="D146" s="261"/>
+      <c r="E146" s="262"/>
       <c r="F146" s="109" t="s">
         <v>290</v>
       </c>
@@ -22694,9 +22713,9 @@
     <row r="147" spans="1:24" ht="16.5" customHeight="1">
       <c r="A147" s="127"/>
       <c r="B147" s="127"/>
-      <c r="C147" s="259"/>
-      <c r="D147" s="259"/>
-      <c r="E147" s="303" t="s">
+      <c r="C147" s="261"/>
+      <c r="D147" s="261"/>
+      <c r="E147" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F147" s="109" t="s">
@@ -22724,9 +22743,9 @@
     <row r="148" spans="1:24" ht="16.5" customHeight="1">
       <c r="A148" s="127"/>
       <c r="B148" s="127"/>
-      <c r="C148" s="259"/>
-      <c r="D148" s="259"/>
-      <c r="E148" s="260"/>
+      <c r="C148" s="261"/>
+      <c r="D148" s="261"/>
+      <c r="E148" s="262"/>
       <c r="F148" s="109" t="s">
         <v>245</v>
       </c>
@@ -22752,8 +22771,8 @@
     <row r="149" spans="1:24" ht="16.5" customHeight="1">
       <c r="A149" s="104"/>
       <c r="B149" s="104"/>
-      <c r="C149" s="259"/>
-      <c r="D149" s="259"/>
+      <c r="C149" s="261"/>
+      <c r="D149" s="261"/>
       <c r="E149" s="99" t="s">
         <v>126</v>
       </c>
@@ -22788,8 +22807,8 @@
     <row r="150" spans="1:24" ht="16.5" customHeight="1">
       <c r="A150" s="104"/>
       <c r="B150" s="104"/>
-      <c r="C150" s="259"/>
-      <c r="D150" s="259"/>
+      <c r="C150" s="261"/>
+      <c r="D150" s="261"/>
       <c r="E150" s="99" t="s">
         <v>247</v>
       </c>
@@ -22824,14 +22843,14 @@
     <row r="151" spans="1:24" ht="16.5" customHeight="1">
       <c r="A151" s="104"/>
       <c r="B151" s="104"/>
-      <c r="C151" s="259"/>
-      <c r="D151" s="300" t="s">
+      <c r="C151" s="261"/>
+      <c r="D151" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E151" s="296" t="s">
+      <c r="E151" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F151" s="257"/>
+      <c r="F151" s="259"/>
       <c r="G151" s="103"/>
       <c r="H151" s="101"/>
       <c r="I151" s="101"/>
@@ -22860,13 +22879,13 @@
     <row r="152" spans="1:24" ht="16.5" customHeight="1">
       <c r="A152" s="104"/>
       <c r="B152" s="104"/>
-      <c r="C152" s="259"/>
-      <c r="D152" s="259"/>
+      <c r="C152" s="261"/>
+      <c r="D152" s="261"/>
       <c r="E152" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F152" s="212" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G152" s="103"/>
       <c r="H152" s="101"/>
@@ -22896,9 +22915,9 @@
     <row r="153" spans="1:24" ht="16.5" customHeight="1">
       <c r="A153" s="104"/>
       <c r="B153" s="104"/>
-      <c r="C153" s="259"/>
-      <c r="D153" s="259"/>
-      <c r="E153" s="300" t="s">
+      <c r="C153" s="261"/>
+      <c r="D153" s="261"/>
+      <c r="E153" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F153" s="99" t="s">
@@ -22932,9 +22951,9 @@
     <row r="154" spans="1:24" ht="16.5" customHeight="1">
       <c r="A154" s="104"/>
       <c r="B154" s="104"/>
-      <c r="C154" s="259"/>
-      <c r="D154" s="259"/>
-      <c r="E154" s="259"/>
+      <c r="C154" s="261"/>
+      <c r="D154" s="261"/>
+      <c r="E154" s="261"/>
       <c r="F154" s="99" t="s">
         <v>252</v>
       </c>
@@ -22966,9 +22985,9 @@
     <row r="155" spans="1:24" ht="16.5" customHeight="1">
       <c r="A155" s="104"/>
       <c r="B155" s="104"/>
-      <c r="C155" s="259"/>
-      <c r="D155" s="260"/>
-      <c r="E155" s="260"/>
+      <c r="C155" s="261"/>
+      <c r="D155" s="262"/>
+      <c r="E155" s="262"/>
       <c r="F155" s="99" t="s">
         <v>253</v>
       </c>
@@ -23000,8 +23019,8 @@
     <row r="156" spans="1:24" ht="16.5" customHeight="1">
       <c r="A156" s="104"/>
       <c r="B156" s="104"/>
-      <c r="C156" s="259"/>
-      <c r="D156" s="300" t="s">
+      <c r="C156" s="261"/>
+      <c r="D156" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E156" s="99" t="s">
@@ -23038,8 +23057,8 @@
     <row r="157" spans="1:24" ht="16.5" customHeight="1">
       <c r="A157" s="104"/>
       <c r="B157" s="104"/>
-      <c r="C157" s="259"/>
-      <c r="D157" s="259"/>
+      <c r="C157" s="261"/>
+      <c r="D157" s="261"/>
       <c r="E157" s="99" t="s">
         <v>292</v>
       </c>
@@ -23074,9 +23093,9 @@
     <row r="158" spans="1:24" ht="16.5" customHeight="1">
       <c r="A158" s="104"/>
       <c r="B158" s="104"/>
-      <c r="C158" s="259"/>
-      <c r="D158" s="259"/>
-      <c r="E158" s="300" t="s">
+      <c r="C158" s="261"/>
+      <c r="D158" s="261"/>
+      <c r="E158" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F158" s="99" t="s">
@@ -23110,9 +23129,9 @@
     <row r="159" spans="1:24" ht="16.5" customHeight="1">
       <c r="A159" s="104"/>
       <c r="B159" s="104"/>
-      <c r="C159" s="259"/>
-      <c r="D159" s="260"/>
-      <c r="E159" s="260"/>
+      <c r="C159" s="261"/>
+      <c r="D159" s="262"/>
+      <c r="E159" s="262"/>
       <c r="F159" s="99" t="s">
         <v>256</v>
       </c>
@@ -23144,8 +23163,8 @@
     <row r="160" spans="1:24" ht="16.5" customHeight="1">
       <c r="A160" s="104"/>
       <c r="B160" s="104"/>
-      <c r="C160" s="259"/>
-      <c r="D160" s="300" t="s">
+      <c r="C160" s="261"/>
+      <c r="D160" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E160" s="99" t="s">
@@ -23182,8 +23201,8 @@
     <row r="161" spans="1:24" ht="16.5" customHeight="1">
       <c r="A161" s="104"/>
       <c r="B161" s="104"/>
-      <c r="C161" s="259"/>
-      <c r="D161" s="259"/>
+      <c r="C161" s="261"/>
+      <c r="D161" s="261"/>
       <c r="E161" s="99" t="s">
         <v>263</v>
       </c>
@@ -23218,9 +23237,9 @@
     <row r="162" spans="1:24" ht="16.5" customHeight="1">
       <c r="A162" s="104"/>
       <c r="B162" s="104"/>
-      <c r="C162" s="259"/>
-      <c r="D162" s="259"/>
-      <c r="E162" s="301" t="s">
+      <c r="C162" s="261"/>
+      <c r="D162" s="261"/>
+      <c r="E162" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F162" s="99" t="s">
@@ -23248,9 +23267,9 @@
     <row r="163" spans="1:24" ht="16.5" customHeight="1">
       <c r="A163" s="104"/>
       <c r="B163" s="104"/>
-      <c r="C163" s="259"/>
-      <c r="D163" s="259"/>
-      <c r="E163" s="260"/>
+      <c r="C163" s="261"/>
+      <c r="D163" s="261"/>
+      <c r="E163" s="262"/>
       <c r="F163" s="99" t="s">
         <v>266</v>
       </c>
@@ -23276,9 +23295,9 @@
     <row r="164" spans="1:24" ht="16.5" customHeight="1">
       <c r="A164" s="104"/>
       <c r="B164" s="104"/>
-      <c r="C164" s="259"/>
-      <c r="D164" s="259"/>
-      <c r="E164" s="300" t="s">
+      <c r="C164" s="261"/>
+      <c r="D164" s="261"/>
+      <c r="E164" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F164" s="99" t="s">
@@ -23312,9 +23331,9 @@
     <row r="165" spans="1:24" ht="16.5" customHeight="1">
       <c r="A165" s="104"/>
       <c r="B165" s="104"/>
-      <c r="C165" s="259"/>
-      <c r="D165" s="259"/>
-      <c r="E165" s="260"/>
+      <c r="C165" s="261"/>
+      <c r="D165" s="261"/>
+      <c r="E165" s="262"/>
       <c r="F165" s="99" t="s">
         <v>266</v>
       </c>
@@ -23346,9 +23365,9 @@
     <row r="166" spans="1:24" ht="16.5" customHeight="1">
       <c r="A166" s="104"/>
       <c r="B166" s="104"/>
-      <c r="C166" s="259"/>
-      <c r="D166" s="259"/>
-      <c r="E166" s="300" t="s">
+      <c r="C166" s="261"/>
+      <c r="D166" s="261"/>
+      <c r="E166" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F166" s="99" t="s">
@@ -23382,9 +23401,9 @@
     <row r="167" spans="1:24" ht="16.5" customHeight="1">
       <c r="A167" s="104"/>
       <c r="B167" s="104"/>
-      <c r="C167" s="259"/>
-      <c r="D167" s="260"/>
-      <c r="E167" s="260"/>
+      <c r="C167" s="261"/>
+      <c r="D167" s="262"/>
+      <c r="E167" s="262"/>
       <c r="F167" s="99" t="s">
         <v>270</v>
       </c>
@@ -23416,8 +23435,8 @@
     <row r="168" spans="1:24" ht="16.5" customHeight="1">
       <c r="A168" s="151"/>
       <c r="B168" s="151"/>
-      <c r="C168" s="259"/>
-      <c r="D168" s="302" t="s">
+      <c r="C168" s="261"/>
+      <c r="D168" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E168" s="137" t="s">
@@ -23448,8 +23467,8 @@
     <row r="169" spans="1:24" ht="16.5" customHeight="1">
       <c r="A169" s="151"/>
       <c r="B169" s="151"/>
-      <c r="C169" s="259"/>
-      <c r="D169" s="259"/>
+      <c r="C169" s="261"/>
+      <c r="D169" s="261"/>
       <c r="E169" s="137" t="s">
         <v>273</v>
       </c>
@@ -23478,8 +23497,8 @@
     <row r="170" spans="1:24" ht="16.5" customHeight="1">
       <c r="A170" s="151"/>
       <c r="B170" s="151"/>
-      <c r="C170" s="259"/>
-      <c r="D170" s="260"/>
+      <c r="C170" s="261"/>
+      <c r="D170" s="262"/>
       <c r="E170" s="158" t="s">
         <v>275</v>
       </c>
@@ -23508,11 +23527,11 @@
     <row r="171" spans="1:24" ht="16.5" customHeight="1">
       <c r="A171" s="159"/>
       <c r="B171" s="160"/>
-      <c r="C171" s="259"/>
-      <c r="D171" s="309" t="s">
+      <c r="C171" s="261"/>
+      <c r="D171" s="294" t="s">
         <v>277</v>
       </c>
-      <c r="E171" s="293"/>
+      <c r="E171" s="299"/>
       <c r="F171" s="161" t="s">
         <v>278</v>
       </c>
@@ -23538,9 +23557,9 @@
     <row r="172" spans="1:24" ht="16.5" customHeight="1">
       <c r="A172" s="168"/>
       <c r="B172" s="160"/>
-      <c r="C172" s="259"/>
-      <c r="D172" s="294"/>
-      <c r="E172" s="294"/>
+      <c r="C172" s="261"/>
+      <c r="D172" s="295"/>
+      <c r="E172" s="295"/>
       <c r="F172" s="169" t="s">
         <v>279</v>
       </c>
@@ -23566,9 +23585,9 @@
     <row r="173" spans="1:24" ht="16.5" customHeight="1">
       <c r="A173" s="174"/>
       <c r="B173" s="175"/>
-      <c r="C173" s="259"/>
-      <c r="D173" s="266"/>
-      <c r="E173" s="295"/>
+      <c r="C173" s="261"/>
+      <c r="D173" s="267"/>
+      <c r="E173" s="303"/>
       <c r="F173" s="137" t="s">
         <v>280</v>
       </c>
@@ -23594,12 +23613,12 @@
     <row r="174" spans="1:24" ht="16.5" customHeight="1">
       <c r="A174" s="120"/>
       <c r="B174" s="120"/>
-      <c r="C174" s="297" t="s">
+      <c r="C174" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="298"/>
-      <c r="E174" s="298"/>
-      <c r="F174" s="299"/>
+      <c r="D174" s="292"/>
+      <c r="E174" s="292"/>
+      <c r="F174" s="293"/>
       <c r="G174" s="121"/>
       <c r="H174" s="122"/>
       <c r="I174" s="122"/>
@@ -23623,10 +23642,10 @@
       <c r="A175" s="127"/>
       <c r="B175" s="127"/>
       <c r="C175" s="116"/>
-      <c r="D175" s="300" t="s">
+      <c r="D175" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="E175" s="303" t="s">
+      <c r="E175" s="290" t="s">
         <v>239</v>
       </c>
       <c r="F175" s="109" t="s">
@@ -23654,11 +23673,11 @@
     <row r="176" spans="1:24" ht="16.5" customHeight="1">
       <c r="A176" s="127"/>
       <c r="B176" s="127"/>
-      <c r="C176" s="300" t="s">
+      <c r="C176" s="289" t="s">
         <v>295</v>
       </c>
-      <c r="D176" s="259"/>
-      <c r="E176" s="260"/>
+      <c r="D176" s="261"/>
+      <c r="E176" s="262"/>
       <c r="F176" s="109" t="s">
         <v>296</v>
       </c>
@@ -23684,9 +23703,9 @@
     <row r="177" spans="1:24" ht="16.5" customHeight="1">
       <c r="A177" s="127"/>
       <c r="B177" s="127"/>
-      <c r="C177" s="259"/>
-      <c r="D177" s="259"/>
-      <c r="E177" s="303" t="s">
+      <c r="C177" s="261"/>
+      <c r="D177" s="261"/>
+      <c r="E177" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F177" s="109" t="s">
@@ -23714,9 +23733,9 @@
     <row r="178" spans="1:24" ht="16.5" customHeight="1">
       <c r="A178" s="127"/>
       <c r="B178" s="127"/>
-      <c r="C178" s="259"/>
-      <c r="D178" s="259"/>
-      <c r="E178" s="260"/>
+      <c r="C178" s="261"/>
+      <c r="D178" s="261"/>
+      <c r="E178" s="262"/>
       <c r="F178" s="109" t="s">
         <v>245</v>
       </c>
@@ -23742,8 +23761,8 @@
     <row r="179" spans="1:24" ht="16.5" customHeight="1">
       <c r="A179" s="104"/>
       <c r="B179" s="104"/>
-      <c r="C179" s="259"/>
-      <c r="D179" s="259"/>
+      <c r="C179" s="261"/>
+      <c r="D179" s="261"/>
       <c r="E179" s="99" t="s">
         <v>126</v>
       </c>
@@ -23778,8 +23797,8 @@
     <row r="180" spans="1:24" ht="16.5" customHeight="1">
       <c r="A180" s="104"/>
       <c r="B180" s="104"/>
-      <c r="C180" s="259"/>
-      <c r="D180" s="259"/>
+      <c r="C180" s="261"/>
+      <c r="D180" s="261"/>
       <c r="E180" s="99" t="s">
         <v>247</v>
       </c>
@@ -23814,14 +23833,14 @@
     <row r="181" spans="1:24" ht="16.5" customHeight="1">
       <c r="A181" s="104"/>
       <c r="B181" s="104"/>
-      <c r="C181" s="259"/>
-      <c r="D181" s="300" t="s">
+      <c r="C181" s="261"/>
+      <c r="D181" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E181" s="296" t="s">
+      <c r="E181" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F181" s="257"/>
+      <c r="F181" s="259"/>
       <c r="G181" s="103"/>
       <c r="H181" s="101"/>
       <c r="I181" s="101"/>
@@ -23850,13 +23869,13 @@
     <row r="182" spans="1:24" ht="16.5" customHeight="1">
       <c r="A182" s="104"/>
       <c r="B182" s="104"/>
-      <c r="C182" s="259"/>
-      <c r="D182" s="259"/>
+      <c r="C182" s="261"/>
+      <c r="D182" s="261"/>
       <c r="E182" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F182" s="212" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G182" s="103"/>
       <c r="H182" s="101"/>
@@ -23886,9 +23905,9 @@
     <row r="183" spans="1:24" ht="16.5" customHeight="1">
       <c r="A183" s="104"/>
       <c r="B183" s="104"/>
-      <c r="C183" s="259"/>
-      <c r="D183" s="259"/>
-      <c r="E183" s="300" t="s">
+      <c r="C183" s="261"/>
+      <c r="D183" s="261"/>
+      <c r="E183" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F183" s="99" t="s">
@@ -23922,9 +23941,9 @@
     <row r="184" spans="1:24" ht="16.5" customHeight="1">
       <c r="A184" s="104"/>
       <c r="B184" s="104"/>
-      <c r="C184" s="259"/>
-      <c r="D184" s="259"/>
-      <c r="E184" s="259"/>
+      <c r="C184" s="261"/>
+      <c r="D184" s="261"/>
+      <c r="E184" s="261"/>
       <c r="F184" s="99" t="s">
         <v>252</v>
       </c>
@@ -23956,9 +23975,9 @@
     <row r="185" spans="1:24" ht="16.5" customHeight="1">
       <c r="A185" s="104"/>
       <c r="B185" s="104"/>
-      <c r="C185" s="259"/>
-      <c r="D185" s="260"/>
-      <c r="E185" s="260"/>
+      <c r="C185" s="261"/>
+      <c r="D185" s="262"/>
+      <c r="E185" s="262"/>
       <c r="F185" s="99" t="s">
         <v>253</v>
       </c>
@@ -23990,8 +24009,8 @@
     <row r="186" spans="1:24" ht="16.5" customHeight="1">
       <c r="A186" s="104"/>
       <c r="B186" s="104"/>
-      <c r="C186" s="259"/>
-      <c r="D186" s="300" t="s">
+      <c r="C186" s="261"/>
+      <c r="D186" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E186" s="99" t="s">
@@ -24028,8 +24047,8 @@
     <row r="187" spans="1:24" ht="16.5" customHeight="1">
       <c r="A187" s="104"/>
       <c r="B187" s="104"/>
-      <c r="C187" s="259"/>
-      <c r="D187" s="259"/>
+      <c r="C187" s="261"/>
+      <c r="D187" s="261"/>
       <c r="E187" s="99" t="s">
         <v>298</v>
       </c>
@@ -24064,9 +24083,9 @@
     <row r="188" spans="1:24" ht="16.5" customHeight="1">
       <c r="A188" s="104"/>
       <c r="B188" s="104"/>
-      <c r="C188" s="259"/>
-      <c r="D188" s="259"/>
-      <c r="E188" s="300" t="s">
+      <c r="C188" s="261"/>
+      <c r="D188" s="261"/>
+      <c r="E188" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F188" s="99" t="s">
@@ -24100,9 +24119,9 @@
     <row r="189" spans="1:24" ht="16.5" customHeight="1">
       <c r="A189" s="104"/>
       <c r="B189" s="104"/>
-      <c r="C189" s="259"/>
-      <c r="D189" s="260"/>
-      <c r="E189" s="260"/>
+      <c r="C189" s="261"/>
+      <c r="D189" s="262"/>
+      <c r="E189" s="262"/>
       <c r="F189" s="99" t="s">
         <v>256</v>
       </c>
@@ -24134,8 +24153,8 @@
     <row r="190" spans="1:24" ht="16.5" customHeight="1">
       <c r="A190" s="104"/>
       <c r="B190" s="104"/>
-      <c r="C190" s="259"/>
-      <c r="D190" s="300" t="s">
+      <c r="C190" s="261"/>
+      <c r="D190" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E190" s="99" t="s">
@@ -24172,8 +24191,8 @@
     <row r="191" spans="1:24" ht="16.5" customHeight="1">
       <c r="A191" s="104"/>
       <c r="B191" s="104"/>
-      <c r="C191" s="259"/>
-      <c r="D191" s="259"/>
+      <c r="C191" s="261"/>
+      <c r="D191" s="261"/>
       <c r="E191" s="99" t="s">
         <v>263</v>
       </c>
@@ -24208,9 +24227,9 @@
     <row r="192" spans="1:24" ht="16.5" customHeight="1">
       <c r="A192" s="104"/>
       <c r="B192" s="104"/>
-      <c r="C192" s="259"/>
-      <c r="D192" s="259"/>
-      <c r="E192" s="301" t="s">
+      <c r="C192" s="261"/>
+      <c r="D192" s="261"/>
+      <c r="E192" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F192" s="99" t="s">
@@ -24238,9 +24257,9 @@
     <row r="193" spans="1:24" ht="16.5" customHeight="1">
       <c r="A193" s="104"/>
       <c r="B193" s="104"/>
-      <c r="C193" s="259"/>
-      <c r="D193" s="259"/>
-      <c r="E193" s="260"/>
+      <c r="C193" s="261"/>
+      <c r="D193" s="261"/>
+      <c r="E193" s="262"/>
       <c r="F193" s="99" t="s">
         <v>266</v>
       </c>
@@ -24266,9 +24285,9 @@
     <row r="194" spans="1:24" ht="16.5" customHeight="1">
       <c r="A194" s="104"/>
       <c r="B194" s="104"/>
-      <c r="C194" s="259"/>
-      <c r="D194" s="259"/>
-      <c r="E194" s="300" t="s">
+      <c r="C194" s="261"/>
+      <c r="D194" s="261"/>
+      <c r="E194" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F194" s="99" t="s">
@@ -24302,9 +24321,9 @@
     <row r="195" spans="1:24" ht="16.5" customHeight="1">
       <c r="A195" s="104"/>
       <c r="B195" s="104"/>
-      <c r="C195" s="259"/>
-      <c r="D195" s="259"/>
-      <c r="E195" s="260"/>
+      <c r="C195" s="261"/>
+      <c r="D195" s="261"/>
+      <c r="E195" s="262"/>
       <c r="F195" s="99" t="s">
         <v>266</v>
       </c>
@@ -24336,9 +24355,9 @@
     <row r="196" spans="1:24" ht="16.5" customHeight="1">
       <c r="A196" s="104"/>
       <c r="B196" s="104"/>
-      <c r="C196" s="259"/>
-      <c r="D196" s="259"/>
-      <c r="E196" s="300" t="s">
+      <c r="C196" s="261"/>
+      <c r="D196" s="261"/>
+      <c r="E196" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F196" s="99" t="s">
@@ -24372,9 +24391,9 @@
     <row r="197" spans="1:24" ht="16.5" customHeight="1">
       <c r="A197" s="104"/>
       <c r="B197" s="104"/>
-      <c r="C197" s="259"/>
-      <c r="D197" s="260"/>
-      <c r="E197" s="260"/>
+      <c r="C197" s="261"/>
+      <c r="D197" s="262"/>
+      <c r="E197" s="262"/>
       <c r="F197" s="99" t="s">
         <v>270</v>
       </c>
@@ -24406,8 +24425,8 @@
     <row r="198" spans="1:24" ht="16.5" customHeight="1">
       <c r="A198" s="151"/>
       <c r="B198" s="151"/>
-      <c r="C198" s="259"/>
-      <c r="D198" s="302" t="s">
+      <c r="C198" s="261"/>
+      <c r="D198" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E198" s="137" t="s">
@@ -24438,8 +24457,8 @@
     <row r="199" spans="1:24" ht="16.5" customHeight="1">
       <c r="A199" s="151"/>
       <c r="B199" s="151"/>
-      <c r="C199" s="259"/>
-      <c r="D199" s="259"/>
+      <c r="C199" s="261"/>
+      <c r="D199" s="261"/>
       <c r="E199" s="137" t="s">
         <v>273</v>
       </c>
@@ -24468,8 +24487,8 @@
     <row r="200" spans="1:24" ht="16.5" customHeight="1">
       <c r="A200" s="151"/>
       <c r="B200" s="151"/>
-      <c r="C200" s="259"/>
-      <c r="D200" s="260"/>
+      <c r="C200" s="261"/>
+      <c r="D200" s="262"/>
       <c r="E200" s="158" t="s">
         <v>275</v>
       </c>
@@ -24498,11 +24517,11 @@
     <row r="201" spans="1:24" ht="16.5" customHeight="1">
       <c r="A201" s="159"/>
       <c r="B201" s="160"/>
-      <c r="C201" s="259"/>
-      <c r="D201" s="293" t="s">
+      <c r="C201" s="261"/>
+      <c r="D201" s="299" t="s">
         <v>277</v>
       </c>
-      <c r="E201" s="293"/>
+      <c r="E201" s="299"/>
       <c r="F201" s="161" t="s">
         <v>278</v>
       </c>
@@ -24528,9 +24547,9 @@
     <row r="202" spans="1:24" ht="16.5" customHeight="1">
       <c r="A202" s="168"/>
       <c r="B202" s="160"/>
-      <c r="C202" s="259"/>
-      <c r="D202" s="294"/>
-      <c r="E202" s="294"/>
+      <c r="C202" s="261"/>
+      <c r="D202" s="295"/>
+      <c r="E202" s="295"/>
       <c r="F202" s="169" t="s">
         <v>279</v>
       </c>
@@ -24556,9 +24575,9 @@
     <row r="203" spans="1:24" ht="16.5" customHeight="1">
       <c r="A203" s="174"/>
       <c r="B203" s="175"/>
-      <c r="C203" s="260"/>
-      <c r="D203" s="266"/>
-      <c r="E203" s="295"/>
+      <c r="C203" s="262"/>
+      <c r="D203" s="267"/>
+      <c r="E203" s="303"/>
       <c r="F203" s="137" t="s">
         <v>280</v>
       </c>
@@ -24584,12 +24603,12 @@
     <row r="204" spans="1:24" ht="16.5" customHeight="1">
       <c r="A204" s="120"/>
       <c r="B204" s="120"/>
-      <c r="C204" s="297" t="s">
+      <c r="C204" s="291" t="s">
         <v>299</v>
       </c>
-      <c r="D204" s="298"/>
-      <c r="E204" s="298"/>
-      <c r="F204" s="299"/>
+      <c r="D204" s="292"/>
+      <c r="E204" s="292"/>
+      <c r="F204" s="293"/>
       <c r="G204" s="121"/>
       <c r="H204" s="122"/>
       <c r="I204" s="122"/>
@@ -24612,13 +24631,13 @@
     <row r="205" spans="1:24" ht="16.5" customHeight="1">
       <c r="A205" s="127"/>
       <c r="B205" s="127"/>
-      <c r="C205" s="300" t="s">
+      <c r="C205" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="D205" s="300" t="s">
+      <c r="D205" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="E205" s="303" t="s">
+      <c r="E205" s="290" t="s">
         <v>239</v>
       </c>
       <c r="F205" s="109" t="s">
@@ -24646,9 +24665,9 @@
     <row r="206" spans="1:24" ht="16.5" customHeight="1">
       <c r="A206" s="127"/>
       <c r="B206" s="127"/>
-      <c r="C206" s="259"/>
-      <c r="D206" s="259"/>
-      <c r="E206" s="259"/>
+      <c r="C206" s="261"/>
+      <c r="D206" s="261"/>
+      <c r="E206" s="261"/>
       <c r="F206" s="109" t="s">
         <v>302</v>
       </c>
@@ -24674,9 +24693,9 @@
     <row r="207" spans="1:24" ht="16.5" customHeight="1">
       <c r="A207" s="127"/>
       <c r="B207" s="127"/>
-      <c r="C207" s="259"/>
-      <c r="D207" s="259"/>
-      <c r="E207" s="260"/>
+      <c r="C207" s="261"/>
+      <c r="D207" s="261"/>
+      <c r="E207" s="262"/>
       <c r="F207" s="109" t="s">
         <v>303</v>
       </c>
@@ -24702,9 +24721,9 @@
     <row r="208" spans="1:24" ht="16.5" customHeight="1">
       <c r="A208" s="127"/>
       <c r="B208" s="127"/>
-      <c r="C208" s="259"/>
-      <c r="D208" s="259"/>
-      <c r="E208" s="303" t="s">
+      <c r="C208" s="261"/>
+      <c r="D208" s="261"/>
+      <c r="E208" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F208" s="109" t="s">
@@ -24732,9 +24751,9 @@
     <row r="209" spans="1:24" ht="16.5" customHeight="1">
       <c r="A209" s="127"/>
       <c r="B209" s="127"/>
-      <c r="C209" s="259"/>
-      <c r="D209" s="259"/>
-      <c r="E209" s="260"/>
+      <c r="C209" s="261"/>
+      <c r="D209" s="261"/>
+      <c r="E209" s="262"/>
       <c r="F209" s="109" t="s">
         <v>245</v>
       </c>
@@ -24760,8 +24779,8 @@
     <row r="210" spans="1:24" ht="16.5" customHeight="1">
       <c r="A210" s="104"/>
       <c r="B210" s="104"/>
-      <c r="C210" s="259"/>
-      <c r="D210" s="259"/>
+      <c r="C210" s="261"/>
+      <c r="D210" s="261"/>
       <c r="E210" s="99" t="s">
         <v>126</v>
       </c>
@@ -24796,8 +24815,8 @@
     <row r="211" spans="1:24" ht="16.5" customHeight="1">
       <c r="A211" s="104"/>
       <c r="B211" s="104"/>
-      <c r="C211" s="259"/>
-      <c r="D211" s="259"/>
+      <c r="C211" s="261"/>
+      <c r="D211" s="261"/>
       <c r="E211" s="99" t="s">
         <v>247</v>
       </c>
@@ -24832,14 +24851,14 @@
     <row r="212" spans="1:24" ht="16.5" customHeight="1">
       <c r="A212" s="104"/>
       <c r="B212" s="104"/>
-      <c r="C212" s="259"/>
-      <c r="D212" s="300" t="s">
+      <c r="C212" s="261"/>
+      <c r="D212" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E212" s="296" t="s">
+      <c r="E212" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F212" s="257"/>
+      <c r="F212" s="259"/>
       <c r="G212" s="103"/>
       <c r="H212" s="101"/>
       <c r="I212" s="101"/>
@@ -24868,13 +24887,13 @@
     <row r="213" spans="1:24" ht="16.5" customHeight="1">
       <c r="A213" s="104"/>
       <c r="B213" s="104"/>
-      <c r="C213" s="259"/>
-      <c r="D213" s="259"/>
+      <c r="C213" s="261"/>
+      <c r="D213" s="261"/>
       <c r="E213" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F213" s="212" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G213" s="103"/>
       <c r="H213" s="101"/>
@@ -24904,9 +24923,9 @@
     <row r="214" spans="1:24" ht="16.5" customHeight="1">
       <c r="A214" s="104"/>
       <c r="B214" s="104"/>
-      <c r="C214" s="259"/>
-      <c r="D214" s="259"/>
-      <c r="E214" s="300" t="s">
+      <c r="C214" s="261"/>
+      <c r="D214" s="261"/>
+      <c r="E214" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F214" s="99" t="s">
@@ -24940,9 +24959,9 @@
     <row r="215" spans="1:24" ht="16.5" customHeight="1">
       <c r="A215" s="104"/>
       <c r="B215" s="104"/>
-      <c r="C215" s="259"/>
-      <c r="D215" s="259"/>
-      <c r="E215" s="259"/>
+      <c r="C215" s="261"/>
+      <c r="D215" s="261"/>
+      <c r="E215" s="261"/>
       <c r="F215" s="99" t="s">
         <v>252</v>
       </c>
@@ -24974,9 +24993,9 @@
     <row r="216" spans="1:24" ht="16.5" customHeight="1">
       <c r="A216" s="104"/>
       <c r="B216" s="104"/>
-      <c r="C216" s="259"/>
-      <c r="D216" s="260"/>
-      <c r="E216" s="260"/>
+      <c r="C216" s="261"/>
+      <c r="D216" s="262"/>
+      <c r="E216" s="262"/>
       <c r="F216" s="99" t="s">
         <v>253</v>
       </c>
@@ -25008,8 +25027,8 @@
     <row r="217" spans="1:24" ht="16.5" customHeight="1">
       <c r="A217" s="104"/>
       <c r="B217" s="104"/>
-      <c r="C217" s="259"/>
-      <c r="D217" s="300" t="s">
+      <c r="C217" s="261"/>
+      <c r="D217" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E217" s="99" t="s">
@@ -25046,8 +25065,8 @@
     <row r="218" spans="1:24" ht="16.5" customHeight="1">
       <c r="A218" s="104"/>
       <c r="B218" s="104"/>
-      <c r="C218" s="259"/>
-      <c r="D218" s="259"/>
+      <c r="C218" s="261"/>
+      <c r="D218" s="261"/>
       <c r="E218" s="99" t="s">
         <v>305</v>
       </c>
@@ -25082,8 +25101,8 @@
     <row r="219" spans="1:24" ht="16.5" customHeight="1">
       <c r="A219" s="104"/>
       <c r="B219" s="104"/>
-      <c r="C219" s="259"/>
-      <c r="D219" s="259"/>
+      <c r="C219" s="261"/>
+      <c r="D219" s="261"/>
       <c r="E219" s="99" t="s">
         <v>306</v>
       </c>
@@ -25118,9 +25137,9 @@
     <row r="220" spans="1:24" ht="16.5" customHeight="1">
       <c r="A220" s="104"/>
       <c r="B220" s="104"/>
-      <c r="C220" s="259"/>
-      <c r="D220" s="259"/>
-      <c r="E220" s="300" t="s">
+      <c r="C220" s="261"/>
+      <c r="D220" s="261"/>
+      <c r="E220" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F220" s="99" t="s">
@@ -25154,9 +25173,9 @@
     <row r="221" spans="1:24" ht="16.5" customHeight="1">
       <c r="A221" s="104"/>
       <c r="B221" s="104"/>
-      <c r="C221" s="259"/>
-      <c r="D221" s="260"/>
-      <c r="E221" s="260"/>
+      <c r="C221" s="261"/>
+      <c r="D221" s="262"/>
+      <c r="E221" s="262"/>
       <c r="F221" s="99" t="s">
         <v>256</v>
       </c>
@@ -25188,8 +25207,8 @@
     <row r="222" spans="1:24" ht="16.5" customHeight="1">
       <c r="A222" s="104"/>
       <c r="B222" s="104"/>
-      <c r="C222" s="259"/>
-      <c r="D222" s="300" t="s">
+      <c r="C222" s="261"/>
+      <c r="D222" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E222" s="99" t="s">
@@ -25226,8 +25245,8 @@
     <row r="223" spans="1:24" ht="16.5" customHeight="1">
       <c r="A223" s="104"/>
       <c r="B223" s="104"/>
-      <c r="C223" s="259"/>
-      <c r="D223" s="259"/>
+      <c r="C223" s="261"/>
+      <c r="D223" s="261"/>
       <c r="E223" s="99" t="s">
         <v>263</v>
       </c>
@@ -25262,9 +25281,9 @@
     <row r="224" spans="1:24" ht="16.5" customHeight="1">
       <c r="A224" s="104"/>
       <c r="B224" s="104"/>
-      <c r="C224" s="259"/>
-      <c r="D224" s="259"/>
-      <c r="E224" s="301" t="s">
+      <c r="C224" s="261"/>
+      <c r="D224" s="261"/>
+      <c r="E224" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F224" s="99" t="s">
@@ -25292,9 +25311,9 @@
     <row r="225" spans="1:24" ht="16.5" customHeight="1">
       <c r="A225" s="104"/>
       <c r="B225" s="104"/>
-      <c r="C225" s="259"/>
-      <c r="D225" s="259"/>
-      <c r="E225" s="260"/>
+      <c r="C225" s="261"/>
+      <c r="D225" s="261"/>
+      <c r="E225" s="262"/>
       <c r="F225" s="99" t="s">
         <v>266</v>
       </c>
@@ -25320,9 +25339,9 @@
     <row r="226" spans="1:24" ht="16.5" customHeight="1">
       <c r="A226" s="104"/>
       <c r="B226" s="104"/>
-      <c r="C226" s="259"/>
-      <c r="D226" s="259"/>
-      <c r="E226" s="300" t="s">
+      <c r="C226" s="261"/>
+      <c r="D226" s="261"/>
+      <c r="E226" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F226" s="99" t="s">
@@ -25356,9 +25375,9 @@
     <row r="227" spans="1:24" ht="16.5" customHeight="1">
       <c r="A227" s="104"/>
       <c r="B227" s="104"/>
-      <c r="C227" s="259"/>
-      <c r="D227" s="259"/>
-      <c r="E227" s="260"/>
+      <c r="C227" s="261"/>
+      <c r="D227" s="261"/>
+      <c r="E227" s="262"/>
       <c r="F227" s="99" t="s">
         <v>266</v>
       </c>
@@ -25390,9 +25409,9 @@
     <row r="228" spans="1:24" ht="16.5" customHeight="1">
       <c r="A228" s="104"/>
       <c r="B228" s="104"/>
-      <c r="C228" s="259"/>
-      <c r="D228" s="259"/>
-      <c r="E228" s="300" t="s">
+      <c r="C228" s="261"/>
+      <c r="D228" s="261"/>
+      <c r="E228" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F228" s="99" t="s">
@@ -25426,9 +25445,9 @@
     <row r="229" spans="1:24" ht="16.5" customHeight="1">
       <c r="A229" s="104"/>
       <c r="B229" s="104"/>
-      <c r="C229" s="259"/>
-      <c r="D229" s="260"/>
-      <c r="E229" s="260"/>
+      <c r="C229" s="261"/>
+      <c r="D229" s="262"/>
+      <c r="E229" s="262"/>
       <c r="F229" s="99" t="s">
         <v>270</v>
       </c>
@@ -25460,8 +25479,8 @@
     <row r="230" spans="1:24" ht="16.5" customHeight="1">
       <c r="A230" s="151"/>
       <c r="B230" s="151"/>
-      <c r="C230" s="259"/>
-      <c r="D230" s="302" t="s">
+      <c r="C230" s="261"/>
+      <c r="D230" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E230" s="137" t="s">
@@ -25492,8 +25511,8 @@
     <row r="231" spans="1:24" ht="16.5" customHeight="1">
       <c r="A231" s="151"/>
       <c r="B231" s="151"/>
-      <c r="C231" s="259"/>
-      <c r="D231" s="259"/>
+      <c r="C231" s="261"/>
+      <c r="D231" s="261"/>
       <c r="E231" s="137" t="s">
         <v>273</v>
       </c>
@@ -25522,8 +25541,8 @@
     <row r="232" spans="1:24" ht="16.5" customHeight="1">
       <c r="A232" s="151"/>
       <c r="B232" s="151"/>
-      <c r="C232" s="259"/>
-      <c r="D232" s="260"/>
+      <c r="C232" s="261"/>
+      <c r="D232" s="262"/>
       <c r="E232" s="158" t="s">
         <v>275</v>
       </c>
@@ -25552,11 +25571,11 @@
     <row r="233" spans="1:24" ht="16.5" customHeight="1">
       <c r="A233" s="159"/>
       <c r="B233" s="160"/>
-      <c r="C233" s="259"/>
-      <c r="D233" s="293" t="s">
+      <c r="C233" s="261"/>
+      <c r="D233" s="299" t="s">
         <v>277</v>
       </c>
-      <c r="E233" s="293"/>
+      <c r="E233" s="299"/>
       <c r="F233" s="161" t="s">
         <v>278</v>
       </c>
@@ -25582,9 +25601,9 @@
     <row r="234" spans="1:24" ht="16.5" customHeight="1">
       <c r="A234" s="168"/>
       <c r="B234" s="160"/>
-      <c r="C234" s="259"/>
-      <c r="D234" s="294"/>
-      <c r="E234" s="294"/>
+      <c r="C234" s="261"/>
+      <c r="D234" s="295"/>
+      <c r="E234" s="295"/>
       <c r="F234" s="169" t="s">
         <v>279</v>
       </c>
@@ -25610,9 +25629,9 @@
     <row r="235" spans="1:24" ht="16.5" customHeight="1">
       <c r="A235" s="174"/>
       <c r="B235" s="175"/>
-      <c r="C235" s="260"/>
-      <c r="D235" s="266"/>
-      <c r="E235" s="295"/>
+      <c r="C235" s="262"/>
+      <c r="D235" s="267"/>
+      <c r="E235" s="303"/>
       <c r="F235" s="137" t="s">
         <v>280</v>
       </c>
@@ -25638,12 +25657,12 @@
     <row r="236" spans="1:24" ht="16.5" customHeight="1">
       <c r="A236" s="120"/>
       <c r="B236" s="120"/>
-      <c r="C236" s="297" t="s">
+      <c r="C236" s="291" t="s">
         <v>307</v>
       </c>
-      <c r="D236" s="298"/>
-      <c r="E236" s="298"/>
-      <c r="F236" s="299"/>
+      <c r="D236" s="292"/>
+      <c r="E236" s="292"/>
+      <c r="F236" s="293"/>
       <c r="G236" s="121"/>
       <c r="H236" s="122"/>
       <c r="I236" s="184"/>
@@ -25666,13 +25685,13 @@
     <row r="237" spans="1:24" ht="16.5" customHeight="1">
       <c r="A237" s="127"/>
       <c r="B237" s="127"/>
-      <c r="C237" s="300" t="s">
+      <c r="C237" s="289" t="s">
         <v>308</v>
       </c>
-      <c r="D237" s="300" t="s">
+      <c r="D237" s="289" t="s">
         <v>32</v>
       </c>
-      <c r="E237" s="303" t="s">
+      <c r="E237" s="290" t="s">
         <v>239</v>
       </c>
       <c r="F237" s="109" t="s">
@@ -25700,9 +25719,9 @@
     <row r="238" spans="1:24" ht="16.5" customHeight="1">
       <c r="A238" s="127"/>
       <c r="B238" s="127"/>
-      <c r="C238" s="259"/>
-      <c r="D238" s="259"/>
-      <c r="E238" s="259"/>
+      <c r="C238" s="261"/>
+      <c r="D238" s="261"/>
+      <c r="E238" s="261"/>
       <c r="F238" s="109" t="s">
         <v>310</v>
       </c>
@@ -25728,9 +25747,9 @@
     <row r="239" spans="1:24" ht="16.5" customHeight="1">
       <c r="A239" s="127"/>
       <c r="B239" s="127"/>
-      <c r="C239" s="259"/>
-      <c r="D239" s="259"/>
-      <c r="E239" s="260"/>
+      <c r="C239" s="261"/>
+      <c r="D239" s="261"/>
+      <c r="E239" s="262"/>
       <c r="F239" s="109" t="s">
         <v>311</v>
       </c>
@@ -25756,9 +25775,9 @@
     <row r="240" spans="1:24" ht="16.5" customHeight="1">
       <c r="A240" s="127"/>
       <c r="B240" s="127"/>
-      <c r="C240" s="259"/>
-      <c r="D240" s="259"/>
-      <c r="E240" s="303" t="s">
+      <c r="C240" s="261"/>
+      <c r="D240" s="261"/>
+      <c r="E240" s="290" t="s">
         <v>243</v>
       </c>
       <c r="F240" s="109" t="s">
@@ -25786,9 +25805,9 @@
     <row r="241" spans="1:24" ht="16.5" customHeight="1">
       <c r="A241" s="127"/>
       <c r="B241" s="127"/>
-      <c r="C241" s="259"/>
-      <c r="D241" s="259"/>
-      <c r="E241" s="260"/>
+      <c r="C241" s="261"/>
+      <c r="D241" s="261"/>
+      <c r="E241" s="262"/>
       <c r="F241" s="109" t="s">
         <v>245</v>
       </c>
@@ -25814,8 +25833,8 @@
     <row r="242" spans="1:24" ht="16.5" customHeight="1">
       <c r="A242" s="104"/>
       <c r="B242" s="104"/>
-      <c r="C242" s="259"/>
-      <c r="D242" s="259"/>
+      <c r="C242" s="261"/>
+      <c r="D242" s="261"/>
       <c r="E242" s="99" t="s">
         <v>126</v>
       </c>
@@ -25850,8 +25869,8 @@
     <row r="243" spans="1:24" ht="16.5" customHeight="1">
       <c r="A243" s="104"/>
       <c r="B243" s="104"/>
-      <c r="C243" s="259"/>
-      <c r="D243" s="259"/>
+      <c r="C243" s="261"/>
+      <c r="D243" s="261"/>
       <c r="E243" s="99" t="s">
         <v>247</v>
       </c>
@@ -25886,14 +25905,14 @@
     <row r="244" spans="1:24" ht="16.5" customHeight="1">
       <c r="A244" s="104"/>
       <c r="B244" s="104"/>
-      <c r="C244" s="259"/>
-      <c r="D244" s="300" t="s">
+      <c r="C244" s="261"/>
+      <c r="D244" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="E244" s="296" t="s">
+      <c r="E244" s="302" t="s">
         <v>249</v>
       </c>
-      <c r="F244" s="257"/>
+      <c r="F244" s="259"/>
       <c r="G244" s="103"/>
       <c r="H244" s="101"/>
       <c r="I244" s="100"/>
@@ -25922,13 +25941,13 @@
     <row r="245" spans="1:24" ht="16.5" customHeight="1">
       <c r="A245" s="104"/>
       <c r="B245" s="104"/>
-      <c r="C245" s="259"/>
-      <c r="D245" s="259"/>
+      <c r="C245" s="261"/>
+      <c r="D245" s="261"/>
       <c r="E245" s="99" t="s">
         <v>247</v>
       </c>
       <c r="F245" s="212" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G245" s="103"/>
       <c r="H245" s="101"/>
@@ -25958,9 +25977,9 @@
     <row r="246" spans="1:24" ht="16.5" customHeight="1">
       <c r="A246" s="104"/>
       <c r="B246" s="104"/>
-      <c r="C246" s="259"/>
-      <c r="D246" s="259"/>
-      <c r="E246" s="300" t="s">
+      <c r="C246" s="261"/>
+      <c r="D246" s="261"/>
+      <c r="E246" s="289" t="s">
         <v>250</v>
       </c>
       <c r="F246" s="99" t="s">
@@ -25988,9 +26007,9 @@
     <row r="247" spans="1:24" ht="16.5" customHeight="1">
       <c r="A247" s="104"/>
       <c r="B247" s="104"/>
-      <c r="C247" s="259"/>
-      <c r="D247" s="259"/>
-      <c r="E247" s="259"/>
+      <c r="C247" s="261"/>
+      <c r="D247" s="261"/>
+      <c r="E247" s="261"/>
       <c r="F247" s="99" t="s">
         <v>252</v>
       </c>
@@ -26016,9 +26035,9 @@
     <row r="248" spans="1:24" ht="16.5" customHeight="1">
       <c r="A248" s="104"/>
       <c r="B248" s="104"/>
-      <c r="C248" s="259"/>
-      <c r="D248" s="260"/>
-      <c r="E248" s="260"/>
+      <c r="C248" s="261"/>
+      <c r="D248" s="262"/>
+      <c r="E248" s="262"/>
       <c r="F248" s="99" t="s">
         <v>253</v>
       </c>
@@ -26050,8 +26069,8 @@
     <row r="249" spans="1:24" ht="16.5" customHeight="1">
       <c r="A249" s="104"/>
       <c r="B249" s="104"/>
-      <c r="C249" s="259"/>
-      <c r="D249" s="300" t="s">
+      <c r="C249" s="261"/>
+      <c r="D249" s="289" t="s">
         <v>254</v>
       </c>
       <c r="E249" s="99" t="s">
@@ -26088,8 +26107,8 @@
     <row r="250" spans="1:24" ht="16.5" customHeight="1">
       <c r="A250" s="104"/>
       <c r="B250" s="104"/>
-      <c r="C250" s="259"/>
-      <c r="D250" s="259"/>
+      <c r="C250" s="261"/>
+      <c r="D250" s="261"/>
       <c r="E250" s="99" t="s">
         <v>313</v>
       </c>
@@ -26124,8 +26143,8 @@
     <row r="251" spans="1:24" ht="16.5" customHeight="1">
       <c r="A251" s="104"/>
       <c r="B251" s="104"/>
-      <c r="C251" s="259"/>
-      <c r="D251" s="259"/>
+      <c r="C251" s="261"/>
+      <c r="D251" s="261"/>
       <c r="E251" s="99" t="s">
         <v>314</v>
       </c>
@@ -26160,9 +26179,9 @@
     <row r="252" spans="1:24" ht="16.5" customHeight="1">
       <c r="A252" s="104"/>
       <c r="B252" s="104"/>
-      <c r="C252" s="259"/>
-      <c r="D252" s="259"/>
-      <c r="E252" s="300" t="s">
+      <c r="C252" s="261"/>
+      <c r="D252" s="261"/>
+      <c r="E252" s="289" t="s">
         <v>259</v>
       </c>
       <c r="F252" s="99" t="s">
@@ -26196,9 +26215,9 @@
     <row r="253" spans="1:24" ht="16.5" customHeight="1">
       <c r="A253" s="104"/>
       <c r="B253" s="104"/>
-      <c r="C253" s="259"/>
-      <c r="D253" s="260"/>
-      <c r="E253" s="260"/>
+      <c r="C253" s="261"/>
+      <c r="D253" s="262"/>
+      <c r="E253" s="262"/>
       <c r="F253" s="99" t="s">
         <v>256</v>
       </c>
@@ -26230,8 +26249,8 @@
     <row r="254" spans="1:24" ht="16.5" customHeight="1">
       <c r="A254" s="104"/>
       <c r="B254" s="104"/>
-      <c r="C254" s="259"/>
-      <c r="D254" s="300" t="s">
+      <c r="C254" s="261"/>
+      <c r="D254" s="289" t="s">
         <v>261</v>
       </c>
       <c r="E254" s="99" t="s">
@@ -26268,8 +26287,8 @@
     <row r="255" spans="1:24" ht="16.5" customHeight="1">
       <c r="A255" s="104"/>
       <c r="B255" s="104"/>
-      <c r="C255" s="259"/>
-      <c r="D255" s="259"/>
+      <c r="C255" s="261"/>
+      <c r="D255" s="261"/>
       <c r="E255" s="99" t="s">
         <v>263</v>
       </c>
@@ -26304,9 +26323,9 @@
     <row r="256" spans="1:24" ht="16.5" customHeight="1">
       <c r="A256" s="104"/>
       <c r="B256" s="104"/>
-      <c r="C256" s="259"/>
-      <c r="D256" s="259"/>
-      <c r="E256" s="301" t="s">
+      <c r="C256" s="261"/>
+      <c r="D256" s="261"/>
+      <c r="E256" s="304" t="s">
         <v>109</v>
       </c>
       <c r="F256" s="99" t="s">
@@ -26334,9 +26353,9 @@
     <row r="257" spans="1:24" ht="16.5" customHeight="1">
       <c r="A257" s="104"/>
       <c r="B257" s="104"/>
-      <c r="C257" s="259"/>
-      <c r="D257" s="259"/>
-      <c r="E257" s="260"/>
+      <c r="C257" s="261"/>
+      <c r="D257" s="261"/>
+      <c r="E257" s="262"/>
       <c r="F257" s="99" t="s">
         <v>266</v>
       </c>
@@ -26362,9 +26381,9 @@
     <row r="258" spans="1:24" ht="16.5" customHeight="1">
       <c r="A258" s="104"/>
       <c r="B258" s="104"/>
-      <c r="C258" s="259"/>
-      <c r="D258" s="259"/>
-      <c r="E258" s="300" t="s">
+      <c r="C258" s="261"/>
+      <c r="D258" s="261"/>
+      <c r="E258" s="289" t="s">
         <v>267</v>
       </c>
       <c r="F258" s="99" t="s">
@@ -26398,9 +26417,9 @@
     <row r="259" spans="1:24" ht="16.5" customHeight="1">
       <c r="A259" s="104"/>
       <c r="B259" s="104"/>
-      <c r="C259" s="259"/>
-      <c r="D259" s="259"/>
-      <c r="E259" s="260"/>
+      <c r="C259" s="261"/>
+      <c r="D259" s="261"/>
+      <c r="E259" s="262"/>
       <c r="F259" s="99" t="s">
         <v>266</v>
       </c>
@@ -26432,9 +26451,9 @@
     <row r="260" spans="1:24" ht="16.5" customHeight="1">
       <c r="A260" s="104"/>
       <c r="B260" s="104"/>
-      <c r="C260" s="259"/>
-      <c r="D260" s="259"/>
-      <c r="E260" s="300" t="s">
+      <c r="C260" s="261"/>
+      <c r="D260" s="261"/>
+      <c r="E260" s="289" t="s">
         <v>126</v>
       </c>
       <c r="F260" s="99" t="s">
@@ -26468,9 +26487,9 @@
     <row r="261" spans="1:24" ht="16.5" customHeight="1">
       <c r="A261" s="104"/>
       <c r="B261" s="104"/>
-      <c r="C261" s="259"/>
-      <c r="D261" s="260"/>
-      <c r="E261" s="260"/>
+      <c r="C261" s="261"/>
+      <c r="D261" s="262"/>
+      <c r="E261" s="262"/>
       <c r="F261" s="99" t="s">
         <v>270</v>
       </c>
@@ -26502,8 +26521,8 @@
     <row r="262" spans="1:24" ht="16.5" customHeight="1">
       <c r="A262" s="104"/>
       <c r="B262" s="104"/>
-      <c r="C262" s="259"/>
-      <c r="D262" s="302" t="s">
+      <c r="C262" s="261"/>
+      <c r="D262" s="296" t="s">
         <v>271</v>
       </c>
       <c r="E262" s="137" t="s">
@@ -26540,8 +26559,8 @@
     <row r="263" spans="1:24" ht="16.5" customHeight="1">
       <c r="A263" s="104"/>
       <c r="B263" s="104"/>
-      <c r="C263" s="259"/>
-      <c r="D263" s="259"/>
+      <c r="C263" s="261"/>
+      <c r="D263" s="261"/>
       <c r="E263" s="137" t="s">
         <v>273</v>
       </c>
@@ -26576,8 +26595,8 @@
     <row r="264" spans="1:24" ht="16.5" customHeight="1">
       <c r="A264" s="152"/>
       <c r="B264" s="152"/>
-      <c r="C264" s="259"/>
-      <c r="D264" s="260"/>
+      <c r="C264" s="261"/>
+      <c r="D264" s="262"/>
       <c r="E264" s="158" t="s">
         <v>275</v>
       </c>
@@ -26612,11 +26631,11 @@
     <row r="265" spans="1:24" ht="16.5" customHeight="1">
       <c r="A265" s="159"/>
       <c r="B265" s="160"/>
-      <c r="C265" s="259"/>
-      <c r="D265" s="293" t="s">
+      <c r="C265" s="261"/>
+      <c r="D265" s="299" t="s">
         <v>277</v>
       </c>
-      <c r="E265" s="293"/>
+      <c r="E265" s="299"/>
       <c r="F265" s="161" t="s">
         <v>278</v>
       </c>
@@ -26642,9 +26661,9 @@
     <row r="266" spans="1:24" ht="16.5" customHeight="1">
       <c r="A266" s="168"/>
       <c r="B266" s="160"/>
-      <c r="C266" s="259"/>
-      <c r="D266" s="294"/>
-      <c r="E266" s="294"/>
+      <c r="C266" s="261"/>
+      <c r="D266" s="295"/>
+      <c r="E266" s="295"/>
       <c r="F266" s="169" t="s">
         <v>279</v>
       </c>
@@ -26670,9 +26689,9 @@
     <row r="267" spans="1:24" ht="16.5" customHeight="1">
       <c r="A267" s="174"/>
       <c r="B267" s="175"/>
-      <c r="C267" s="259"/>
-      <c r="D267" s="266"/>
-      <c r="E267" s="295"/>
+      <c r="C267" s="261"/>
+      <c r="D267" s="267"/>
+      <c r="E267" s="303"/>
       <c r="F267" s="137" t="s">
         <v>280</v>
       </c>
@@ -26698,12 +26717,12 @@
     <row r="268" spans="1:24" ht="16.5" customHeight="1">
       <c r="A268" s="120"/>
       <c r="B268" s="120"/>
-      <c r="C268" s="290" t="s">
+      <c r="C268" s="307" t="s">
         <v>315</v>
       </c>
-      <c r="D268" s="291"/>
-      <c r="E268" s="291"/>
-      <c r="F268" s="292"/>
+      <c r="D268" s="308"/>
+      <c r="E268" s="308"/>
+      <c r="F268" s="309"/>
       <c r="G268" s="121"/>
       <c r="H268" s="122"/>
       <c r="I268" s="122"/>
@@ -26732,10 +26751,10 @@
     <row r="269" spans="1:24" ht="16.5" customHeight="1">
       <c r="A269" s="104"/>
       <c r="B269" s="104"/>
-      <c r="C269" s="264"/>
-      <c r="D269" s="265"/>
-      <c r="E269" s="265"/>
-      <c r="F269" s="266"/>
+      <c r="C269" s="287"/>
+      <c r="D269" s="266"/>
+      <c r="E269" s="266"/>
+      <c r="F269" s="267"/>
       <c r="G269" s="103"/>
       <c r="H269" s="101"/>
       <c r="I269" s="101"/>
@@ -31083,68 +31102,67 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="D249:D253"/>
-    <mergeCell ref="C237:C267"/>
-    <mergeCell ref="D9:D22"/>
-    <mergeCell ref="D181:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="C176:C203"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="D175:D180"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="C142:O143"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="C145:C173"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="D233:D235"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="D205:D211"/>
-    <mergeCell ref="C205:C235"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="D237:D243"/>
-    <mergeCell ref="C108:C141"/>
-    <mergeCell ref="C7:C52"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="D23:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="C268:F269"/>
+    <mergeCell ref="E265:E267"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="D254:D261"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E214:E216"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="D222:D229"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="D217:D221"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="C55:C72"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="D160:D167"/>
+    <mergeCell ref="C144:F144"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="D108:D118"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:F3"/>
@@ -31169,68 +31187,69 @@
     <mergeCell ref="E192:E193"/>
     <mergeCell ref="E194:E195"/>
     <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="D205:D211"/>
+    <mergeCell ref="C205:C235"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="C108:C141"/>
+    <mergeCell ref="C7:C52"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="D23:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E153:E155"/>
     <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="D160:D167"/>
-    <mergeCell ref="C144:F144"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="D108:D118"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="C55:C72"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C268:F269"/>
-    <mergeCell ref="E265:E267"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="D254:D261"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="E233:E235"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E214:E216"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="D222:D229"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="D217:D221"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="C237:C267"/>
+    <mergeCell ref="D9:D22"/>
+    <mergeCell ref="D181:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="C176:C203"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="D175:D180"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="C142:O143"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="C145:C173"/>
+    <mergeCell ref="D230:D232"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="D233:D235"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31277,10 +31296,10 @@
       <c r="D3" s="193"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="311" t="s">
+      <c r="B4" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="312" t="s">
         <v>319</v>
       </c>
       <c r="D4" s="193" t="s">
@@ -31288,15 +31307,15 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
       <c r="D5" s="193" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="283"/>
-      <c r="C6" s="313" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="312" t="s">
         <v>322</v>
       </c>
       <c r="D6" s="193" t="s">
@@ -31304,15 +31323,15 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="193" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="283"/>
-      <c r="C8" s="313" t="s">
+      <c r="B8" s="264"/>
+      <c r="C8" s="312" t="s">
         <v>325</v>
       </c>
       <c r="D8" s="193" t="s">
@@ -31320,29 +31339,29 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="283"/>
-      <c r="C9" s="283"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="193" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="283"/>
-      <c r="C10" s="283"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
       <c r="D10" s="193" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="283"/>
-      <c r="C11" s="283"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="264"/>
       <c r="D11" s="193" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="283"/>
-      <c r="C12" s="313" t="s">
+      <c r="B12" s="264"/>
+      <c r="C12" s="312" t="s">
         <v>330</v>
       </c>
       <c r="D12" s="193" t="s">
@@ -31350,43 +31369,43 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="193" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="283"/>
-      <c r="C14" s="283"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="193" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="283"/>
-      <c r="C15" s="283"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="193" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="283"/>
-      <c r="C16" s="283"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="193" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="283"/>
-      <c r="C17" s="283"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="193" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="283"/>
-      <c r="C18" s="313" t="s">
+      <c r="B18" s="264"/>
+      <c r="C18" s="312" t="s">
         <v>337</v>
       </c>
       <c r="D18" s="193" t="s">
@@ -31394,15 +31413,15 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="283"/>
-      <c r="C19" s="283"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="193" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="283"/>
-      <c r="C20" s="313" t="s">
+      <c r="B20" s="264"/>
+      <c r="C20" s="312" t="s">
         <v>340</v>
       </c>
       <c r="D20" s="193" t="s">
@@ -31410,15 +31429,15 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="283"/>
-      <c r="C21" s="283"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="193" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="283"/>
-      <c r="C22" s="313" t="s">
+      <c r="B22" s="264"/>
+      <c r="C22" s="312" t="s">
         <v>343</v>
       </c>
       <c r="D22" s="193" t="s">
@@ -31426,15 +31445,15 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="283"/>
-      <c r="C23" s="283"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="193" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="283"/>
-      <c r="C24" s="313" t="s">
+      <c r="B24" s="264"/>
+      <c r="C24" s="312" t="s">
         <v>346</v>
       </c>
       <c r="D24" s="193" t="s">
@@ -31442,36 +31461,36 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="283"/>
-      <c r="C25" s="283"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="193" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="283"/>
-      <c r="C26" s="283"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
       <c r="D26" s="193" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="283"/>
-      <c r="C27" s="283"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="264"/>
       <c r="D27" s="193" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="283"/>
-      <c r="C28" s="283"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="193" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="312"/>
-      <c r="C29" s="283"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="193" t="s">
         <v>352</v>
       </c>
@@ -31516,15 +31535,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="254" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="280" t="s">
+      <c r="C1" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -31548,7 +31567,7 @@
       <c r="Z1" s="194"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="312"/>
+      <c r="A2" s="311"/>
       <c r="B2" s="195"/>
       <c r="C2" s="195" t="s">
         <v>24</v>
@@ -31584,10 +31603,10 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="313" t="s">
+      <c r="C3" s="312" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="313" t="s">
+      <c r="D3" s="312" t="s">
         <v>354</v>
       </c>
       <c r="E3" s="196" t="s">
@@ -31618,8 +31637,8 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="193" t="s">
         <v>356</v>
       </c>
@@ -31648,8 +31667,8 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="193" t="s">
         <v>357</v>
       </c>
@@ -31678,8 +31697,8 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="193" t="s">
         <v>358</v>
       </c>
@@ -31708,8 +31727,8 @@
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="315" t="s">
+      <c r="C7" s="264"/>
+      <c r="D7" s="313" t="s">
         <v>359</v>
       </c>
       <c r="E7" s="196" t="s">
@@ -31740,8 +31759,8 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="196" t="s">
         <v>361</v>
       </c>
@@ -31770,8 +31789,8 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="283"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
       <c r="E9" s="193" t="s">
         <v>362</v>
       </c>
@@ -31800,8 +31819,8 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="313" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="312" t="s">
         <v>358</v>
       </c>
       <c r="E10" s="193" t="s">
@@ -31832,8 +31851,8 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="283"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
       <c r="E11" s="193" t="s">
         <v>363</v>
       </c>
@@ -31862,8 +31881,8 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="193" t="s">
         <v>364</v>
       </c>
@@ -31892,8 +31911,8 @@
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
       <c r="E13" s="193" t="s">
         <v>365</v>
       </c>
@@ -31922,8 +31941,8 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
+      <c r="C14" s="264"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="193" t="s">
         <v>366</v>
       </c>
@@ -31952,8 +31971,8 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="283"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="193" t="s">
         <v>367</v>
       </c>
@@ -31982,8 +32001,8 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="283"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="193" t="s">
         <v>368</v>
       </c>
@@ -32012,8 +32031,8 @@
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="283"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="193" t="s">
         <v>369</v>
       </c>
@@ -32042,8 +32061,8 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="283"/>
-      <c r="D18" s="283"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="193" t="s">
         <v>370</v>
       </c>
@@ -32072,8 +32091,8 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="283"/>
-      <c r="D19" s="283"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="193" t="s">
         <v>371</v>
       </c>
@@ -32102,8 +32121,8 @@
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="283"/>
-      <c r="D20" s="283"/>
+      <c r="C20" s="264"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="193" t="s">
         <v>372</v>
       </c>
@@ -32132,8 +32151,8 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
+      <c r="C21" s="264"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="193" t="s">
         <v>373</v>
       </c>
@@ -32162,8 +32181,8 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="313" t="s">
+      <c r="C22" s="264"/>
+      <c r="D22" s="312" t="s">
         <v>374</v>
       </c>
       <c r="E22" s="193" t="s">
@@ -32194,8 +32213,8 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="193" t="s">
         <v>376</v>
       </c>
@@ -32224,8 +32243,8 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="283"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="193" t="s">
         <v>377</v>
       </c>
@@ -32254,8 +32273,8 @@
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="264"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="193" t="s">
         <v>378</v>
       </c>
@@ -32284,8 +32303,8 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="193" t="s">
         <v>379</v>
       </c>
@@ -32314,8 +32333,8 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="193" t="s">
         <v>380</v>
       </c>
@@ -32344,8 +32363,8 @@
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="193" t="s">
         <v>381</v>
       </c>
@@ -32374,8 +32393,8 @@
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="283"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="196" t="s">
         <v>382</v>
       </c>
@@ -32404,8 +32423,8 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="283"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="264"/>
       <c r="E30" s="196" t="s">
         <v>383</v>
       </c>
@@ -32434,8 +32453,8 @@
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="283"/>
-      <c r="D31" s="283"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
       <c r="E31" s="193" t="s">
         <v>384</v>
       </c>
@@ -32464,8 +32483,8 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="283"/>
-      <c r="D32" s="313" t="s">
+      <c r="C32" s="264"/>
+      <c r="D32" s="312" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="193" t="s">
@@ -32496,8 +32515,8 @@
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="283"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="264"/>
       <c r="E33" s="193" t="s">
         <v>386</v>
       </c>
@@ -32526,8 +32545,8 @@
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="283"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
       <c r="E34" s="193" t="s">
         <v>387</v>
       </c>
@@ -32556,8 +32575,8 @@
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="283"/>
-      <c r="D35" s="283"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
       <c r="E35" s="193" t="s">
         <v>388</v>
       </c>
@@ -32586,8 +32605,8 @@
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="283"/>
-      <c r="D36" s="283"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
       <c r="E36" s="193" t="s">
         <v>389</v>
       </c>
@@ -32616,8 +32635,8 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="283"/>
-      <c r="D37" s="283"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="264"/>
       <c r="E37" s="193" t="s">
         <v>390</v>
       </c>
@@ -32646,8 +32665,8 @@
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="313" t="s">
+      <c r="C38" s="264"/>
+      <c r="D38" s="312" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="193" t="s">
@@ -32678,8 +32697,8 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="283"/>
-      <c r="D39" s="283"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="264"/>
       <c r="E39" s="193" t="s">
         <v>386</v>
       </c>
@@ -32708,8 +32727,8 @@
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="283"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="264"/>
       <c r="E40" s="193" t="s">
         <v>387</v>
       </c>
@@ -32738,8 +32757,8 @@
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="264"/>
       <c r="E41" s="193" t="s">
         <v>388</v>
       </c>
@@ -32768,8 +32787,8 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="283"/>
-      <c r="D42" s="283"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="264"/>
       <c r="E42" s="193" t="s">
         <v>389</v>
       </c>
@@ -32798,8 +32817,8 @@
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="283"/>
-      <c r="D43" s="283"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="264"/>
       <c r="E43" s="193" t="s">
         <v>390</v>
       </c>
@@ -32828,8 +32847,8 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="283"/>
-      <c r="D44" s="313" t="s">
+      <c r="C44" s="264"/>
+      <c r="D44" s="312" t="s">
         <v>193</v>
       </c>
       <c r="E44" s="193" t="s">
@@ -32860,8 +32879,8 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
+      <c r="C45" s="264"/>
+      <c r="D45" s="264"/>
       <c r="E45" s="193" t="s">
         <v>393</v>
       </c>
@@ -32890,8 +32909,8 @@
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="283"/>
+      <c r="C46" s="264"/>
+      <c r="D46" s="264"/>
       <c r="E46" s="193"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -32918,8 +32937,8 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="283"/>
-      <c r="D47" s="283"/>
+      <c r="C47" s="264"/>
+      <c r="D47" s="264"/>
       <c r="E47" s="193"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -32946,8 +32965,8 @@
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="197"/>
       <c r="B48" s="197"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="312"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
       <c r="E48" s="198" t="s">
         <v>394</v>
       </c>
@@ -32976,10 +32995,10 @@
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="313" t="s">
+      <c r="C49" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="313" t="s">
+      <c r="D49" s="312" t="s">
         <v>395</v>
       </c>
       <c r="E49" s="193" t="s">
@@ -33010,8 +33029,8 @@
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="283"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="264"/>
       <c r="E50" s="196" t="s">
         <v>397</v>
       </c>
@@ -33040,8 +33059,8 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="283"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="264"/>
       <c r="E51" s="193" t="s">
         <v>398</v>
       </c>
@@ -33070,8 +33089,8 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="283"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="264"/>
       <c r="E52" s="193" t="s">
         <v>164</v>
       </c>
@@ -33100,8 +33119,8 @@
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="283"/>
-      <c r="D53" s="313" t="s">
+      <c r="C53" s="264"/>
+      <c r="D53" s="312" t="s">
         <v>399</v>
       </c>
       <c r="E53" s="193" t="s">
@@ -33132,8 +33151,8 @@
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="283"/>
-      <c r="D54" s="283"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="264"/>
       <c r="E54" s="193" t="s">
         <v>172</v>
       </c>
@@ -33162,8 +33181,8 @@
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="283"/>
-      <c r="D55" s="283"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="264"/>
       <c r="E55" s="196" t="s">
         <v>173</v>
       </c>
@@ -33192,8 +33211,8 @@
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="283"/>
-      <c r="D56" s="283"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="264"/>
       <c r="E56" s="196" t="s">
         <v>174</v>
       </c>
@@ -33222,8 +33241,8 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="283"/>
-      <c r="D57" s="283"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="264"/>
       <c r="E57" s="196" t="s">
         <v>175</v>
       </c>
@@ -33252,8 +33271,8 @@
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="283"/>
-      <c r="D58" s="283"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="264"/>
       <c r="E58" s="193" t="s">
         <v>176</v>
       </c>
@@ -33282,8 +33301,8 @@
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="283"/>
-      <c r="D59" s="283"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="264"/>
       <c r="E59" s="193" t="s">
         <v>177</v>
       </c>
@@ -33312,8 +33331,8 @@
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="283"/>
-      <c r="D60" s="313" t="s">
+      <c r="C60" s="264"/>
+      <c r="D60" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="193" t="s">
@@ -33344,8 +33363,8 @@
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="283"/>
-      <c r="D61" s="283"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="264"/>
       <c r="E61" s="193" t="s">
         <v>168</v>
       </c>
@@ -33374,8 +33393,8 @@
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="283"/>
-      <c r="D62" s="313" t="s">
+      <c r="C62" s="264"/>
+      <c r="D62" s="312" t="s">
         <v>400</v>
       </c>
       <c r="E62" s="193" t="s">
@@ -33406,8 +33425,8 @@
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="283"/>
-      <c r="D63" s="283"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="264"/>
       <c r="E63" s="196" t="s">
         <v>397</v>
       </c>
@@ -33436,8 +33455,8 @@
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="283"/>
-      <c r="D64" s="283"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="264"/>
       <c r="E64" s="193" t="s">
         <v>398</v>
       </c>
@@ -33466,8 +33485,8 @@
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="283"/>
-      <c r="D65" s="283"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="264"/>
       <c r="E65" s="193" t="s">
         <v>164</v>
       </c>
@@ -33496,8 +33515,8 @@
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="283"/>
-      <c r="D66" s="313" t="s">
+      <c r="C66" s="264"/>
+      <c r="D66" s="312" t="s">
         <v>401</v>
       </c>
       <c r="E66" s="193" t="s">
@@ -33528,8 +33547,8 @@
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="283"/>
-      <c r="D67" s="283"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="264"/>
       <c r="E67" s="193" t="s">
         <v>172</v>
       </c>
@@ -33558,8 +33577,8 @@
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="283"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="264"/>
       <c r="E68" s="196" t="s">
         <v>173</v>
       </c>
@@ -33588,8 +33607,8 @@
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="283"/>
-      <c r="D69" s="283"/>
+      <c r="C69" s="264"/>
+      <c r="D69" s="264"/>
       <c r="E69" s="196" t="s">
         <v>174</v>
       </c>
@@ -33618,8 +33637,8 @@
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="283"/>
-      <c r="D70" s="283"/>
+      <c r="C70" s="264"/>
+      <c r="D70" s="264"/>
       <c r="E70" s="196" t="s">
         <v>175</v>
       </c>
@@ -33648,8 +33667,8 @@
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="283"/>
-      <c r="D71" s="283"/>
+      <c r="C71" s="264"/>
+      <c r="D71" s="264"/>
       <c r="E71" s="193" t="s">
         <v>176</v>
       </c>
@@ -33678,8 +33697,8 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="283"/>
-      <c r="D72" s="283"/>
+      <c r="C72" s="264"/>
+      <c r="D72" s="264"/>
       <c r="E72" s="193" t="s">
         <v>177</v>
       </c>
@@ -33708,8 +33727,8 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="283"/>
-      <c r="D73" s="313" t="s">
+      <c r="C73" s="264"/>
+      <c r="D73" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E73" s="193" t="s">
@@ -33740,8 +33759,8 @@
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
+      <c r="C74" s="264"/>
+      <c r="D74" s="264"/>
       <c r="E74" s="193" t="s">
         <v>168</v>
       </c>
@@ -33770,8 +33789,8 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="283"/>
-      <c r="D75" s="313" t="s">
+      <c r="C75" s="264"/>
+      <c r="D75" s="312" t="s">
         <v>402</v>
       </c>
       <c r="E75" s="193" t="s">
@@ -33802,8 +33821,8 @@
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="283"/>
-      <c r="D76" s="283"/>
+      <c r="C76" s="264"/>
+      <c r="D76" s="264"/>
       <c r="E76" s="196" t="s">
         <v>397</v>
       </c>
@@ -33832,8 +33851,8 @@
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="283"/>
-      <c r="D77" s="283"/>
+      <c r="C77" s="264"/>
+      <c r="D77" s="264"/>
       <c r="E77" s="193" t="s">
         <v>398</v>
       </c>
@@ -33862,8 +33881,8 @@
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="283"/>
-      <c r="D78" s="283"/>
+      <c r="C78" s="264"/>
+      <c r="D78" s="264"/>
       <c r="E78" s="193" t="s">
         <v>164</v>
       </c>
@@ -33892,8 +33911,8 @@
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="283"/>
-      <c r="D79" s="313" t="s">
+      <c r="C79" s="264"/>
+      <c r="D79" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E79" s="193" t="s">
@@ -33924,8 +33943,8 @@
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="283"/>
-      <c r="D80" s="283"/>
+      <c r="C80" s="264"/>
+      <c r="D80" s="264"/>
       <c r="E80" s="193" t="s">
         <v>172</v>
       </c>
@@ -33954,8 +33973,8 @@
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
-      <c r="C81" s="283"/>
-      <c r="D81" s="283"/>
+      <c r="C81" s="264"/>
+      <c r="D81" s="264"/>
       <c r="E81" s="196" t="s">
         <v>173</v>
       </c>
@@ -33984,8 +34003,8 @@
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="283"/>
-      <c r="D82" s="283"/>
+      <c r="C82" s="264"/>
+      <c r="D82" s="264"/>
       <c r="E82" s="196" t="s">
         <v>174</v>
       </c>
@@ -34014,8 +34033,8 @@
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
+      <c r="C83" s="264"/>
+      <c r="D83" s="264"/>
       <c r="E83" s="196" t="s">
         <v>175</v>
       </c>
@@ -34044,8 +34063,8 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
+      <c r="C84" s="264"/>
+      <c r="D84" s="264"/>
       <c r="E84" s="193" t="s">
         <v>176</v>
       </c>
@@ -34074,8 +34093,8 @@
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
-      <c r="C85" s="283"/>
-      <c r="D85" s="283"/>
+      <c r="C85" s="264"/>
+      <c r="D85" s="264"/>
       <c r="E85" s="193" t="s">
         <v>177</v>
       </c>
@@ -34104,8 +34123,8 @@
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="283"/>
-      <c r="D86" s="313" t="s">
+      <c r="C86" s="264"/>
+      <c r="D86" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E86" s="193" t="s">
@@ -34136,8 +34155,8 @@
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
-      <c r="C87" s="283"/>
-      <c r="D87" s="283"/>
+      <c r="C87" s="264"/>
+      <c r="D87" s="264"/>
       <c r="E87" s="193" t="s">
         <v>168</v>
       </c>
@@ -34166,8 +34185,8 @@
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
-      <c r="C88" s="283"/>
-      <c r="D88" s="313" t="s">
+      <c r="C88" s="264"/>
+      <c r="D88" s="312" t="s">
         <v>404</v>
       </c>
       <c r="E88" s="193" t="s">
@@ -34198,8 +34217,8 @@
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
-      <c r="C89" s="283"/>
-      <c r="D89" s="283"/>
+      <c r="C89" s="264"/>
+      <c r="D89" s="264"/>
       <c r="E89" s="196" t="s">
         <v>397</v>
       </c>
@@ -34228,8 +34247,8 @@
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="283"/>
-      <c r="D90" s="283"/>
+      <c r="C90" s="264"/>
+      <c r="D90" s="264"/>
       <c r="E90" s="193" t="s">
         <v>398</v>
       </c>
@@ -34258,8 +34277,8 @@
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="283"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="264"/>
       <c r="E91" s="193" t="s">
         <v>164</v>
       </c>
@@ -34288,8 +34307,8 @@
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
-      <c r="C92" s="283"/>
-      <c r="D92" s="313" t="s">
+      <c r="C92" s="264"/>
+      <c r="D92" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E92" s="193" t="s">
@@ -34320,8 +34339,8 @@
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
-      <c r="C93" s="283"/>
-      <c r="D93" s="283"/>
+      <c r="C93" s="264"/>
+      <c r="D93" s="264"/>
       <c r="E93" s="193" t="s">
         <v>172</v>
       </c>
@@ -34350,8 +34369,8 @@
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
-      <c r="C94" s="283"/>
-      <c r="D94" s="283"/>
+      <c r="C94" s="264"/>
+      <c r="D94" s="264"/>
       <c r="E94" s="196" t="s">
         <v>173</v>
       </c>
@@ -34380,8 +34399,8 @@
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
+      <c r="C95" s="264"/>
+      <c r="D95" s="264"/>
       <c r="E95" s="196" t="s">
         <v>174</v>
       </c>
@@ -34410,8 +34429,8 @@
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="283"/>
-      <c r="D96" s="283"/>
+      <c r="C96" s="264"/>
+      <c r="D96" s="264"/>
       <c r="E96" s="196" t="s">
         <v>175</v>
       </c>
@@ -34440,8 +34459,8 @@
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
-      <c r="C97" s="283"/>
-      <c r="D97" s="283"/>
+      <c r="C97" s="264"/>
+      <c r="D97" s="264"/>
       <c r="E97" s="193" t="s">
         <v>176</v>
       </c>
@@ -34470,8 +34489,8 @@
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
-      <c r="C98" s="283"/>
-      <c r="D98" s="283"/>
+      <c r="C98" s="264"/>
+      <c r="D98" s="264"/>
       <c r="E98" s="193" t="s">
         <v>177</v>
       </c>
@@ -34500,8 +34519,8 @@
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
-      <c r="C99" s="283"/>
-      <c r="D99" s="313" t="s">
+      <c r="C99" s="264"/>
+      <c r="D99" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E99" s="193" t="s">
@@ -34532,8 +34551,8 @@
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
-      <c r="C100" s="283"/>
-      <c r="D100" s="283"/>
+      <c r="C100" s="264"/>
+      <c r="D100" s="264"/>
       <c r="E100" s="193" t="s">
         <v>168</v>
       </c>
@@ -34562,8 +34581,8 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
-      <c r="C101" s="283"/>
-      <c r="D101" s="313" t="s">
+      <c r="C101" s="264"/>
+      <c r="D101" s="312" t="s">
         <v>405</v>
       </c>
       <c r="E101" s="193" t="s">
@@ -34594,8 +34613,8 @@
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
-      <c r="C102" s="283"/>
-      <c r="D102" s="283"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="264"/>
       <c r="E102" s="196" t="s">
         <v>397</v>
       </c>
@@ -34624,8 +34643,8 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
-      <c r="C103" s="283"/>
-      <c r="D103" s="283"/>
+      <c r="C103" s="264"/>
+      <c r="D103" s="264"/>
       <c r="E103" s="193" t="s">
         <v>398</v>
       </c>
@@ -34654,8 +34673,8 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
-      <c r="C104" s="283"/>
-      <c r="D104" s="283"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="264"/>
       <c r="E104" s="193" t="s">
         <v>164</v>
       </c>
@@ -34684,8 +34703,8 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
-      <c r="C105" s="283"/>
-      <c r="D105" s="313" t="s">
+      <c r="C105" s="264"/>
+      <c r="D105" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E105" s="193" t="s">
@@ -34716,8 +34735,8 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
-      <c r="C106" s="283"/>
-      <c r="D106" s="283"/>
+      <c r="C106" s="264"/>
+      <c r="D106" s="264"/>
       <c r="E106" s="193" t="s">
         <v>172</v>
       </c>
@@ -34746,8 +34765,8 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
-      <c r="C107" s="283"/>
-      <c r="D107" s="283"/>
+      <c r="C107" s="264"/>
+      <c r="D107" s="264"/>
       <c r="E107" s="196" t="s">
         <v>173</v>
       </c>
@@ -34776,8 +34795,8 @@
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
-      <c r="C108" s="283"/>
-      <c r="D108" s="283"/>
+      <c r="C108" s="264"/>
+      <c r="D108" s="264"/>
       <c r="E108" s="196" t="s">
         <v>174</v>
       </c>
@@ -34806,8 +34825,8 @@
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
-      <c r="C109" s="283"/>
-      <c r="D109" s="283"/>
+      <c r="C109" s="264"/>
+      <c r="D109" s="264"/>
       <c r="E109" s="196" t="s">
         <v>175</v>
       </c>
@@ -34836,8 +34855,8 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
-      <c r="C110" s="283"/>
-      <c r="D110" s="283"/>
+      <c r="C110" s="264"/>
+      <c r="D110" s="264"/>
       <c r="E110" s="193" t="s">
         <v>176</v>
       </c>
@@ -34866,8 +34885,8 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
-      <c r="C111" s="283"/>
-      <c r="D111" s="283"/>
+      <c r="C111" s="264"/>
+      <c r="D111" s="264"/>
       <c r="E111" s="193" t="s">
         <v>177</v>
       </c>
@@ -34896,8 +34915,8 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
-      <c r="C112" s="283"/>
-      <c r="D112" s="313" t="s">
+      <c r="C112" s="264"/>
+      <c r="D112" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E112" s="193" t="s">
@@ -34928,8 +34947,8 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
-      <c r="C113" s="283"/>
-      <c r="D113" s="283"/>
+      <c r="C113" s="264"/>
+      <c r="D113" s="264"/>
       <c r="E113" s="193" t="s">
         <v>168</v>
       </c>
@@ -34958,8 +34977,8 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
-      <c r="C114" s="283"/>
-      <c r="D114" s="313" t="s">
+      <c r="C114" s="264"/>
+      <c r="D114" s="312" t="s">
         <v>406</v>
       </c>
       <c r="E114" s="193" t="s">
@@ -34990,8 +35009,8 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
-      <c r="C115" s="283"/>
-      <c r="D115" s="283"/>
+      <c r="C115" s="264"/>
+      <c r="D115" s="264"/>
       <c r="E115" s="196" t="s">
         <v>397</v>
       </c>
@@ -35020,8 +35039,8 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
-      <c r="C116" s="283"/>
-      <c r="D116" s="283"/>
+      <c r="C116" s="264"/>
+      <c r="D116" s="264"/>
       <c r="E116" s="193" t="s">
         <v>398</v>
       </c>
@@ -35050,8 +35069,8 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
-      <c r="C117" s="283"/>
-      <c r="D117" s="283"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
       <c r="E117" s="193" t="s">
         <v>164</v>
       </c>
@@ -35080,8 +35099,8 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
-      <c r="C118" s="283"/>
-      <c r="D118" s="313" t="s">
+      <c r="C118" s="264"/>
+      <c r="D118" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E118" s="193" t="s">
@@ -35112,8 +35131,8 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
-      <c r="C119" s="283"/>
-      <c r="D119" s="283"/>
+      <c r="C119" s="264"/>
+      <c r="D119" s="264"/>
       <c r="E119" s="193" t="s">
         <v>172</v>
       </c>
@@ -35142,8 +35161,8 @@
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
-      <c r="C120" s="283"/>
-      <c r="D120" s="283"/>
+      <c r="C120" s="264"/>
+      <c r="D120" s="264"/>
       <c r="E120" s="196" t="s">
         <v>173</v>
       </c>
@@ -35172,8 +35191,8 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
-      <c r="C121" s="283"/>
-      <c r="D121" s="283"/>
+      <c r="C121" s="264"/>
+      <c r="D121" s="264"/>
       <c r="E121" s="196" t="s">
         <v>174</v>
       </c>
@@ -35202,8 +35221,8 @@
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
-      <c r="C122" s="283"/>
-      <c r="D122" s="283"/>
+      <c r="C122" s="264"/>
+      <c r="D122" s="264"/>
       <c r="E122" s="196" t="s">
         <v>175</v>
       </c>
@@ -35232,8 +35251,8 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
-      <c r="C123" s="283"/>
-      <c r="D123" s="283"/>
+      <c r="C123" s="264"/>
+      <c r="D123" s="264"/>
       <c r="E123" s="193" t="s">
         <v>176</v>
       </c>
@@ -35262,8 +35281,8 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
-      <c r="C124" s="283"/>
-      <c r="D124" s="283"/>
+      <c r="C124" s="264"/>
+      <c r="D124" s="264"/>
       <c r="E124" s="193" t="s">
         <v>177</v>
       </c>
@@ -35292,8 +35311,8 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
-      <c r="C125" s="283"/>
-      <c r="D125" s="313" t="s">
+      <c r="C125" s="264"/>
+      <c r="D125" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E125" s="193" t="s">
@@ -35324,8 +35343,8 @@
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
-      <c r="C126" s="283"/>
-      <c r="D126" s="283"/>
+      <c r="C126" s="264"/>
+      <c r="D126" s="264"/>
       <c r="E126" s="193" t="s">
         <v>168</v>
       </c>
@@ -35354,8 +35373,8 @@
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
-      <c r="C127" s="283"/>
-      <c r="D127" s="313" t="s">
+      <c r="C127" s="264"/>
+      <c r="D127" s="312" t="s">
         <v>392</v>
       </c>
       <c r="E127" s="193" t="s">
@@ -35386,8 +35405,8 @@
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
-      <c r="C128" s="283"/>
-      <c r="D128" s="283"/>
+      <c r="C128" s="264"/>
+      <c r="D128" s="264"/>
       <c r="E128" s="193" t="s">
         <v>398</v>
       </c>
@@ -35416,8 +35435,8 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
-      <c r="C129" s="283"/>
-      <c r="D129" s="283"/>
+      <c r="C129" s="264"/>
+      <c r="D129" s="264"/>
       <c r="E129" s="193" t="s">
         <v>164</v>
       </c>
@@ -35446,8 +35465,8 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
-      <c r="C130" s="283"/>
-      <c r="D130" s="313" t="s">
+      <c r="C130" s="264"/>
+      <c r="D130" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E130" s="193" t="s">
@@ -35478,8 +35497,8 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
-      <c r="C131" s="283"/>
-      <c r="D131" s="283"/>
+      <c r="C131" s="264"/>
+      <c r="D131" s="264"/>
       <c r="E131" s="193" t="s">
         <v>172</v>
       </c>
@@ -35508,8 +35527,8 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
-      <c r="C132" s="283"/>
-      <c r="D132" s="283"/>
+      <c r="C132" s="264"/>
+      <c r="D132" s="264"/>
       <c r="E132" s="196" t="s">
         <v>173</v>
       </c>
@@ -35538,8 +35557,8 @@
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
-      <c r="C133" s="283"/>
-      <c r="D133" s="283"/>
+      <c r="C133" s="264"/>
+      <c r="D133" s="264"/>
       <c r="E133" s="196" t="s">
         <v>174</v>
       </c>
@@ -35568,8 +35587,8 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
-      <c r="C134" s="283"/>
-      <c r="D134" s="283"/>
+      <c r="C134" s="264"/>
+      <c r="D134" s="264"/>
       <c r="E134" s="196" t="s">
         <v>175</v>
       </c>
@@ -35598,8 +35617,8 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
-      <c r="C135" s="283"/>
-      <c r="D135" s="283"/>
+      <c r="C135" s="264"/>
+      <c r="D135" s="264"/>
       <c r="E135" s="193" t="s">
         <v>176</v>
       </c>
@@ -35628,8 +35647,8 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
-      <c r="C136" s="283"/>
-      <c r="D136" s="283"/>
+      <c r="C136" s="264"/>
+      <c r="D136" s="264"/>
       <c r="E136" s="193" t="s">
         <v>177</v>
       </c>
@@ -35658,8 +35677,8 @@
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
-      <c r="C137" s="283"/>
-      <c r="D137" s="313" t="s">
+      <c r="C137" s="264"/>
+      <c r="D137" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E137" s="193" t="s">
@@ -35690,8 +35709,8 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
-      <c r="C138" s="283"/>
-      <c r="D138" s="283"/>
+      <c r="C138" s="264"/>
+      <c r="D138" s="264"/>
       <c r="E138" s="193" t="s">
         <v>168</v>
       </c>
@@ -35720,8 +35739,8 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
-      <c r="C139" s="283"/>
-      <c r="D139" s="313" t="s">
+      <c r="C139" s="264"/>
+      <c r="D139" s="312" t="s">
         <v>393</v>
       </c>
       <c r="E139" s="193" t="s">
@@ -35752,8 +35771,8 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
-      <c r="C140" s="283"/>
-      <c r="D140" s="283"/>
+      <c r="C140" s="264"/>
+      <c r="D140" s="264"/>
       <c r="E140" s="193" t="s">
         <v>398</v>
       </c>
@@ -35782,8 +35801,8 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
-      <c r="C141" s="283"/>
-      <c r="D141" s="283"/>
+      <c r="C141" s="264"/>
+      <c r="D141" s="264"/>
       <c r="E141" s="193" t="s">
         <v>164</v>
       </c>
@@ -35812,8 +35831,8 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
-      <c r="C142" s="283"/>
-      <c r="D142" s="313" t="s">
+      <c r="C142" s="264"/>
+      <c r="D142" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E142" s="193" t="s">
@@ -35844,8 +35863,8 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
-      <c r="C143" s="283"/>
-      <c r="D143" s="283"/>
+      <c r="C143" s="264"/>
+      <c r="D143" s="264"/>
       <c r="E143" s="193" t="s">
         <v>172</v>
       </c>
@@ -35874,8 +35893,8 @@
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
-      <c r="C144" s="283"/>
-      <c r="D144" s="283"/>
+      <c r="C144" s="264"/>
+      <c r="D144" s="264"/>
       <c r="E144" s="196" t="s">
         <v>173</v>
       </c>
@@ -35904,8 +35923,8 @@
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
-      <c r="C145" s="283"/>
-      <c r="D145" s="283"/>
+      <c r="C145" s="264"/>
+      <c r="D145" s="264"/>
       <c r="E145" s="196" t="s">
         <v>174</v>
       </c>
@@ -35934,8 +35953,8 @@
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
-      <c r="C146" s="283"/>
-      <c r="D146" s="283"/>
+      <c r="C146" s="264"/>
+      <c r="D146" s="264"/>
       <c r="E146" s="196" t="s">
         <v>175</v>
       </c>
@@ -35964,8 +35983,8 @@
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
-      <c r="C147" s="283"/>
-      <c r="D147" s="283"/>
+      <c r="C147" s="264"/>
+      <c r="D147" s="264"/>
       <c r="E147" s="193" t="s">
         <v>176</v>
       </c>
@@ -35994,8 +36013,8 @@
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
-      <c r="C148" s="283"/>
-      <c r="D148" s="283"/>
+      <c r="C148" s="264"/>
+      <c r="D148" s="264"/>
       <c r="E148" s="193" t="s">
         <v>177</v>
       </c>
@@ -36024,8 +36043,8 @@
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
-      <c r="C149" s="283"/>
-      <c r="D149" s="313" t="s">
+      <c r="C149" s="264"/>
+      <c r="D149" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E149" s="193" t="s">
@@ -36056,8 +36075,8 @@
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
-      <c r="C150" s="283"/>
-      <c r="D150" s="283"/>
+      <c r="C150" s="264"/>
+      <c r="D150" s="264"/>
       <c r="E150" s="193" t="s">
         <v>168</v>
       </c>
@@ -36086,8 +36105,8 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
-      <c r="C151" s="283"/>
-      <c r="D151" s="313"/>
+      <c r="C151" s="264"/>
+      <c r="D151" s="312"/>
       <c r="E151" s="193" t="s">
         <v>396</v>
       </c>
@@ -36116,8 +36135,8 @@
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
-      <c r="C152" s="283"/>
-      <c r="D152" s="283"/>
+      <c r="C152" s="264"/>
+      <c r="D152" s="264"/>
       <c r="E152" s="193" t="s">
         <v>398</v>
       </c>
@@ -36146,8 +36165,8 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
-      <c r="C153" s="283"/>
-      <c r="D153" s="283"/>
+      <c r="C153" s="264"/>
+      <c r="D153" s="264"/>
       <c r="E153" s="193" t="s">
         <v>164</v>
       </c>
@@ -36176,8 +36195,8 @@
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
-      <c r="C154" s="283"/>
-      <c r="D154" s="313" t="s">
+      <c r="C154" s="264"/>
+      <c r="D154" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E154" s="193" t="s">
@@ -36208,8 +36227,8 @@
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
-      <c r="C155" s="283"/>
-      <c r="D155" s="283"/>
+      <c r="C155" s="264"/>
+      <c r="D155" s="264"/>
       <c r="E155" s="193" t="s">
         <v>172</v>
       </c>
@@ -36238,8 +36257,8 @@
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
-      <c r="C156" s="283"/>
-      <c r="D156" s="283"/>
+      <c r="C156" s="264"/>
+      <c r="D156" s="264"/>
       <c r="E156" s="196" t="s">
         <v>173</v>
       </c>
@@ -36268,8 +36287,8 @@
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
-      <c r="C157" s="283"/>
-      <c r="D157" s="283"/>
+      <c r="C157" s="264"/>
+      <c r="D157" s="264"/>
       <c r="E157" s="196" t="s">
         <v>174</v>
       </c>
@@ -36298,8 +36317,8 @@
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
-      <c r="C158" s="283"/>
-      <c r="D158" s="283"/>
+      <c r="C158" s="264"/>
+      <c r="D158" s="264"/>
       <c r="E158" s="196" t="s">
         <v>175</v>
       </c>
@@ -36328,8 +36347,8 @@
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
-      <c r="C159" s="283"/>
-      <c r="D159" s="283"/>
+      <c r="C159" s="264"/>
+      <c r="D159" s="264"/>
       <c r="E159" s="193" t="s">
         <v>176</v>
       </c>
@@ -36358,8 +36377,8 @@
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
-      <c r="C160" s="283"/>
-      <c r="D160" s="283"/>
+      <c r="C160" s="264"/>
+      <c r="D160" s="264"/>
       <c r="E160" s="193" t="s">
         <v>177</v>
       </c>
@@ -36388,8 +36407,8 @@
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
-      <c r="C161" s="283"/>
-      <c r="D161" s="313" t="s">
+      <c r="C161" s="264"/>
+      <c r="D161" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E161" s="193" t="s">
@@ -36420,8 +36439,8 @@
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
-      <c r="C162" s="283"/>
-      <c r="D162" s="283"/>
+      <c r="C162" s="264"/>
+      <c r="D162" s="264"/>
       <c r="E162" s="193" t="s">
         <v>168</v>
       </c>
@@ -36450,8 +36469,8 @@
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
-      <c r="C163" s="283"/>
-      <c r="D163" s="313"/>
+      <c r="C163" s="264"/>
+      <c r="D163" s="312"/>
       <c r="E163" s="193" t="s">
         <v>396</v>
       </c>
@@ -36480,8 +36499,8 @@
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
-      <c r="C164" s="283"/>
-      <c r="D164" s="283"/>
+      <c r="C164" s="264"/>
+      <c r="D164" s="264"/>
       <c r="E164" s="193" t="s">
         <v>398</v>
       </c>
@@ -36510,8 +36529,8 @@
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
-      <c r="C165" s="283"/>
-      <c r="D165" s="283"/>
+      <c r="C165" s="264"/>
+      <c r="D165" s="264"/>
       <c r="E165" s="193" t="s">
         <v>164</v>
       </c>
@@ -36540,8 +36559,8 @@
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
-      <c r="C166" s="283"/>
-      <c r="D166" s="313" t="s">
+      <c r="C166" s="264"/>
+      <c r="D166" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E166" s="193" t="s">
@@ -36572,8 +36591,8 @@
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
-      <c r="C167" s="283"/>
-      <c r="D167" s="283"/>
+      <c r="C167" s="264"/>
+      <c r="D167" s="264"/>
       <c r="E167" s="193" t="s">
         <v>172</v>
       </c>
@@ -36602,8 +36621,8 @@
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
-      <c r="C168" s="283"/>
-      <c r="D168" s="283"/>
+      <c r="C168" s="264"/>
+      <c r="D168" s="264"/>
       <c r="E168" s="196" t="s">
         <v>173</v>
       </c>
@@ -36632,8 +36651,8 @@
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
-      <c r="C169" s="283"/>
-      <c r="D169" s="283"/>
+      <c r="C169" s="264"/>
+      <c r="D169" s="264"/>
       <c r="E169" s="196" t="s">
         <v>174</v>
       </c>
@@ -36662,8 +36681,8 @@
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
-      <c r="C170" s="283"/>
-      <c r="D170" s="283"/>
+      <c r="C170" s="264"/>
+      <c r="D170" s="264"/>
       <c r="E170" s="196" t="s">
         <v>175</v>
       </c>
@@ -36692,8 +36711,8 @@
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
-      <c r="C171" s="283"/>
-      <c r="D171" s="283"/>
+      <c r="C171" s="264"/>
+      <c r="D171" s="264"/>
       <c r="E171" s="193" t="s">
         <v>176</v>
       </c>
@@ -36722,8 +36741,8 @@
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
-      <c r="C172" s="283"/>
-      <c r="D172" s="283"/>
+      <c r="C172" s="264"/>
+      <c r="D172" s="264"/>
       <c r="E172" s="193" t="s">
         <v>177</v>
       </c>
@@ -36752,8 +36771,8 @@
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
-      <c r="C173" s="283"/>
-      <c r="D173" s="313" t="s">
+      <c r="C173" s="264"/>
+      <c r="D173" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="193" t="s">
@@ -36784,8 +36803,8 @@
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
-      <c r="C174" s="283"/>
-      <c r="D174" s="283"/>
+      <c r="C174" s="264"/>
+      <c r="D174" s="264"/>
       <c r="E174" s="193" t="s">
         <v>168</v>
       </c>
@@ -36814,8 +36833,8 @@
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
-      <c r="C175" s="283"/>
-      <c r="D175" s="313"/>
+      <c r="C175" s="264"/>
+      <c r="D175" s="312"/>
       <c r="E175" s="193" t="s">
         <v>396</v>
       </c>
@@ -36844,8 +36863,8 @@
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
-      <c r="C176" s="283"/>
-      <c r="D176" s="283"/>
+      <c r="C176" s="264"/>
+      <c r="D176" s="264"/>
       <c r="E176" s="193" t="s">
         <v>398</v>
       </c>
@@ -36874,8 +36893,8 @@
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
-      <c r="C177" s="283"/>
-      <c r="D177" s="283"/>
+      <c r="C177" s="264"/>
+      <c r="D177" s="264"/>
       <c r="E177" s="193" t="s">
         <v>164</v>
       </c>
@@ -36904,8 +36923,8 @@
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
-      <c r="C178" s="283"/>
-      <c r="D178" s="313" t="s">
+      <c r="C178" s="264"/>
+      <c r="D178" s="312" t="s">
         <v>403</v>
       </c>
       <c r="E178" s="193" t="s">
@@ -36936,8 +36955,8 @@
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
-      <c r="C179" s="283"/>
-      <c r="D179" s="283"/>
+      <c r="C179" s="264"/>
+      <c r="D179" s="264"/>
       <c r="E179" s="193" t="s">
         <v>172</v>
       </c>
@@ -36966,8 +36985,8 @@
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
-      <c r="C180" s="283"/>
-      <c r="D180" s="283"/>
+      <c r="C180" s="264"/>
+      <c r="D180" s="264"/>
       <c r="E180" s="196" t="s">
         <v>173</v>
       </c>
@@ -36996,8 +37015,8 @@
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
-      <c r="C181" s="283"/>
-      <c r="D181" s="283"/>
+      <c r="C181" s="264"/>
+      <c r="D181" s="264"/>
       <c r="E181" s="196" t="s">
         <v>174</v>
       </c>
@@ -37026,8 +37045,8 @@
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
-      <c r="C182" s="283"/>
-      <c r="D182" s="283"/>
+      <c r="C182" s="264"/>
+      <c r="D182" s="264"/>
       <c r="E182" s="196" t="s">
         <v>175</v>
       </c>
@@ -37056,8 +37075,8 @@
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
-      <c r="C183" s="283"/>
-      <c r="D183" s="283"/>
+      <c r="C183" s="264"/>
+      <c r="D183" s="264"/>
       <c r="E183" s="193" t="s">
         <v>176</v>
       </c>
@@ -37086,8 +37105,8 @@
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
-      <c r="C184" s="283"/>
-      <c r="D184" s="283"/>
+      <c r="C184" s="264"/>
+      <c r="D184" s="264"/>
       <c r="E184" s="193" t="s">
         <v>177</v>
       </c>
@@ -37116,8 +37135,8 @@
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
-      <c r="C185" s="283"/>
-      <c r="D185" s="313" t="s">
+      <c r="C185" s="264"/>
+      <c r="D185" s="312" t="s">
         <v>165</v>
       </c>
       <c r="E185" s="193" t="s">
@@ -37148,8 +37167,8 @@
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="197"/>
       <c r="B186" s="197"/>
-      <c r="C186" s="312"/>
-      <c r="D186" s="312"/>
+      <c r="C186" s="311"/>
+      <c r="D186" s="311"/>
       <c r="E186" s="198" t="s">
         <v>168</v>
       </c>
@@ -37181,7 +37200,7 @@
       <c r="C187" s="314" t="s">
         <v>407</v>
       </c>
-      <c r="D187" s="313" t="s">
+      <c r="D187" s="312" t="s">
         <v>93</v>
       </c>
       <c r="E187" s="193" t="s">
@@ -37212,8 +37231,8 @@
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
-      <c r="C188" s="283"/>
-      <c r="D188" s="283"/>
+      <c r="C188" s="264"/>
+      <c r="D188" s="264"/>
       <c r="E188" s="193" t="s">
         <v>86</v>
       </c>
@@ -37242,8 +37261,8 @@
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
-      <c r="C189" s="283"/>
-      <c r="D189" s="283"/>
+      <c r="C189" s="264"/>
+      <c r="D189" s="264"/>
       <c r="E189" s="193" t="s">
         <v>87</v>
       </c>
@@ -37272,8 +37291,8 @@
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
-      <c r="C190" s="283"/>
-      <c r="D190" s="283"/>
+      <c r="C190" s="264"/>
+      <c r="D190" s="264"/>
       <c r="E190" s="193" t="s">
         <v>88</v>
       </c>
@@ -37302,8 +37321,8 @@
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
-      <c r="C191" s="283"/>
-      <c r="D191" s="313" t="s">
+      <c r="C191" s="264"/>
+      <c r="D191" s="312" t="s">
         <v>408</v>
       </c>
       <c r="E191" s="193" t="s">
@@ -37334,8 +37353,8 @@
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
-      <c r="C192" s="283"/>
-      <c r="D192" s="283"/>
+      <c r="C192" s="264"/>
+      <c r="D192" s="264"/>
       <c r="E192" s="193" t="s">
         <v>410</v>
       </c>
@@ -37364,8 +37383,8 @@
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
-      <c r="C193" s="283"/>
-      <c r="D193" s="283"/>
+      <c r="C193" s="264"/>
+      <c r="D193" s="264"/>
       <c r="E193" s="193" t="s">
         <v>411</v>
       </c>
@@ -37394,8 +37413,8 @@
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
-      <c r="C194" s="283"/>
-      <c r="D194" s="313" t="s">
+      <c r="C194" s="264"/>
+      <c r="D194" s="312" t="s">
         <v>319</v>
       </c>
       <c r="E194" s="193" t="s">
@@ -37426,8 +37445,8 @@
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
-      <c r="C195" s="283"/>
-      <c r="D195" s="283"/>
+      <c r="C195" s="264"/>
+      <c r="D195" s="264"/>
       <c r="E195" s="193" t="s">
         <v>321</v>
       </c>
@@ -37456,8 +37475,8 @@
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
-      <c r="C196" s="283"/>
-      <c r="D196" s="313" t="s">
+      <c r="C196" s="264"/>
+      <c r="D196" s="312" t="s">
         <v>126</v>
       </c>
       <c r="E196" s="193" t="s">
@@ -37488,8 +37507,8 @@
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
-      <c r="C197" s="283"/>
-      <c r="D197" s="283"/>
+      <c r="C197" s="264"/>
+      <c r="D197" s="264"/>
       <c r="E197" s="193" t="s">
         <v>413</v>
       </c>
@@ -37518,8 +37537,8 @@
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
-      <c r="C198" s="283"/>
-      <c r="D198" s="283"/>
+      <c r="C198" s="264"/>
+      <c r="D198" s="264"/>
       <c r="E198" s="193" t="s">
         <v>414</v>
       </c>
@@ -37548,8 +37567,8 @@
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
-      <c r="C199" s="283"/>
-      <c r="D199" s="313" t="s">
+      <c r="C199" s="264"/>
+      <c r="D199" s="312" t="s">
         <v>322</v>
       </c>
       <c r="E199" s="193" t="s">
@@ -37580,8 +37599,8 @@
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
-      <c r="C200" s="283"/>
-      <c r="D200" s="283"/>
+      <c r="C200" s="264"/>
+      <c r="D200" s="264"/>
       <c r="E200" s="193" t="s">
         <v>324</v>
       </c>
@@ -37610,8 +37629,8 @@
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
-      <c r="C201" s="283"/>
-      <c r="D201" s="313" t="s">
+      <c r="C201" s="264"/>
+      <c r="D201" s="312" t="s">
         <v>325</v>
       </c>
       <c r="E201" s="193" t="s">
@@ -37642,8 +37661,8 @@
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
-      <c r="C202" s="283"/>
-      <c r="D202" s="283"/>
+      <c r="C202" s="264"/>
+      <c r="D202" s="264"/>
       <c r="E202" s="193" t="s">
         <v>327</v>
       </c>
@@ -37672,8 +37691,8 @@
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
-      <c r="C203" s="283"/>
-      <c r="D203" s="283"/>
+      <c r="C203" s="264"/>
+      <c r="D203" s="264"/>
       <c r="E203" s="193" t="s">
         <v>328</v>
       </c>
@@ -37702,8 +37721,8 @@
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
-      <c r="C204" s="283"/>
-      <c r="D204" s="283"/>
+      <c r="C204" s="264"/>
+      <c r="D204" s="264"/>
       <c r="E204" s="193" t="s">
         <v>329</v>
       </c>
@@ -37732,8 +37751,8 @@
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
-      <c r="C205" s="283"/>
-      <c r="D205" s="313" t="s">
+      <c r="C205" s="264"/>
+      <c r="D205" s="312" t="s">
         <v>330</v>
       </c>
       <c r="E205" s="193" t="s">
@@ -37764,8 +37783,8 @@
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
-      <c r="C206" s="283"/>
-      <c r="D206" s="283"/>
+      <c r="C206" s="264"/>
+      <c r="D206" s="264"/>
       <c r="E206" s="193" t="s">
         <v>332</v>
       </c>
@@ -37794,8 +37813,8 @@
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
-      <c r="C207" s="283"/>
-      <c r="D207" s="283"/>
+      <c r="C207" s="264"/>
+      <c r="D207" s="264"/>
       <c r="E207" s="193" t="s">
         <v>333</v>
       </c>
@@ -37824,8 +37843,8 @@
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
-      <c r="C208" s="283"/>
-      <c r="D208" s="283"/>
+      <c r="C208" s="264"/>
+      <c r="D208" s="264"/>
       <c r="E208" s="193" t="s">
         <v>334</v>
       </c>
@@ -37854,8 +37873,8 @@
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
-      <c r="C209" s="283"/>
-      <c r="D209" s="283"/>
+      <c r="C209" s="264"/>
+      <c r="D209" s="264"/>
       <c r="E209" s="193" t="s">
         <v>335</v>
       </c>
@@ -37884,8 +37903,8 @@
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
-      <c r="C210" s="283"/>
-      <c r="D210" s="283"/>
+      <c r="C210" s="264"/>
+      <c r="D210" s="264"/>
       <c r="E210" s="193" t="s">
         <v>336</v>
       </c>
@@ -37914,8 +37933,8 @@
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
-      <c r="C211" s="283"/>
-      <c r="D211" s="313" t="s">
+      <c r="C211" s="264"/>
+      <c r="D211" s="312" t="s">
         <v>101</v>
       </c>
       <c r="E211" s="193" t="s">
@@ -37946,8 +37965,8 @@
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
-      <c r="C212" s="283"/>
-      <c r="D212" s="283"/>
+      <c r="C212" s="264"/>
+      <c r="D212" s="264"/>
       <c r="E212" s="193" t="s">
         <v>416</v>
       </c>
@@ -37976,8 +37995,8 @@
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
-      <c r="C213" s="283"/>
-      <c r="D213" s="283"/>
+      <c r="C213" s="264"/>
+      <c r="D213" s="264"/>
       <c r="E213" s="193" t="s">
         <v>417</v>
       </c>
@@ -38006,8 +38025,8 @@
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
-      <c r="C214" s="283"/>
-      <c r="D214" s="313" t="s">
+      <c r="C214" s="264"/>
+      <c r="D214" s="312" t="s">
         <v>337</v>
       </c>
       <c r="E214" s="193" t="s">
@@ -38038,8 +38057,8 @@
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
-      <c r="C215" s="283"/>
-      <c r="D215" s="283"/>
+      <c r="C215" s="264"/>
+      <c r="D215" s="264"/>
       <c r="E215" s="193" t="s">
         <v>339</v>
       </c>
@@ -38068,8 +38087,8 @@
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
-      <c r="C216" s="283"/>
-      <c r="D216" s="313" t="s">
+      <c r="C216" s="264"/>
+      <c r="D216" s="312" t="s">
         <v>340</v>
       </c>
       <c r="E216" s="193" t="s">
@@ -38100,8 +38119,8 @@
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
-      <c r="C217" s="283"/>
-      <c r="D217" s="283"/>
+      <c r="C217" s="264"/>
+      <c r="D217" s="264"/>
       <c r="E217" s="193" t="s">
         <v>342</v>
       </c>
@@ -38130,8 +38149,8 @@
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
-      <c r="C218" s="283"/>
-      <c r="D218" s="313" t="s">
+      <c r="C218" s="264"/>
+      <c r="D218" s="312" t="s">
         <v>343</v>
       </c>
       <c r="E218" s="193" t="s">
@@ -38162,8 +38181,8 @@
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
-      <c r="C219" s="283"/>
-      <c r="D219" s="283"/>
+      <c r="C219" s="264"/>
+      <c r="D219" s="264"/>
       <c r="E219" s="193" t="s">
         <v>345</v>
       </c>
@@ -38192,8 +38211,8 @@
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
-      <c r="C220" s="283"/>
-      <c r="D220" s="313" t="s">
+      <c r="C220" s="264"/>
+      <c r="D220" s="312" t="s">
         <v>346</v>
       </c>
       <c r="E220" s="193" t="s">
@@ -38224,8 +38243,8 @@
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
-      <c r="C221" s="283"/>
-      <c r="D221" s="283"/>
+      <c r="C221" s="264"/>
+      <c r="D221" s="264"/>
       <c r="E221" s="193" t="s">
         <v>348</v>
       </c>
@@ -38254,8 +38273,8 @@
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
-      <c r="C222" s="283"/>
-      <c r="D222" s="283"/>
+      <c r="C222" s="264"/>
+      <c r="D222" s="264"/>
       <c r="E222" s="193" t="s">
         <v>349</v>
       </c>
@@ -38284,8 +38303,8 @@
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
-      <c r="C223" s="283"/>
-      <c r="D223" s="283"/>
+      <c r="C223" s="264"/>
+      <c r="D223" s="264"/>
       <c r="E223" s="193" t="s">
         <v>350</v>
       </c>
@@ -38314,8 +38333,8 @@
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
-      <c r="C224" s="283"/>
-      <c r="D224" s="283"/>
+      <c r="C224" s="264"/>
+      <c r="D224" s="264"/>
       <c r="E224" s="193" t="s">
         <v>351</v>
       </c>
@@ -38344,8 +38363,8 @@
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
-      <c r="C225" s="283"/>
-      <c r="D225" s="283"/>
+      <c r="C225" s="264"/>
+      <c r="D225" s="264"/>
       <c r="E225" s="193" t="s">
         <v>352</v>
       </c>
@@ -38374,8 +38393,8 @@
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
-      <c r="C226" s="283"/>
-      <c r="D226" s="313" t="s">
+      <c r="C226" s="264"/>
+      <c r="D226" s="312" t="s">
         <v>271</v>
       </c>
       <c r="E226" s="193" t="s">
@@ -38406,8 +38425,8 @@
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="197"/>
       <c r="B227" s="197"/>
-      <c r="C227" s="312"/>
-      <c r="D227" s="312"/>
+      <c r="C227" s="311"/>
+      <c r="D227" s="311"/>
       <c r="E227" s="198" t="s">
         <v>418</v>
       </c>
@@ -38439,7 +38458,7 @@
       <c r="C228" s="314" t="s">
         <v>261</v>
       </c>
-      <c r="D228" s="313" t="s">
+      <c r="D228" s="312" t="s">
         <v>374</v>
       </c>
       <c r="E228" s="193" t="s">
@@ -38470,8 +38489,8 @@
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
-      <c r="C229" s="283"/>
-      <c r="D229" s="283"/>
+      <c r="C229" s="264"/>
+      <c r="D229" s="264"/>
       <c r="E229" s="193" t="s">
         <v>420</v>
       </c>
@@ -38500,8 +38519,8 @@
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
-      <c r="C230" s="283"/>
-      <c r="D230" s="283"/>
+      <c r="C230" s="264"/>
+      <c r="D230" s="264"/>
       <c r="E230" s="193" t="s">
         <v>421</v>
       </c>
@@ -38530,8 +38549,8 @@
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
-      <c r="C231" s="283"/>
-      <c r="D231" s="313" t="s">
+      <c r="C231" s="264"/>
+      <c r="D231" s="312" t="s">
         <v>93</v>
       </c>
       <c r="E231" s="193" t="s">
@@ -38562,8 +38581,8 @@
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
-      <c r="C232" s="283"/>
-      <c r="D232" s="283"/>
+      <c r="C232" s="264"/>
+      <c r="D232" s="264"/>
       <c r="E232" s="193" t="s">
         <v>420</v>
       </c>
@@ -38592,8 +38611,8 @@
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
-      <c r="C233" s="283"/>
-      <c r="D233" s="283"/>
+      <c r="C233" s="264"/>
+      <c r="D233" s="264"/>
       <c r="E233" s="193" t="s">
         <v>421</v>
       </c>
@@ -38622,8 +38641,8 @@
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
-      <c r="C234" s="283"/>
-      <c r="D234" s="283"/>
+      <c r="C234" s="264"/>
+      <c r="D234" s="264"/>
       <c r="E234" s="193" t="s">
         <v>87</v>
       </c>
@@ -38652,8 +38671,8 @@
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
-      <c r="C235" s="283"/>
-      <c r="D235" s="313" t="s">
+      <c r="C235" s="264"/>
+      <c r="D235" s="312" t="s">
         <v>408</v>
       </c>
       <c r="E235" s="193" t="s">
@@ -38684,8 +38703,8 @@
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
-      <c r="C236" s="283"/>
-      <c r="D236" s="283"/>
+      <c r="C236" s="264"/>
+      <c r="D236" s="264"/>
       <c r="E236" s="193" t="s">
         <v>423</v>
       </c>
@@ -38714,8 +38733,8 @@
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
-      <c r="C237" s="283"/>
-      <c r="D237" s="283"/>
+      <c r="C237" s="264"/>
+      <c r="D237" s="264"/>
       <c r="E237" s="193" t="s">
         <v>424</v>
       </c>
@@ -38744,8 +38763,8 @@
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
-      <c r="C238" s="283"/>
-      <c r="D238" s="283"/>
+      <c r="C238" s="264"/>
+      <c r="D238" s="264"/>
       <c r="E238" s="193" t="s">
         <v>425</v>
       </c>
@@ -38774,8 +38793,8 @@
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
-      <c r="C239" s="283"/>
-      <c r="D239" s="283"/>
+      <c r="C239" s="264"/>
+      <c r="D239" s="264"/>
       <c r="E239" s="193" t="s">
         <v>87</v>
       </c>
@@ -38804,8 +38823,8 @@
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
-      <c r="C240" s="283"/>
-      <c r="D240" s="313" t="s">
+      <c r="C240" s="264"/>
+      <c r="D240" s="312" t="s">
         <v>54</v>
       </c>
       <c r="E240" s="193" t="s">
@@ -38836,8 +38855,8 @@
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
-      <c r="C241" s="283"/>
-      <c r="D241" s="283"/>
+      <c r="C241" s="264"/>
+      <c r="D241" s="264"/>
       <c r="E241" s="193" t="s">
         <v>422</v>
       </c>
@@ -38866,8 +38885,8 @@
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
-      <c r="C242" s="283"/>
-      <c r="D242" s="283"/>
+      <c r="C242" s="264"/>
+      <c r="D242" s="264"/>
       <c r="E242" s="193" t="s">
         <v>419</v>
       </c>
@@ -38896,8 +38915,8 @@
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
-      <c r="C243" s="283"/>
-      <c r="D243" s="283"/>
+      <c r="C243" s="264"/>
+      <c r="D243" s="264"/>
       <c r="E243" s="193" t="s">
         <v>101</v>
       </c>
@@ -38926,8 +38945,8 @@
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
-      <c r="C244" s="283"/>
-      <c r="D244" s="283"/>
+      <c r="C244" s="264"/>
+      <c r="D244" s="264"/>
       <c r="E244" s="193" t="s">
         <v>427</v>
       </c>
@@ -38956,8 +38975,8 @@
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
-      <c r="C245" s="283"/>
-      <c r="D245" s="313" t="s">
+      <c r="C245" s="264"/>
+      <c r="D245" s="312" t="s">
         <v>101</v>
       </c>
       <c r="E245" s="193" t="s">
@@ -38988,8 +39007,8 @@
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
-      <c r="C246" s="283"/>
-      <c r="D246" s="283"/>
+      <c r="C246" s="264"/>
+      <c r="D246" s="264"/>
       <c r="E246" s="193" t="s">
         <v>429</v>
       </c>
@@ -39018,8 +39037,8 @@
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
-      <c r="C247" s="283"/>
-      <c r="D247" s="283"/>
+      <c r="C247" s="264"/>
+      <c r="D247" s="264"/>
       <c r="E247" s="193" t="s">
         <v>430</v>
       </c>
@@ -39048,8 +39067,8 @@
     <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
-      <c r="C248" s="283"/>
-      <c r="D248" s="283"/>
+      <c r="C248" s="264"/>
+      <c r="D248" s="264"/>
       <c r="E248" s="193" t="s">
         <v>431</v>
       </c>
@@ -39078,8 +39097,8 @@
     <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
-      <c r="C249" s="283"/>
-      <c r="D249" s="283"/>
+      <c r="C249" s="264"/>
+      <c r="D249" s="264"/>
       <c r="E249" s="193" t="s">
         <v>432</v>
       </c>
@@ -39108,8 +39127,8 @@
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
-      <c r="C250" s="283"/>
-      <c r="D250" s="283"/>
+      <c r="C250" s="264"/>
+      <c r="D250" s="264"/>
       <c r="E250" s="193" t="s">
         <v>433</v>
       </c>
@@ -39138,8 +39157,8 @@
     <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
-      <c r="C251" s="283"/>
-      <c r="D251" s="313" t="s">
+      <c r="C251" s="264"/>
+      <c r="D251" s="312" t="s">
         <v>434</v>
       </c>
       <c r="E251" s="193" t="s">
@@ -39170,8 +39189,8 @@
     <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
-      <c r="C252" s="283"/>
-      <c r="D252" s="283"/>
+      <c r="C252" s="264"/>
+      <c r="D252" s="264"/>
       <c r="E252" s="193" t="s">
         <v>436</v>
       </c>
@@ -39200,8 +39219,8 @@
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
-      <c r="C253" s="283"/>
-      <c r="D253" s="283"/>
+      <c r="C253" s="264"/>
+      <c r="D253" s="264"/>
       <c r="E253" s="193" t="s">
         <v>437</v>
       </c>
@@ -39230,8 +39249,8 @@
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
-      <c r="C254" s="283"/>
-      <c r="D254" s="283"/>
+      <c r="C254" s="264"/>
+      <c r="D254" s="264"/>
       <c r="E254" s="193" t="s">
         <v>438</v>
       </c>
@@ -39260,8 +39279,8 @@
     <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
-      <c r="C255" s="283"/>
-      <c r="D255" s="283"/>
+      <c r="C255" s="264"/>
+      <c r="D255" s="264"/>
       <c r="E255" s="193" t="s">
         <v>439</v>
       </c>
@@ -39290,8 +39309,8 @@
     <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
-      <c r="C256" s="283"/>
-      <c r="D256" s="313" t="s">
+      <c r="C256" s="264"/>
+      <c r="D256" s="312" t="s">
         <v>346</v>
       </c>
       <c r="E256" s="193" t="s">
@@ -39322,8 +39341,8 @@
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
-      <c r="C257" s="283"/>
-      <c r="D257" s="283"/>
+      <c r="C257" s="264"/>
+      <c r="D257" s="264"/>
       <c r="E257" s="193" t="s">
         <v>441</v>
       </c>
@@ -39352,8 +39371,8 @@
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
-      <c r="C258" s="283"/>
-      <c r="D258" s="283"/>
+      <c r="C258" s="264"/>
+      <c r="D258" s="264"/>
       <c r="E258" s="193" t="s">
         <v>442</v>
       </c>
@@ -39382,8 +39401,8 @@
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
-      <c r="C259" s="283"/>
-      <c r="D259" s="283"/>
+      <c r="C259" s="264"/>
+      <c r="D259" s="264"/>
       <c r="E259" s="193" t="s">
         <v>443</v>
       </c>
@@ -39412,8 +39431,8 @@
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
-      <c r="C260" s="283"/>
-      <c r="D260" s="313" t="s">
+      <c r="C260" s="264"/>
+      <c r="D260" s="312" t="s">
         <v>337</v>
       </c>
       <c r="E260" s="193" t="s">
@@ -39444,8 +39463,8 @@
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
-      <c r="C261" s="283"/>
-      <c r="D261" s="283"/>
+      <c r="C261" s="264"/>
+      <c r="D261" s="264"/>
       <c r="E261" s="193" t="s">
         <v>445</v>
       </c>
@@ -39474,8 +39493,8 @@
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
-      <c r="C262" s="283"/>
-      <c r="D262" s="283"/>
+      <c r="C262" s="264"/>
+      <c r="D262" s="264"/>
       <c r="E262" s="193" t="s">
         <v>446</v>
       </c>
@@ -39504,8 +39523,8 @@
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
-      <c r="C263" s="283"/>
-      <c r="D263" s="283"/>
+      <c r="C263" s="264"/>
+      <c r="D263" s="264"/>
       <c r="E263" s="193" t="s">
         <v>447</v>
       </c>
@@ -39534,8 +39553,8 @@
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
-      <c r="C264" s="283"/>
-      <c r="D264" s="313" t="s">
+      <c r="C264" s="264"/>
+      <c r="D264" s="312" t="s">
         <v>319</v>
       </c>
       <c r="E264" s="193" t="s">
@@ -39566,8 +39585,8 @@
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
-      <c r="C265" s="283"/>
-      <c r="D265" s="283"/>
+      <c r="C265" s="264"/>
+      <c r="D265" s="264"/>
       <c r="E265" s="193" t="s">
         <v>449</v>
       </c>
@@ -60175,24 +60194,40 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:C48"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="D178:D184"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="D240:D244"/>
+    <mergeCell ref="D245:D250"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="C187:C227"/>
+    <mergeCell ref="C228:C265"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D190"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D118:D124"/>
     <mergeCell ref="D125:D126"/>
     <mergeCell ref="D101:D104"/>
@@ -60209,40 +60244,24 @@
     <mergeCell ref="D161:D162"/>
     <mergeCell ref="D163:D165"/>
     <mergeCell ref="D166:D172"/>
-    <mergeCell ref="C187:C227"/>
-    <mergeCell ref="C228:C265"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D187:D190"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="D240:D244"/>
-    <mergeCell ref="D245:D250"/>
-    <mergeCell ref="D251:D255"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="D178:D184"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:C48"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D44:D48"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
